--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30048561096191</t>
+    <t xml:space="preserve">1.30048549175262</t>
   </si>
   <si>
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973959922791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29750084877014</t>
+    <t xml:space="preserve">1.29973936080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29750096797943</t>
   </si>
   <si>
     <t xml:space="preserve">1.27586364746094</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">1.26840233802795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27511727809906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26765632629395</t>
+    <t xml:space="preserve">1.27511751651764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26765620708466</t>
   </si>
   <si>
     <t xml:space="preserve">1.29003989696503</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">1.26616394519806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25944876670837</t>
+    <t xml:space="preserve">1.25944888591766</t>
   </si>
   <si>
     <t xml:space="preserve">1.25347971916199</t>
@@ -77,67 +77,67 @@
     <t xml:space="preserve">1.25273394584656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21766638755798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676501750946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31167733669281</t>
+    <t xml:space="preserve">1.21766626834869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24676489830017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31167721748352</t>
   </si>
   <si>
     <t xml:space="preserve">1.30496215820312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30123150348663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30570840835571</t>
+    <t xml:space="preserve">1.30123174190521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30570828914642</t>
   </si>
   <si>
     <t xml:space="preserve">1.3198846578598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28929376602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27884805202484</t>
+    <t xml:space="preserve">1.28929388523102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27884793281555</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317954063416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27437126636505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24601888656616</t>
+    <t xml:space="preserve">1.27437138557434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24601864814758</t>
   </si>
   <si>
     <t xml:space="preserve">1.28034031391144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25721049308777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31316959857941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3206307888031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31391561031342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32436120510101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26989459991455</t>
+    <t xml:space="preserve">1.25721061229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31316947937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32063090801239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31391549110413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3243613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26989471912384</t>
   </si>
   <si>
     <t xml:space="preserve">1.28183257579803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3295841217041</t>
+    <t xml:space="preserve">1.32958400249481</t>
   </si>
   <si>
     <t xml:space="preserve">1.32212293148041</t>
@@ -146,37 +146,37 @@
     <t xml:space="preserve">1.32809174060822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3273458480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3348069190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32286894321442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3101851940155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31764626502991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30272388458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30347001552582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29675495624542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078602790833</t>
+    <t xml:space="preserve">1.32734572887421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33480703830719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32286906242371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31018483638763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31764614582062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30272376537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30347013473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29675483703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078590869904</t>
   </si>
   <si>
     <t xml:space="preserve">1.28854763507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28780138492584</t>
+    <t xml:space="preserve">1.28780150413513</t>
   </si>
   <si>
     <t xml:space="preserve">1.30684328079224</t>
@@ -188,64 +188,64 @@
     <t xml:space="preserve">1.32364654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33433949947357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33204817771912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32975685596466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33052086830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31830012798309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670176029205</t>
+    <t xml:space="preserve">1.33433985710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3320484161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32975697517395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33052062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3183000087738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670164108276</t>
   </si>
   <si>
     <t xml:space="preserve">1.32211887836456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34044992923737</t>
+    <t xml:space="preserve">1.34044981002808</t>
   </si>
   <si>
     <t xml:space="preserve">1.33663105964661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33510339260101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3289932012558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32822918891907</t>
+    <t xml:space="preserve">1.33510327339172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32899296283722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32822930812836</t>
   </si>
   <si>
     <t xml:space="preserve">1.3213552236557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33815848827362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34426879882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34350502490997</t>
+    <t xml:space="preserve">1.33815860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34426891803741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34350514411926</t>
   </si>
   <si>
     <t xml:space="preserve">1.33892238140106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31906390190125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29538643360138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29767775535583</t>
+    <t xml:space="preserve">1.31906378269196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2953861951828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29767751693726</t>
   </si>
   <si>
     <t xml:space="preserve">1.28316557407379</t>
@@ -254,25 +254,25 @@
     <t xml:space="preserve">1.28851234912872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28011059761047</t>
+    <t xml:space="preserve">1.28011071681976</t>
   </si>
   <si>
     <t xml:space="preserve">1.25948822498322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26025199890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23733842372894</t>
+    <t xml:space="preserve">1.26025211811066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23733854293823</t>
   </si>
   <si>
     <t xml:space="preserve">1.22970044612885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2396297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22053492069244</t>
+    <t xml:space="preserve">1.23962962627411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22053503990173</t>
   </si>
   <si>
     <t xml:space="preserve">1.22206258773804</t>
@@ -284,10 +284,10 @@
     <t xml:space="preserve">1.24115741252899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27552795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2747642993927</t>
+    <t xml:space="preserve">1.27552783489227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27476406097412</t>
   </si>
   <si>
     <t xml:space="preserve">1.29385876655579</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">1.29309499263763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29233121871948</t>
+    <t xml:space="preserve">1.29233133792877</t>
   </si>
   <si>
     <t xml:space="preserve">1.28927600383759</t>
@@ -305,64 +305,64 @@
     <t xml:space="preserve">1.25872445106506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28469336032867</t>
+    <t xml:space="preserve">1.28469347953796</t>
   </si>
   <si>
     <t xml:space="preserve">1.24955892562866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27018117904663</t>
+    <t xml:space="preserve">1.27018141746521</t>
   </si>
   <si>
     <t xml:space="preserve">1.27629160881042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698468208313</t>
+    <t xml:space="preserve">1.28698480129242</t>
   </si>
   <si>
     <t xml:space="preserve">1.28622090816498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28240191936493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34121382236481</t>
+    <t xml:space="preserve">1.28240215778351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34121358394623</t>
   </si>
   <si>
     <t xml:space="preserve">1.31371736526489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36412727832794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572564601898</t>
+    <t xml:space="preserve">1.36412751674652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572576522827</t>
   </si>
   <si>
     <t xml:space="preserve">1.38093066215515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37405681610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38551342487335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36030840873718</t>
+    <t xml:space="preserve">1.37405669689178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38551354408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36030828952789</t>
   </si>
   <si>
     <t xml:space="preserve">1.37329280376434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37558424472809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35419797897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954451560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35648930072784</t>
+    <t xml:space="preserve">1.37558448314667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35419809818268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954463481903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35648965835571</t>
   </si>
   <si>
     <t xml:space="preserve">1.34503257274628</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">1.35725343227386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35496175289154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34961545467377</t>
+    <t xml:space="preserve">1.35496199131012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34961533546448</t>
   </si>
   <si>
     <t xml:space="preserve">1.34885156154633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35801708698273</t>
+    <t xml:space="preserve">1.35801720619202</t>
   </si>
   <si>
     <t xml:space="preserve">1.36259984970093</t>
@@ -395,13 +395,13 @@
     <t xml:space="preserve">1.322882771492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30226027965546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30989825725555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32059144973755</t>
+    <t xml:space="preserve">1.30226039886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32059133052826</t>
   </si>
   <si>
     <t xml:space="preserve">1.33586716651917</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">1.29844152927399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29080355167389</t>
+    <t xml:space="preserve">1.29080367088318</t>
   </si>
   <si>
     <t xml:space="preserve">1.29615008831024</t>
@@ -431,58 +431,58 @@
     <t xml:space="preserve">1.28545701503754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26254367828369</t>
+    <t xml:space="preserve">1.26254343986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.26407098770142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27170872688293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26789009571075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24192106723785</t>
+    <t xml:space="preserve">1.27170884609222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26788997650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24192118644714</t>
   </si>
   <si>
     <t xml:space="preserve">1.2335193157196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26712608337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24497616291046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2487952709198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27323663234711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26941752433777</t>
+    <t xml:space="preserve">1.26712620258331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24497628211975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24879539012909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27323651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26941764354706</t>
   </si>
   <si>
     <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33357584476471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34197759628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35114300251007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35343420505524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36718237400055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322222232819</t>
+    <t xml:space="preserve">1.33357572555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34197747707367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35114312171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35343432426453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36718261241913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3832221031189</t>
   </si>
   <si>
     <t xml:space="preserve">1.39926171302795</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">1.39162373542786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39238774776459</t>
+    <t xml:space="preserve">1.3923876285553</t>
   </si>
   <si>
     <t xml:space="preserve">1.39009630680084</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">1.3847496509552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37863922119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40460824966431</t>
+    <t xml:space="preserve">1.3786393404007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40460813045502</t>
   </si>
   <si>
     <t xml:space="preserve">1.42064785957336</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">1.41988396644592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39086008071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40842723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39620661735535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40231692790985</t>
+    <t xml:space="preserve">1.39085984230042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40842711925507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39620673656464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40231680870056</t>
   </si>
   <si>
     <t xml:space="preserve">1.40384435653687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38704097270966</t>
+    <t xml:space="preserve">1.38704109191895</t>
   </si>
   <si>
     <t xml:space="preserve">1.42293894290924</t>
@@ -551,13 +551,13 @@
     <t xml:space="preserve">1.42752182483673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43668723106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44279766082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45883738994598</t>
+    <t xml:space="preserve">1.43668735027313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44279754161835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4588371515274</t>
   </si>
   <si>
     <t xml:space="preserve">1.47411286830902</t>
@@ -566,16 +566,16 @@
     <t xml:space="preserve">1.46800267696381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4695303440094</t>
+    <t xml:space="preserve">1.46953022480011</t>
   </si>
   <si>
     <t xml:space="preserve">1.47029399871826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46418380737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45349085330963</t>
+    <t xml:space="preserve">1.46418392658234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45349073410034</t>
   </si>
   <si>
     <t xml:space="preserve">1.42904937267303</t>
@@ -587,139 +587,139 @@
     <t xml:space="preserve">1.449671626091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46265614032745</t>
+    <t xml:space="preserve">1.46265625953674</t>
   </si>
   <si>
     <t xml:space="preserve">1.55812978744507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.540562748909</t>
+    <t xml:space="preserve">1.54056262969971</t>
   </si>
   <si>
     <t xml:space="preserve">1.5466730594635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55660223960876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56882309913635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53139710426331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52223181724548</t>
+    <t xml:space="preserve">1.55660212039948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56882297992706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53139698505402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52223169803619</t>
   </si>
   <si>
     <t xml:space="preserve">1.5436178445816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56042122840881</t>
+    <t xml:space="preserve">1.56042110919952</t>
   </si>
   <si>
     <t xml:space="preserve">1.5558385848999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55278313159943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59402787685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57569682598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59937453269958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59631931781769</t>
+    <t xml:space="preserve">1.55278360843658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59402811527252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57569706439972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5993744134903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59631943702698</t>
   </si>
   <si>
     <t xml:space="preserve">1.59861063957214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59479165077209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58104383945465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56500387191772</t>
+    <t xml:space="preserve">1.59479153156281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58104336261749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56500399112701</t>
   </si>
   <si>
     <t xml:space="preserve">1.56347620487213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55049204826355</t>
+    <t xml:space="preserve">1.55049192905426</t>
   </si>
   <si>
     <t xml:space="preserve">1.53521621227264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54896450042725</t>
+    <t xml:space="preserve">1.54896438121796</t>
   </si>
   <si>
     <t xml:space="preserve">1.52757823467255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51841282844543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5497282743454</t>
+    <t xml:space="preserve">1.51841270923615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54972815513611</t>
   </si>
   <si>
     <t xml:space="preserve">1.58715391159058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60472095012665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131199359894</t>
+    <t xml:space="preserve">1.60472106933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131211280823</t>
   </si>
   <si>
     <t xml:space="preserve">1.70237565040588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70551788806915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72044396400452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70708906650543</t>
+    <t xml:space="preserve">1.70551764965057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7204442024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70708918571472</t>
   </si>
   <si>
     <t xml:space="preserve">1.73929834365845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73537051677704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73379921913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84613847732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88698947429657</t>
+    <t xml:space="preserve">1.73537039756775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73379909992218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84613871574402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88698959350586</t>
   </si>
   <si>
     <t xml:space="preserve">1.92469763755798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00011420249939</t>
+    <t xml:space="preserve">2.00011444091797</t>
   </si>
   <si>
     <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10145592689514</t>
+    <t xml:space="preserve">2.10145568847656</t>
   </si>
   <si>
     <t xml:space="preserve">2.03860855102539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06846070289612</t>
+    <t xml:space="preserve">2.06846117973328</t>
   </si>
   <si>
     <t xml:space="preserve">2.01425504684448</t>
@@ -728,10 +728,10 @@
     <t xml:space="preserve">1.91369950771332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98597419261932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98754489421844</t>
+    <t xml:space="preserve">1.98597395420074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98754501342773</t>
   </si>
   <si>
     <t xml:space="preserve">1.99540102481842</t>
@@ -740,55 +740,55 @@
     <t xml:space="preserve">2.01975417137146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00639939308167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9993292093277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96319174766541</t>
+    <t xml:space="preserve">2.00639915466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99932885169983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96319186687469</t>
   </si>
   <si>
     <t xml:space="preserve">2.01268410682678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00561356544495</t>
+    <t xml:space="preserve">2.00561380386353</t>
   </si>
   <si>
     <t xml:space="preserve">2.00954151153564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02525329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01032710075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98675966262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00325727462769</t>
+    <t xml:space="preserve">2.0252537727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01032733917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98675942420959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00325703620911</t>
   </si>
   <si>
     <t xml:space="preserve">2.00247120857239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01661205291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.028395652771</t>
+    <t xml:space="preserve">2.0166118144989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02839541435242</t>
   </si>
   <si>
     <t xml:space="preserve">1.99382960796356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97261869907379</t>
+    <t xml:space="preserve">1.97261893749237</t>
   </si>
   <si>
     <t xml:space="preserve">1.99068737030029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97968924045563</t>
+    <t xml:space="preserve">1.97968912124634</t>
   </si>
   <si>
     <t xml:space="preserve">1.97733235359192</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">1.94119536876678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84770977497101</t>
+    <t xml:space="preserve">1.8477098941803</t>
   </si>
   <si>
     <t xml:space="preserve">1.87599098682404</t>
@@ -809,22 +809,22 @@
     <t xml:space="preserve">1.84535300731659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87284874916077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88620376586914</t>
+    <t xml:space="preserve">1.87284862995148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88620388507843</t>
   </si>
   <si>
     <t xml:space="preserve">1.91055715084076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92941129207611</t>
+    <t xml:space="preserve">1.9294114112854</t>
   </si>
   <si>
     <t xml:space="preserve">1.90505790710449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88934600353241</t>
+    <t xml:space="preserve">1.8893461227417</t>
   </si>
   <si>
     <t xml:space="preserve">1.90584361553192</t>
@@ -839,49 +839,49 @@
     <t xml:space="preserve">1.93333923816681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90113019943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862582206726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705464363098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9176276922226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98047482967377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99618637561798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05981945991516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05746293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01504063606262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02053999900818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00482797622681</t>
+    <t xml:space="preserve">1.90113008022308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862570285797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705452442169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91762733459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98047471046448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99618661403656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05981922149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05746245384216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0150408744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0205397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00482821464539</t>
   </si>
   <si>
     <t xml:space="preserve">1.97026216983795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96947646141052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97811782360077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97576117515564</t>
+    <t xml:space="preserve">1.9694766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97811818122864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97576105594635</t>
   </si>
   <si>
     <t xml:space="preserve">1.9506219625473</t>
@@ -896,25 +896,25 @@
     <t xml:space="preserve">1.93805289268494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93255376815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826555252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9671196937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95376443862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95219349861145</t>
+    <t xml:space="preserve">1.93255388736725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826531410217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96711993217468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95376479625702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95219337940216</t>
   </si>
   <si>
     <t xml:space="preserve">1.94276630878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96397733688354</t>
+    <t xml:space="preserve">1.96397721767426</t>
   </si>
   <si>
     <t xml:space="preserve">1.94905126094818</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">1.95533585548401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94669425487518</t>
+    <t xml:space="preserve">1.94669437408447</t>
   </si>
   <si>
     <t xml:space="preserve">1.92548334598541</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">1.92234098911285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92784011363983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9231264591217</t>
+    <t xml:space="preserve">1.92784023284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92312657833099</t>
   </si>
   <si>
     <t xml:space="preserve">1.8972020149231</t>
@@ -944,61 +944,61 @@
     <t xml:space="preserve">1.90348672866821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90820038318634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89484560489655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89955878257751</t>
+    <t xml:space="preserve">1.90820050239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89484536647797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8995589017868</t>
   </si>
   <si>
     <t xml:space="preserve">1.89013171195984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89563071727753</t>
+    <t xml:space="preserve">1.89563095569611</t>
   </si>
   <si>
     <t xml:space="preserve">1.8932740688324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91527056694031</t>
+    <t xml:space="preserve">1.9152706861496</t>
   </si>
   <si>
     <t xml:space="preserve">1.91212832927704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90191555023193</t>
+    <t xml:space="preserve">1.90191543102264</t>
   </si>
   <si>
     <t xml:space="preserve">1.93098258972168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98126029968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02132534980774</t>
+    <t xml:space="preserve">1.98126041889191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02132558822632</t>
   </si>
   <si>
     <t xml:space="preserve">2.00090003013611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0661039352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05039215087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03153824806213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05667686462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05353474617004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04803562164307</t>
+    <t xml:space="preserve">2.06610417366028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05039238929749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03153800964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05667734146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05353450775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04803538322449</t>
   </si>
   <si>
     <t xml:space="preserve">2.19494128227234</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">2.13287925720215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11245393753052</t>
+    <t xml:space="preserve">2.11245369911194</t>
   </si>
   <si>
     <t xml:space="preserve">2.07396006584167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652973175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07238864898682</t>
+    <t xml:space="preserve">2.08652949333191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0723888874054</t>
   </si>
   <si>
     <t xml:space="preserve">2.07710242271423</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">2.06217622756958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06924676895142</t>
+    <t xml:space="preserve">2.06924605369568</t>
   </si>
   <si>
     <t xml:space="preserve">2.11323952674866</t>
@@ -1052,61 +1052,61 @@
     <t xml:space="preserve">2.17294454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16823124885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18708515167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18158602714539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20358228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19179844856262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17765831947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16037511825562</t>
+    <t xml:space="preserve">2.17687201499939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16823101043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18708539009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18158626556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2035825252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19179892539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17765808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16037487983704</t>
   </si>
   <si>
     <t xml:space="preserve">2.15016269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14937710762024</t>
+    <t xml:space="preserve">2.14937686920166</t>
   </si>
   <si>
     <t xml:space="preserve">2.14859104156494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16665959358215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17451596260071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19572687149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17608690261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22479343414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28606963157654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30963754653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27035784721375</t>
+    <t xml:space="preserve">2.16665983200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17451572418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19572710990906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17608666419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22479367256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28606939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30963730812073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27035760879517</t>
   </si>
   <si>
     <t xml:space="preserve">2.26250171661377</t>
@@ -1127,22 +1127,22 @@
     <t xml:space="preserve">2.41962003707886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43533205986023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47461175918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42747592926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38819622993469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3646285533905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3803403377533</t>
+    <t xml:space="preserve">2.43533182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47461128234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42747616767883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38819646835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36462879180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38034057617188</t>
   </si>
   <si>
     <t xml:space="preserve">2.40390849113464</t>
@@ -1157,34 +1157,34 @@
     <t xml:space="preserve">2.29392552375793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27821373939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54531455039978</t>
+    <t xml:space="preserve">2.27821350097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54531478881836</t>
   </si>
   <si>
     <t xml:space="preserve">2.49032330513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66315317153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65529751777649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73385667800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56888246536255</t>
+    <t xml:space="preserve">2.66315340995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65529727935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73385643959045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56888270378113</t>
   </si>
   <si>
     <t xml:space="preserve">2.60030603408813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57673811912537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5060350894928</t>
+    <t xml:space="preserve">2.57673835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50603485107422</t>
   </si>
   <si>
     <t xml:space="preserve">2.5374584197998</t>
@@ -1193,22 +1193,22 @@
     <t xml:space="preserve">2.58459448814392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55317068099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51389074325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59245014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56102609634399</t>
+    <t xml:space="preserve">2.55317044258118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51389098167419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59245038032532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56102633476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.52174663543701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61601758003235</t>
+    <t xml:space="preserve">2.61601781845093</t>
   </si>
   <si>
     <t xml:space="preserve">2.63958525657654</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">2.68816709518433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70436072349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69626355171204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197322845459</t>
+    <t xml:space="preserve">2.70436096191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69626379013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197346687317</t>
   </si>
   <si>
     <t xml:space="preserve">2.61529469490051</t>
@@ -1232,28 +1232,28 @@
     <t xml:space="preserve">2.62339186668396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63148880004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65577912330627</t>
+    <t xml:space="preserve">2.63148856163025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65577936172485</t>
   </si>
   <si>
     <t xml:space="preserve">2.63958549499512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59100437164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60719799995422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53432559967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42906641960144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40477609634399</t>
+    <t xml:space="preserve">2.59100413322449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60719776153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53432583808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42906665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40477585792542</t>
   </si>
   <si>
     <t xml:space="preserve">2.38048505783081</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">2.4128725528717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32380700111389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29951620101929</t>
+    <t xml:space="preserve">2.32380676269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29951596260071</t>
   </si>
   <si>
     <t xml:space="preserve">2.29141926765442</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">2.33190369606018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35619449615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26712894439697</t>
+    <t xml:space="preserve">2.35619425773621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26712870597839</t>
   </si>
   <si>
     <t xml:space="preserve">2.21045017242432</t>
@@ -1289,22 +1289,22 @@
     <t xml:space="preserve">2.28332257270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34809756278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21854710578918</t>
+    <t xml:space="preserve">2.34809732437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21854734420776</t>
   </si>
   <si>
     <t xml:space="preserve">2.19425678253174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22664451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18615984916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17806315422058</t>
+    <t xml:space="preserve">2.22664403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18615961074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.178062915802</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996598243713</t>
@@ -1313,46 +1313,46 @@
     <t xml:space="preserve">2.16186928749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12948179244995</t>
+    <t xml:space="preserve">2.12948155403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25903153419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24283814430237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27522563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39667916297913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1213846206665</t>
+    <t xml:space="preserve">2.2590320110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24283790588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27522587776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39667892456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12138485908508</t>
   </si>
   <si>
     <t xml:space="preserve">2.10519123077393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11328768730164</t>
+    <t xml:space="preserve">2.11328792572021</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0566098690033</t>
+    <t xml:space="preserve">2.05660963058472</t>
   </si>
   <si>
     <t xml:space="preserve">2.04851269721985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02422213554382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96754360198975</t>
+    <t xml:space="preserve">2.02422189712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96754384040833</t>
   </si>
   <si>
     <t xml:space="preserve">1.95944702625275</t>
@@ -1364,28 +1364,28 @@
     <t xml:space="preserve">1.95134997367859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87038123607635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91896271705627</t>
+    <t xml:space="preserve">1.87038111686707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9189624786377</t>
   </si>
   <si>
     <t xml:space="preserve">1.91086566448212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94325304031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25093483924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15377235412598</t>
+    <t xml:space="preserve">1.9432532787323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25093507766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1537721157074</t>
   </si>
   <si>
     <t xml:space="preserve">2.13757848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08899712562561</t>
+    <t xml:space="preserve">2.08899736404419</t>
   </si>
   <si>
     <t xml:space="preserve">2.06470656394958</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">2.08090043067932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00802826881409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705917358398</t>
+    <t xml:space="preserve">2.00802803039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705929279327</t>
   </si>
   <si>
     <t xml:space="preserve">1.8865749835968</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">1.82989680767059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85418736934662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90276861190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97564053535461</t>
+    <t xml:space="preserve">1.85418725013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179987430573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90276873111725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97564077377319</t>
   </si>
   <si>
     <t xml:space="preserve">1.9999315738678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30761337280273</t>
+    <t xml:space="preserve">2.30761313438416</t>
   </si>
   <si>
     <t xml:space="preserve">2.20235371589661</t>
@@ -1433,64 +1433,64 @@
     <t xml:space="preserve">2.36429142951965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34000062942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45335698127747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42096972465515</t>
+    <t xml:space="preserve">2.34000039100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45335721969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42096948623657</t>
   </si>
   <si>
     <t xml:space="preserve">2.43716335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46145391464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51003551483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48574495315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49384164810181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5019383430481</t>
+    <t xml:space="preserve">2.46145415306091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51003527641296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48574471473694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49384140968323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50193858146667</t>
   </si>
   <si>
     <t xml:space="preserve">2.51813220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5262291431427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46955108642578</t>
+    <t xml:space="preserve">2.52622890472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4695508480072</t>
   </si>
   <si>
     <t xml:space="preserve">2.44526052474976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47764778137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55861663818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5829074382782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387677192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65539216995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62994170188904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60449075698853</t>
+    <t xml:space="preserve">2.47764801979065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55861687660217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58290719985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6638765335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65539240837097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62994146347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60449051856995</t>
   </si>
   <si>
     <t xml:space="preserve">2.54510474205017</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">2.61297416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51117014884949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53662109375</t>
+    <t xml:space="preserve">2.51116991043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53662085533142</t>
   </si>
   <si>
     <t xml:space="preserve">2.52813720703125</t>
@@ -1523,22 +1523,22 @@
     <t xml:space="preserve">2.49420261383057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38391470909119</t>
+    <t xml:space="preserve">2.38391494750977</t>
   </si>
   <si>
     <t xml:space="preserve">2.37543129920959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32452869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33301281929016</t>
+    <t xml:space="preserve">2.32452893257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.333012342453</t>
   </si>
   <si>
     <t xml:space="preserve">2.3499801158905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36694717407227</t>
+    <t xml:space="preserve">2.36694765090942</t>
   </si>
   <si>
     <t xml:space="preserve">2.4602677822113</t>
@@ -1559,49 +1559,49 @@
     <t xml:space="preserve">2.62145781517029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842511177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64690899848938</t>
+    <t xml:space="preserve">2.63842535018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6469087600708</t>
   </si>
   <si>
     <t xml:space="preserve">2.69781088829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70629477500916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67236018180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477842330933</t>
+    <t xml:space="preserve">2.70629453659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67235994338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477818489075</t>
   </si>
   <si>
     <t xml:space="preserve">2.72326183319092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68084359169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68932723999023</t>
+    <t xml:space="preserve">2.68084383010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68932747840881</t>
   </si>
   <si>
     <t xml:space="preserve">2.66387629508972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51965403556824</t>
+    <t xml:space="preserve">2.51965379714966</t>
   </si>
   <si>
     <t xml:space="preserve">2.43481683731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45178413391113</t>
+    <t xml:space="preserve">2.45178389549255</t>
   </si>
   <si>
     <t xml:space="preserve">2.50268626213074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57903933525085</t>
+    <t xml:space="preserve">2.57903957366943</t>
   </si>
   <si>
     <t xml:space="preserve">2.55358839035034</t>
@@ -1622,13 +1622,13 @@
     <t xml:space="preserve">2.20575761795044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28211069107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2227246761322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1718225479126</t>
+    <t xml:space="preserve">2.28211045265198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22272491455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17182278633118</t>
   </si>
   <si>
     <t xml:space="preserve">2.19727373123169</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">2.21424102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13788819313049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97669804096222</t>
+    <t xml:space="preserve">2.13788795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97669792175293</t>
   </si>
   <si>
     <t xml:space="preserve">1.73067116737366</t>
@@ -1652,16 +1652,16 @@
     <t xml:space="preserve">1.69673645496368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5355464220047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56948125362396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57796502113342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68401110172272</t>
+    <t xml:space="preserve">1.53554654121399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56948113441467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57796490192413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68401098251343</t>
   </si>
   <si>
     <t xml:space="preserve">1.62462508678436</t>
@@ -1673,22 +1673,22 @@
     <t xml:space="preserve">1.59917414188385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56099736690521</t>
+    <t xml:space="preserve">1.5609974861145</t>
   </si>
   <si>
     <t xml:space="preserve">1.65431797504425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67128551006317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64159262180328</t>
+    <t xml:space="preserve">1.67128562927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64159250259399</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886703014374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65007638931274</t>
+    <t xml:space="preserve">1.65007615089417</t>
   </si>
   <si>
     <t xml:space="preserve">1.63735055923462</t>
@@ -1700,10 +1700,10 @@
     <t xml:space="preserve">1.76460587978363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67552721500397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69249475002289</t>
+    <t xml:space="preserve">1.67552733421326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69249486923218</t>
   </si>
   <si>
     <t xml:space="preserve">1.65855991840363</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">1.68825280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74763858318329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78157329559326</t>
+    <t xml:space="preserve">1.747638463974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78157341480255</t>
   </si>
   <si>
     <t xml:space="preserve">1.84095907211304</t>
@@ -1724,76 +1724,76 @@
     <t xml:space="preserve">1.80702424049377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79005694389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77308964729309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72218751907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82399165630341</t>
+    <t xml:space="preserve">1.79005718231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77308976650238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7221873998642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8239917755127</t>
   </si>
   <si>
     <t xml:space="preserve">1.83247542381287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84944272041321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86641001701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9003449678421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973074436188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90882849693298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88337755203247</t>
+    <t xml:space="preserve">1.84944260120392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86641013622284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90034484863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90882861614227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88337767124176</t>
   </si>
   <si>
     <t xml:space="preserve">1.89186120033264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8748939037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792624950409</t>
+    <t xml:space="preserve">1.87489402294159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792648792267</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81550788879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75612246990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67976891994476</t>
+    <t xml:space="preserve">1.81550800800323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75612211227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67976915836334</t>
   </si>
   <si>
     <t xml:space="preserve">1.71370387077332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64583420753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59493219852448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60341584682465</t>
+    <t xml:space="preserve">1.64583432674408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59493231773376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60341596603394</t>
   </si>
   <si>
     <t xml:space="preserve">1.56523942947388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55251383781433</t>
+    <t xml:space="preserve">1.55251371860504</t>
   </si>
   <si>
     <t xml:space="preserve">1.54827201366425</t>
@@ -1802,16 +1802,16 @@
     <t xml:space="preserve">1.49312818050385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48464441299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47191905975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46767711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49736988544464</t>
+    <t xml:space="preserve">1.48464453220367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47191894054413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46767687797546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49737000465393</t>
   </si>
   <si>
     <t xml:space="preserve">1.47616076469421</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">1.42525851726532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39132380485535</t>
+    <t xml:space="preserve">1.39132392406464</t>
   </si>
   <si>
     <t xml:space="preserve">1.44222593307495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41677498817444</t>
+    <t xml:space="preserve">1.41677510738373</t>
   </si>
   <si>
     <t xml:space="preserve">1.36163091659546</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">1.36587285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3955659866333</t>
+    <t xml:space="preserve">1.39556586742401</t>
   </si>
   <si>
     <t xml:space="preserve">1.38284015655518</t>
@@ -1862,22 +1862,22 @@
     <t xml:space="preserve">1.44646775722504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4507098197937</t>
+    <t xml:space="preserve">1.45070970058441</t>
   </si>
   <si>
     <t xml:space="preserve">1.43798422813416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53130447864532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58644878864288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038350105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6118997335434</t>
+    <t xml:space="preserve">1.53130459785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58644866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038338184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61189961433411</t>
   </si>
   <si>
     <t xml:space="preserve">1.55675578117371</t>
@@ -1889,25 +1889,25 @@
     <t xml:space="preserve">1.57372295856476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58220672607422</t>
+    <t xml:space="preserve">1.58220684528351</t>
   </si>
   <si>
     <t xml:space="preserve">1.60765790939331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403042793274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95124697685242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03608369827271</t>
+    <t xml:space="preserve">1.54403030872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95124685764313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03608393669128</t>
   </si>
   <si>
     <t xml:space="preserve">2.16333913803101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35846352577209</t>
+    <t xml:space="preserve">2.35846376419067</t>
   </si>
   <si>
     <t xml:space="preserve">2.34149646759033</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">2.27362680435181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23969221115112</t>
+    <t xml:space="preserve">2.23969197273254</t>
   </si>
   <si>
     <t xml:space="preserve">2.14637160301208</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">2.34213185310364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35077428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29891920089722</t>
+    <t xml:space="preserve">2.35077452659607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29891896247864</t>
   </si>
   <si>
     <t xml:space="preserve">2.32484674453735</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">2.29027652740479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27299118041992</t>
+    <t xml:space="preserve">2.2729914188385</t>
   </si>
   <si>
     <t xml:space="preserve">2.44584250450134</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">2.59276604652405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60140872001648</t>
+    <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
     <t xml:space="preserve">2.52362561225891</t>
@@ -2000,28 +2000,28 @@
     <t xml:space="preserve">2.43720006942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42855739593506</t>
+    <t xml:space="preserve">2.42855763435364</t>
   </si>
   <si>
     <t xml:space="preserve">2.40262985229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41991472244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41127228736877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45448517799377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39398741722107</t>
+    <t xml:space="preserve">2.41991496086121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41127252578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4544849395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39398717880249</t>
   </si>
   <si>
     <t xml:space="preserve">2.38534474372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37670230865479</t>
+    <t xml:space="preserve">2.37670183181763</t>
   </si>
   <si>
     <t xml:space="preserve">2.24706387519836</t>
@@ -2057,13 +2057,13 @@
     <t xml:space="preserve">2.36805939674377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35941696166992</t>
+    <t xml:space="preserve">2.35941672325134</t>
   </si>
   <si>
     <t xml:space="preserve">2.51498293876648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57548046112061</t>
+    <t xml:space="preserve">2.57548069953918</t>
   </si>
   <si>
     <t xml:space="preserve">2.61005115509033</t>
@@ -2087,28 +2087,28 @@
     <t xml:space="preserve">2.93846797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9730384349823</t>
+    <t xml:space="preserve">2.97303819656372</t>
   </si>
   <si>
     <t xml:space="preserve">2.99032306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14588928222656</t>
+    <t xml:space="preserve">3.14588952064514</t>
   </si>
   <si>
     <t xml:space="preserve">3.16317415237427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38788080215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37923789024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37059569358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44837880134583</t>
+    <t xml:space="preserve">3.38788104057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37923812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37059545516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4483790397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.2582426071167</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">3.31009769439697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35331058502197</t>
+    <t xml:space="preserve">3.35331034660339</t>
   </si>
   <si>
     <t xml:space="preserve">3.32738280296326</t>
@@ -2138,25 +2138,25 @@
     <t xml:space="preserve">3.24095749855042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27552795410156</t>
+    <t xml:space="preserve">3.27552771568298</t>
   </si>
   <si>
     <t xml:space="preserve">3.22367238998413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20638728141785</t>
+    <t xml:space="preserve">3.20638680458069</t>
   </si>
   <si>
     <t xml:space="preserve">3.24959993362427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21502995491028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19774484634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39652299880981</t>
+    <t xml:space="preserve">3.2150297164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19774436950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39652323722839</t>
   </si>
   <si>
     <t xml:space="preserve">3.23231506347656</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">3.18045926094055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18910193443298</t>
+    <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
     <t xml:space="preserve">3.29281258583069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1718168258667</t>
+    <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
     <t xml:space="preserve">3.11996150016785</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">3.10267663002014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34466814994812</t>
+    <t xml:space="preserve">3.34466791152954</t>
   </si>
   <si>
     <t xml:space="preserve">3.42245101928711</t>
@@ -58839,7 +58839,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6494212963</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>6430</v>
@@ -58860,6 +58860,32 @@
         <v>913</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6244328704</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>889</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>2.79999995231628</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>2.75500011444092</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>2.75500011444092</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>2.79999995231628</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>913</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -44,91 +44,91 @@
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973948001862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29750108718872</t>
+    <t xml:space="preserve">1.29973959922791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29750096797943</t>
   </si>
   <si>
     <t xml:space="preserve">1.27586364746094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26840245723724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27511763572693</t>
+    <t xml:space="preserve">1.26840233802795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27511739730835</t>
   </si>
   <si>
     <t xml:space="preserve">1.26765620708466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29003977775574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26616370677948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944888591766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25347995758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25273382663727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21766626834869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676489830017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31167733669281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30496227741241</t>
+    <t xml:space="preserve">1.29003989696503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26616382598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25944900512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25347983837128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25273394584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21766638755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24676477909088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31167757511139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30496203899384</t>
   </si>
   <si>
     <t xml:space="preserve">1.3012318611145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30570828914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31988477706909</t>
+    <t xml:space="preserve">1.30570840835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3198846578598</t>
   </si>
   <si>
     <t xml:space="preserve">1.28929376602173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27884781360626</t>
+    <t xml:space="preserve">1.27884805202484</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317954063416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27437138557434</t>
+    <t xml:space="preserve">1.27437126636505</t>
   </si>
   <si>
     <t xml:space="preserve">1.24601876735687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28034031391144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25721073150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31316947937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3206307888031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31391549110413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32436120510101</t>
+    <t xml:space="preserve">1.28034043312073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25721061229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31316959857941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32063066959381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31391572952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3243613243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.26989459991455</t>
@@ -137,73 +137,73 @@
     <t xml:space="preserve">1.28183245658875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32958400249481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32212281227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3280918598175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32734572887421</t>
+    <t xml:space="preserve">1.3295841217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32212269306183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32809162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32734596729279</t>
   </si>
   <si>
     <t xml:space="preserve">1.3348069190979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32286894321442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31018507480621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31764626502991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30272376537323</t>
+    <t xml:space="preserve">1.32286906242371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31018531322479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31764614582062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30272388458252</t>
   </si>
   <si>
     <t xml:space="preserve">1.30346989631653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29675471782684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078590869904</t>
+    <t xml:space="preserve">1.29675495624542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078602790833</t>
   </si>
   <si>
     <t xml:space="preserve">1.28854763507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28780138492584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30684328079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31677234172821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32364642620087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33433961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3320484161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32975685596466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3305207490921</t>
+    <t xml:space="preserve">1.28780150413513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30684316158295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3167724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33433949947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33204829692841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32975697517395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33052086830139</t>
   </si>
   <si>
     <t xml:space="preserve">1.31830012798309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32670199871063</t>
+    <t xml:space="preserve">1.32670176029205</t>
   </si>
   <si>
     <t xml:space="preserve">1.32211887836456</t>
@@ -218,22 +218,22 @@
     <t xml:space="preserve">1.33510327339172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899308204651</t>
+    <t xml:space="preserve">1.3289932012558</t>
   </si>
   <si>
     <t xml:space="preserve">1.32822930812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32135510444641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33815848827362</t>
+    <t xml:space="preserve">1.3213552236557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33815860748291</t>
   </si>
   <si>
     <t xml:space="preserve">1.34426891803741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34350514411926</t>
+    <t xml:space="preserve">1.34350502490997</t>
   </si>
   <si>
     <t xml:space="preserve">1.33892238140106</t>
@@ -242,25 +242,25 @@
     <t xml:space="preserve">1.31906378269196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2953861951828</t>
+    <t xml:space="preserve">1.29538631439209</t>
   </si>
   <si>
     <t xml:space="preserve">1.29767775535583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2831654548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2885125875473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011059761047</t>
+    <t xml:space="preserve">1.28316569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851246833801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011047840118</t>
   </si>
   <si>
     <t xml:space="preserve">1.25948810577393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26025211811066</t>
+    <t xml:space="preserve">1.26025199890137</t>
   </si>
   <si>
     <t xml:space="preserve">1.23733842372894</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">1.23962962627411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22053492069244</t>
+    <t xml:space="preserve">1.22053503990173</t>
   </si>
   <si>
     <t xml:space="preserve">1.22206270694733</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">1.2411572933197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27552783489227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27476406097412</t>
+    <t xml:space="preserve">1.27552795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27476418018341</t>
   </si>
   <si>
     <t xml:space="preserve">1.29385876655579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29309487342834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29233109951019</t>
+    <t xml:space="preserve">1.29309499263763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2923309803009</t>
   </si>
   <si>
     <t xml:space="preserve">1.28927612304688</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">1.28469324111938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24955892562866</t>
+    <t xml:space="preserve">1.24955904483795</t>
   </si>
   <si>
     <t xml:space="preserve">1.27018117904663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27629160881042</t>
+    <t xml:space="preserve">1.27629148960114</t>
   </si>
   <si>
     <t xml:space="preserve">1.28698492050171</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">1.34121382236481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31371712684631</t>
+    <t xml:space="preserve">1.31371736526489</t>
   </si>
   <si>
     <t xml:space="preserve">1.36412727832794</t>
@@ -344,10 +344,10 @@
     <t xml:space="preserve">1.3740565776825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38551330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36030828952789</t>
+    <t xml:space="preserve">1.38551342487335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36030840873718</t>
   </si>
   <si>
     <t xml:space="preserve">1.37329280376434</t>
@@ -356,13 +356,13 @@
     <t xml:space="preserve">1.37558424472809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35419797897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954463481903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35648941993713</t>
+    <t xml:space="preserve">1.35419809818268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954451560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35648930072784</t>
   </si>
   <si>
     <t xml:space="preserve">1.34503269195557</t>
@@ -371,82 +371,82 @@
     <t xml:space="preserve">1.3519070148468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35725319385529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35496187210083</t>
+    <t xml:space="preserve">1.35725331306458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35496163368225</t>
   </si>
   <si>
     <t xml:space="preserve">1.34961545467377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34885168075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35801720619202</t>
+    <t xml:space="preserve">1.34885156154633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35801708698273</t>
   </si>
   <si>
     <t xml:space="preserve">1.36259984970093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32441031932831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288265228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30226039886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30989849567413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32059156894684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33586716651917</t>
+    <t xml:space="preserve">1.3244104385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.322882771492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30226051807404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32059144973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33586704730988</t>
   </si>
   <si>
     <t xml:space="preserve">1.31295335292816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30455195903778</t>
+    <t xml:space="preserve">1.30455183982849</t>
   </si>
   <si>
     <t xml:space="preserve">1.29462254047394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30073285102844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29844152927399</t>
+    <t xml:space="preserve">1.30073297023773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2984414100647</t>
   </si>
   <si>
     <t xml:space="preserve">1.29080355167389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29615020751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28545713424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2625435590744</t>
+    <t xml:space="preserve">1.29615008831024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28545725345612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26254343986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.26407098770142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27170896530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26788997650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24192106723785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23351955413818</t>
+    <t xml:space="preserve">1.27170884609222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26789009571075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24192118644714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2335193157196</t>
   </si>
   <si>
     <t xml:space="preserve">1.2671263217926</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">1.24497616291046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24879539012909</t>
+    <t xml:space="preserve">1.24879515171051</t>
   </si>
   <si>
     <t xml:space="preserve">1.27323651313782</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">1.26941764354706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448101997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33357560634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34197759628296</t>
+    <t xml:space="preserve">1.31448090076447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33357572555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34197747707367</t>
   </si>
   <si>
     <t xml:space="preserve">1.35114312171936</t>
@@ -479,31 +479,31 @@
     <t xml:space="preserve">1.35343408584595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36718261241913</t>
+    <t xml:space="preserve">1.36718249320984</t>
   </si>
   <si>
     <t xml:space="preserve">1.38322234153748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39926183223724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162373542786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3923876285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39009642601013</t>
+    <t xml:space="preserve">1.39926159381866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162385463715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39238774776459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39009630680084</t>
   </si>
   <si>
     <t xml:space="preserve">1.39697027206421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39773404598236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40537190437317</t>
+    <t xml:space="preserve">1.39773392677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40537202358246</t>
   </si>
   <si>
     <t xml:space="preserve">1.40078926086426</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">1.39849781990051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38474953174591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37863922119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40460824966431</t>
+    <t xml:space="preserve">1.3847496509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3786393404007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40460813045502</t>
   </si>
   <si>
     <t xml:space="preserve">1.42064785957336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41988408565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39086019992828</t>
+    <t xml:space="preserve">1.41988396644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39086008071899</t>
   </si>
   <si>
     <t xml:space="preserve">1.40842723846436</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">1.39620649814606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40231668949127</t>
+    <t xml:space="preserve">1.40231680870056</t>
   </si>
   <si>
     <t xml:space="preserve">1.40384447574615</t>
@@ -554,28 +554,28 @@
     <t xml:space="preserve">1.43668723106384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44279766082764</t>
+    <t xml:space="preserve">1.44279754161835</t>
   </si>
   <si>
     <t xml:space="preserve">1.4588371515274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47411298751831</t>
+    <t xml:space="preserve">1.47411286830902</t>
   </si>
   <si>
     <t xml:space="preserve">1.46800267696381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46953046321869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47029423713684</t>
+    <t xml:space="preserve">1.4695303440094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47029411792755</t>
   </si>
   <si>
     <t xml:space="preserve">1.46418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45349085330963</t>
+    <t xml:space="preserve">1.45349073410034</t>
   </si>
   <si>
     <t xml:space="preserve">1.42904949188232</t>
@@ -587,19 +587,19 @@
     <t xml:space="preserve">1.44967174530029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46265637874603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812978744507</t>
+    <t xml:space="preserve">1.46265614032745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812966823578</t>
   </si>
   <si>
     <t xml:space="preserve">1.540562748909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54667294025421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55660223960876</t>
+    <t xml:space="preserve">1.5466730594635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55660212039948</t>
   </si>
   <si>
     <t xml:space="preserve">1.56882297992706</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">1.5313972234726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52223169803619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361760616302</t>
+    <t xml:space="preserve">1.52223181724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54361772537231</t>
   </si>
   <si>
     <t xml:space="preserve">1.56042122840881</t>
@@ -620,61 +620,61 @@
     <t xml:space="preserve">1.55583846569061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55278337001801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59402775764465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57569682598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5993744134903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59631931781769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59861063957214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59479165077209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58104348182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56500387191772</t>
+    <t xml:space="preserve">1.55278325080872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59402799606323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57569694519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59937453269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5963191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59861052036285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59479153156281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58104360103607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56500399112701</t>
   </si>
   <si>
     <t xml:space="preserve">1.56347632408142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55049192905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53521597385406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54896461963654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52757835388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51841282844543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5497282743454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58715391159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60472071170807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131235122681</t>
+    <t xml:space="preserve">1.55049204826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53521609306335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54896450042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52757847309113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51841270923615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54972839355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58715403079987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60472083091736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131223201752</t>
   </si>
   <si>
     <t xml:space="preserve">1.70237553119659</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">1.73929846286774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73537051677704</t>
+    <t xml:space="preserve">1.73537027835846</t>
   </si>
   <si>
     <t xml:space="preserve">1.73379921913147</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">1.88698923587799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92469811439514</t>
+    <t xml:space="preserve">1.92469787597656</t>
   </si>
   <si>
     <t xml:space="preserve">2.00011444091797</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10145592689514</t>
+    <t xml:space="preserve">2.10145568847656</t>
   </si>
   <si>
     <t xml:space="preserve">2.03860855102539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06846117973328</t>
+    <t xml:space="preserve">2.0684609413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.01425504684448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91369950771332</t>
+    <t xml:space="preserve">1.9136997461319</t>
   </si>
   <si>
     <t xml:space="preserve">1.98597395420074</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">1.98754489421844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99540102481842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01975440979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00639963150024</t>
+    <t xml:space="preserve">1.99540078639984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01975417137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00639939308167</t>
   </si>
   <si>
     <t xml:space="preserve">1.99932897090912</t>
@@ -752,25 +752,25 @@
     <t xml:space="preserve">2.0126838684082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00561356544495</t>
+    <t xml:space="preserve">2.00561380386353</t>
   </si>
   <si>
     <t xml:space="preserve">2.00954127311707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02525353431702</t>
+    <t xml:space="preserve">2.02525329589844</t>
   </si>
   <si>
     <t xml:space="preserve">2.01032710075378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98675942420959</t>
+    <t xml:space="preserve">1.98675966262817</t>
   </si>
   <si>
     <t xml:space="preserve">2.00325703620911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00247144699097</t>
+    <t xml:space="preserve">2.00247120857239</t>
   </si>
   <si>
     <t xml:space="preserve">2.0166118144989</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">1.94119513034821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84770977497101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87599098682404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8453528881073</t>
+    <t xml:space="preserve">1.84771001338959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87599086761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84535312652588</t>
   </si>
   <si>
     <t xml:space="preserve">1.87284886837006</t>
@@ -821,25 +821,25 @@
     <t xml:space="preserve">1.92941129207611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90505790710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88934624195099</t>
+    <t xml:space="preserve">1.90505814552307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8893461227417</t>
   </si>
   <si>
     <t xml:space="preserve">1.90584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91605627536774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91919875144958</t>
+    <t xml:space="preserve">1.91605603694916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91919851303101</t>
   </si>
   <si>
     <t xml:space="preserve">1.93333923816681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90113019943237</t>
+    <t xml:space="preserve">1.90112996101379</t>
   </si>
   <si>
     <t xml:space="preserve">1.92862558364868</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">1.9270544052124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9176276922226</t>
+    <t xml:space="preserve">1.91762745380402</t>
   </si>
   <si>
     <t xml:space="preserve">1.98047482967377</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">2.05981922149658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05746269226074</t>
+    <t xml:space="preserve">2.05746293067932</t>
   </si>
   <si>
     <t xml:space="preserve">2.01504063606262</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">1.96947646141052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97811806201935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97576093673706</t>
+    <t xml:space="preserve">1.97811782360077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97576117515564</t>
   </si>
   <si>
     <t xml:space="preserve">1.95062220096588</t>
@@ -911,16 +911,16 @@
     <t xml:space="preserve">1.95219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9427661895752</t>
+    <t xml:space="preserve">1.94276630878448</t>
   </si>
   <si>
     <t xml:space="preserve">1.96397733688354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9490510225296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95533585548401</t>
+    <t xml:space="preserve">1.94905078411102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95533573627472</t>
   </si>
   <si>
     <t xml:space="preserve">1.94669449329376</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">1.92234098911285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92784011363983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92312669754028</t>
+    <t xml:space="preserve">1.92784035205841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9231264591217</t>
   </si>
   <si>
     <t xml:space="preserve">1.8972020149231</t>
@@ -956,28 +956,28 @@
     <t xml:space="preserve">1.89013171195984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89563071727753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89327430725098</t>
+    <t xml:space="preserve">1.89563095569611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89327418804169</t>
   </si>
   <si>
     <t xml:space="preserve">1.91527056694031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91212832927704</t>
+    <t xml:space="preserve">1.91212809085846</t>
   </si>
   <si>
     <t xml:space="preserve">1.90191578865051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93098258972168</t>
+    <t xml:space="preserve">1.9309823513031</t>
   </si>
   <si>
     <t xml:space="preserve">1.98126029968262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02132534980774</t>
+    <t xml:space="preserve">2.02132511138916</t>
   </si>
   <si>
     <t xml:space="preserve">2.00090026855469</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">2.13287949562073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11245393753052</t>
+    <t xml:space="preserve">2.11245369911194</t>
   </si>
   <si>
     <t xml:space="preserve">2.0739598274231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652973175049</t>
+    <t xml:space="preserve">2.08652949333191</t>
   </si>
   <si>
     <t xml:space="preserve">2.07238864898682</t>
@@ -1022,16 +1022,16 @@
     <t xml:space="preserve">2.07710242271423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05196332931519</t>
+    <t xml:space="preserve">2.05196356773376</t>
   </si>
   <si>
     <t xml:space="preserve">2.08574390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05117797851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06217622756958</t>
+    <t xml:space="preserve">2.05117774009705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.062175989151</t>
   </si>
   <si>
     <t xml:space="preserve">2.06924653053284</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.11323952674866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15251922607422</t>
+    <t xml:space="preserve">2.15251898765564</t>
   </si>
   <si>
     <t xml:space="preserve">2.16587424278259</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">2.17294454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17687225341797</t>
+    <t xml:space="preserve">2.17687249183655</t>
   </si>
   <si>
     <t xml:space="preserve">2.16823124885559</t>
@@ -1064,16 +1064,16 @@
     <t xml:space="preserve">2.18158626556396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2035825252533</t>
+    <t xml:space="preserve">2.20358228683472</t>
   </si>
   <si>
     <t xml:space="preserve">2.1917986869812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17765831947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16037511825562</t>
+    <t xml:space="preserve">2.17765808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16037487983704</t>
   </si>
   <si>
     <t xml:space="preserve">2.15016269683838</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">2.16665983200073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17451572418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19572639465332</t>
+    <t xml:space="preserve">2.17451548576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1957266330719</t>
   </si>
   <si>
     <t xml:space="preserve">2.17608690261841</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">2.28606963157654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30963754653931</t>
+    <t xml:space="preserve">2.30963730812073</t>
   </si>
   <si>
     <t xml:space="preserve">2.27035784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26250171661377</t>
+    <t xml:space="preserve">2.26250147819519</t>
   </si>
   <si>
     <t xml:space="preserve">2.30178141593933</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">2.41176438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46675562858582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41962027549744</t>
+    <t xml:space="preserve">2.46675539016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41962003707886</t>
   </si>
   <si>
     <t xml:space="preserve">2.43533205986023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47461128234863</t>
+    <t xml:space="preserve">2.47461152076721</t>
   </si>
   <si>
     <t xml:space="preserve">2.42747592926025</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">2.3646285533905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38034057617188</t>
+    <t xml:space="preserve">2.3803403377533</t>
   </si>
   <si>
     <t xml:space="preserve">2.40390825271606</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">2.54531455039978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49032330513</t>
+    <t xml:space="preserve">2.49032354354858</t>
   </si>
   <si>
     <t xml:space="preserve">2.66315317153931</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">2.65529751777649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73385620117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56888246536255</t>
+    <t xml:space="preserve">2.73385667800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56888222694397</t>
   </si>
   <si>
     <t xml:space="preserve">2.60030603408813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57673811912537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5060350894928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53745889663696</t>
+    <t xml:space="preserve">2.57673835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50603485107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5374584197998</t>
   </si>
   <si>
     <t xml:space="preserve">2.58459448814392</t>
@@ -1211,46 +1211,46 @@
     <t xml:space="preserve">2.61601781845093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63958525657654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68816685676575</t>
+    <t xml:space="preserve">2.63958549499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68816709518433</t>
   </si>
   <si>
     <t xml:space="preserve">2.70436072349548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69626355171204</t>
+    <t xml:space="preserve">2.69626379013062</t>
   </si>
   <si>
     <t xml:space="preserve">2.67197322845459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61529493331909</t>
+    <t xml:space="preserve">2.61529469490051</t>
   </si>
   <si>
     <t xml:space="preserve">2.62339186668396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63148856163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65577936172485</t>
+    <t xml:space="preserve">2.63148880004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65577912330627</t>
   </si>
   <si>
     <t xml:space="preserve">2.59100413322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6071982383728</t>
+    <t xml:space="preserve">2.60719799995422</t>
   </si>
   <si>
     <t xml:space="preserve">2.53432583808899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42906618118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40477561950684</t>
+    <t xml:space="preserve">2.42906641960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40477585792542</t>
   </si>
   <si>
     <t xml:space="preserve">2.38048505783081</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">2.4128725528717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32380723953247</t>
+    <t xml:space="preserve">2.32380700111389</t>
   </si>
   <si>
     <t xml:space="preserve">2.29951643943787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29141926765442</t>
+    <t xml:space="preserve">2.29141902923584</t>
   </si>
   <si>
     <t xml:space="preserve">2.31571006774902</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">2.33190369606018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35619425773621</t>
+    <t xml:space="preserve">2.35619449615479</t>
   </si>
   <si>
     <t xml:space="preserve">2.26712870597839</t>
@@ -1286,34 +1286,34 @@
     <t xml:space="preserve">2.28332233428955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3480978012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21854734420776</t>
+    <t xml:space="preserve">2.34809756278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21854710578918</t>
   </si>
   <si>
     <t xml:space="preserve">2.19425678253174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22664427757263</t>
+    <t xml:space="preserve">2.22664451599121</t>
   </si>
   <si>
     <t xml:space="preserve">2.18615961074829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.178062915802</t>
+    <t xml:space="preserve">2.17806315422058</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996598243713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16186904907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12948155403137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23474097251892</t>
+    <t xml:space="preserve">2.16186928749084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12948179244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
     <t xml:space="preserve">2.25903153419495</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">2.39667916297913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12138485908508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10519099235535</t>
+    <t xml:space="preserve">2.1213846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10519123077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.11328792572021</t>
@@ -1340,31 +1340,31 @@
     <t xml:space="preserve">2.09709405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05660963058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04851269721985</t>
+    <t xml:space="preserve">2.0566098690033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04851245880127</t>
   </si>
   <si>
     <t xml:space="preserve">2.02422213554382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754360198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95944702625275</t>
+    <t xml:space="preserve">1.96754384040833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95944726467133</t>
   </si>
   <si>
     <t xml:space="preserve">1.93515622615814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95135021209717</t>
+    <t xml:space="preserve">1.95134997367859</t>
   </si>
   <si>
     <t xml:space="preserve">1.87038111686707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9189624786377</t>
+    <t xml:space="preserve">1.91896271705627</t>
   </si>
   <si>
     <t xml:space="preserve">1.91086566448212</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">2.13757848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08899712562561</t>
+    <t xml:space="preserve">2.08899688720703</t>
   </si>
   <si>
     <t xml:space="preserve">2.06470656394958</t>
@@ -1406,25 +1406,25 @@
     <t xml:space="preserve">1.85418736934662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82179999351501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90276896953583</t>
+    <t xml:space="preserve">1.82179975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90276873111725</t>
   </si>
   <si>
     <t xml:space="preserve">1.97564053535461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9999315738678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30761289596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20235395431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14567542076111</t>
+    <t xml:space="preserve">1.99993133544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30761313438416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20235371589661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14567518234253</t>
   </si>
   <si>
     <t xml:space="preserve">2.36429142951965</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45335721969604</t>
+    <t xml:space="preserve">2.45335698127747</t>
   </si>
   <si>
     <t xml:space="preserve">2.42096972465515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43716335296631</t>
+    <t xml:space="preserve">2.43716359138489</t>
   </si>
   <si>
     <t xml:space="preserve">2.46145391464233</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">2.51003551483154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48574471473694</t>
+    <t xml:space="preserve">2.48574495315552</t>
   </si>
   <si>
     <t xml:space="preserve">2.49384164810181</t>
@@ -1457,25 +1457,25 @@
     <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51813244819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52622890472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46955108642578</t>
+    <t xml:space="preserve">2.51813220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5262291431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4695508480072</t>
   </si>
   <si>
     <t xml:space="preserve">2.44526028633118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47764754295349</t>
+    <t xml:space="preserve">2.47764778137207</t>
   </si>
   <si>
     <t xml:space="preserve">2.55861687660217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58290719985962</t>
+    <t xml:space="preserve">2.5829074382782</t>
   </si>
   <si>
     <t xml:space="preserve">2.6638765335083</t>
@@ -1487,19 +1487,19 @@
     <t xml:space="preserve">2.62994170188904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60449051856995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54510450363159</t>
+    <t xml:space="preserve">2.60449075698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54510474205017</t>
   </si>
   <si>
     <t xml:space="preserve">2.56207203865051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5875232219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5960066318512</t>
+    <t xml:space="preserve">2.58752298355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59600687026978</t>
   </si>
   <si>
     <t xml:space="preserve">2.61297416687012</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">2.52813720703125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46875143051147</t>
+    <t xml:space="preserve">2.46875166893005</t>
   </si>
   <si>
     <t xml:space="preserve">2.49420261383057</t>
@@ -1526,10 +1526,10 @@
     <t xml:space="preserve">2.37543106079102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32452893257141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33301258087158</t>
+    <t xml:space="preserve">2.32452869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33301281929016</t>
   </si>
   <si>
     <t xml:space="preserve">2.3499801158905</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">2.36694717407227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46026802062988</t>
+    <t xml:space="preserve">2.4602677822113</t>
   </si>
   <si>
     <t xml:space="preserve">2.42633318901062</t>
@@ -1550,22 +1550,22 @@
     <t xml:space="preserve">2.47723531723022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57055592536926</t>
+    <t xml:space="preserve">2.57055568695068</t>
   </si>
   <si>
     <t xml:space="preserve">2.62145781517029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842535018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6469087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69781088829041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70629453659058</t>
+    <t xml:space="preserve">2.63842511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64690899848938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69781112670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70629477500916</t>
   </si>
   <si>
     <t xml:space="preserve">2.67235994338989</t>
@@ -1580,16 +1580,16 @@
     <t xml:space="preserve">2.68084383010864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68932747840881</t>
+    <t xml:space="preserve">2.68932723999023</t>
   </si>
   <si>
     <t xml:space="preserve">2.66387605667114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51965355873108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43481707572937</t>
+    <t xml:space="preserve">2.51965379714966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43481683731079</t>
   </si>
   <si>
     <t xml:space="preserve">2.45178413391113</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">2.57903933525085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55358839035034</t>
+    <t xml:space="preserve">2.55358862876892</t>
   </si>
   <si>
     <t xml:space="preserve">2.4857189655304</t>
@@ -1613,19 +1613,19 @@
     <t xml:space="preserve">2.40936589241028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40088200569153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20575737953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28211045265198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22272491455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17182278633118</t>
+    <t xml:space="preserve">2.40088176727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20575761795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28211069107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2227246761322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1718225479126</t>
   </si>
   <si>
     <t xml:space="preserve">2.19727373123169</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">1.73915493488312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69673645496368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53554666042328</t>
+    <t xml:space="preserve">1.69673657417297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5355464220047</t>
   </si>
   <si>
     <t xml:space="preserve">1.56948113441467</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">1.61614143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59917426109314</t>
+    <t xml:space="preserve">1.59917414188385</t>
   </si>
   <si>
     <t xml:space="preserve">1.5609974861145</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">1.65431809425354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67128539085388</t>
+    <t xml:space="preserve">1.67128551006317</t>
   </si>
   <si>
     <t xml:space="preserve">1.64159250259399</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">1.65007638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63735067844391</t>
+    <t xml:space="preserve">1.63735055923462</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">1.76460587978363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67552733421326</t>
+    <t xml:space="preserve">1.67552721500397</t>
   </si>
   <si>
     <t xml:space="preserve">1.69249475002289</t>
@@ -1718,16 +1718,16 @@
     <t xml:space="preserve">1.84095919132233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80702447891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79005706310272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7730895280838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7221873998642</t>
+    <t xml:space="preserve">1.80702424049377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79005694389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77308976650238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72218763828278</t>
   </si>
   <si>
     <t xml:space="preserve">1.82399165630341</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">1.95973062515259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90882873535156</t>
+    <t xml:space="preserve">1.90882849693298</t>
   </si>
   <si>
     <t xml:space="preserve">1.88337755203247</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">1.89186108112335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87489378452301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792660713196</t>
+    <t xml:space="preserve">1.8748939037323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792636871338</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854071140289</t>
@@ -1772,13 +1772,13 @@
     <t xml:space="preserve">1.75612235069275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67976903915405</t>
+    <t xml:space="preserve">1.67976891994476</t>
   </si>
   <si>
     <t xml:space="preserve">1.71370387077332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64583432674408</t>
+    <t xml:space="preserve">1.64583420753479</t>
   </si>
   <si>
     <t xml:space="preserve">1.59493219852448</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">1.54827213287354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312818050385</t>
+    <t xml:space="preserve">1.49312806129456</t>
   </si>
   <si>
     <t xml:space="preserve">1.48464441299438</t>
@@ -1808,16 +1808,16 @@
     <t xml:space="preserve">1.46767699718475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49737000465393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47616064548492</t>
+    <t xml:space="preserve">1.49736988544464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4761608839035</t>
   </si>
   <si>
     <t xml:space="preserve">1.42525851726532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39132392406464</t>
+    <t xml:space="preserve">1.39132380485535</t>
   </si>
   <si>
     <t xml:space="preserve">1.44222605228424</t>
@@ -1829,25 +1829,25 @@
     <t xml:space="preserve">1.36163091659546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3489054441452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36587297916412</t>
+    <t xml:space="preserve">1.34890556335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36587285995483</t>
   </si>
   <si>
     <t xml:space="preserve">1.39556586742401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38284003734589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40829122066498</t>
+    <t xml:space="preserve">1.38284015655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40829133987427</t>
   </si>
   <si>
     <t xml:space="preserve">1.43374228477478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41253304481506</t>
+    <t xml:space="preserve">1.41253316402435</t>
   </si>
   <si>
     <t xml:space="preserve">1.45919334888458</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">1.46343517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44646787643433</t>
+    <t xml:space="preserve">1.44646775722504</t>
   </si>
   <si>
     <t xml:space="preserve">1.4507098197937</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">1.58644878864288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62038326263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61189961433411</t>
+    <t xml:space="preserve">1.62038350105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6118997335434</t>
   </si>
   <si>
     <t xml:space="preserve">1.55675578117371</t>
@@ -1883,16 +1883,16 @@
     <t xml:space="preserve">1.59069037437439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57372307777405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58220660686493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60765790939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403018951416</t>
+    <t xml:space="preserve">1.57372295856476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58220684528351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60765779018402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403042793274</t>
   </si>
   <si>
     <t xml:space="preserve">1.95124697685242</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">2.35846376419067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34149622917175</t>
+    <t xml:space="preserve">2.34149646759033</t>
   </si>
   <si>
     <t xml:space="preserve">2.27362680435181</t>
@@ -1916,19 +1916,19 @@
     <t xml:space="preserve">2.23969221115112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14637160301208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23120832443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30756187438965</t>
+    <t xml:space="preserve">2.14637136459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23120856285095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30756163597107</t>
   </si>
   <si>
     <t xml:space="preserve">2.31620407104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33348941802979</t>
+    <t xml:space="preserve">2.33348917961121</t>
   </si>
   <si>
     <t xml:space="preserve">2.34213185310364</t>
@@ -1940,22 +1940,22 @@
     <t xml:space="preserve">2.29891920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32484674453735</t>
+    <t xml:space="preserve">2.32484698295593</t>
   </si>
   <si>
     <t xml:space="preserve">2.29027652740479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2729914188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44584250450134</t>
+    <t xml:space="preserve">2.27299118041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44584226608276</t>
   </si>
   <si>
     <t xml:space="preserve">2.46312761306763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47177004814148</t>
+    <t xml:space="preserve">2.47177028656006</t>
   </si>
   <si>
     <t xml:space="preserve">2.48905515670776</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">2.50634026527405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55819582939148</t>
+    <t xml:space="preserve">2.5581955909729</t>
   </si>
   <si>
     <t xml:space="preserve">2.58412337303162</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52362537384033</t>
+    <t xml:space="preserve">2.52362561225891</t>
   </si>
   <si>
     <t xml:space="preserve">2.4976978302002</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">2.48041272163391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54955315589905</t>
+    <t xml:space="preserve">2.54955339431763</t>
   </si>
   <si>
     <t xml:space="preserve">2.54091048240662</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">2.42855739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40262961387634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41991496086121</t>
+    <t xml:space="preserve">2.40262985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41991472244263</t>
   </si>
   <si>
     <t xml:space="preserve">2.41127228736877</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">2.39398717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38534474372864</t>
+    <t xml:space="preserve">2.38534450531006</t>
   </si>
   <si>
     <t xml:space="preserve">2.37670207023621</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">2.19520854949951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16063833236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26434874534607</t>
+    <t xml:space="preserve">2.16063809394836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26434898376465</t>
   </si>
   <si>
     <t xml:space="preserve">2.23842120170593</t>
@@ -2063,19 +2063,19 @@
     <t xml:space="preserve">2.57548069953918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61005091667175</t>
+    <t xml:space="preserve">2.61005115509033</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597869873047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61869359016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73968958854675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83475756645203</t>
+    <t xml:space="preserve">2.61869335174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73968935012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83475732803345</t>
   </si>
   <si>
     <t xml:space="preserve">2.81747198104858</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">2.99032306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14588952064514</t>
+    <t xml:space="preserve">3.14588928222656</t>
   </si>
   <si>
     <t xml:space="preserve">3.16317415237427</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">3.35331058502197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32738280296326</t>
+    <t xml:space="preserve">3.32738304138184</t>
   </si>
   <si>
     <t xml:space="preserve">3.28417015075684</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">3.22367215156555</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20638704299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24959993362427</t>
+    <t xml:space="preserve">3.20638728141785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24959969520569</t>
   </si>
   <si>
     <t xml:space="preserve">3.2150297164917</t>
@@ -2159,28 +2159,28 @@
     <t xml:space="preserve">3.23231506347656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06810617446899</t>
+    <t xml:space="preserve">3.06810641288757</t>
   </si>
   <si>
     <t xml:space="preserve">3.15453195571899</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18045926094055</t>
+    <t xml:space="preserve">3.18045949935913</t>
   </si>
   <si>
     <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29281234741211</t>
+    <t xml:space="preserve">3.29281258583069</t>
   </si>
   <si>
     <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11996126174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13724684715271</t>
+    <t xml:space="preserve">3.11996150016785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13724660873413</t>
   </si>
   <si>
     <t xml:space="preserve">3.11131906509399</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">3.34466814994812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42245054244995</t>
+    <t xml:space="preserve">3.42245101928711</t>
   </si>
   <si>
     <t xml:space="preserve">3.41380834579468</t>
@@ -58891,7 +58891,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6494212963</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>4496</v>
@@ -58912,6 +58912,32 @@
         <v>913</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6050231481</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>6092</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>2.90000009536743</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>2.89499998092651</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>2.90000009536743</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>896</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30048561096191</t>
+    <t xml:space="preserve">1.30048549175262</t>
   </si>
   <si>
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973959922791</t>
+    <t xml:space="preserve">1.29973936080933</t>
   </si>
   <si>
     <t xml:space="preserve">1.29750096797943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27586364746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26840233802795</t>
+    <t xml:space="preserve">1.27586376667023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26840245723724</t>
   </si>
   <si>
     <t xml:space="preserve">1.27511739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26765620708466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003989696503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26616382598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25347983837128</t>
+    <t xml:space="preserve">1.26765632629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29003977775574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26616406440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25944888591766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25348007678986</t>
   </si>
   <si>
     <t xml:space="preserve">1.25273394584656</t>
@@ -80,37 +80,37 @@
     <t xml:space="preserve">1.21766638755798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24676477909088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31167757511139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30496203899384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3012318611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30570840835571</t>
+    <t xml:space="preserve">1.24676489830017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31167721748352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30496227741241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30123174190521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30570828914642</t>
   </si>
   <si>
     <t xml:space="preserve">1.3198846578598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28929376602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27884805202484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317954063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27437126636505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24601876735687</t>
+    <t xml:space="preserve">1.28929364681244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27884793281555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26317965984344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27437138557434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24601888656616</t>
   </si>
   <si>
     <t xml:space="preserve">1.28034043312073</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">1.31316959857941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32063066959381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31391572952271</t>
+    <t xml:space="preserve">1.3206307888031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31391561031342</t>
   </si>
   <si>
     <t xml:space="preserve">1.3243613243103</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">1.26989459991455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28183245658875</t>
+    <t xml:space="preserve">1.28183257579803</t>
   </si>
   <si>
     <t xml:space="preserve">1.3295841217041</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">1.32212269306183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32809162139893</t>
+    <t xml:space="preserve">1.32809174060822</t>
   </si>
   <si>
     <t xml:space="preserve">1.32734596729279</t>
@@ -155,10 +155,10 @@
     <t xml:space="preserve">1.32286906242371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31018531322479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31764614582062</t>
+    <t xml:space="preserve">1.31018507480621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31764626502991</t>
   </si>
   <si>
     <t xml:space="preserve">1.30272388458252</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">1.30346989631653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29675495624542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078602790833</t>
+    <t xml:space="preserve">1.29675483703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078590869904</t>
   </si>
   <si>
     <t xml:space="preserve">1.28854763507843</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">1.28780150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30684316158295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3167724609375</t>
+    <t xml:space="preserve">1.30684328079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31677258014679</t>
   </si>
   <si>
     <t xml:space="preserve">1.32364654541016</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">1.32975697517395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33052086830139</t>
+    <t xml:space="preserve">1.3305207490921</t>
   </si>
   <si>
     <t xml:space="preserve">1.31830012798309</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">1.32670176029205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32211887836456</t>
+    <t xml:space="preserve">1.32211899757385</t>
   </si>
   <si>
     <t xml:space="preserve">1.34044981002808</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">1.33510327339172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3289932012558</t>
+    <t xml:space="preserve">1.32899296283722</t>
   </si>
   <si>
     <t xml:space="preserve">1.32822930812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3213552236557</t>
+    <t xml:space="preserve">1.32135510444641</t>
   </si>
   <si>
     <t xml:space="preserve">1.33815860748291</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">1.34426891803741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34350502490997</t>
+    <t xml:space="preserve">1.34350514411926</t>
   </si>
   <si>
     <t xml:space="preserve">1.33892238140106</t>
@@ -242,31 +242,31 @@
     <t xml:space="preserve">1.31906378269196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29538631439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29767775535583</t>
+    <t xml:space="preserve">1.29538643360138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29767763614655</t>
   </si>
   <si>
     <t xml:space="preserve">1.28316569328308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28851246833801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011047840118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25948810577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26025199890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23733842372894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22970044612885</t>
+    <t xml:space="preserve">1.28851234912872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011059761047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25948822498322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26025211811066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23733854293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22970056533813</t>
   </si>
   <si>
     <t xml:space="preserve">1.23962962627411</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">1.22206270694733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22129881381989</t>
+    <t xml:space="preserve">1.2212986946106</t>
   </si>
   <si>
     <t xml:space="preserve">1.2411572933197</t>
@@ -287,37 +287,37 @@
     <t xml:space="preserve">1.27552795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27476418018341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29385876655579</t>
+    <t xml:space="preserve">1.27476406097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29385888576508</t>
   </si>
   <si>
     <t xml:space="preserve">1.29309499263763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2923309803009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28927612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25872445106506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28469324111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24955904483795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27018117904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27629148960114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28698492050171</t>
+    <t xml:space="preserve">1.29233121871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2892758846283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25872457027435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28469336032867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24955916404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27018129825592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27629160881042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28698456287384</t>
   </si>
   <si>
     <t xml:space="preserve">1.28622090816498</t>
@@ -326,13 +326,13 @@
     <t xml:space="preserve">1.28240191936493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34121382236481</t>
+    <t xml:space="preserve">1.34121370315552</t>
   </si>
   <si>
     <t xml:space="preserve">1.31371736526489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36412727832794</t>
+    <t xml:space="preserve">1.36412763595581</t>
   </si>
   <si>
     <t xml:space="preserve">1.35572564601898</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">1.38093078136444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3740565776825</t>
+    <t xml:space="preserve">1.37405669689178</t>
   </si>
   <si>
     <t xml:space="preserve">1.38551342487335</t>
@@ -362,28 +362,28 @@
     <t xml:space="preserve">1.35954451560974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35648930072784</t>
+    <t xml:space="preserve">1.35648965835571</t>
   </si>
   <si>
     <t xml:space="preserve">1.34503269195557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3519070148468</t>
+    <t xml:space="preserve">1.35190677642822</t>
   </si>
   <si>
     <t xml:space="preserve">1.35725331306458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35496163368225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34961545467377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885156154633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35801708698273</t>
+    <t xml:space="preserve">1.35496187210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34961521625519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34885168075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35801720619202</t>
   </si>
   <si>
     <t xml:space="preserve">1.36259984970093</t>
@@ -395,28 +395,28 @@
     <t xml:space="preserve">1.322882771492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30226051807404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30989837646484</t>
+    <t xml:space="preserve">1.30226039886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30989825725555</t>
   </si>
   <si>
     <t xml:space="preserve">1.32059144973755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33586704730988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31295335292816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30455183982849</t>
+    <t xml:space="preserve">1.33586716651917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31295359134674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30455195903778</t>
   </si>
   <si>
     <t xml:space="preserve">1.29462254047394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30073297023773</t>
+    <t xml:space="preserve">1.30073285102844</t>
   </si>
   <si>
     <t xml:space="preserve">1.2984414100647</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">1.29615008831024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28545725345612</t>
+    <t xml:space="preserve">1.28545701503754</t>
   </si>
   <si>
     <t xml:space="preserve">1.26254343986511</t>
@@ -440,22 +440,22 @@
     <t xml:space="preserve">1.27170884609222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26789009571075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24192118644714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2335193157196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2671263217926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24497616291046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24879515171051</t>
+    <t xml:space="preserve">1.26788997650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24192130565643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23351943492889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26712596416473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24497628211975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2487952709198</t>
   </si>
   <si>
     <t xml:space="preserve">1.27323651313782</t>
@@ -464,112 +464,112 @@
     <t xml:space="preserve">1.26941764354706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448090076447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33357572555542</t>
+    <t xml:space="preserve">1.31448101997375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33357584476471</t>
   </si>
   <si>
     <t xml:space="preserve">1.34197747707367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35114312171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35343408584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36718249320984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322234153748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39926159381866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162385463715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39238774776459</t>
+    <t xml:space="preserve">1.35114288330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35343420505524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36718237400055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38322222232819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39926183223724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162373542786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39238750934601</t>
   </si>
   <si>
     <t xml:space="preserve">1.39009630680084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39697027206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39773392677307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40537202358246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40078926086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39849781990051</t>
+    <t xml:space="preserve">1.3969703912735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39773404598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40537190437317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40078938007355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3984979391098</t>
   </si>
   <si>
     <t xml:space="preserve">1.3847496509552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3786393404007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40460813045502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42064785957336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41988396644592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39086008071899</t>
+    <t xml:space="preserve">1.37863922119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40460824966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42064774036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41988384723663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39085984230042</t>
   </si>
   <si>
     <t xml:space="preserve">1.40842723846436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39620649814606</t>
+    <t xml:space="preserve">1.39620661735535</t>
   </si>
   <si>
     <t xml:space="preserve">1.40231680870056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40384447574615</t>
+    <t xml:space="preserve">1.40384435653687</t>
   </si>
   <si>
     <t xml:space="preserve">1.38704109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42293918132782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42752194404602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43668723106384</t>
+    <t xml:space="preserve">1.42293894290924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42752206325531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43668735027313</t>
   </si>
   <si>
     <t xml:space="preserve">1.44279754161835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4588371515274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47411286830902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46800267696381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4695303440094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47029411792755</t>
+    <t xml:space="preserve">1.45883727073669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47411298751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4680027961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46953022480011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47029399871826</t>
   </si>
   <si>
     <t xml:space="preserve">1.46418380737305</t>
@@ -578,49 +578,49 @@
     <t xml:space="preserve">1.45349073410034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42904949188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43897879123688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44967174530029</t>
+    <t xml:space="preserve">1.42904937267303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43897867202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.449671626091</t>
   </si>
   <si>
     <t xml:space="preserve">1.46265614032745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55812966823578</t>
+    <t xml:space="preserve">1.55812954902649</t>
   </si>
   <si>
     <t xml:space="preserve">1.540562748909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5466730594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55660212039948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56882297992706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5313972234726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52223181724548</t>
+    <t xml:space="preserve">1.54667282104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55660223960876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56882274150848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53139710426331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52223193645477</t>
   </si>
   <si>
     <t xml:space="preserve">1.54361772537231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56042122840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55583846569061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55278325080872</t>
+    <t xml:space="preserve">1.56042146682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5558385848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55278348922729</t>
   </si>
   <si>
     <t xml:space="preserve">1.59402799606323</t>
@@ -632,55 +632,55 @@
     <t xml:space="preserve">1.59937453269958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5963191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59861052036285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59479153156281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58104360103607</t>
+    <t xml:space="preserve">1.59631931781769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59861075878143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59479165077209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58104372024536</t>
   </si>
   <si>
     <t xml:space="preserve">1.56500399112701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56347632408142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049204826355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53521609306335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54896450042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52757847309113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51841270923615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54972839355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58715403079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60472083091736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131223201752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70237553119659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70551800727844</t>
+    <t xml:space="preserve">1.56347644329071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049169063568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53521621227264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54896438121796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52757823467255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51841259002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54972815513611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58715379238129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60472095012665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70237565040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70551788806915</t>
   </si>
   <si>
     <t xml:space="preserve">1.72044432163239</t>
@@ -689,31 +689,31 @@
     <t xml:space="preserve">1.70708906650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73929846286774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73537027835846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73379921913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84613847732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88698923587799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92469787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00011444091797</t>
+    <t xml:space="preserve">1.73929822444916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73537051677704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73379909992218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84613859653473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88698947429657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92469775676727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00011420249939</t>
   </si>
   <si>
     <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10145568847656</t>
+    <t xml:space="preserve">2.10145592689514</t>
   </si>
   <si>
     <t xml:space="preserve">2.03860855102539</t>
@@ -722,22 +722,22 @@
     <t xml:space="preserve">2.0684609413147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01425504684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9136997461319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98597395420074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98754489421844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99540078639984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01975417137146</t>
+    <t xml:space="preserve">2.01425528526306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91369962692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98597419261932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98754501342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99540090560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01975440979004</t>
   </si>
   <si>
     <t xml:space="preserve">2.00639939308167</t>
@@ -752,115 +752,115 @@
     <t xml:space="preserve">2.0126838684082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00561380386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00954127311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02525329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01032710075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98675966262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00325703620911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00247120857239</t>
+    <t xml:space="preserve">2.00561356544495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00954174995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02525353431702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01032733917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98675930500031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00325679779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00247144699097</t>
   </si>
   <si>
     <t xml:space="preserve">2.0166118144989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02839589118958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99382984638214</t>
+    <t xml:space="preserve">2.02839541435242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99382960796356</t>
   </si>
   <si>
     <t xml:space="preserve">1.97261893749237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99068737030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97968900203705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97733235359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95926380157471</t>
+    <t xml:space="preserve">1.99068760871887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97968935966492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97733223438263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95926356315613</t>
   </si>
   <si>
     <t xml:space="preserve">1.94119513034821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84771001338959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87599086761475</t>
+    <t xml:space="preserve">1.84770977497101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8759913444519</t>
   </si>
   <si>
     <t xml:space="preserve">1.84535312652588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87284886837006</t>
+    <t xml:space="preserve">1.87284874916077</t>
   </si>
   <si>
     <t xml:space="preserve">1.88620376586914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91055715084076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92941129207611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90505814552307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8893461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90584373474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605603694916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91919851303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93333923816681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90112996101379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862558364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9270544052124</t>
+    <t xml:space="preserve">1.91055727005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9294114112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90505790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88934624195099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90584361553192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605639457703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91919875144958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9333393573761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90113019943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862582206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705464363098</t>
   </si>
   <si>
     <t xml:space="preserve">1.91762745380402</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98047482967377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99618649482727</t>
+    <t xml:space="preserve">1.98047471046448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99618661403656</t>
   </si>
   <si>
     <t xml:space="preserve">2.05981922149658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05746293067932</t>
+    <t xml:space="preserve">2.05746269226074</t>
   </si>
   <si>
     <t xml:space="preserve">2.01504063606262</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">2.00482821464539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97026193141937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96947646141052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97811782360077</t>
+    <t xml:space="preserve">1.97026228904724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96947658061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97811806201935</t>
   </si>
   <si>
     <t xml:space="preserve">1.97576117515564</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">1.95062220096588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93962419033051</t>
+    <t xml:space="preserve">1.93962395191193</t>
   </si>
   <si>
     <t xml:space="preserve">1.93726718425751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93805265426636</t>
+    <t xml:space="preserve">1.93805253505707</t>
   </si>
   <si>
     <t xml:space="preserve">1.93255376815796</t>
@@ -905,19 +905,19 @@
     <t xml:space="preserve">1.9671196937561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95376467704773</t>
+    <t xml:space="preserve">1.95376479625702</t>
   </si>
   <si>
     <t xml:space="preserve">1.95219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94276630878448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96397733688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94905078411102</t>
+    <t xml:space="preserve">1.9427661895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96397721767426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9490510225296</t>
   </si>
   <si>
     <t xml:space="preserve">1.95533573627472</t>
@@ -926,64 +926,64 @@
     <t xml:space="preserve">1.94669449329376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92548334598541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234098911285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92784035205841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9231264591217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8972020149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9034868478775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90820038318634</t>
+    <t xml:space="preserve">1.9254834651947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234086990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92784011363983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92312669754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89720225334167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90348672866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90820050239563</t>
   </si>
   <si>
     <t xml:space="preserve">1.89484548568726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8995589017868</t>
+    <t xml:space="preserve">1.89955902099609</t>
   </si>
   <si>
     <t xml:space="preserve">1.89013171195984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89563095569611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89327418804169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91527056694031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91212809085846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90191578865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9309823513031</t>
+    <t xml:space="preserve">1.89563083648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8932740688324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9152706861496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91212844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90191555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93098258972168</t>
   </si>
   <si>
     <t xml:space="preserve">1.98126029968262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02132511138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00090026855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0661039352417</t>
+    <t xml:space="preserve">2.02132534980774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00090003013611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06610369682312</t>
   </si>
   <si>
     <t xml:space="preserve">2.05039215087891</t>
@@ -1001,82 +1001,82 @@
     <t xml:space="preserve">2.04803562164307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19494104385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13287949562073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11245369911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0739598274231</t>
+    <t xml:space="preserve">2.19494128227234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13287925720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11245393753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07396006584167</t>
   </si>
   <si>
     <t xml:space="preserve">2.08652949333191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07238864898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07710242271423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05196356773376</t>
+    <t xml:space="preserve">2.0723888874054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07710266113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05196380615234</t>
   </si>
   <si>
     <t xml:space="preserve">2.08574390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05117774009705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.062175989151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06924653053284</t>
+    <t xml:space="preserve">2.0511782169342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06217622756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06924629211426</t>
   </si>
   <si>
     <t xml:space="preserve">2.11323952674866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15251898765564</t>
+    <t xml:space="preserve">2.1525194644928</t>
   </si>
   <si>
     <t xml:space="preserve">2.16587424278259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17215895652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17294454574585</t>
+    <t xml:space="preserve">2.17215871810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17294430732727</t>
   </si>
   <si>
     <t xml:space="preserve">2.17687249183655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16823124885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18708515167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18158626556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20358228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1917986869812</t>
+    <t xml:space="preserve">2.16823101043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18708539009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18158602714539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2035825252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19179892539978</t>
   </si>
   <si>
     <t xml:space="preserve">2.17765808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16037487983704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15016269683838</t>
+    <t xml:space="preserve">2.16037511825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1501624584198</t>
   </si>
   <si>
     <t xml:space="preserve">2.14937686920166</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">2.14859127998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16665983200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17451548576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1957266330719</t>
+    <t xml:space="preserve">2.16665959358215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17451572418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19572687149048</t>
   </si>
   <si>
     <t xml:space="preserve">2.17608690261841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22479343414307</t>
+    <t xml:space="preserve">2.22479367256165</t>
   </si>
   <si>
     <t xml:space="preserve">2.28606963157654</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">2.27035784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26250147819519</t>
+    <t xml:space="preserve">2.26250195503235</t>
   </si>
   <si>
     <t xml:space="preserve">2.30178141593933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3174934387207</t>
+    <t xml:space="preserve">2.31749320030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.41176438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46675539016724</t>
+    <t xml:space="preserve">2.46675562858582</t>
   </si>
   <si>
     <t xml:space="preserve">2.41962003707886</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">2.38819646835327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3646285533905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3803403377533</t>
+    <t xml:space="preserve">2.36462879180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38034057617188</t>
   </si>
   <si>
     <t xml:space="preserve">2.40390825271606</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">2.39605236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35677266120911</t>
+    <t xml:space="preserve">2.35677289962769</t>
   </si>
   <si>
     <t xml:space="preserve">2.29392576217651</t>
@@ -1160,34 +1160,34 @@
     <t xml:space="preserve">2.27821373939514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54531455039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49032354354858</t>
+    <t xml:space="preserve">2.54531478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49032330513</t>
   </si>
   <si>
     <t xml:space="preserve">2.66315317153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65529751777649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73385667800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56888222694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60030603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57673835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50603485107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5374584197998</t>
+    <t xml:space="preserve">2.65529727935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73385643959045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56888246536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60030579566956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57673811912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5060350894928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53745865821838</t>
   </si>
   <si>
     <t xml:space="preserve">2.58459448814392</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">2.55317044258118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51389098167419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59245014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56102609634399</t>
+    <t xml:space="preserve">2.51389122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59245038032532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56102633476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.52174687385559</t>
@@ -1211,37 +1211,40 @@
     <t xml:space="preserve">2.61601781845093</t>
   </si>
   <si>
+    <t xml:space="preserve">2.63958525657654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68816685676575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70436072349548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69626355171204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197322845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61529469490051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62339186668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63148856163025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65577936172485</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.63958549499512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68816709518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70436072349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69626379013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197322845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61529469490051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62339186668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63148880004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65577912330627</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.59100413322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60719799995422</t>
+    <t xml:space="preserve">2.6071982383728</t>
   </si>
   <si>
     <t xml:space="preserve">2.53432583808899</t>
@@ -1265,7 +1268,7 @@
     <t xml:space="preserve">2.29951643943787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29141902923584</t>
+    <t xml:space="preserve">2.291419506073</t>
   </si>
   <si>
     <t xml:space="preserve">2.31571006774902</t>
@@ -1274,73 +1277,73 @@
     <t xml:space="preserve">2.33190369606018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35619449615479</t>
+    <t xml:space="preserve">2.35619473457336</t>
   </si>
   <si>
     <t xml:space="preserve">2.26712870597839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2104504108429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28332233428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34809756278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21854710578918</t>
+    <t xml:space="preserve">2.21045064926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28332257270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34809732437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21854734420776</t>
   </si>
   <si>
     <t xml:space="preserve">2.19425678253174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22664451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18615961074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17806315422058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996598243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16186928749084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12948179244995</t>
+    <t xml:space="preserve">2.22664427757263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18615984916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.178062915802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996622085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16186904907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12948131561279</t>
   </si>
   <si>
     <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25903153419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24283814430237</t>
+    <t xml:space="preserve">2.25903177261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24283790588379</t>
   </si>
   <si>
     <t xml:space="preserve">2.27522563934326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39667916297913</t>
+    <t xml:space="preserve">2.39667892456055</t>
   </si>
   <si>
     <t xml:space="preserve">2.1213846206665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10519123077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11328792572021</t>
+    <t xml:space="preserve">2.10519099235535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11328768730164</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0566098690033</t>
+    <t xml:space="preserve">2.05660939216614</t>
   </si>
   <si>
     <t xml:space="preserve">2.04851245880127</t>
@@ -1349,10 +1352,10 @@
     <t xml:space="preserve">2.02422213554382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754384040833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95944726467133</t>
+    <t xml:space="preserve">1.96754395961761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95944702625275</t>
   </si>
   <si>
     <t xml:space="preserve">1.93515622615814</t>
@@ -1370,19 +1373,19 @@
     <t xml:space="preserve">1.91086566448212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94325304031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25093507766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15377259254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13757848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08899688720703</t>
+    <t xml:space="preserve">1.94325315952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25093483924866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1537721157074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13757824897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08899712562561</t>
   </si>
   <si>
     <t xml:space="preserve">2.06470656394958</t>
@@ -1391,10 +1394,10 @@
     <t xml:space="preserve">2.08090043067932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00802826881409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705941200256</t>
+    <t xml:space="preserve">2.00802803039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705917358398</t>
   </si>
   <si>
     <t xml:space="preserve">1.88657486438751</t>
@@ -1403,7 +1406,7 @@
     <t xml:space="preserve">1.82989680767059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85418736934662</t>
+    <t xml:space="preserve">1.85418748855591</t>
   </si>
   <si>
     <t xml:space="preserve">1.82179975509644</t>
@@ -1412,10 +1415,10 @@
     <t xml:space="preserve">1.90276873111725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97564053535461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99993133544922</t>
+    <t xml:space="preserve">1.97564101219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99993145465851</t>
   </si>
   <si>
     <t xml:space="preserve">2.30761313438416</t>
@@ -1424,7 +1427,7 @@
     <t xml:space="preserve">2.20235371589661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14567518234253</t>
+    <t xml:space="preserve">2.14567542076111</t>
   </si>
   <si>
     <t xml:space="preserve">2.36429142951965</t>
@@ -1439,19 +1442,19 @@
     <t xml:space="preserve">2.42096972465515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43716359138489</t>
+    <t xml:space="preserve">2.43716335296631</t>
   </si>
   <si>
     <t xml:space="preserve">2.46145391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51003551483154</t>
+    <t xml:space="preserve">2.51003527641296</t>
   </si>
   <si>
     <t xml:space="preserve">2.48574495315552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49384164810181</t>
+    <t xml:space="preserve">2.49384140968323</t>
   </si>
   <si>
     <t xml:space="preserve">2.5019383430481</t>
@@ -1466,13 +1469,13 @@
     <t xml:space="preserve">2.4695508480072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44526028633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47764778137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55861687660217</t>
+    <t xml:space="preserve">2.4452600479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47764801979065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55861663818359</t>
   </si>
   <si>
     <t xml:space="preserve">2.5829074382782</t>
@@ -1484,25 +1487,25 @@
     <t xml:space="preserve">2.65539240837097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62994170188904</t>
+    <t xml:space="preserve">2.62994146347046</t>
   </si>
   <si>
     <t xml:space="preserve">2.60449075698853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54510474205017</t>
+    <t xml:space="preserve">2.54510450363159</t>
   </si>
   <si>
     <t xml:space="preserve">2.56207203865051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58752298355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59600687026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61297416687012</t>
+    <t xml:space="preserve">2.5875232219696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59600710868835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61297392845154</t>
   </si>
   <si>
     <t xml:space="preserve">2.51117014884949</t>
@@ -1514,28 +1517,28 @@
     <t xml:space="preserve">2.52813720703125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46875166893005</t>
+    <t xml:space="preserve">2.46875190734863</t>
   </si>
   <si>
     <t xml:space="preserve">2.49420261383057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38391470909119</t>
+    <t xml:space="preserve">2.38391494750977</t>
   </si>
   <si>
     <t xml:space="preserve">2.37543106079102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32452869415283</t>
+    <t xml:space="preserve">2.32452893257141</t>
   </si>
   <si>
     <t xml:space="preserve">2.33301281929016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3499801158905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36694717407227</t>
+    <t xml:space="preserve">2.34997987747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36694741249084</t>
   </si>
   <si>
     <t xml:space="preserve">2.4602677822113</t>
@@ -1547,7 +1550,7 @@
     <t xml:space="preserve">2.44330048561096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47723531723022</t>
+    <t xml:space="preserve">2.4772355556488</t>
   </si>
   <si>
     <t xml:space="preserve">2.57055568695068</t>
@@ -1562,28 +1565,25 @@
     <t xml:space="preserve">2.64690899848938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69781112670898</t>
+    <t xml:space="preserve">2.69781088829041</t>
   </si>
   <si>
     <t xml:space="preserve">2.70629477500916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67235994338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477818489075</t>
+    <t xml:space="preserve">2.67236018180847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477842330933</t>
   </si>
   <si>
     <t xml:space="preserve">2.72326183319092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68084383010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68932723999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387605667114</t>
+    <t xml:space="preserve">2.68084359169006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68932747840881</t>
   </si>
   <si>
     <t xml:space="preserve">2.51965379714966</t>
@@ -1598,40 +1598,40 @@
     <t xml:space="preserve">2.50268626213074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57903933525085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55358862876892</t>
+    <t xml:space="preserve">2.57903957366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55358839035034</t>
   </si>
   <si>
     <t xml:space="preserve">2.4857189655304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39239835739136</t>
+    <t xml:space="preserve">2.39239859580994</t>
   </si>
   <si>
     <t xml:space="preserve">2.40936589241028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40088176727295</t>
+    <t xml:space="preserve">2.40088224411011</t>
   </si>
   <si>
     <t xml:space="preserve">2.20575761795044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28211069107056</t>
+    <t xml:space="preserve">2.28211045265198</t>
   </si>
   <si>
     <t xml:space="preserve">2.2227246761322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1718225479126</t>
+    <t xml:space="preserve">2.17182278633118</t>
   </si>
   <si>
     <t xml:space="preserve">2.19727373123169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424126625061</t>
+    <t xml:space="preserve">2.21424102783203</t>
   </si>
   <si>
     <t xml:space="preserve">2.13788819313049</t>
@@ -1643,31 +1643,31 @@
     <t xml:space="preserve">1.73067116737366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73915493488312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69673657417297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5355464220047</t>
+    <t xml:space="preserve">1.73915481567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69673633575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53554654121399</t>
   </si>
   <si>
     <t xml:space="preserve">1.56948113441467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57796490192413</t>
+    <t xml:space="preserve">1.57796502113342</t>
   </si>
   <si>
     <t xml:space="preserve">1.68401110172272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62462520599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61614143848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59917414188385</t>
+    <t xml:space="preserve">1.62462496757507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61614155769348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59917426109314</t>
   </si>
   <si>
     <t xml:space="preserve">1.5609974861145</t>
@@ -1676,16 +1676,16 @@
     <t xml:space="preserve">1.65431809425354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67128551006317</t>
+    <t xml:space="preserve">1.67128562927246</t>
   </si>
   <si>
     <t xml:space="preserve">1.64159250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62886703014374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65007638931274</t>
+    <t xml:space="preserve">1.62886691093445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65007615089417</t>
   </si>
   <si>
     <t xml:space="preserve">1.63735055923462</t>
@@ -1694,85 +1694,85 @@
     <t xml:space="preserve">1.70522022247314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76460587978363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67552721500397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69249475002289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65855991840363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68825280666351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74763858318329</t>
+    <t xml:space="preserve">1.76460599899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67552745342255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6924946308136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65856003761292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68825268745422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74763870239258</t>
   </si>
   <si>
     <t xml:space="preserve">1.78157329559326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84095919132233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80702424049377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79005694389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77308976650238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72218763828278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82399165630341</t>
+    <t xml:space="preserve">1.84095907211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80702447891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79005718231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77308964729309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72218751907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82399153709412</t>
   </si>
   <si>
     <t xml:space="preserve">1.83247542381287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8494428396225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86641013622284</t>
+    <t xml:space="preserve">1.84944248199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86641025543213</t>
   </si>
   <si>
     <t xml:space="preserve">1.90034484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95973062515259</t>
+    <t xml:space="preserve">1.95973038673401</t>
   </si>
   <si>
     <t xml:space="preserve">1.90882849693298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88337755203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89186108112335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8748939037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792636871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79854071140289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81550800800323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75612235069275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67976891994476</t>
+    <t xml:space="preserve">1.88337767124176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89186096191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87489402294159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792660713196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79854083061218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81550812721252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75612211227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67976927757263</t>
   </si>
   <si>
     <t xml:space="preserve">1.71370387077332</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">1.64583420753479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59493219852448</t>
+    <t xml:space="preserve">1.59493231773376</t>
   </si>
   <si>
     <t xml:space="preserve">1.60341596603394</t>
@@ -1790,34 +1790,34 @@
     <t xml:space="preserve">1.56523942947388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55251395702362</t>
+    <t xml:space="preserve">1.55251383781433</t>
   </si>
   <si>
     <t xml:space="preserve">1.54827213287354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312806129456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48464441299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47191894054413</t>
+    <t xml:space="preserve">1.49312818050385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48464453220367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47191882133484</t>
   </si>
   <si>
     <t xml:space="preserve">1.46767699718475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49736988544464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4761608839035</t>
+    <t xml:space="preserve">1.49737000465393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47616064548492</t>
   </si>
   <si>
     <t xml:space="preserve">1.42525851726532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39132380485535</t>
+    <t xml:space="preserve">1.39132392406464</t>
   </si>
   <si>
     <t xml:space="preserve">1.44222605228424</t>
@@ -1829,10 +1829,10 @@
     <t xml:space="preserve">1.36163091659546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34890556335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36587285995483</t>
+    <t xml:space="preserve">1.3489054441452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36587297916412</t>
   </si>
   <si>
     <t xml:space="preserve">1.39556586742401</t>
@@ -1844,37 +1844,37 @@
     <t xml:space="preserve">1.40829133987427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43374228477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41253316402435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45919334888458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46343517303467</t>
+    <t xml:space="preserve">1.43374240398407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41253304481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45919346809387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46343529224396</t>
   </si>
   <si>
     <t xml:space="preserve">1.44646775722504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4507098197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43798422813416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53130447864532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58644878864288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038350105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6118997335434</t>
+    <t xml:space="preserve">1.45070970058441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43798410892487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53130459785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58644866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038326263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61189961433411</t>
   </si>
   <si>
     <t xml:space="preserve">1.55675578117371</t>
@@ -1883,19 +1883,19 @@
     <t xml:space="preserve">1.59069037437439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57372295856476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58220684528351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60765779018402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403042793274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95124697685242</t>
+    <t xml:space="preserve">1.57372307777405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58220672607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60765790939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403030872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95124673843384</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608369827271</t>
@@ -1910,46 +1910,46 @@
     <t xml:space="preserve">2.34149646759033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27362680435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23969221115112</t>
+    <t xml:space="preserve">2.27362704277039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23969197273254</t>
   </si>
   <si>
     <t xml:space="preserve">2.14637136459351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23120856285095</t>
+    <t xml:space="preserve">2.23120832443237</t>
   </si>
   <si>
     <t xml:space="preserve">2.30756163597107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31620407104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33348917961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34213185310364</t>
+    <t xml:space="preserve">2.3162043094635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33348941802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34213209152222</t>
   </si>
   <si>
     <t xml:space="preserve">2.35077452659607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29891920089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32484698295593</t>
+    <t xml:space="preserve">2.29891896247864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32484674453735</t>
   </si>
   <si>
     <t xml:space="preserve">2.29027652740479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27299118041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44584226608276</t>
+    <t xml:space="preserve">2.2729914188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44584250450134</t>
   </si>
   <si>
     <t xml:space="preserve">2.46312761306763</t>
@@ -1985,10 +1985,10 @@
     <t xml:space="preserve">2.48041272163391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54955339431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54091048240662</t>
+    <t xml:space="preserve">2.54955315589905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5409107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.53226804733276</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">2.43720006942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42855739593506</t>
+    <t xml:space="preserve">2.42855763435364</t>
   </si>
   <si>
     <t xml:space="preserve">2.40262985229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41991472244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41127228736877</t>
+    <t xml:space="preserve">2.41991496086121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41127252578735</t>
   </si>
   <si>
     <t xml:space="preserve">2.45448517799377</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">2.39398717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38534450531006</t>
+    <t xml:space="preserve">2.38534474372864</t>
   </si>
   <si>
     <t xml:space="preserve">2.37670207023621</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22977876663208</t>
+    <t xml:space="preserve">2.22113633155823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2297785282135</t>
   </si>
   <si>
     <t xml:space="preserve">2.28163385391235</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">2.17792344093323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19520854949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16063809394836</t>
+    <t xml:space="preserve">2.19520831108093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16063833236694</t>
   </si>
   <si>
     <t xml:space="preserve">2.26434898376465</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">2.57548069953918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61005115509033</t>
+    <t xml:space="preserve">2.61005091667175</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597869873047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61869335174561</t>
+    <t xml:space="preserve">2.61869359016418</t>
   </si>
   <si>
     <t xml:space="preserve">2.73968935012817</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">2.83475732803345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81747198104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93846797943115</t>
+    <t xml:space="preserve">2.81747221946716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93846821784973</t>
   </si>
   <si>
     <t xml:space="preserve">2.9730384349823</t>
@@ -2090,22 +2090,22 @@
     <t xml:space="preserve">2.99032306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14588928222656</t>
+    <t xml:space="preserve">3.14588952064514</t>
   </si>
   <si>
     <t xml:space="preserve">3.16317415237427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38788080215454</t>
+    <t xml:space="preserve">3.38788104057312</t>
   </si>
   <si>
     <t xml:space="preserve">3.37923812866211</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37059569358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44837880134583</t>
+    <t xml:space="preserve">3.37059545516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4483790397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.2582426071167</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">3.35331058502197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32738304138184</t>
+    <t xml:space="preserve">3.32738280296326</t>
   </si>
   <si>
     <t xml:space="preserve">3.28417015075684</t>
@@ -2138,13 +2138,13 @@
     <t xml:space="preserve">3.27552771568298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22367215156555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20638728141785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24959969520569</t>
+    <t xml:space="preserve">3.22367238998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20638680458069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24959993362427</t>
   </si>
   <si>
     <t xml:space="preserve">3.2150297164917</t>
@@ -2153,10 +2153,10 @@
     <t xml:space="preserve">3.19774460792542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39652323722839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23231506347656</t>
+    <t xml:space="preserve">3.39652347564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23231482505798</t>
   </si>
   <si>
     <t xml:space="preserve">3.06810641288757</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">3.11996150016785</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13724660873413</t>
+    <t xml:space="preserve">3.13724684715271</t>
   </si>
   <si>
     <t xml:space="preserve">3.11131906509399</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">3.10267663002014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34466814994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42245101928711</t>
+    <t xml:space="preserve">3.34466791152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42245078086853</t>
   </si>
   <si>
     <t xml:space="preserve">3.41380834579468</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46071004867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264116287231</t>
+    <t xml:space="preserve">4.4607105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264163970947</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760856628418</t>
+    <t xml:space="preserve">4.84760808944702</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450708389282</t>
+    <t xml:space="preserve">5.23450660705566</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278253555298</t>
+    <t xml:space="preserve">5.30278301239014</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2255,19 +2255,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07658004760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87175130844116</t>
+    <t xml:space="preserve">6.07657957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.871750831604</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071641921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968105316162</t>
+    <t xml:space="preserve">5.78071594238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968152999878</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312871932983</t>
+    <t xml:space="preserve">5.55312919616699</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348031997681</t>
+    <t xml:space="preserve">7.12348079681396</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796382904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244638442993</t>
+    <t xml:space="preserve">7.07796335220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244590759277</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2315,19 +2315,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175401687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60003042221069</t>
+    <t xml:space="preserve">6.53175449371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60002994537354</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5545129776001</t>
+    <t xml:space="preserve">6.80485868453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55451250076294</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382698059082</t>
+    <t xml:space="preserve">7.37382745742798</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2357,10 +2357,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900413513184</t>
+    <t xml:space="preserve">8.12486553192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900508880615</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6510829925537</t>
+    <t xml:space="preserve">10.651083946228</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -18713,7 +18713,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18739,7 +18739,7 @@
         <v>32</v>
       </c>
       <c r="G602" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18765,7 +18765,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18791,7 +18791,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G604" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18843,7 +18843,7 @@
         <v>32</v>
       </c>
       <c r="G606" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18869,7 +18869,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G607" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18895,7 +18895,7 @@
         <v>30</v>
       </c>
       <c r="G608" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18921,7 +18921,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G609" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18947,7 +18947,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18973,7 +18973,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G611" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18999,7 +18999,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G612" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19025,7 +19025,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19051,7 +19051,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19077,7 +19077,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19103,7 +19103,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G616" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19129,7 +19129,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19155,7 +19155,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19181,7 +19181,7 @@
         <v>28</v>
       </c>
       <c r="G619" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19207,7 +19207,7 @@
         <v>28</v>
       </c>
       <c r="G620" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19233,7 +19233,7 @@
         <v>28</v>
       </c>
       <c r="G621" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19259,7 +19259,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G622" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19285,7 +19285,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19311,7 +19311,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19337,7 +19337,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19363,7 +19363,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19389,7 +19389,7 @@
         <v>29</v>
       </c>
       <c r="G627" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19415,7 +19415,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G628" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19441,7 +19441,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G629" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19467,7 +19467,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G630" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19493,7 +19493,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19519,7 +19519,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G632" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19545,7 +19545,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G633" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19571,7 +19571,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19597,7 +19597,7 @@
         <v>27.5</v>
       </c>
       <c r="G635" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19623,7 +19623,7 @@
         <v>27</v>
       </c>
       <c r="G636" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19649,7 +19649,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19675,7 +19675,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19701,7 +19701,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19727,7 +19727,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19753,7 +19753,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19779,7 +19779,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G642" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19805,7 +19805,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19831,7 +19831,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19857,7 +19857,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19883,7 +19883,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G646" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19909,7 +19909,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G647" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19935,7 +19935,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G648" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19961,7 +19961,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19987,7 +19987,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20013,7 +20013,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20039,7 +20039,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G652" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20065,7 +20065,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G653" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20091,7 +20091,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20117,7 +20117,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G655" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20143,7 +20143,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20169,7 +20169,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20195,7 +20195,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20221,7 +20221,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G659" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20247,7 +20247,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20273,7 +20273,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G661" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20299,7 +20299,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20325,7 +20325,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20351,7 +20351,7 @@
         <v>27.5</v>
       </c>
       <c r="G664" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20377,7 +20377,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20403,7 +20403,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20429,7 +20429,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G667" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20455,7 +20455,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G668" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20481,7 +20481,7 @@
         <v>27</v>
       </c>
       <c r="G669" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20507,7 +20507,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20533,7 +20533,7 @@
         <v>27</v>
       </c>
       <c r="G671" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20559,7 +20559,7 @@
         <v>26</v>
       </c>
       <c r="G672" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20585,7 +20585,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20611,7 +20611,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G674" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20637,7 +20637,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G675" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20663,7 +20663,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20689,7 +20689,7 @@
         <v>25</v>
       </c>
       <c r="G677" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20715,7 +20715,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20741,7 +20741,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G679" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20767,7 +20767,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20793,7 +20793,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20819,7 +20819,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20845,7 +20845,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G683" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20871,7 +20871,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G684" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20897,7 +20897,7 @@
         <v>24</v>
       </c>
       <c r="G685" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20923,7 +20923,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20949,7 +20949,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G687" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20975,7 +20975,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21001,7 +21001,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G689" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21027,7 +21027,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G690" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21053,7 +21053,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G691" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21079,7 +21079,7 @@
         <v>27</v>
       </c>
       <c r="G692" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21105,7 +21105,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G693" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21131,7 +21131,7 @@
         <v>26</v>
       </c>
       <c r="G694" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21157,7 +21157,7 @@
         <v>26</v>
       </c>
       <c r="G695" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21183,7 +21183,7 @@
         <v>26</v>
       </c>
       <c r="G696" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21209,7 +21209,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G697" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21235,7 +21235,7 @@
         <v>26</v>
       </c>
       <c r="G698" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21261,7 +21261,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21287,7 +21287,7 @@
         <v>26</v>
       </c>
       <c r="G700" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21313,7 +21313,7 @@
         <v>25.5</v>
       </c>
       <c r="G701" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21339,7 +21339,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21365,7 +21365,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21391,7 +21391,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G704" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21417,7 +21417,7 @@
         <v>26</v>
       </c>
       <c r="G705" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21443,7 +21443,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G706" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21469,7 +21469,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G707" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21495,7 +21495,7 @@
         <v>25.5</v>
       </c>
       <c r="G708" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21521,7 +21521,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21547,7 +21547,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21573,7 +21573,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21599,7 +21599,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21625,7 +21625,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G713" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21651,7 +21651,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21677,7 +21677,7 @@
         <v>24</v>
       </c>
       <c r="G715" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21703,7 +21703,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G716" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21729,7 +21729,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21755,7 +21755,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G718" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21781,7 +21781,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21807,7 +21807,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21833,7 +21833,7 @@
         <v>22.5</v>
       </c>
       <c r="G721" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21859,7 +21859,7 @@
         <v>23.5</v>
       </c>
       <c r="G722" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21885,7 +21885,7 @@
         <v>23.5</v>
       </c>
       <c r="G723" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21911,7 +21911,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21937,7 +21937,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21963,7 +21963,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21989,7 +21989,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22015,7 +22015,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22041,7 +22041,7 @@
         <v>25</v>
       </c>
       <c r="G729" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22067,7 +22067,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G730" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22093,7 +22093,7 @@
         <v>28</v>
       </c>
       <c r="G731" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22119,7 +22119,7 @@
         <v>28.5</v>
       </c>
       <c r="G732" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22145,7 +22145,7 @@
         <v>27.5</v>
       </c>
       <c r="G733" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22171,7 +22171,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G734" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22197,7 +22197,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22223,7 +22223,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G736" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22249,7 +22249,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G737" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22275,7 +22275,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22301,7 +22301,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22327,7 +22327,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22353,7 +22353,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G741" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22379,7 +22379,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22405,7 +22405,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22431,7 +22431,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22457,7 +22457,7 @@
         <v>27.5</v>
       </c>
       <c r="G745" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22483,7 +22483,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G746" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22509,7 +22509,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22535,7 +22535,7 @@
         <v>27.5</v>
       </c>
       <c r="G748" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22561,7 +22561,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G749" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22587,7 +22587,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G750" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22613,7 +22613,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22639,7 +22639,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22665,7 +22665,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G753" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22691,7 +22691,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G754" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22717,7 +22717,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G755" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22743,7 +22743,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G756" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22769,7 +22769,7 @@
         <v>26.5</v>
       </c>
       <c r="G757" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22795,7 +22795,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22821,7 +22821,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22847,7 +22847,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G760" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22873,7 +22873,7 @@
         <v>27</v>
       </c>
       <c r="G761" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22899,7 +22899,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22925,7 +22925,7 @@
         <v>27</v>
       </c>
       <c r="G763" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22951,7 +22951,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22977,7 +22977,7 @@
         <v>26.5</v>
       </c>
       <c r="G765" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23003,7 +23003,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23029,7 +23029,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G767" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23055,7 +23055,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G768" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23081,7 +23081,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G769" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23107,7 +23107,7 @@
         <v>28.5</v>
       </c>
       <c r="G770" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23133,7 +23133,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23159,7 +23159,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G772" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23185,7 +23185,7 @@
         <v>28</v>
       </c>
       <c r="G773" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23211,7 +23211,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23237,7 +23237,7 @@
         <v>28</v>
       </c>
       <c r="G775" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23263,7 +23263,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23289,7 +23289,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23315,7 +23315,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23341,7 +23341,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23367,7 +23367,7 @@
         <v>28.5</v>
       </c>
       <c r="G780" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23393,7 +23393,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23419,7 +23419,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G782" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23445,7 +23445,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23471,7 +23471,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23497,7 +23497,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G785" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23523,7 +23523,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23549,7 +23549,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G787" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23575,7 +23575,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23601,7 +23601,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G789" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23627,7 +23627,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23653,7 +23653,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23679,7 +23679,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23705,7 +23705,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G793" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23731,7 +23731,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G794" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23757,7 +23757,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G795" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23783,7 +23783,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23809,7 +23809,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G797" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23835,7 +23835,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23861,7 +23861,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G799" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23887,7 +23887,7 @@
         <v>30</v>
       </c>
       <c r="G800" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23913,7 +23913,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G801" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23939,7 +23939,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G802" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23965,7 +23965,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G803" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23991,7 +23991,7 @@
         <v>31</v>
       </c>
       <c r="G804" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24017,7 +24017,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24043,7 +24043,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G806" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24069,7 +24069,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24095,7 +24095,7 @@
         <v>31</v>
       </c>
       <c r="G808" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24121,7 +24121,7 @@
         <v>31</v>
       </c>
       <c r="G809" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24147,7 +24147,7 @@
         <v>31</v>
       </c>
       <c r="G810" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24173,7 +24173,7 @@
         <v>31</v>
       </c>
       <c r="G811" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24199,7 +24199,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24225,7 +24225,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24251,7 +24251,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24277,7 +24277,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G815" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24303,7 +24303,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24329,7 +24329,7 @@
         <v>31</v>
       </c>
       <c r="G817" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24355,7 +24355,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24381,7 +24381,7 @@
         <v>31</v>
       </c>
       <c r="G819" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24407,7 +24407,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G820" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24433,7 +24433,7 @@
         <v>30.5</v>
       </c>
       <c r="G821" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24459,7 +24459,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24485,7 +24485,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24511,7 +24511,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24537,7 +24537,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24563,7 +24563,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24589,7 +24589,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24615,7 +24615,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24641,7 +24641,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G829" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24667,7 +24667,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24693,7 +24693,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24719,7 +24719,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24745,7 +24745,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G833" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24771,7 +24771,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G834" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24797,7 +24797,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24823,7 +24823,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G836" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24849,7 +24849,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G837" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24875,7 +24875,7 @@
         <v>31</v>
       </c>
       <c r="G838" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24901,7 +24901,7 @@
         <v>31</v>
       </c>
       <c r="G839" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24927,7 +24927,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24953,7 +24953,7 @@
         <v>30</v>
       </c>
       <c r="G841" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24979,7 +24979,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25005,7 +25005,7 @@
         <v>30.5</v>
       </c>
       <c r="G843" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25031,7 +25031,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G844" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25057,7 +25057,7 @@
         <v>30.5</v>
       </c>
       <c r="G845" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25083,7 +25083,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G846" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25109,7 +25109,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G847" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25135,7 +25135,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25161,7 +25161,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G849" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25187,7 +25187,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25213,7 +25213,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G851" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25239,7 +25239,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25265,7 +25265,7 @@
         <v>28</v>
       </c>
       <c r="G853" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25291,7 +25291,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25317,7 +25317,7 @@
         <v>28</v>
       </c>
       <c r="G855" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25343,7 +25343,7 @@
         <v>27.5</v>
       </c>
       <c r="G856" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25369,7 +25369,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G857" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25395,7 +25395,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G858" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25421,7 +25421,7 @@
         <v>27.5</v>
       </c>
       <c r="G859" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25447,7 +25447,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G860" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25473,7 +25473,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G861" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25499,7 +25499,7 @@
         <v>28</v>
       </c>
       <c r="G862" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25525,7 +25525,7 @@
         <v>29</v>
       </c>
       <c r="G863" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25551,7 +25551,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25577,7 +25577,7 @@
         <v>29</v>
       </c>
       <c r="G865" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25603,7 +25603,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G866" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25629,7 +25629,7 @@
         <v>29</v>
       </c>
       <c r="G867" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25655,7 +25655,7 @@
         <v>29</v>
       </c>
       <c r="G868" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25681,7 +25681,7 @@
         <v>29</v>
       </c>
       <c r="G869" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25707,7 +25707,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25733,7 +25733,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G871" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25759,7 +25759,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G872" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25785,7 +25785,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25811,7 +25811,7 @@
         <v>30.5</v>
       </c>
       <c r="G874" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25837,7 +25837,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G875" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25863,7 +25863,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G876" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25889,7 +25889,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25915,7 +25915,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G878" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25941,7 +25941,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G879" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25967,7 +25967,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25993,7 +25993,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26019,7 +26019,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26045,7 +26045,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26071,7 +26071,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G884" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26097,7 +26097,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G885" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26123,7 +26123,7 @@
         <v>31.5</v>
       </c>
       <c r="G886" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26149,7 +26149,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26175,7 +26175,7 @@
         <v>32</v>
       </c>
       <c r="G888" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26201,7 +26201,7 @@
         <v>31.5</v>
       </c>
       <c r="G889" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26227,7 +26227,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G890" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26253,7 +26253,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G891" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26279,7 +26279,7 @@
         <v>32</v>
       </c>
       <c r="G892" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26305,7 +26305,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26331,7 +26331,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G894" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26357,7 +26357,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26383,7 +26383,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G896" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26409,7 +26409,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G897" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26435,7 +26435,7 @@
         <v>31</v>
       </c>
       <c r="G898" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26461,7 +26461,7 @@
         <v>31</v>
       </c>
       <c r="G899" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26487,7 +26487,7 @@
         <v>31</v>
       </c>
       <c r="G900" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26513,7 +26513,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G901" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26539,7 +26539,7 @@
         <v>31</v>
       </c>
       <c r="G902" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26565,7 +26565,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G903" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26591,7 +26591,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26617,7 +26617,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26643,7 +26643,7 @@
         <v>31</v>
       </c>
       <c r="G906" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26669,7 +26669,7 @@
         <v>31</v>
       </c>
       <c r="G907" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26695,7 +26695,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26721,7 +26721,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26747,7 +26747,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26773,7 +26773,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26799,7 +26799,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G912" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26825,7 +26825,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26851,7 +26851,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26877,7 +26877,7 @@
         <v>30</v>
       </c>
       <c r="G915" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26903,7 +26903,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G916" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26955,7 +26955,7 @@
         <v>29</v>
       </c>
       <c r="G918" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27007,7 +27007,7 @@
         <v>29</v>
       </c>
       <c r="G920" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27085,7 +27085,7 @@
         <v>29</v>
       </c>
       <c r="G923" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27111,7 +27111,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G924" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27137,7 +27137,7 @@
         <v>29</v>
       </c>
       <c r="G925" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27163,7 +27163,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G926" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27189,7 +27189,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G927" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27215,7 +27215,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G928" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27267,7 +27267,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27293,7 +27293,7 @@
         <v>30.5</v>
       </c>
       <c r="G931" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27319,7 +27319,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27423,7 +27423,7 @@
         <v>30</v>
       </c>
       <c r="G936" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27501,7 +27501,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27527,7 +27527,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27553,7 +27553,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G941" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27579,7 +27579,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G942" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27605,7 +27605,7 @@
         <v>30</v>
       </c>
       <c r="G943" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27631,7 +27631,7 @@
         <v>30</v>
       </c>
       <c r="G944" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27683,7 +27683,7 @@
         <v>30</v>
       </c>
       <c r="G946" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27709,7 +27709,7 @@
         <v>30.5</v>
       </c>
       <c r="G947" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27735,7 +27735,7 @@
         <v>30.5</v>
       </c>
       <c r="G948" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27761,7 +27761,7 @@
         <v>30</v>
       </c>
       <c r="G949" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27813,7 +27813,7 @@
         <v>30</v>
       </c>
       <c r="G951" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27865,7 +27865,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G953" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27917,7 +27917,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G955" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27943,7 +27943,7 @@
         <v>30</v>
       </c>
       <c r="G956" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27969,7 +27969,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27995,7 +27995,7 @@
         <v>30</v>
       </c>
       <c r="G958" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28021,7 +28021,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28047,7 +28047,7 @@
         <v>30</v>
       </c>
       <c r="G960" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28073,7 +28073,7 @@
         <v>30</v>
       </c>
       <c r="G961" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28099,7 +28099,7 @@
         <v>30</v>
       </c>
       <c r="G962" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28125,7 +28125,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28151,7 +28151,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G964" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28177,7 +28177,7 @@
         <v>30</v>
       </c>
       <c r="G965" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28203,7 +28203,7 @@
         <v>30</v>
       </c>
       <c r="G966" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28255,7 +28255,7 @@
         <v>30</v>
       </c>
       <c r="G968" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28281,7 +28281,7 @@
         <v>30</v>
       </c>
       <c r="G969" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28359,7 +28359,7 @@
         <v>30</v>
       </c>
       <c r="G972" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28411,7 +28411,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28437,7 +28437,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28489,7 +28489,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G977" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28515,7 +28515,7 @@
         <v>31</v>
       </c>
       <c r="G978" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28541,7 +28541,7 @@
         <v>31</v>
       </c>
       <c r="G979" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28567,7 +28567,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28593,7 +28593,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G981" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28619,7 +28619,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28645,7 +28645,7 @@
         <v>31</v>
       </c>
       <c r="G983" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28671,7 +28671,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G984" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28697,7 +28697,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G985" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28723,7 +28723,7 @@
         <v>31</v>
       </c>
       <c r="G986" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28749,7 +28749,7 @@
         <v>31.5</v>
       </c>
       <c r="G987" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28775,7 +28775,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28801,7 +28801,7 @@
         <v>31.5</v>
       </c>
       <c r="G989" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28827,7 +28827,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G990" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28853,7 +28853,7 @@
         <v>31.5</v>
       </c>
       <c r="G991" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28879,7 +28879,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28905,7 +28905,7 @@
         <v>31.5</v>
       </c>
       <c r="G993" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28931,7 +28931,7 @@
         <v>31.5</v>
       </c>
       <c r="G994" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28957,7 +28957,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G995" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28983,7 +28983,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G996" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29009,7 +29009,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29035,7 +29035,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G998" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29061,7 +29061,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29087,7 +29087,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29113,7 +29113,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1001" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29139,7 +29139,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29165,7 +29165,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29191,7 +29191,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1004" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29217,7 +29217,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1005" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29243,7 +29243,7 @@
         <v>31</v>
       </c>
       <c r="G1006" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29269,7 +29269,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1007" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29295,7 +29295,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29321,7 +29321,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29347,7 +29347,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29373,7 +29373,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29399,7 +29399,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29425,7 +29425,7 @@
         <v>30.5</v>
       </c>
       <c r="G1013" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29451,7 +29451,7 @@
         <v>30.5</v>
       </c>
       <c r="G1014" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29503,7 +29503,7 @@
         <v>30.5</v>
       </c>
       <c r="G1016" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29555,7 +29555,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1018" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29581,7 +29581,7 @@
         <v>30</v>
       </c>
       <c r="G1019" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29607,7 +29607,7 @@
         <v>30.5</v>
       </c>
       <c r="G1020" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29633,7 +29633,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1021" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29659,7 +29659,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1022" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29685,7 +29685,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1023" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29711,7 +29711,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1024" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29737,7 +29737,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29763,7 +29763,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1026" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29789,7 +29789,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1027" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29815,7 +29815,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29841,7 +29841,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29867,7 +29867,7 @@
         <v>30</v>
       </c>
       <c r="G1030" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29893,7 +29893,7 @@
         <v>30</v>
       </c>
       <c r="G1031" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29919,7 +29919,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1032" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30101,7 +30101,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30127,7 +30127,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30153,7 +30153,7 @@
         <v>28</v>
       </c>
       <c r="G1041" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30283,7 +30283,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1046" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30335,7 +30335,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1048" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30361,7 +30361,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30413,7 +30413,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1051" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30439,7 +30439,7 @@
         <v>28</v>
       </c>
       <c r="G1052" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30517,7 +30517,7 @@
         <v>27.5</v>
       </c>
       <c r="G1055" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -36783,7 +36783,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1296" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36809,7 +36809,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1297" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36861,7 +36861,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1299" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36913,7 +36913,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36939,7 +36939,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1302" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36965,7 +36965,7 @@
         <v>29</v>
       </c>
       <c r="G1303" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36991,7 +36991,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1304" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37017,7 +37017,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1305" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37121,7 +37121,7 @@
         <v>28</v>
       </c>
       <c r="G1309" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37147,7 +37147,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37173,7 +37173,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37251,7 +37251,7 @@
         <v>28</v>
       </c>
       <c r="G1314" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37277,7 +37277,7 @@
         <v>28</v>
       </c>
       <c r="G1315" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37303,7 +37303,7 @@
         <v>28</v>
       </c>
       <c r="G1316" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37667,7 +37667,7 @@
         <v>27.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37849,7 +37849,7 @@
         <v>27.5</v>
       </c>
       <c r="G1337" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -58917,7 +58917,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6050231481</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>6092</v>
@@ -58938,6 +58938,32 @@
         <v>896</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6495833333</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>14323</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>2.93499994277954</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>2.70000004768372</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>2.93499994277954</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>2.90000009536743</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>896</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="917">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">1.29973936080933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29750108718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27586340904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26840221881866</t>
+    <t xml:space="preserve">1.29750096797943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27586364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26840233802795</t>
   </si>
   <si>
     <t xml:space="preserve">1.27511739730835</t>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">1.29004001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26616394519806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944876670837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25347995758057</t>
+    <t xml:space="preserve">1.26616382598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25944900512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25347983837128</t>
   </si>
   <si>
     <t xml:space="preserve">1.25273394584656</t>
@@ -80,31 +80,31 @@
     <t xml:space="preserve">1.21766638755798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24676489830017</t>
+    <t xml:space="preserve">1.24676501750946</t>
   </si>
   <si>
     <t xml:space="preserve">1.31167733669281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30496227741241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30123162269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30570828914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3198846578598</t>
+    <t xml:space="preserve">1.30496203899384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30123174190521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.305708527565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31988453865051</t>
   </si>
   <si>
     <t xml:space="preserve">1.28929376602173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27884793281555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317942142487</t>
+    <t xml:space="preserve">1.27884817123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26317965984344</t>
   </si>
   <si>
     <t xml:space="preserve">1.27437126636505</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">1.28034007549286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25721061229706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31316947937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32063090801239</t>
+    <t xml:space="preserve">1.25721049308777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31316959857941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3206307888031</t>
   </si>
   <si>
     <t xml:space="preserve">1.31391572952271</t>
@@ -131,19 +131,19 @@
     <t xml:space="preserve">1.3243613243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26989459991455</t>
+    <t xml:space="preserve">1.26989471912384</t>
   </si>
   <si>
     <t xml:space="preserve">1.28183245658875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3295841217041</t>
+    <t xml:space="preserve">1.32958424091339</t>
   </si>
   <si>
     <t xml:space="preserve">1.32212293148041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32809174060822</t>
+    <t xml:space="preserve">1.3280918598175</t>
   </si>
   <si>
     <t xml:space="preserve">1.3273458480835</t>
@@ -164,13 +164,13 @@
     <t xml:space="preserve">1.30272376537323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30347001552582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29675483703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078590869904</t>
+    <t xml:space="preserve">1.30346989631653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29675471782684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078602790833</t>
   </si>
   <si>
     <t xml:space="preserve">1.28854763507843</t>
@@ -185,85 +185,85 @@
     <t xml:space="preserve">1.3167724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32364642620087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33433961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33204817771912</t>
+    <t xml:space="preserve">1.32364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33433949947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33204829692841</t>
   </si>
   <si>
     <t xml:space="preserve">1.32975685596466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33052062988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31830012798309</t>
+    <t xml:space="preserve">1.3305207490921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3183000087738</t>
   </si>
   <si>
     <t xml:space="preserve">1.32670176029205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32211899757385</t>
+    <t xml:space="preserve">1.32211887836456</t>
   </si>
   <si>
     <t xml:space="preserve">1.34044992923737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33663094043732</t>
+    <t xml:space="preserve">1.33663105964661</t>
   </si>
   <si>
     <t xml:space="preserve">1.33510339260101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899308204651</t>
+    <t xml:space="preserve">1.32899296283722</t>
   </si>
   <si>
     <t xml:space="preserve">1.32822930812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32135510444641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33815860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34426867961884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34350502490997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33892261981964</t>
+    <t xml:space="preserve">1.3213552236557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33815848827362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3442690372467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34350490570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33892250061035</t>
   </si>
   <si>
     <t xml:space="preserve">1.31906390190125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2953861951828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29767775535583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28316581249237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28851246833801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011047840118</t>
+    <t xml:space="preserve">1.29538643360138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29767763614655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28316557407379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851234912872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011059761047</t>
   </si>
   <si>
     <t xml:space="preserve">1.25948810577393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26025176048279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23733842372894</t>
+    <t xml:space="preserve">1.26025187969208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23733854293823</t>
   </si>
   <si>
     <t xml:space="preserve">1.22970044612885</t>
@@ -275,40 +275,40 @@
     <t xml:space="preserve">1.22053503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22206270694733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2212986946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24115741252899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27552783489227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27476418018341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29385888576508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29309499263763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2923309803009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2892758846283</t>
+    <t xml:space="preserve">1.22206258773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22129881381989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2411572933197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27552795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27476406097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29385876655579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29309511184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29233121871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28927600383759</t>
   </si>
   <si>
     <t xml:space="preserve">1.25872445106506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28469324111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24955904483795</t>
+    <t xml:space="preserve">1.28469336032867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24955892562866</t>
   </si>
   <si>
     <t xml:space="preserve">1.27018117904663</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">1.27629160881042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698480129242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28622090816498</t>
+    <t xml:space="preserve">1.28698456287384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28622078895569</t>
   </si>
   <si>
     <t xml:space="preserve">1.28240203857422</t>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">1.31371736526489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36412727832794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572576522827</t>
+    <t xml:space="preserve">1.36412751674652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572564601898</t>
   </si>
   <si>
     <t xml:space="preserve">1.38093066215515</t>
@@ -344,28 +344,28 @@
     <t xml:space="preserve">1.3740565776825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38551330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36030852794647</t>
+    <t xml:space="preserve">1.38551354408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36030840873718</t>
   </si>
   <si>
     <t xml:space="preserve">1.37329292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37558424472809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35419809818268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954451560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35648941993713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34503281116486</t>
+    <t xml:space="preserve">1.3755841255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35419797897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954463481903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35648953914642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34503269195557</t>
   </si>
   <si>
     <t xml:space="preserve">1.35190689563751</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">1.35496187210083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34961533546448</t>
+    <t xml:space="preserve">1.34961545467377</t>
   </si>
   <si>
     <t xml:space="preserve">1.34885156154633</t>
@@ -386,16 +386,16 @@
     <t xml:space="preserve">1.35801708698273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36259973049164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32441020011902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288253307343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30226051807404</t>
+    <t xml:space="preserve">1.36259996891022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32441031932831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.322882771492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30226039886475</t>
   </si>
   <si>
     <t xml:space="preserve">1.30989837646484</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">1.32059156894684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33586728572845</t>
+    <t xml:space="preserve">1.33586716651917</t>
   </si>
   <si>
     <t xml:space="preserve">1.31295359134674</t>
@@ -419,58 +419,58 @@
     <t xml:space="preserve">1.30073297023773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2984414100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003977775574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2908034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29615020751953</t>
+    <t xml:space="preserve">1.29844164848328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29003989696503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29080367088318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29615008831024</t>
   </si>
   <si>
     <t xml:space="preserve">1.28545713424683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2625435590744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26407110691071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27170872688293</t>
+    <t xml:space="preserve">1.26254343986511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26407086849213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27170884609222</t>
   </si>
   <si>
     <t xml:space="preserve">1.26788997650146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24192118644714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23351943492889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26712620258331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24497640132904</t>
+    <t xml:space="preserve">1.24192130565643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2335193157196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2671263217926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24497628211975</t>
   </si>
   <si>
     <t xml:space="preserve">1.2487952709198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27323651313782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26941752433777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31448101997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33357560634613</t>
+    <t xml:space="preserve">1.27323639392853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26941764354706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31448090076447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33357572555542</t>
   </si>
   <si>
     <t xml:space="preserve">1.34197747707367</t>
@@ -479,85 +479,85 @@
     <t xml:space="preserve">1.35114300251007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35343420505524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36718261241913</t>
+    <t xml:space="preserve">1.35343432426453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36718237400055</t>
   </si>
   <si>
     <t xml:space="preserve">1.38322222232819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39926171302795</t>
+    <t xml:space="preserve">1.39926159381866</t>
   </si>
   <si>
     <t xml:space="preserve">1.39162373542786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39238774776459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39009630680084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3969703912735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39773404598236</t>
+    <t xml:space="preserve">1.3923876285553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39009642601013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39697027206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39773392677307</t>
   </si>
   <si>
     <t xml:space="preserve">1.40537190437317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40078926086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3984979391098</t>
+    <t xml:space="preserve">1.40078949928284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39849781990051</t>
   </si>
   <si>
     <t xml:space="preserve">1.3847496509552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3786393404007</t>
+    <t xml:space="preserve">1.37863945960999</t>
   </si>
   <si>
     <t xml:space="preserve">1.40460824966431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42064774036407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41988408565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39086008071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40842723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39620637893677</t>
+    <t xml:space="preserve">1.42064785957336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41988396644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39085984230042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40842711925507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39620649814606</t>
   </si>
   <si>
     <t xml:space="preserve">1.40231692790985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40384435653687</t>
+    <t xml:space="preserve">1.40384447574615</t>
   </si>
   <si>
     <t xml:space="preserve">1.38704109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42293918132782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42752194404602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43668723106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44279778003693</t>
+    <t xml:space="preserve">1.42293906211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42752182483673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43668746948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44279742240906</t>
   </si>
   <si>
     <t xml:space="preserve">1.4588371515274</t>
@@ -566,25 +566,25 @@
     <t xml:space="preserve">1.47411298751831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46800255775452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4695303440094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47029399871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46418392658234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45349085330963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42904949188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43897879123688</t>
+    <t xml:space="preserve">1.46800267696381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46952998638153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47029387950897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46418380737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45349061489105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42904937267303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4389785528183</t>
   </si>
   <si>
     <t xml:space="preserve">1.44967174530029</t>
@@ -593,112 +593,112 @@
     <t xml:space="preserve">1.46265625953674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55812990665436</t>
+    <t xml:space="preserve">1.55812978744507</t>
   </si>
   <si>
     <t xml:space="preserve">1.540562748909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5466730594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55660223960876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56882309913635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53139710426331</t>
+    <t xml:space="preserve">1.54667282104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55660235881805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56882286071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53139698505402</t>
   </si>
   <si>
     <t xml:space="preserve">1.52223181724548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5436178445816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56042122840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5558385848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55278337001801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59402787685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57569706439972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5993744134903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5963191986084</t>
+    <t xml:space="preserve">1.54361772537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5604213476181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55583846569061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55278325080872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59402799606323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57569694519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59937453269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59631907939911</t>
   </si>
   <si>
     <t xml:space="preserve">1.59861075878143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59479153156281</t>
+    <t xml:space="preserve">1.59479141235352</t>
   </si>
   <si>
     <t xml:space="preserve">1.58104360103607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5650041103363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56347644329071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049192905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53521633148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54896438121796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52757823467255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51841270923615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54972839355469</t>
+    <t xml:space="preserve">1.56500387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56347608566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049180984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53521609306335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54896426200867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52757847309113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51841282844543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5497282743454</t>
   </si>
   <si>
     <t xml:space="preserve">1.58715391159058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60472106933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131223201752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70237553119659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70551800727844</t>
+    <t xml:space="preserve">1.60472095012665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131211280823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70237529277802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70551776885986</t>
   </si>
   <si>
     <t xml:space="preserve">1.72044408321381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70708918571472</t>
+    <t xml:space="preserve">1.70708894729614</t>
   </si>
   <si>
     <t xml:space="preserve">1.73929822444916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73537039756775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73379933834076</t>
+    <t xml:space="preserve">1.73537027835846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73379921913147</t>
   </si>
   <si>
     <t xml:space="preserve">1.84613859653473</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10145592689514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03860855102539</t>
+    <t xml:space="preserve">2.10145568847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03860831260681</t>
   </si>
   <si>
     <t xml:space="preserve">2.0684609413147</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">1.91369950771332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98597371578217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98754489421844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99540078639984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01975417137146</t>
+    <t xml:space="preserve">1.98597419261932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98754513263702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99540102481842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01975440979004</t>
   </si>
   <si>
     <t xml:space="preserve">2.00639939308167</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">1.99932897090912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96319139003754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01268410682678</t>
+    <t xml:space="preserve">1.96319174766541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01268434524536</t>
   </si>
   <si>
     <t xml:space="preserve">2.00561380386353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00954174995422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02525329589844</t>
+    <t xml:space="preserve">2.00954151153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02525353431702</t>
   </si>
   <si>
     <t xml:space="preserve">2.01032733917236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98675966262817</t>
+    <t xml:space="preserve">1.98675942420959</t>
   </si>
   <si>
     <t xml:space="preserve">2.00325679779053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00247120857239</t>
+    <t xml:space="preserve">2.00247144699097</t>
   </si>
   <si>
     <t xml:space="preserve">2.01661205291748</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">1.97261893749237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99068760871887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97968900203705</t>
+    <t xml:space="preserve">1.99068737030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97968924045563</t>
   </si>
   <si>
     <t xml:space="preserve">1.97733235359192</t>
@@ -806,43 +806,43 @@
     <t xml:space="preserve">1.84770977497101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87599098682404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84535300731659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87284874916077</t>
+    <t xml:space="preserve">1.87599110603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84535312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87284886837006</t>
   </si>
   <si>
     <t xml:space="preserve">1.88620388507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91055738925934</t>
+    <t xml:space="preserve">1.91055715084076</t>
   </si>
   <si>
     <t xml:space="preserve">1.92941129207611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90505790710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88934600353241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90584373474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605603694916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91919875144958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93333947658539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90113008022308</t>
+    <t xml:space="preserve">1.90505814552307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88934624195099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90584361553192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605627536774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91919851303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93333923816681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90112996101379</t>
   </si>
   <si>
     <t xml:space="preserve">1.92862558364868</t>
@@ -851,19 +851,19 @@
     <t xml:space="preserve">1.92705464363098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91762745380402</t>
+    <t xml:space="preserve">1.9176276922226</t>
   </si>
   <si>
     <t xml:space="preserve">1.98047459125519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99618649482727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05981922149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05746293067932</t>
+    <t xml:space="preserve">1.99618637561798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05981945991516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05746269226074</t>
   </si>
   <si>
     <t xml:space="preserve">2.01504063606262</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">2.0205397605896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00482797622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97026193141937</t>
+    <t xml:space="preserve">2.00482821464539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97026216983795</t>
   </si>
   <si>
     <t xml:space="preserve">1.96947646141052</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">1.93962395191193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93726742267609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93805265426636</t>
+    <t xml:space="preserve">1.93726718425751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93805289268494</t>
   </si>
   <si>
     <t xml:space="preserve">1.93255376815796</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">1.94826531410217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96711993217468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95376467704773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95219373703003</t>
+    <t xml:space="preserve">1.9671196937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95376491546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95219349861145</t>
   </si>
   <si>
     <t xml:space="preserve">1.94276630878448</t>
@@ -929,13 +929,13 @@
     <t xml:space="preserve">1.94669425487518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92548358440399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234098911285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92784035205841</t>
+    <t xml:space="preserve">1.92548334598541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234110832214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92784011363983</t>
   </si>
   <si>
     <t xml:space="preserve">1.92312669754028</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">1.8972020149231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90348672866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90820026397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89484560489655</t>
+    <t xml:space="preserve">1.9034868478775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90820050239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89484548568726</t>
   </si>
   <si>
     <t xml:space="preserve">1.8995589017868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89013171195984</t>
+    <t xml:space="preserve">1.89013183116913</t>
   </si>
   <si>
     <t xml:space="preserve">1.89563083648682</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">1.91212832927704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90191543102264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93098258972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9812605381012</t>
+    <t xml:space="preserve">1.90191566944122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9309823513031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98126029968262</t>
   </si>
   <si>
     <t xml:space="preserve">2.02132534980774</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">2.00090003013611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06610369682312</t>
+    <t xml:space="preserve">2.06610417366028</t>
   </si>
   <si>
     <t xml:space="preserve">2.05039215087891</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">2.03153824806213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0566771030426</t>
+    <t xml:space="preserve">2.05667686462402</t>
   </si>
   <si>
     <t xml:space="preserve">2.05353498458862</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">2.19494104385376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13287925720215</t>
+    <t xml:space="preserve">2.13287949562073</t>
   </si>
   <si>
     <t xml:space="preserve">2.11245393753052</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">2.07396006584167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652973175049</t>
+    <t xml:space="preserve">2.08652949333191</t>
   </si>
   <si>
     <t xml:space="preserve">2.0723888874054</t>
@@ -1025,25 +1025,25 @@
     <t xml:space="preserve">2.07710242271423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05196332931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08574414253235</t>
+    <t xml:space="preserve">2.05196356773376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08574390411377</t>
   </si>
   <si>
     <t xml:space="preserve">2.05117797851562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.062175989151</t>
+    <t xml:space="preserve">2.06217622756958</t>
   </si>
   <si>
     <t xml:space="preserve">2.06924676895142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11323976516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1525194644928</t>
+    <t xml:space="preserve">2.11323952674866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15251922607422</t>
   </si>
   <si>
     <t xml:space="preserve">2.16587424278259</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">2.17215895652771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17294430732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17687225341797</t>
+    <t xml:space="preserve">2.17294454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17687249183655</t>
   </si>
   <si>
     <t xml:space="preserve">2.16823124885559</t>
@@ -1070,31 +1070,31 @@
     <t xml:space="preserve">2.20358228683472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19179844856262</t>
+    <t xml:space="preserve">2.1917986869812</t>
   </si>
   <si>
     <t xml:space="preserve">2.17765831947327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16037535667419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1501624584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14937686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14859127998352</t>
+    <t xml:space="preserve">2.16037511825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15016269683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14937663078308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1485915184021</t>
   </si>
   <si>
     <t xml:space="preserve">2.16665959358215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17451596260071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1957266330719</t>
+    <t xml:space="preserve">2.17451572418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19572687149048</t>
   </si>
   <si>
     <t xml:space="preserve">2.17608690261841</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">2.30963730812073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27035760879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26250195503235</t>
+    <t xml:space="preserve">2.27035784721375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26250171661377</t>
   </si>
   <si>
     <t xml:space="preserve">2.30178141593933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31749320030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41176390647888</t>
+    <t xml:space="preserve">2.3174934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41176414489746</t>
   </si>
   <si>
     <t xml:space="preserve">2.46675562858582</t>
@@ -1133,34 +1133,34 @@
     <t xml:space="preserve">2.43533205986023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47461128234863</t>
+    <t xml:space="preserve">2.47461152076721</t>
   </si>
   <si>
     <t xml:space="preserve">2.42747592926025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38819622993469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3646285533905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3803403377533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40390801429749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39605212211609</t>
+    <t xml:space="preserve">2.38819646835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36462879180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38034057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40390825271606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39605236053467</t>
   </si>
   <si>
     <t xml:space="preserve">2.35677266120911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29392576217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27821373939514</t>
+    <t xml:space="preserve">2.29392552375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27821350097656</t>
   </si>
   <si>
     <t xml:space="preserve">2.54531478881836</t>
@@ -1169,58 +1169,58 @@
     <t xml:space="preserve">2.49032330513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66315317153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65529727935791</t>
+    <t xml:space="preserve">2.66315340995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65529751777649</t>
   </si>
   <si>
     <t xml:space="preserve">2.73385620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56888270378113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60030603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57673811912537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50603532791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53745865821838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5845947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55317068099976</t>
+    <t xml:space="preserve">2.56888246536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60030579566956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57673835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50603485107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5374584197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58459448814392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55317044258118</t>
   </si>
   <si>
     <t xml:space="preserve">2.51389098167419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59245014190674</t>
+    <t xml:space="preserve">2.59244990348816</t>
   </si>
   <si>
     <t xml:space="preserve">2.56102633476257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52174687385559</t>
+    <t xml:space="preserve">2.52174663543701</t>
   </si>
   <si>
     <t xml:space="preserve">2.61601781845093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6395857334137</t>
+    <t xml:space="preserve">2.63958525657654</t>
   </si>
   <si>
     <t xml:space="preserve">2.68816685676575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7043604850769</t>
+    <t xml:space="preserve">2.70436096191406</t>
   </si>
   <si>
     <t xml:space="preserve">2.69626355171204</t>
@@ -1229,28 +1229,25 @@
     <t xml:space="preserve">2.67197299003601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61529493331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62339186668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63148880004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65577912330627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63958549499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59100437164307</t>
+    <t xml:space="preserve">2.61529469490051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62339162826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63148856163025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65577936172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59100413322449</t>
   </si>
   <si>
     <t xml:space="preserve">2.60719799995422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53432559967041</t>
+    <t xml:space="preserve">2.53432583808899</t>
   </si>
   <si>
     <t xml:space="preserve">2.42906641960144</t>
@@ -1259,7 +1256,7 @@
     <t xml:space="preserve">2.40477585792542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38048505783081</t>
+    <t xml:space="preserve">2.38048529624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.4128725528717</t>
@@ -1274,16 +1271,16 @@
     <t xml:space="preserve">2.29141926765442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3157103061676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33190369606018</t>
+    <t xml:space="preserve">2.31571006774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33190393447876</t>
   </si>
   <si>
     <t xml:space="preserve">2.35619449615479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26712870597839</t>
+    <t xml:space="preserve">2.26712894439697</t>
   </si>
   <si>
     <t xml:space="preserve">2.2104504108429</t>
@@ -1292,52 +1289,52 @@
     <t xml:space="preserve">2.28332257270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34809756278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21854758262634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19425678253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22664451599121</t>
+    <t xml:space="preserve">2.3480978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21854734420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19425702095032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22664427757263</t>
   </si>
   <si>
     <t xml:space="preserve">2.18615984916687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17806315422058</t>
+    <t xml:space="preserve">2.178062915802</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996598243713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16186904907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12948131561279</t>
+    <t xml:space="preserve">2.16186928749084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12948179244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25903153419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24283814430237</t>
+    <t xml:space="preserve">2.25903177261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24283838272095</t>
   </si>
   <si>
     <t xml:space="preserve">2.27522563934326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39667916297913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1213846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10519099235535</t>
+    <t xml:space="preserve">2.39667892456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12138485908508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10519123077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.11328768730164</t>
@@ -1346,13 +1343,13 @@
     <t xml:space="preserve">2.09709405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05660963058472</t>
+    <t xml:space="preserve">2.0566098690033</t>
   </si>
   <si>
     <t xml:space="preserve">2.04851269721985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02422213554382</t>
+    <t xml:space="preserve">2.02422189712524</t>
   </si>
   <si>
     <t xml:space="preserve">1.96754384040833</t>
@@ -1361,13 +1358,13 @@
     <t xml:space="preserve">1.95944702625275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93515646457672</t>
+    <t xml:space="preserve">1.93515622615814</t>
   </si>
   <si>
     <t xml:space="preserve">1.95135021209717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87038099765778</t>
+    <t xml:space="preserve">1.87038123607635</t>
   </si>
   <si>
     <t xml:space="preserve">1.9189624786377</t>
@@ -1382,7 +1379,7 @@
     <t xml:space="preserve">2.25093507766724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15377259254456</t>
+    <t xml:space="preserve">2.15377235412598</t>
   </si>
   <si>
     <t xml:space="preserve">2.13757848739624</t>
@@ -1400,31 +1397,31 @@
     <t xml:space="preserve">2.00802826881409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92705941200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88657474517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8298966884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85418736934662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90276861190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97564077377319</t>
+    <t xml:space="preserve">1.92705917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88657462596893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82989680767059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85418748855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179987430573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90276873111725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97564053535461</t>
   </si>
   <si>
     <t xml:space="preserve">1.9999315738678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30761289596558</t>
+    <t xml:space="preserve">2.30761313438416</t>
   </si>
   <si>
     <t xml:space="preserve">2.20235371589661</t>
@@ -1433,16 +1430,16 @@
     <t xml:space="preserve">2.14567542076111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36429166793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34000039100647</t>
+    <t xml:space="preserve">2.36429142951965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
     <t xml:space="preserve">2.45335698127747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42096948623657</t>
+    <t xml:space="preserve">2.42096972465515</t>
   </si>
   <si>
     <t xml:space="preserve">2.43716335296631</t>
@@ -1451,28 +1448,28 @@
     <t xml:space="preserve">2.46145391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51003551483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48574447631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49384188652039</t>
+    <t xml:space="preserve">2.51003527641296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48574471473694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49384164810181</t>
   </si>
   <si>
     <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51813220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5262291431427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4695508480072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44526052474976</t>
+    <t xml:space="preserve">2.51813244819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52622890472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46955108642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44526028633118</t>
   </si>
   <si>
     <t xml:space="preserve">2.47764754295349</t>
@@ -1481,40 +1478,40 @@
     <t xml:space="preserve">2.55861663818359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58290767669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387677192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65539216995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62994170188904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60449028015137</t>
+    <t xml:space="preserve">2.58290719985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6638765335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65539240837097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62994146347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60449051856995</t>
   </si>
   <si>
     <t xml:space="preserve">2.54510474205017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56207227706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58752298355103</t>
+    <t xml:space="preserve">2.56207203865051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5875232219696</t>
   </si>
   <si>
     <t xml:space="preserve">2.5960066318512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6129744052887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51117014884949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53662085533142</t>
+    <t xml:space="preserve">2.61297416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51116991043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53662109375</t>
   </si>
   <si>
     <t xml:space="preserve">2.52813720703125</t>
@@ -1523,37 +1520,37 @@
     <t xml:space="preserve">2.46875166893005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49420261383057</t>
+    <t xml:space="preserve">2.49420285224915</t>
   </si>
   <si>
     <t xml:space="preserve">2.38391470909119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37543106079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32452917098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33301281929016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3499801158905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36694717407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4602677822113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4263334274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44330048561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4772355556488</t>
+    <t xml:space="preserve">2.37543129920959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32452893257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33301258087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34998035430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36694741249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46026802062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42633318901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44330072402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47723531723022</t>
   </si>
   <si>
     <t xml:space="preserve">2.57055568695068</t>
@@ -1562,31 +1559,31 @@
     <t xml:space="preserve">2.62145781517029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842511177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64690899848938</t>
+    <t xml:space="preserve">2.63842535018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6469087600708</t>
   </si>
   <si>
     <t xml:space="preserve">2.69781088829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70629501342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67235970497131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477842330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7232620716095</t>
+    <t xml:space="preserve">2.70629453659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67235994338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477818489075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72326183319092</t>
   </si>
   <si>
     <t xml:space="preserve">2.68084359169006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68932723999023</t>
+    <t xml:space="preserve">2.68932747840881</t>
   </si>
   <si>
     <t xml:space="preserve">2.66387629508972</t>
@@ -1598,7 +1595,7 @@
     <t xml:space="preserve">2.43481683731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45178389549255</t>
+    <t xml:space="preserve">2.45178413391113</t>
   </si>
   <si>
     <t xml:space="preserve">2.50268626213074</t>
@@ -1622,16 +1619,16 @@
     <t xml:space="preserve">2.40088200569153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20575737953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28211069107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2227246761322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1718225479126</t>
+    <t xml:space="preserve">2.20575761795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28211045265198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22272491455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17182278633118</t>
   </si>
   <si>
     <t xml:space="preserve">2.19727373123169</t>
@@ -1643,25 +1640,25 @@
     <t xml:space="preserve">2.13788795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97669780254364</t>
+    <t xml:space="preserve">1.97669768333435</t>
   </si>
   <si>
     <t xml:space="preserve">1.73067116737366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73915481567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69673645496368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5355464220047</t>
+    <t xml:space="preserve">1.73915493488312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69673657417297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53554666042328</t>
   </si>
   <si>
     <t xml:space="preserve">1.56948125362396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57796502113342</t>
+    <t xml:space="preserve">1.57796490192413</t>
   </si>
   <si>
     <t xml:space="preserve">1.68401098251343</t>
@@ -1676,16 +1673,16 @@
     <t xml:space="preserve">1.59917414188385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56099736690521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65431821346283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67128551006317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64159262180328</t>
+    <t xml:space="preserve">1.56099760532379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65431809425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67128539085388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64159250259399</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886703014374</t>
@@ -1694,7 +1691,7 @@
     <t xml:space="preserve">1.65007627010345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6373507976532</t>
+    <t xml:space="preserve">1.63735067844391</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
@@ -1706,31 +1703,31 @@
     <t xml:space="preserve">1.67552721500397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6924946308136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65855979919434</t>
+    <t xml:space="preserve">1.69249486923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65855991840363</t>
   </si>
   <si>
     <t xml:space="preserve">1.68825280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74763858318329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78157329559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84095931053162</t>
+    <t xml:space="preserve">1.74763870239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78157317638397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84095919132233</t>
   </si>
   <si>
     <t xml:space="preserve">1.80702435970306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79005694389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77308964729309</t>
+    <t xml:space="preserve">1.79005706310272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77308940887451</t>
   </si>
   <si>
     <t xml:space="preserve">1.7221873998642</t>
@@ -1739,10 +1736,10 @@
     <t xml:space="preserve">1.8239917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83247542381287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84944260120392</t>
+    <t xml:space="preserve">1.83247530460358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84944272041321</t>
   </si>
   <si>
     <t xml:space="preserve">1.86641001701355</t>
@@ -1751,10 +1748,10 @@
     <t xml:space="preserve">1.90034472942352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9597305059433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90882849693298</t>
+    <t xml:space="preserve">1.95973074436188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90882861614227</t>
   </si>
   <si>
     <t xml:space="preserve">1.88337743282318</t>
@@ -1766,19 +1763,19 @@
     <t xml:space="preserve">1.8748939037323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85792636871338</t>
+    <t xml:space="preserve">1.85792648792267</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81550788879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75612235069275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67976915836334</t>
+    <t xml:space="preserve">1.81550800800323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75612223148346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67976903915405</t>
   </si>
   <si>
     <t xml:space="preserve">1.7137039899826</t>
@@ -1799,13 +1796,13 @@
     <t xml:space="preserve">1.55251371860504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54827201366425</t>
+    <t xml:space="preserve">1.54827213287354</t>
   </si>
   <si>
     <t xml:space="preserve">1.49312818050385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4846442937851</t>
+    <t xml:space="preserve">1.48464453220367</t>
   </si>
   <si>
     <t xml:space="preserve">1.47191894054413</t>
@@ -1814,25 +1811,25 @@
     <t xml:space="preserve">1.46767687797546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49737000465393</t>
+    <t xml:space="preserve">1.49736988544464</t>
   </si>
   <si>
     <t xml:space="preserve">1.47616064548492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42525863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39132380485535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44222593307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41677486896515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36163103580475</t>
+    <t xml:space="preserve">1.42525851726532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39132392406464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44222605228424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41677510738373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36163091659546</t>
   </si>
   <si>
     <t xml:space="preserve">1.3489054441452</t>
@@ -1841,16 +1838,16 @@
     <t xml:space="preserve">1.36587285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3955659866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38284015655518</t>
+    <t xml:space="preserve">1.39556586742401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38284003734589</t>
   </si>
   <si>
     <t xml:space="preserve">1.40829122066498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43374228477478</t>
+    <t xml:space="preserve">1.43374240398407</t>
   </si>
   <si>
     <t xml:space="preserve">1.41253304481506</t>
@@ -1859,46 +1856,46 @@
     <t xml:space="preserve">1.45919346809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46343517303467</t>
+    <t xml:space="preserve">1.46343529224396</t>
   </si>
   <si>
     <t xml:space="preserve">1.44646775722504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45070970058441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43798422813416</t>
+    <t xml:space="preserve">1.4507098197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43798434734344</t>
   </si>
   <si>
     <t xml:space="preserve">1.53130459785461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58644878864288</t>
+    <t xml:space="preserve">1.5864485502243</t>
   </si>
   <si>
     <t xml:space="preserve">1.62038338184357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6118997335434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55675566196442</t>
+    <t xml:space="preserve">1.61189961433411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55675578117371</t>
   </si>
   <si>
     <t xml:space="preserve">1.59069049358368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57372307777405</t>
+    <t xml:space="preserve">1.57372295856476</t>
   </si>
   <si>
     <t xml:space="preserve">1.58220672607422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6076580286026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403018951416</t>
+    <t xml:space="preserve">1.60765790939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403030872345</t>
   </si>
   <si>
     <t xml:space="preserve">1.95124697685242</t>
@@ -1925,22 +1922,25 @@
     <t xml:space="preserve">2.14637160301208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23120808601379</t>
+    <t xml:space="preserve">2.23120856285095</t>
   </si>
   <si>
     <t xml:space="preserve">2.30756163597107</t>
   </si>
   <si>
+    <t xml:space="preserve">2.30756187438965</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.31620407104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33348917961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34213185310364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35077428817749</t>
+    <t xml:space="preserve">2.33348941802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34213209152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35077452659607</t>
   </si>
   <si>
     <t xml:space="preserve">2.29891920089722</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">2.29027652740479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27299118041992</t>
+    <t xml:space="preserve">2.2729914188385</t>
   </si>
   <si>
     <t xml:space="preserve">2.44584250450134</t>
@@ -1964,28 +1964,28 @@
     <t xml:space="preserve">2.47177028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48905515670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50634026527405</t>
+    <t xml:space="preserve">2.48905539512634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50634050369263</t>
   </si>
   <si>
     <t xml:space="preserve">2.5581955909729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59276604652405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60140872001648</t>
+    <t xml:space="preserve">2.58412337303162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59276580810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
     <t xml:space="preserve">2.52362561225891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49769759178162</t>
+    <t xml:space="preserve">2.4976978302002</t>
   </si>
   <si>
     <t xml:space="preserve">2.48041272163391</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">2.54955315589905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54091048240662</t>
+    <t xml:space="preserve">2.5409107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.53226804733276</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">2.40262985229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41991472244263</t>
+    <t xml:space="preserve">2.41991496086121</t>
   </si>
   <si>
     <t xml:space="preserve">2.41127228736877</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">2.38534474372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37670230865479</t>
+    <t xml:space="preserve">2.37670207023621</t>
   </si>
   <si>
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113633155823</t>
+    <t xml:space="preserve">2.22113609313965</t>
   </si>
   <si>
     <t xml:space="preserve">2.22977876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28163385391235</t>
+    <t xml:space="preserve">2.28163409233093</t>
   </si>
   <si>
     <t xml:space="preserve">2.17792344093323</t>
@@ -2066,10 +2066,10 @@
     <t xml:space="preserve">2.51498293876648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57548046112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61005115509033</t>
+    <t xml:space="preserve">2.57548069953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005091667175</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597869873047</t>
@@ -2084,10 +2084,10 @@
     <t xml:space="preserve">2.83475732803345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81747221946716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93846797943115</t>
+    <t xml:space="preserve">2.81747198104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93846821784973</t>
   </si>
   <si>
     <t xml:space="preserve">2.9730384349823</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">2.99032306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14588928222656</t>
+    <t xml:space="preserve">3.14588952064514</t>
   </si>
   <si>
     <t xml:space="preserve">3.16317415237427</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">3.38788080215454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37923789024353</t>
+    <t xml:space="preserve">3.37923812866211</t>
   </si>
   <si>
     <t xml:space="preserve">3.37059569358826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44837880134583</t>
+    <t xml:space="preserve">3.4483790397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.2582426071167</t>
@@ -2141,52 +2141,52 @@
     <t xml:space="preserve">3.24095749855042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27552795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22367238998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20638728141785</t>
+    <t xml:space="preserve">3.27552771568298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22367215156555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20638680458069</t>
   </si>
   <si>
     <t xml:space="preserve">3.24959993362427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21502995491028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19774484634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39652299880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23231506347656</t>
+    <t xml:space="preserve">3.2150297164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19774460792542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39652323722839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23231482505798</t>
   </si>
   <si>
     <t xml:space="preserve">3.06810641288757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15453171730042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18045926094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18910193443298</t>
+    <t xml:space="preserve">3.15453195571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18045949935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
     <t xml:space="preserve">3.29281258583069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1718168258667</t>
+    <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
     <t xml:space="preserve">3.11996150016785</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13724660873413</t>
+    <t xml:space="preserve">3.13724684715271</t>
   </si>
   <si>
     <t xml:space="preserve">3.11131906509399</t>
@@ -2195,13 +2195,13 @@
     <t xml:space="preserve">3.10267663002014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34466814994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42245101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41380858421326</t>
+    <t xml:space="preserve">3.34466791152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42245078086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41380834579468</t>
   </si>
   <si>
     <t xml:space="preserve">3.43973612785339</t>
@@ -2210,16 +2210,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4607105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264163970947</t>
+    <t xml:space="preserve">4.46071004867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264116287231</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760808944702</t>
+    <t xml:space="preserve">4.84760856628418</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450660705566</t>
+    <t xml:space="preserve">5.23450708389282</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278301239014</t>
+    <t xml:space="preserve">5.30278253555298</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2261,19 +2261,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07657957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.871750831604</t>
+    <t xml:space="preserve">6.07658004760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87175130844116</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071594238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968152999878</t>
+    <t xml:space="preserve">5.78071641921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968105316162</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312919616699</t>
+    <t xml:space="preserve">5.55312871932983</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348079681396</t>
+    <t xml:space="preserve">7.12348031997681</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2306,10 +2306,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796335220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244590759277</t>
+    <t xml:space="preserve">7.07796382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244638442993</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175449371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.53175401687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60003042221069</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485868453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55451250076294</t>
+    <t xml:space="preserve">6.80485916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5545129776001</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382745742798</t>
+    <t xml:space="preserve">7.37382698059082</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2363,10 +2363,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486553192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900508880615</t>
+    <t xml:space="preserve">8.12486457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900413513184</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.651083946228</t>
+    <t xml:space="preserve">10.6510829925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -2760,6 +2760,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.82999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93499994277954</t>
   </si>
 </sst>
 </file>
@@ -18719,7 +18722,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18745,7 +18748,7 @@
         <v>32</v>
       </c>
       <c r="G602" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18771,7 +18774,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18797,7 +18800,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G604" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18849,7 +18852,7 @@
         <v>32</v>
       </c>
       <c r="G606" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18875,7 +18878,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G607" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18901,7 +18904,7 @@
         <v>30</v>
       </c>
       <c r="G608" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18927,7 +18930,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G609" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18953,7 +18956,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18979,7 +18982,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G611" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19005,7 +19008,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G612" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19031,7 +19034,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19057,7 +19060,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19083,7 +19086,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19109,7 +19112,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G616" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19135,7 +19138,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19161,7 +19164,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19187,7 +19190,7 @@
         <v>28</v>
       </c>
       <c r="G619" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19213,7 +19216,7 @@
         <v>28</v>
       </c>
       <c r="G620" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19239,7 +19242,7 @@
         <v>28</v>
       </c>
       <c r="G621" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19265,7 +19268,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G622" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19291,7 +19294,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19317,7 +19320,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19343,7 +19346,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19369,7 +19372,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19395,7 +19398,7 @@
         <v>29</v>
       </c>
       <c r="G627" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19421,7 +19424,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G628" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19447,7 +19450,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G629" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19473,7 +19476,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G630" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19499,7 +19502,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19525,7 +19528,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G632" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19551,7 +19554,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G633" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19577,7 +19580,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19603,7 +19606,7 @@
         <v>27.5</v>
       </c>
       <c r="G635" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19629,7 +19632,7 @@
         <v>27</v>
       </c>
       <c r="G636" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19655,7 +19658,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19681,7 +19684,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19707,7 +19710,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19733,7 +19736,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19759,7 +19762,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19785,7 +19788,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G642" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19811,7 +19814,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19837,7 +19840,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19863,7 +19866,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19889,7 +19892,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G646" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19915,7 +19918,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G647" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19941,7 +19944,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G648" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19967,7 +19970,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19993,7 +19996,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20019,7 +20022,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20045,7 +20048,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G652" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20071,7 +20074,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G653" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20097,7 +20100,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20123,7 +20126,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G655" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20149,7 +20152,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20175,7 +20178,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20201,7 +20204,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20227,7 +20230,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G659" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20253,7 +20256,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20279,7 +20282,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G661" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20305,7 +20308,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20331,7 +20334,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20357,7 +20360,7 @@
         <v>27.5</v>
       </c>
       <c r="G664" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20383,7 +20386,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20409,7 +20412,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20435,7 +20438,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G667" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20461,7 +20464,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G668" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20487,7 +20490,7 @@
         <v>27</v>
       </c>
       <c r="G669" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20513,7 +20516,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20539,7 +20542,7 @@
         <v>27</v>
       </c>
       <c r="G671" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20565,7 +20568,7 @@
         <v>26</v>
       </c>
       <c r="G672" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20591,7 +20594,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20617,7 +20620,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G674" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20643,7 +20646,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G675" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20669,7 +20672,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20695,7 +20698,7 @@
         <v>25</v>
       </c>
       <c r="G677" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20721,7 +20724,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20747,7 +20750,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G679" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20773,7 +20776,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20799,7 +20802,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20825,7 +20828,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20851,7 +20854,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G683" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20877,7 +20880,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G684" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20903,7 +20906,7 @@
         <v>24</v>
       </c>
       <c r="G685" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20929,7 +20932,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20955,7 +20958,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G687" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20981,7 +20984,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21007,7 +21010,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G689" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21033,7 +21036,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G690" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21059,7 +21062,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G691" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21085,7 +21088,7 @@
         <v>27</v>
       </c>
       <c r="G692" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21111,7 +21114,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G693" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21137,7 +21140,7 @@
         <v>26</v>
       </c>
       <c r="G694" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21163,7 +21166,7 @@
         <v>26</v>
       </c>
       <c r="G695" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21189,7 +21192,7 @@
         <v>26</v>
       </c>
       <c r="G696" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21215,7 +21218,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G697" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21241,7 +21244,7 @@
         <v>26</v>
       </c>
       <c r="G698" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21267,7 +21270,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21293,7 +21296,7 @@
         <v>26</v>
       </c>
       <c r="G700" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21319,7 +21322,7 @@
         <v>25.5</v>
       </c>
       <c r="G701" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21345,7 +21348,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21371,7 +21374,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21397,7 +21400,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G704" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21423,7 +21426,7 @@
         <v>26</v>
       </c>
       <c r="G705" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21449,7 +21452,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G706" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21475,7 +21478,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G707" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21501,7 +21504,7 @@
         <v>25.5</v>
       </c>
       <c r="G708" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21527,7 +21530,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21553,7 +21556,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21579,7 +21582,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21605,7 +21608,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21631,7 +21634,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G713" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21657,7 +21660,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21683,7 +21686,7 @@
         <v>24</v>
       </c>
       <c r="G715" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21709,7 +21712,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G716" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21735,7 +21738,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21761,7 +21764,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G718" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21787,7 +21790,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21813,7 +21816,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21839,7 +21842,7 @@
         <v>22.5</v>
       </c>
       <c r="G721" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21865,7 +21868,7 @@
         <v>23.5</v>
       </c>
       <c r="G722" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21891,7 +21894,7 @@
         <v>23.5</v>
       </c>
       <c r="G723" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21917,7 +21920,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21943,7 +21946,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21969,7 +21972,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21995,7 +21998,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22021,7 +22024,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22047,7 +22050,7 @@
         <v>25</v>
       </c>
       <c r="G729" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22073,7 +22076,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G730" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22099,7 +22102,7 @@
         <v>28</v>
       </c>
       <c r="G731" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22125,7 +22128,7 @@
         <v>28.5</v>
       </c>
       <c r="G732" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22151,7 +22154,7 @@
         <v>27.5</v>
       </c>
       <c r="G733" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22177,7 +22180,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G734" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22203,7 +22206,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22229,7 +22232,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G736" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22255,7 +22258,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G737" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22281,7 +22284,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22307,7 +22310,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22333,7 +22336,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22359,7 +22362,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G741" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22385,7 +22388,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22411,7 +22414,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22437,7 +22440,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22463,7 +22466,7 @@
         <v>27.5</v>
       </c>
       <c r="G745" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22489,7 +22492,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G746" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22515,7 +22518,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22541,7 +22544,7 @@
         <v>27.5</v>
       </c>
       <c r="G748" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22567,7 +22570,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G749" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22593,7 +22596,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G750" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22619,7 +22622,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22645,7 +22648,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22671,7 +22674,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G753" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22697,7 +22700,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G754" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22723,7 +22726,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G755" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22749,7 +22752,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G756" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22775,7 +22778,7 @@
         <v>26.5</v>
       </c>
       <c r="G757" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22801,7 +22804,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22827,7 +22830,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22853,7 +22856,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G760" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22879,7 +22882,7 @@
         <v>27</v>
       </c>
       <c r="G761" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22905,7 +22908,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22931,7 +22934,7 @@
         <v>27</v>
       </c>
       <c r="G763" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22957,7 +22960,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22983,7 +22986,7 @@
         <v>26.5</v>
       </c>
       <c r="G765" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23009,7 +23012,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23035,7 +23038,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G767" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23061,7 +23064,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G768" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23087,7 +23090,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G769" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23113,7 +23116,7 @@
         <v>28.5</v>
       </c>
       <c r="G770" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23139,7 +23142,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23165,7 +23168,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G772" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23191,7 +23194,7 @@
         <v>28</v>
       </c>
       <c r="G773" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23217,7 +23220,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23243,7 +23246,7 @@
         <v>28</v>
       </c>
       <c r="G775" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23269,7 +23272,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23295,7 +23298,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23321,7 +23324,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23347,7 +23350,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23373,7 +23376,7 @@
         <v>28.5</v>
       </c>
       <c r="G780" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23399,7 +23402,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23425,7 +23428,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G782" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23451,7 +23454,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23477,7 +23480,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23503,7 +23506,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G785" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23529,7 +23532,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23555,7 +23558,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G787" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23581,7 +23584,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23607,7 +23610,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G789" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23633,7 +23636,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23659,7 +23662,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23685,7 +23688,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23711,7 +23714,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G793" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23737,7 +23740,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G794" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23763,7 +23766,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G795" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23789,7 +23792,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23815,7 +23818,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G797" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23841,7 +23844,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23867,7 +23870,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G799" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23893,7 +23896,7 @@
         <v>30</v>
       </c>
       <c r="G800" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23919,7 +23922,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G801" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23945,7 +23948,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G802" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23971,7 +23974,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G803" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23997,7 +24000,7 @@
         <v>31</v>
       </c>
       <c r="G804" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24023,7 +24026,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24049,7 +24052,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G806" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24075,7 +24078,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24101,7 +24104,7 @@
         <v>31</v>
       </c>
       <c r="G808" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24127,7 +24130,7 @@
         <v>31</v>
       </c>
       <c r="G809" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24153,7 +24156,7 @@
         <v>31</v>
       </c>
       <c r="G810" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24179,7 +24182,7 @@
         <v>31</v>
       </c>
       <c r="G811" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24205,7 +24208,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24231,7 +24234,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24257,7 +24260,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24283,7 +24286,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G815" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24309,7 +24312,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24335,7 +24338,7 @@
         <v>31</v>
       </c>
       <c r="G817" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24361,7 +24364,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24387,7 +24390,7 @@
         <v>31</v>
       </c>
       <c r="G819" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24413,7 +24416,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G820" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24439,7 +24442,7 @@
         <v>30.5</v>
       </c>
       <c r="G821" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24465,7 +24468,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24491,7 +24494,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24517,7 +24520,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24543,7 +24546,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24569,7 +24572,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24595,7 +24598,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24621,7 +24624,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24647,7 +24650,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G829" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24673,7 +24676,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24699,7 +24702,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24725,7 +24728,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24751,7 +24754,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G833" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24777,7 +24780,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G834" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24803,7 +24806,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24829,7 +24832,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G836" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24855,7 +24858,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G837" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24881,7 +24884,7 @@
         <v>31</v>
       </c>
       <c r="G838" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24907,7 +24910,7 @@
         <v>31</v>
       </c>
       <c r="G839" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24933,7 +24936,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24959,7 +24962,7 @@
         <v>30</v>
       </c>
       <c r="G841" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24985,7 +24988,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25011,7 +25014,7 @@
         <v>30.5</v>
       </c>
       <c r="G843" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25037,7 +25040,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G844" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25063,7 +25066,7 @@
         <v>30.5</v>
       </c>
       <c r="G845" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25089,7 +25092,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G846" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25115,7 +25118,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G847" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25141,7 +25144,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25167,7 +25170,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G849" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25193,7 +25196,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25219,7 +25222,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G851" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25245,7 +25248,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25271,7 +25274,7 @@
         <v>28</v>
       </c>
       <c r="G853" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25297,7 +25300,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25323,7 +25326,7 @@
         <v>28</v>
       </c>
       <c r="G855" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25349,7 +25352,7 @@
         <v>27.5</v>
       </c>
       <c r="G856" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25375,7 +25378,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G857" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25401,7 +25404,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G858" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25427,7 +25430,7 @@
         <v>27.5</v>
       </c>
       <c r="G859" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25453,7 +25456,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G860" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25479,7 +25482,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G861" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25505,7 +25508,7 @@
         <v>28</v>
       </c>
       <c r="G862" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25531,7 +25534,7 @@
         <v>29</v>
       </c>
       <c r="G863" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25557,7 +25560,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25583,7 +25586,7 @@
         <v>29</v>
       </c>
       <c r="G865" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25609,7 +25612,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G866" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25635,7 +25638,7 @@
         <v>29</v>
       </c>
       <c r="G867" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25661,7 +25664,7 @@
         <v>29</v>
       </c>
       <c r="G868" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25687,7 +25690,7 @@
         <v>29</v>
       </c>
       <c r="G869" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25713,7 +25716,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25739,7 +25742,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G871" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25765,7 +25768,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G872" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25791,7 +25794,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25817,7 +25820,7 @@
         <v>30.5</v>
       </c>
       <c r="G874" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25843,7 +25846,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G875" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25869,7 +25872,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G876" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25895,7 +25898,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25921,7 +25924,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G878" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25947,7 +25950,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G879" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25973,7 +25976,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25999,7 +26002,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26025,7 +26028,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26051,7 +26054,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26077,7 +26080,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G884" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26103,7 +26106,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G885" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26129,7 +26132,7 @@
         <v>31.5</v>
       </c>
       <c r="G886" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26155,7 +26158,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26181,7 +26184,7 @@
         <v>32</v>
       </c>
       <c r="G888" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26207,7 +26210,7 @@
         <v>31.5</v>
       </c>
       <c r="G889" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26233,7 +26236,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G890" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26259,7 +26262,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G891" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26285,7 +26288,7 @@
         <v>32</v>
       </c>
       <c r="G892" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26311,7 +26314,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26337,7 +26340,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G894" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26363,7 +26366,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26389,7 +26392,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G896" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26415,7 +26418,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G897" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26441,7 +26444,7 @@
         <v>31</v>
       </c>
       <c r="G898" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26467,7 +26470,7 @@
         <v>31</v>
       </c>
       <c r="G899" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26493,7 +26496,7 @@
         <v>31</v>
       </c>
       <c r="G900" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26519,7 +26522,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G901" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26545,7 +26548,7 @@
         <v>31</v>
       </c>
       <c r="G902" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26571,7 +26574,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G903" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26597,7 +26600,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26623,7 +26626,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26649,7 +26652,7 @@
         <v>31</v>
       </c>
       <c r="G906" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26675,7 +26678,7 @@
         <v>31</v>
       </c>
       <c r="G907" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26701,7 +26704,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26727,7 +26730,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26753,7 +26756,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26779,7 +26782,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26805,7 +26808,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G912" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26831,7 +26834,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26857,7 +26860,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26883,7 +26886,7 @@
         <v>30</v>
       </c>
       <c r="G915" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26909,7 +26912,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G916" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26935,7 +26938,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G917" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26961,7 +26964,7 @@
         <v>29</v>
       </c>
       <c r="G918" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26987,7 +26990,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G919" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27013,7 +27016,7 @@
         <v>29</v>
       </c>
       <c r="G920" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27039,7 +27042,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27065,7 +27068,7 @@
         <v>29.5</v>
       </c>
       <c r="G922" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27091,7 +27094,7 @@
         <v>29</v>
       </c>
       <c r="G923" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27117,7 +27120,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G924" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27143,7 +27146,7 @@
         <v>29</v>
       </c>
       <c r="G925" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27169,7 +27172,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G926" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27195,7 +27198,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G927" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27221,7 +27224,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G928" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27247,7 +27250,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G929" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27273,7 +27276,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27299,7 +27302,7 @@
         <v>30.5</v>
       </c>
       <c r="G931" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27325,7 +27328,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27351,7 +27354,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G933" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27377,7 +27380,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G934" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27403,7 +27406,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27429,7 +27432,7 @@
         <v>30</v>
       </c>
       <c r="G936" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27455,7 +27458,7 @@
         <v>29.5</v>
       </c>
       <c r="G937" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27481,7 +27484,7 @@
         <v>29.5</v>
       </c>
       <c r="G938" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27507,7 +27510,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27533,7 +27536,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27559,7 +27562,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G941" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27585,7 +27588,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G942" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27611,7 +27614,7 @@
         <v>30</v>
       </c>
       <c r="G943" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27637,7 +27640,7 @@
         <v>30</v>
       </c>
       <c r="G944" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27663,7 +27666,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G945" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27689,7 +27692,7 @@
         <v>30</v>
       </c>
       <c r="G946" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27715,7 +27718,7 @@
         <v>30.5</v>
       </c>
       <c r="G947" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27741,7 +27744,7 @@
         <v>30.5</v>
       </c>
       <c r="G948" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27767,7 +27770,7 @@
         <v>30</v>
       </c>
       <c r="G949" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27793,7 +27796,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G950" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27819,7 +27822,7 @@
         <v>30</v>
       </c>
       <c r="G951" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27845,7 +27848,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G952" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27871,7 +27874,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G953" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27897,7 +27900,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27923,7 +27926,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G955" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27949,7 +27952,7 @@
         <v>30</v>
       </c>
       <c r="G956" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27975,7 +27978,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28001,7 +28004,7 @@
         <v>30</v>
       </c>
       <c r="G958" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28027,7 +28030,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28053,7 +28056,7 @@
         <v>30</v>
       </c>
       <c r="G960" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28079,7 +28082,7 @@
         <v>30</v>
       </c>
       <c r="G961" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28105,7 +28108,7 @@
         <v>30</v>
       </c>
       <c r="G962" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28131,7 +28134,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28157,7 +28160,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G964" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28183,7 +28186,7 @@
         <v>30</v>
       </c>
       <c r="G965" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28209,7 +28212,7 @@
         <v>30</v>
       </c>
       <c r="G966" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28235,7 +28238,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G967" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28261,7 +28264,7 @@
         <v>30</v>
       </c>
       <c r="G968" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28287,7 +28290,7 @@
         <v>30</v>
       </c>
       <c r="G969" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28313,7 +28316,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G970" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28339,7 +28342,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G971" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28365,7 +28368,7 @@
         <v>30</v>
       </c>
       <c r="G972" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28391,7 +28394,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28417,7 +28420,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28443,7 +28446,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28469,7 +28472,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28495,7 +28498,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G977" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28521,7 +28524,7 @@
         <v>31</v>
       </c>
       <c r="G978" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28547,7 +28550,7 @@
         <v>31</v>
       </c>
       <c r="G979" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28573,7 +28576,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28599,7 +28602,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G981" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28625,7 +28628,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28651,7 +28654,7 @@
         <v>31</v>
       </c>
       <c r="G983" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28677,7 +28680,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G984" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28703,7 +28706,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G985" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28729,7 +28732,7 @@
         <v>31</v>
       </c>
       <c r="G986" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28755,7 +28758,7 @@
         <v>31.5</v>
       </c>
       <c r="G987" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28781,7 +28784,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28807,7 +28810,7 @@
         <v>31.5</v>
       </c>
       <c r="G989" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28833,7 +28836,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G990" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28859,7 +28862,7 @@
         <v>31.5</v>
       </c>
       <c r="G991" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28885,7 +28888,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28911,7 +28914,7 @@
         <v>31.5</v>
       </c>
       <c r="G993" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28937,7 +28940,7 @@
         <v>31.5</v>
       </c>
       <c r="G994" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28963,7 +28966,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G995" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28989,7 +28992,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G996" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29015,7 +29018,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29041,7 +29044,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G998" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29067,7 +29070,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29093,7 +29096,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29119,7 +29122,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1001" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29145,7 +29148,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29171,7 +29174,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29197,7 +29200,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1004" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29223,7 +29226,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1005" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29249,7 +29252,7 @@
         <v>31</v>
       </c>
       <c r="G1006" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29275,7 +29278,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1007" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29301,7 +29304,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29327,7 +29330,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29353,7 +29356,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29379,7 +29382,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29405,7 +29408,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29431,7 +29434,7 @@
         <v>30.5</v>
       </c>
       <c r="G1013" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29457,7 +29460,7 @@
         <v>30.5</v>
       </c>
       <c r="G1014" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29483,7 +29486,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1015" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29509,7 +29512,7 @@
         <v>30.5</v>
       </c>
       <c r="G1016" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29535,7 +29538,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29561,7 +29564,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1018" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29587,7 +29590,7 @@
         <v>30</v>
       </c>
       <c r="G1019" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29613,7 +29616,7 @@
         <v>30.5</v>
       </c>
       <c r="G1020" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29639,7 +29642,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1021" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29665,7 +29668,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1022" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29691,7 +29694,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1023" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29717,7 +29720,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1024" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29743,7 +29746,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29769,7 +29772,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1026" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29795,7 +29798,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1027" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29821,7 +29824,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29847,7 +29850,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29873,7 +29876,7 @@
         <v>30</v>
       </c>
       <c r="G1030" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29899,7 +29902,7 @@
         <v>30</v>
       </c>
       <c r="G1031" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29925,7 +29928,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1032" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29951,7 +29954,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29977,7 +29980,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30003,7 +30006,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1035" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30029,7 +30032,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30055,7 +30058,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1037" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30081,7 +30084,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30107,7 +30110,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30133,7 +30136,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30159,7 +30162,7 @@
         <v>28</v>
       </c>
       <c r="G1041" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30185,7 +30188,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1042" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30211,7 +30214,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30237,7 +30240,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30263,7 +30266,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30289,7 +30292,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1046" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30315,7 +30318,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30341,7 +30344,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1048" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30367,7 +30370,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30393,7 +30396,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30419,7 +30422,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1051" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30445,7 +30448,7 @@
         <v>28</v>
       </c>
       <c r="G1052" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30471,7 +30474,7 @@
         <v>26</v>
       </c>
       <c r="G1053" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30497,7 +30500,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1054" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30523,7 +30526,7 @@
         <v>27.5</v>
       </c>
       <c r="G1055" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30549,7 +30552,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1056" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30575,7 +30578,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30601,7 +30604,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30627,7 +30630,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1059" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30653,7 +30656,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1060" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30679,7 +30682,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1061" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30705,7 +30708,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1062" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30731,7 +30734,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30757,7 +30760,7 @@
         <v>20.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30783,7 +30786,7 @@
         <v>20</v>
       </c>
       <c r="G1065" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30809,7 +30812,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1066" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30835,7 +30838,7 @@
         <v>18.5</v>
       </c>
       <c r="G1067" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30861,7 +30864,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1068" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30887,7 +30890,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1069" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30913,7 +30916,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30939,7 +30942,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30965,7 +30968,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1072" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30991,7 +30994,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31017,7 +31020,7 @@
         <v>19.5</v>
       </c>
       <c r="G1074" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31043,7 +31046,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1075" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31069,7 +31072,7 @@
         <v>20.5</v>
       </c>
       <c r="G1076" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31095,7 +31098,7 @@
         <v>19.5</v>
       </c>
       <c r="G1077" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31121,7 +31124,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1078" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31147,7 +31150,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31173,7 +31176,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1080" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31199,7 +31202,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1081" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31225,7 +31228,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1082" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31251,7 +31254,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1083" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31277,7 +31280,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1084" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31303,7 +31306,7 @@
         <v>19.5</v>
       </c>
       <c r="G1085" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31329,7 +31332,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31355,7 +31358,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1087" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31381,7 +31384,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1088" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31407,7 +31410,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31433,7 +31436,7 @@
         <v>19.75</v>
       </c>
       <c r="G1090" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31459,7 +31462,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31485,7 +31488,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1092" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31511,7 +31514,7 @@
         <v>19.5499992370605</v>
       </c>
       <c r="G1093" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31537,7 +31540,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1094" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31563,7 +31566,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31589,7 +31592,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31615,7 +31618,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31641,7 +31644,7 @@
         <v>21</v>
       </c>
       <c r="G1098" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31667,7 +31670,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31693,7 +31696,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1100" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31719,7 +31722,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1101" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31745,7 +31748,7 @@
         <v>21</v>
       </c>
       <c r="G1102" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31771,7 +31774,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31797,7 +31800,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1104" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31823,7 +31826,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31849,7 +31852,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31875,7 +31878,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1107" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31901,7 +31904,7 @@
         <v>20.5</v>
       </c>
       <c r="G1108" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31927,7 +31930,7 @@
         <v>20.5</v>
       </c>
       <c r="G1109" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31953,7 +31956,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1110" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31979,7 +31982,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1111" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32005,7 +32008,7 @@
         <v>20.5</v>
       </c>
       <c r="G1112" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32031,7 +32034,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1113" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32057,7 +32060,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1114" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32083,7 +32086,7 @@
         <v>20.5</v>
       </c>
       <c r="G1115" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32109,7 +32112,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1116" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32135,7 +32138,7 @@
         <v>21</v>
       </c>
       <c r="G1117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32161,7 +32164,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32187,7 +32190,7 @@
         <v>21</v>
       </c>
       <c r="G1119" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32213,7 +32216,7 @@
         <v>21.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32239,7 +32242,7 @@
         <v>21.5</v>
       </c>
       <c r="G1121" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32265,7 +32268,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32291,7 +32294,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1123" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32317,7 +32320,7 @@
         <v>22</v>
       </c>
       <c r="G1124" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32343,7 +32346,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32369,7 +32372,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1126" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32395,7 +32398,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1127" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32421,7 +32424,7 @@
         <v>21.5</v>
       </c>
       <c r="G1128" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32447,7 +32450,7 @@
         <v>22</v>
       </c>
       <c r="G1129" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32473,7 +32476,7 @@
         <v>22</v>
       </c>
       <c r="G1130" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32499,7 +32502,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32525,7 +32528,7 @@
         <v>22.5</v>
       </c>
       <c r="G1132" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32551,7 +32554,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32577,7 +32580,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32603,7 +32606,7 @@
         <v>22</v>
       </c>
       <c r="G1135" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32629,7 +32632,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1136" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32655,7 +32658,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32681,7 +32684,7 @@
         <v>22</v>
       </c>
       <c r="G1138" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32707,7 +32710,7 @@
         <v>22</v>
       </c>
       <c r="G1139" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32733,7 +32736,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32759,7 +32762,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1141" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32785,7 +32788,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1142" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32811,7 +32814,7 @@
         <v>22</v>
       </c>
       <c r="G1143" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32837,7 +32840,7 @@
         <v>22</v>
       </c>
       <c r="G1144" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32863,7 +32866,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1145" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32889,7 +32892,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1146" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32915,7 +32918,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32941,7 +32944,7 @@
         <v>21.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32967,7 +32970,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1149" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32993,7 +32996,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33019,7 +33022,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33045,7 +33048,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33071,7 +33074,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1153" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33097,7 +33100,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1154" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33123,7 +33126,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1155" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33149,7 +33152,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33175,7 +33178,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1157" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33201,7 +33204,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1158" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33227,7 +33230,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1159" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33253,7 +33256,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33279,7 +33282,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33305,7 +33308,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33331,7 +33334,7 @@
         <v>20.5</v>
       </c>
       <c r="G1163" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33357,7 +33360,7 @@
         <v>20.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33383,7 +33386,7 @@
         <v>21</v>
       </c>
       <c r="G1165" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33409,7 +33412,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33435,7 +33438,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1167" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33461,7 +33464,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33487,7 +33490,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1169" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33513,7 +33516,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33539,7 +33542,7 @@
         <v>21.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33565,7 +33568,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33591,7 +33594,7 @@
         <v>21.5</v>
       </c>
       <c r="G1173" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33617,7 +33620,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1174" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33643,7 +33646,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33669,7 +33672,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1176" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33695,7 +33698,7 @@
         <v>21.5</v>
       </c>
       <c r="G1177" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33721,7 +33724,7 @@
         <v>21.5</v>
       </c>
       <c r="G1178" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33747,7 +33750,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1179" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33773,7 +33776,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33799,7 +33802,7 @@
         <v>21.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33825,7 +33828,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1182" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33851,7 +33854,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1183" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33877,7 +33880,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1184" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33903,7 +33906,7 @@
         <v>21</v>
       </c>
       <c r="G1185" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33929,7 +33932,7 @@
         <v>21</v>
       </c>
       <c r="G1186" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33955,7 +33958,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33981,7 +33984,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1188" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34007,7 +34010,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34033,7 +34036,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1190" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34059,7 +34062,7 @@
         <v>20</v>
       </c>
       <c r="G1191" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34085,7 +34088,7 @@
         <v>20</v>
       </c>
       <c r="G1192" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34111,7 +34114,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34137,7 +34140,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1194" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34163,7 +34166,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34189,7 +34192,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1196" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34215,7 +34218,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1197" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34241,7 +34244,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34267,7 +34270,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34293,7 +34296,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34319,7 +34322,7 @@
         <v>19.75</v>
       </c>
       <c r="G1201" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34345,7 +34348,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34371,7 +34374,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1203" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34397,7 +34400,7 @@
         <v>19.75</v>
       </c>
       <c r="G1204" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34423,7 +34426,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1205" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34449,7 +34452,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1206" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34475,7 +34478,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1207" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34501,7 +34504,7 @@
         <v>18.5</v>
       </c>
       <c r="G1208" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34527,7 +34530,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1209" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34553,7 +34556,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34579,7 +34582,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1211" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34605,7 +34608,7 @@
         <v>18.5</v>
       </c>
       <c r="G1212" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34631,7 +34634,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1213" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34657,7 +34660,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1214" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34683,7 +34686,7 @@
         <v>18.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34709,7 +34712,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34735,7 +34738,7 @@
         <v>17.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34761,7 +34764,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1218" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34787,7 +34790,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34813,7 +34816,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34839,7 +34842,7 @@
         <v>17.5</v>
       </c>
       <c r="G1221" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34865,7 +34868,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34891,7 +34894,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34917,7 +34920,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1224" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34943,7 +34946,7 @@
         <v>17</v>
       </c>
       <c r="G1225" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34969,7 +34972,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34995,7 +34998,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1227" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35021,7 +35024,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1228" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35047,7 +35050,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1229" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35073,7 +35076,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35099,7 +35102,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35125,7 +35128,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35151,7 +35154,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1233" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35177,7 +35180,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35203,7 +35206,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35229,7 +35232,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1236" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35255,7 +35258,7 @@
         <v>17.25</v>
       </c>
       <c r="G1237" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35281,7 +35284,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35307,7 +35310,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1239" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35333,7 +35336,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35359,7 +35362,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1241" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35385,7 +35388,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1242" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35411,7 +35414,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1243" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35437,7 +35440,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35463,7 +35466,7 @@
         <v>17.5</v>
       </c>
       <c r="G1245" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35489,7 +35492,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1246" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35515,7 +35518,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1247" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35541,7 +35544,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1248" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35567,7 +35570,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35593,7 +35596,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35619,7 +35622,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1251" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35645,7 +35648,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35671,7 +35674,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1253" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35697,7 +35700,7 @@
         <v>19</v>
       </c>
       <c r="G1254" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35723,7 +35726,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1255" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35749,7 +35752,7 @@
         <v>18.5</v>
       </c>
       <c r="G1256" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35775,7 +35778,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1257" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35801,7 +35804,7 @@
         <v>18.25</v>
       </c>
       <c r="G1258" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35827,7 +35830,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35853,7 +35856,7 @@
         <v>18.5</v>
       </c>
       <c r="G1260" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35879,7 +35882,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1261" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35905,7 +35908,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35931,7 +35934,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35957,7 +35960,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1264" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35983,7 +35986,7 @@
         <v>18.75</v>
       </c>
       <c r="G1265" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36009,7 +36012,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1266" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36035,7 +36038,7 @@
         <v>18.5</v>
       </c>
       <c r="G1267" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36061,7 +36064,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1268" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36087,7 +36090,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36113,7 +36116,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36139,7 +36142,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36165,7 +36168,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1272" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36191,7 +36194,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36217,7 +36220,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1274" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36243,7 +36246,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36269,7 +36272,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1276" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36295,7 +36298,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1277" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36321,7 +36324,7 @@
         <v>19</v>
       </c>
       <c r="G1278" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36347,7 +36350,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36373,7 +36376,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1280" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36399,7 +36402,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1281" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36425,7 +36428,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1282" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36451,7 +36454,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1283" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36477,7 +36480,7 @@
         <v>18.5</v>
       </c>
       <c r="G1284" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36503,7 +36506,7 @@
         <v>18.5</v>
       </c>
       <c r="G1285" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36529,7 +36532,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36555,7 +36558,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1287" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36581,7 +36584,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36607,7 +36610,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1289" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36633,7 +36636,7 @@
         <v>18.25</v>
       </c>
       <c r="G1290" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36659,7 +36662,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1291" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36685,7 +36688,7 @@
         <v>19</v>
       </c>
       <c r="G1292" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36711,7 +36714,7 @@
         <v>23</v>
       </c>
       <c r="G1293" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36737,7 +36740,7 @@
         <v>24</v>
       </c>
       <c r="G1294" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36763,7 +36766,7 @@
         <v>25.5</v>
       </c>
       <c r="G1295" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36789,7 +36792,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1296" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36815,7 +36818,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1297" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36841,7 +36844,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1298" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36867,7 +36870,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1299" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36893,7 +36896,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1300" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36919,7 +36922,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36945,7 +36948,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1302" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36971,7 +36974,7 @@
         <v>29</v>
       </c>
       <c r="G1303" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36997,7 +37000,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1304" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37023,7 +37026,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1305" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37049,7 +37052,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1306" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37075,7 +37078,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1307" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37101,7 +37104,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1308" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37127,7 +37130,7 @@
         <v>28</v>
       </c>
       <c r="G1309" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37153,7 +37156,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37179,7 +37182,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37205,7 +37208,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1312" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37231,7 +37234,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1313" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37257,7 +37260,7 @@
         <v>28</v>
       </c>
       <c r="G1314" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37283,7 +37286,7 @@
         <v>28</v>
       </c>
       <c r="G1315" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37309,7 +37312,7 @@
         <v>28</v>
       </c>
       <c r="G1316" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37335,7 +37338,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1317" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37361,7 +37364,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1318" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37387,7 +37390,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1319" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37413,7 +37416,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1320" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37439,7 +37442,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1321" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37465,7 +37468,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1322" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37491,7 +37494,7 @@
         <v>26</v>
       </c>
       <c r="G1323" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37517,7 +37520,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1324" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37543,7 +37546,7 @@
         <v>25.5</v>
       </c>
       <c r="G1325" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37569,7 +37572,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37595,7 +37598,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1327" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37621,7 +37624,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1328" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37647,7 +37650,7 @@
         <v>26</v>
       </c>
       <c r="G1329" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37673,7 +37676,7 @@
         <v>27.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37699,7 +37702,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1331" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37725,7 +37728,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37751,7 +37754,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1333" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37777,7 +37780,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37803,7 +37806,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1335" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37829,7 +37832,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37855,7 +37858,7 @@
         <v>27.5</v>
       </c>
       <c r="G1337" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37881,7 +37884,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1338" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -58949,27 +58952,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6495833333</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>12186</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>2.95000004768372</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>2.8050000667572</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>2.95000004768372</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>2.93499994277954</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>916</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>14323</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>2.93499994277954</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>2.70000004768372</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>2.93499994277954</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>2.90000009536743</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>898</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6260185185</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>6196</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>2.89499998092651</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>2.78999996185303</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>2.86999988555908</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>2.84999990463257</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>913</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="917">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30048561096191</t>
+    <t xml:space="preserve">1.30048537254333</t>
   </si>
   <si>
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973948001862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29750108718872</t>
+    <t xml:space="preserve">1.29973936080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29750084877014</t>
   </si>
   <si>
     <t xml:space="preserve">1.27586352825165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26840221881866</t>
+    <t xml:space="preserve">1.26840233802795</t>
   </si>
   <si>
     <t xml:space="preserve">1.27511751651764</t>
@@ -62,73 +62,73 @@
     <t xml:space="preserve">1.26765620708466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29004001617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26616394519806</t>
+    <t xml:space="preserve">1.29003989696503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26616406440735</t>
   </si>
   <si>
     <t xml:space="preserve">1.25944888591766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25347983837128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25273394584656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21766626834869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676489830017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31167709827423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30496203899384</t>
+    <t xml:space="preserve">1.25348007678986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25273406505585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21766638755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24676477909088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31167733669281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30496227741241</t>
   </si>
   <si>
     <t xml:space="preserve">1.30123162269592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30570840835571</t>
+    <t xml:space="preserve">1.30570828914642</t>
   </si>
   <si>
     <t xml:space="preserve">1.31988453865051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28929388523102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27884793281555</t>
+    <t xml:space="preserve">1.28929400444031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27884805202484</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317954063416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27437138557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24601876735687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28034043312073</t>
+    <t xml:space="preserve">1.27437150478363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24601912498474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28034019470215</t>
   </si>
   <si>
     <t xml:space="preserve">1.25721061229706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31316947937012</t>
+    <t xml:space="preserve">1.3131697177887</t>
   </si>
   <si>
     <t xml:space="preserve">1.3206307888031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31391549110413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32436120510101</t>
+    <t xml:space="preserve">1.31391561031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3243613243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.26989483833313</t>
@@ -143,16 +143,16 @@
     <t xml:space="preserve">1.32212281227112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3280918598175</t>
+    <t xml:space="preserve">1.32809209823608</t>
   </si>
   <si>
     <t xml:space="preserve">1.3273458480835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3348069190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32286906242371</t>
+    <t xml:space="preserve">1.33480679988861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32286894321442</t>
   </si>
   <si>
     <t xml:space="preserve">1.31018507480621</t>
@@ -161,46 +161,46 @@
     <t xml:space="preserve">1.31764626502991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30272388458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30346989631653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29675483703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078578948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28854763507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28780162334442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30684316158295</t>
+    <t xml:space="preserve">1.30272376537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30347001552582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29675471782684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078590869904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28854775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28780150413513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30684328079224</t>
   </si>
   <si>
     <t xml:space="preserve">1.3167724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32364642620087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33433961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33204829692841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32975685596466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33052086830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3183000087738</t>
+    <t xml:space="preserve">1.32364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33433949947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33204817771912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32975673675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33052062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31830012798309</t>
   </si>
   <si>
     <t xml:space="preserve">1.32670176029205</t>
@@ -209,28 +209,28 @@
     <t xml:space="preserve">1.32211887836456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34045004844666</t>
+    <t xml:space="preserve">1.34044992923737</t>
   </si>
   <si>
     <t xml:space="preserve">1.33663105964661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3351035118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32899296283722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32822906970978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3213552236557</t>
+    <t xml:space="preserve">1.33510339260101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32899284362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32822918891907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32135510444641</t>
   </si>
   <si>
     <t xml:space="preserve">1.33815860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34426891803741</t>
+    <t xml:space="preserve">1.3442690372467</t>
   </si>
   <si>
     <t xml:space="preserve">1.34350526332855</t>
@@ -239,25 +239,25 @@
     <t xml:space="preserve">1.33892250061035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31906402111053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29538631439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29767763614655</t>
+    <t xml:space="preserve">1.31906390190125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29538643360138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29767787456512</t>
   </si>
   <si>
     <t xml:space="preserve">1.28316581249237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28851222991943</t>
+    <t xml:space="preserve">1.28851234912872</t>
   </si>
   <si>
     <t xml:space="preserve">1.28011059761047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2594883441925</t>
+    <t xml:space="preserve">1.25948822498322</t>
   </si>
   <si>
     <t xml:space="preserve">1.26025199890137</t>
@@ -266,25 +266,25 @@
     <t xml:space="preserve">1.23733842372894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22970044612885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23962962627411</t>
+    <t xml:space="preserve">1.22970056533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2396297454834</t>
   </si>
   <si>
     <t xml:space="preserve">1.22053503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22206270694733</t>
+    <t xml:space="preserve">1.22206258773804</t>
   </si>
   <si>
     <t xml:space="preserve">1.22129881381989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2411572933197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27552795410156</t>
+    <t xml:space="preserve">1.24115741252899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27552783489227</t>
   </si>
   <si>
     <t xml:space="preserve">1.27476406097412</t>
@@ -293,25 +293,25 @@
     <t xml:space="preserve">1.29385876655579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29309511184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29233121871948</t>
+    <t xml:space="preserve">1.29309499263763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29233109951019</t>
   </si>
   <si>
     <t xml:space="preserve">1.28927600383759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25872457027435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28469324111938</t>
+    <t xml:space="preserve">1.25872433185577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2846931219101</t>
   </si>
   <si>
     <t xml:space="preserve">1.24955904483795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27018117904663</t>
+    <t xml:space="preserve">1.27018129825592</t>
   </si>
   <si>
     <t xml:space="preserve">1.27629160881042</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">1.28698468208313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28622102737427</t>
+    <t xml:space="preserve">1.2862206697464</t>
   </si>
   <si>
     <t xml:space="preserve">1.28240203857422</t>
@@ -329,46 +329,46 @@
     <t xml:space="preserve">1.34121370315552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3137172460556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36412727832794</t>
+    <t xml:space="preserve">1.31371748447418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36412763595581</t>
   </si>
   <si>
     <t xml:space="preserve">1.35572576522827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38093090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37405681610107</t>
+    <t xml:space="preserve">1.38093078136444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3740565776825</t>
   </si>
   <si>
     <t xml:space="preserve">1.38551342487335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36030852794647</t>
+    <t xml:space="preserve">1.36030840873718</t>
   </si>
   <si>
     <t xml:space="preserve">1.37329280376434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37558436393738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35419797897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35648953914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34503257274628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35190665721893</t>
+    <t xml:space="preserve">1.37558424472809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35419809818268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954463481903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35648941993713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34503269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3519070148468</t>
   </si>
   <si>
     <t xml:space="preserve">1.35725331306458</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">1.35496187210083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34961533546448</t>
+    <t xml:space="preserve">1.34961557388306</t>
   </si>
   <si>
     <t xml:space="preserve">1.34885168075562</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">1.36259996891022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32441031932831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288265228271</t>
+    <t xml:space="preserve">1.3244104385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32288289070129</t>
   </si>
   <si>
     <t xml:space="preserve">1.30226051807404</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">1.30989825725555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32059144973755</t>
+    <t xml:space="preserve">1.32059156894684</t>
   </si>
   <si>
     <t xml:space="preserve">1.33586716651917</t>
@@ -410,19 +410,19 @@
     <t xml:space="preserve">1.31295359134674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3045517206192</t>
+    <t xml:space="preserve">1.30455183982849</t>
   </si>
   <si>
     <t xml:space="preserve">1.29462254047394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30073297023773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29844164848328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003965854645</t>
+    <t xml:space="preserve">1.30073320865631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29844152927399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29003977775574</t>
   </si>
   <si>
     <t xml:space="preserve">1.29080355167389</t>
@@ -431,28 +431,28 @@
     <t xml:space="preserve">1.29615008831024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28545701503754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2625435590744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26407086849213</t>
+    <t xml:space="preserve">1.28545689582825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26254332065582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26407110691071</t>
   </si>
   <si>
     <t xml:space="preserve">1.27170884609222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26788997650146</t>
+    <t xml:space="preserve">1.26789009571075</t>
   </si>
   <si>
     <t xml:space="preserve">1.24192106723785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23351943492889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26712608337402</t>
+    <t xml:space="preserve">1.2335193157196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26712620258331</t>
   </si>
   <si>
     <t xml:space="preserve">1.24497628211975</t>
@@ -467,16 +467,16 @@
     <t xml:space="preserve">1.26941752433777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448101997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.333575963974</t>
+    <t xml:space="preserve">1.31448113918304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33357560634613</t>
   </si>
   <si>
     <t xml:space="preserve">1.34197747707367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35114288330078</t>
+    <t xml:space="preserve">1.35114312171936</t>
   </si>
   <si>
     <t xml:space="preserve">1.35343432426453</t>
@@ -485,52 +485,52 @@
     <t xml:space="preserve">1.36718237400055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38322222232819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39926171302795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162361621857</t>
+    <t xml:space="preserve">1.3832221031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39926183223724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162373542786</t>
   </si>
   <si>
     <t xml:space="preserve">1.39238750934601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39009642601013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3969703912735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39773392677307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40537190437317</t>
+    <t xml:space="preserve">1.39009630680084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39697051048279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39773404598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40537202358246</t>
   </si>
   <si>
     <t xml:space="preserve">1.40078938007355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39849770069122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3847496509552</t>
+    <t xml:space="preserve">1.3984979391098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38474977016449</t>
   </si>
   <si>
     <t xml:space="preserve">1.3786393404007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40460813045502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42064797878265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41988408565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39085984230042</t>
+    <t xml:space="preserve">1.40460824966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42064774036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41988396644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3908599615097</t>
   </si>
   <si>
     <t xml:space="preserve">1.40842711925507</t>
@@ -545,25 +545,25 @@
     <t xml:space="preserve">1.40384447574615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38704109191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42293918132782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42752206325531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43668735027313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44279766082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45883727073669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4741131067276</t>
+    <t xml:space="preserve">1.38704097270966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42293906211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42752182483673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43668746948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44279778003693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45883738994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47411286830902</t>
   </si>
   <si>
     <t xml:space="preserve">1.4680027961731</t>
@@ -572,46 +572,46 @@
     <t xml:space="preserve">1.46953022480011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47029411792755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46418380737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45349073410034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42904937267303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43897867202759</t>
+    <t xml:space="preserve">1.47029387950897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46418368816376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45349085330963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42904913425446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43897891044617</t>
   </si>
   <si>
     <t xml:space="preserve">1.449671626091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46265625953674</t>
+    <t xml:space="preserve">1.46265614032745</t>
   </si>
   <si>
     <t xml:space="preserve">1.55812978744507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54056262969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54667294025421</t>
+    <t xml:space="preserve">1.540562748909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5466730594635</t>
   </si>
   <si>
     <t xml:space="preserve">1.55660223960876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56882309913635</t>
+    <t xml:space="preserve">1.56882286071777</t>
   </si>
   <si>
     <t xml:space="preserve">1.53139710426331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52223193645477</t>
+    <t xml:space="preserve">1.52223181724548</t>
   </si>
   <si>
     <t xml:space="preserve">1.54361772537231</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">1.56042122840881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55583846569061</t>
+    <t xml:space="preserve">1.55583834648132</t>
   </si>
   <si>
     <t xml:space="preserve">1.55278325080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59402799606323</t>
+    <t xml:space="preserve">1.59402787685394</t>
   </si>
   <si>
     <t xml:space="preserve">1.57569682598114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59937453269958</t>
+    <t xml:space="preserve">1.5993744134903</t>
   </si>
   <si>
     <t xml:space="preserve">1.59631931781769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59861063957214</t>
+    <t xml:space="preserve">1.59861075878143</t>
   </si>
   <si>
     <t xml:space="preserve">1.59479165077209</t>
@@ -647,82 +647,82 @@
     <t xml:space="preserve">1.58104360103607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56500399112701</t>
+    <t xml:space="preserve">1.56500387191772</t>
   </si>
   <si>
     <t xml:space="preserve">1.56347632408142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55049204826355</t>
+    <t xml:space="preserve">1.55049192905426</t>
   </si>
   <si>
     <t xml:space="preserve">1.53521621227264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54896450042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52757823467255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51841282844543</t>
+    <t xml:space="preserve">1.54896461963654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52757835388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51841259002686</t>
   </si>
   <si>
     <t xml:space="preserve">1.5497282743454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58715379238129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60472106933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131235122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7023754119873</t>
+    <t xml:space="preserve">1.58715391159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60472095012665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131211280823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70237553119659</t>
   </si>
   <si>
     <t xml:space="preserve">1.70551776885986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7204442024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70708906650543</t>
+    <t xml:space="preserve">1.72044408321381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70708894729614</t>
   </si>
   <si>
     <t xml:space="preserve">1.73929834365845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73537039756775</t>
+    <t xml:space="preserve">1.73537027835846</t>
   </si>
   <si>
     <t xml:space="preserve">1.73379921913147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84613859653473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88698959350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92469775676727</t>
+    <t xml:space="preserve">1.84613883495331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88698947429657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92469763755798</t>
   </si>
   <si>
     <t xml:space="preserve">2.00011444091797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08181571960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10145592689514</t>
+    <t xml:space="preserve">2.08181595802307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10145568847656</t>
   </si>
   <si>
     <t xml:space="preserve">2.03860831260681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0684609413147</t>
+    <t xml:space="preserve">2.06846117973328</t>
   </si>
   <si>
     <t xml:space="preserve">2.01425504684448</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">1.9136997461319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98597383499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98754477500916</t>
+    <t xml:space="preserve">1.98597395420074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98754525184631</t>
   </si>
   <si>
     <t xml:space="preserve">1.99540090560913</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">1.99932897090912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96319186687469</t>
+    <t xml:space="preserve">1.96319174766541</t>
   </si>
   <si>
     <t xml:space="preserve">2.01268410682678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00561380386353</t>
+    <t xml:space="preserve">2.00561356544495</t>
   </si>
   <si>
     <t xml:space="preserve">2.00954174995422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02525329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01032710075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98675954341888</t>
+    <t xml:space="preserve">2.02525353431702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01032733917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98675966262817</t>
   </si>
   <si>
     <t xml:space="preserve">2.00325703620911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00247144699097</t>
+    <t xml:space="preserve">2.00247120857239</t>
   </si>
   <si>
     <t xml:space="preserve">2.01661205291748</t>
@@ -794,46 +794,46 @@
     <t xml:space="preserve">1.97968912124634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97733247280121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95926380157471</t>
+    <t xml:space="preserve">1.97733235359192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.959263920784</t>
   </si>
   <si>
     <t xml:space="preserve">1.94119513034821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84771001338959</t>
+    <t xml:space="preserve">1.84771013259888</t>
   </si>
   <si>
     <t xml:space="preserve">1.87599110603333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84535324573517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87284874916077</t>
+    <t xml:space="preserve">1.84535312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87284862995148</t>
   </si>
   <si>
     <t xml:space="preserve">1.88620388507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91055738925934</t>
+    <t xml:space="preserve">1.91055703163147</t>
   </si>
   <si>
     <t xml:space="preserve">1.92941129207611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9050577878952</t>
+    <t xml:space="preserve">1.90505790710449</t>
   </si>
   <si>
     <t xml:space="preserve">1.88934624195099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90584349632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605627536774</t>
+    <t xml:space="preserve">1.90584373474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605615615845</t>
   </si>
   <si>
     <t xml:space="preserve">1.9191986322403</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">1.93333911895752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90112996101379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862570285797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705464363098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91762757301331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98047435283661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99618661403656</t>
+    <t xml:space="preserve">1.90113031864166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862582206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705476284027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91762733459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98047459125519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99618685245514</t>
   </si>
   <si>
     <t xml:space="preserve">2.05981945991516</t>
@@ -869,73 +869,73 @@
     <t xml:space="preserve">2.01504063606262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02053952217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00482821464539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97026228904724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96947658061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97811794281006</t>
+    <t xml:space="preserve">2.0205397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00482845306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97026216983795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96947634220123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97811782360077</t>
   </si>
   <si>
     <t xml:space="preserve">1.97576105594635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95062220096588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93962407112122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93726718425751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93805277347565</t>
+    <t xml:space="preserve">1.95062232017517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93962383270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9372673034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93805289268494</t>
   </si>
   <si>
     <t xml:space="preserve">1.93255364894867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94826555252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96711993217468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95376467704773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95219337940216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9427661895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96397721767426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94905126094818</t>
+    <t xml:space="preserve">1.94826531410217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96711981296539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95376443862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95219373703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94276630878448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96397733688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9490510225296</t>
   </si>
   <si>
     <t xml:space="preserve">1.95533573627472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94669449329376</t>
+    <t xml:space="preserve">1.94669413566589</t>
   </si>
   <si>
     <t xml:space="preserve">1.92548334598541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92234086990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92784011363983</t>
+    <t xml:space="preserve">1.92234110832214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92784023284912</t>
   </si>
   <si>
     <t xml:space="preserve">1.92312657833099</t>
@@ -944,67 +944,67 @@
     <t xml:space="preserve">1.8972020149231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90348672866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90820074081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89484524726868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8995589017868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89013195037842</t>
+    <t xml:space="preserve">1.90348660945892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90820062160492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89484512805939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89955902099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89013183116913</t>
   </si>
   <si>
     <t xml:space="preserve">1.89563071727753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89327418804169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91527056694031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91212821006775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90191543102264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93098247051239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98126006126404</t>
+    <t xml:space="preserve">1.8932740688324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91527080535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91212832927704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90191555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93098270893097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98126018047333</t>
   </si>
   <si>
     <t xml:space="preserve">2.02132534980774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00090026855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0661039352417</t>
+    <t xml:space="preserve">2.00090003013611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06610417366028</t>
   </si>
   <si>
     <t xml:space="preserve">2.05039238929749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03153800964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05667734146118</t>
+    <t xml:space="preserve">2.03153848648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05667686462402</t>
   </si>
   <si>
     <t xml:space="preserve">2.05353474617004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04803562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19494128227234</t>
+    <t xml:space="preserve">2.04803586006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19494104385376</t>
   </si>
   <si>
     <t xml:space="preserve">2.13287925720215</t>
@@ -1016,16 +1016,16 @@
     <t xml:space="preserve">2.07396006584167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652949333191</t>
+    <t xml:space="preserve">2.08652925491333</t>
   </si>
   <si>
     <t xml:space="preserve">2.07238864898682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07710242271423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05196380615234</t>
+    <t xml:space="preserve">2.07710266113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05196356773376</t>
   </si>
   <si>
     <t xml:space="preserve">2.08574390411377</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">2.05117797851562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06217646598816</t>
+    <t xml:space="preserve">2.06217622756958</t>
   </si>
   <si>
     <t xml:space="preserve">2.06924653053284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11323976516724</t>
+    <t xml:space="preserve">2.11323952674866</t>
   </si>
   <si>
     <t xml:space="preserve">2.15251898765564</t>
@@ -1055,16 +1055,16 @@
     <t xml:space="preserve">2.17294454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17687249183655</t>
+    <t xml:space="preserve">2.17687225341797</t>
   </si>
   <si>
     <t xml:space="preserve">2.16823101043701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18708491325378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18158626556396</t>
+    <t xml:space="preserve">2.18708515167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18158602714539</t>
   </si>
   <si>
     <t xml:space="preserve">2.2035825252533</t>
@@ -1076,37 +1076,37 @@
     <t xml:space="preserve">2.17765808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16037511825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15016222000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14937663078308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1485915184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16665959358215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17451572418213</t>
+    <t xml:space="preserve">2.16037487983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1501624584198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14937686920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14859127998352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16665983200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17451548576355</t>
   </si>
   <si>
     <t xml:space="preserve">2.19572687149048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17608714103699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22479343414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28606986999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30963706970215</t>
+    <t xml:space="preserve">2.17608690261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22479367256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28606963157654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30963730812073</t>
   </si>
   <si>
     <t xml:space="preserve">2.27035784721375</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">2.30178117752075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3174934387207</t>
+    <t xml:space="preserve">2.31749320030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.41176414489746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46675562858582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41961979866028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43533182144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47461128234863</t>
+    <t xml:space="preserve">2.46675539016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41962003707886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43533205986023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47461152076721</t>
   </si>
   <si>
     <t xml:space="preserve">2.42747592926025</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">2.38819646835327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36462879180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3803403377533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40390849113464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39605259895325</t>
+    <t xml:space="preserve">2.36462903022766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38034081459045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40390825271606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39605212211609</t>
   </si>
   <si>
     <t xml:space="preserve">2.35677266120911</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">2.29392528533936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27821373939514</t>
+    <t xml:space="preserve">2.27821350097656</t>
   </si>
   <si>
     <t xml:space="preserve">2.54531478881836</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">2.49032330513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66315317153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65529727935791</t>
+    <t xml:space="preserve">2.66315340995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65529704093933</t>
   </si>
   <si>
     <t xml:space="preserve">2.73385620117188</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">2.56888246536255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60030579566956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57673835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5060350894928</t>
+    <t xml:space="preserve">2.60030603408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57673859596252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50603485107422</t>
   </si>
   <si>
     <t xml:space="preserve">2.53745865821838</t>
@@ -1199,31 +1199,31 @@
     <t xml:space="preserve">2.55317044258118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51389122009277</t>
+    <t xml:space="preserve">2.51389098167419</t>
   </si>
   <si>
     <t xml:space="preserve">2.59244990348816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56102633476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52174639701843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61601758003235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6395857334137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68816685676575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70436096191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69626355171204</t>
+    <t xml:space="preserve">2.56102657318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52174663543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61601781845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63958549499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68816709518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70436072349548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69626379013062</t>
   </si>
   <si>
     <t xml:space="preserve">2.67197299003601</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">2.63148856163025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65577912330627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59100437164307</t>
+    <t xml:space="preserve">2.65577960014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59100413322449</t>
   </si>
   <si>
     <t xml:space="preserve">2.60719799995422</t>
@@ -1253,37 +1253,37 @@
     <t xml:space="preserve">2.42906641960144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40477585792542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38048505783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41287231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32380700111389</t>
+    <t xml:space="preserve">2.40477609634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38048529624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4128725528717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32380676269531</t>
   </si>
   <si>
     <t xml:space="preserve">2.29951620101929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.291419506073</t>
+    <t xml:space="preserve">2.29141926765442</t>
   </si>
   <si>
     <t xml:space="preserve">2.31571006774902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33190393447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35619449615479</t>
+    <t xml:space="preserve">2.33190369606018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35619425773621</t>
   </si>
   <si>
     <t xml:space="preserve">2.26712870597839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21045064926147</t>
+    <t xml:space="preserve">2.2104504108429</t>
   </si>
   <si>
     <t xml:space="preserve">2.28332233428955</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">2.21854734420776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19425654411316</t>
+    <t xml:space="preserve">2.19425678253174</t>
   </si>
   <si>
     <t xml:space="preserve">2.22664427757263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18615961074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.178062915802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996598243713</t>
+    <t xml:space="preserve">2.18615984916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17806315422058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996574401855</t>
   </si>
   <si>
     <t xml:space="preserve">2.16186928749084</t>
@@ -1319,16 +1319,16 @@
     <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25903177261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24283790588379</t>
+    <t xml:space="preserve">2.25903153419495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24283814430237</t>
   </si>
   <si>
     <t xml:space="preserve">2.27522563934326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39667916297913</t>
+    <t xml:space="preserve">2.39667892456055</t>
   </si>
   <si>
     <t xml:space="preserve">2.12138485908508</t>
@@ -1337,28 +1337,28 @@
     <t xml:space="preserve">2.10519099235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11328768730164</t>
+    <t xml:space="preserve">2.11328792572021</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05660963058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04851245880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02422213554382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9675440788269</t>
+    <t xml:space="preserve">2.05660939216614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04851269721985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02422189712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96754384040833</t>
   </si>
   <si>
     <t xml:space="preserve">1.95944702625275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93515622615814</t>
+    <t xml:space="preserve">1.93515634536743</t>
   </si>
   <si>
     <t xml:space="preserve">1.9513498544693</t>
@@ -1367,10 +1367,10 @@
     <t xml:space="preserve">1.87038111686707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91896259784698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91086554527283</t>
+    <t xml:space="preserve">1.91896271705627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91086566448212</t>
   </si>
   <si>
     <t xml:space="preserve">1.9432532787323</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">2.15377235412598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13757848739624</t>
+    <t xml:space="preserve">2.13757824897766</t>
   </si>
   <si>
     <t xml:space="preserve">2.08899712562561</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">2.08090019226074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00802826881409</t>
+    <t xml:space="preserve">2.00802803039551</t>
   </si>
   <si>
     <t xml:space="preserve">1.92705941200256</t>
@@ -1406,13 +1406,13 @@
     <t xml:space="preserve">1.82989680767059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85418736934662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90276861190796</t>
+    <t xml:space="preserve">1.85418725013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179963588715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90276885032654</t>
   </si>
   <si>
     <t xml:space="preserve">1.97564053535461</t>
@@ -1421,22 +1421,22 @@
     <t xml:space="preserve">1.99993133544922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30761289596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20235371589661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14567494392395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36429119110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34000086784363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45335674285889</t>
+    <t xml:space="preserve">2.30761313438416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20235395431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14567542076111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36429142951965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34000062942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45335698127747</t>
   </si>
   <si>
     <t xml:space="preserve">2.42096948623657</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">2.43716359138489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46145391464233</t>
+    <t xml:space="preserve">2.46145415306091</t>
   </si>
   <si>
     <t xml:space="preserve">2.51003527641296</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51813220977783</t>
+    <t xml:space="preserve">2.51813197135925</t>
   </si>
   <si>
     <t xml:space="preserve">2.5262291431427</t>
@@ -1484,13 +1484,13 @@
     <t xml:space="preserve">2.6638765335083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65539216995239</t>
+    <t xml:space="preserve">2.65539240837097</t>
   </si>
   <si>
     <t xml:space="preserve">2.62994170188904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60449075698853</t>
+    <t xml:space="preserve">2.60449051856995</t>
   </si>
   <si>
     <t xml:space="preserve">2.54510474205017</t>
@@ -1502,19 +1502,19 @@
     <t xml:space="preserve">2.5875232219696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59600687026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61297416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51117014884949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52813720703125</t>
+    <t xml:space="preserve">2.5960066318512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6129744052887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51116991043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53662085533142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52813696861267</t>
   </si>
   <si>
     <t xml:space="preserve">2.46875166893005</t>
@@ -1526,19 +1526,19 @@
     <t xml:space="preserve">2.38391470909119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37543129920959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32452869415283</t>
+    <t xml:space="preserve">2.37543106079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32452893257141</t>
   </si>
   <si>
     <t xml:space="preserve">2.33301281929016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3499801158905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36694717407227</t>
+    <t xml:space="preserve">2.34998035430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36694741249084</t>
   </si>
   <si>
     <t xml:space="preserve">2.4602677822113</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">2.62145781517029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842511177063</t>
+    <t xml:space="preserve">2.63842535018921</t>
   </si>
   <si>
     <t xml:space="preserve">2.64690899848938</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">2.70629477500916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67236018180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477842330933</t>
+    <t xml:space="preserve">2.67235970497131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477818489075</t>
   </si>
   <si>
     <t xml:space="preserve">2.72326183319092</t>
@@ -1583,19 +1583,19 @@
     <t xml:space="preserve">2.68084359169006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68932723999023</t>
+    <t xml:space="preserve">2.68932747840881</t>
   </si>
   <si>
     <t xml:space="preserve">2.66387629508972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51965403556824</t>
+    <t xml:space="preserve">2.51965379714966</t>
   </si>
   <si>
     <t xml:space="preserve">2.43481683731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45178413391113</t>
+    <t xml:space="preserve">2.45178389549255</t>
   </si>
   <si>
     <t xml:space="preserve">2.50268626213074</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">2.57903933525085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55358839035034</t>
+    <t xml:space="preserve">2.55358862876892</t>
   </si>
   <si>
     <t xml:space="preserve">2.4857189655304</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">2.39239859580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4093656539917</t>
+    <t xml:space="preserve">2.40936589241028</t>
   </si>
   <si>
     <t xml:space="preserve">2.40088200569153</t>
@@ -1622,13 +1622,13 @@
     <t xml:space="preserve">2.20575761795044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28211069107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2227246761322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1718225479126</t>
+    <t xml:space="preserve">2.28211045265198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22272491455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17182278633118</t>
   </si>
   <si>
     <t xml:space="preserve">2.19727373123169</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">2.21424102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13788819313049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97669804096222</t>
+    <t xml:space="preserve">2.13788795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97669792175293</t>
   </si>
   <si>
     <t xml:space="preserve">1.73067116737366</t>
@@ -1652,16 +1652,16 @@
     <t xml:space="preserve">1.69673645496368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5355464220047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56948125362396</t>
+    <t xml:space="preserve">1.53554654121399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56948137283325</t>
   </si>
   <si>
     <t xml:space="preserve">1.57796502113342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68401110172272</t>
+    <t xml:space="preserve">1.68401098251343</t>
   </si>
   <si>
     <t xml:space="preserve">1.62462508678436</t>
@@ -1673,10 +1673,10 @@
     <t xml:space="preserve">1.59917414188385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56099736690521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65431797504425</t>
+    <t xml:space="preserve">1.5609974861145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65431809425354</t>
   </si>
   <si>
     <t xml:space="preserve">1.67128551006317</t>
@@ -1688,10 +1688,10 @@
     <t xml:space="preserve">1.62886703014374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65007638931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63735055923462</t>
+    <t xml:space="preserve">1.65007627010345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63735067844391</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">1.76460587978363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67552721500397</t>
+    <t xml:space="preserve">1.67552733421326</t>
   </si>
   <si>
     <t xml:space="preserve">1.69249475002289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65855991840363</t>
+    <t xml:space="preserve">1.65855979919434</t>
   </si>
   <si>
     <t xml:space="preserve">1.68825280666351</t>
@@ -1718,40 +1718,40 @@
     <t xml:space="preserve">1.78157329559326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84095907211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80702424049377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79005694389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77308964729309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72218751907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82399165630341</t>
+    <t xml:space="preserve">1.84095919132233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80702435970306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79005706310272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7730895280838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7221873998642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8239917755127</t>
   </si>
   <si>
     <t xml:space="preserve">1.83247542381287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84944272041321</t>
+    <t xml:space="preserve">1.84944260120392</t>
   </si>
   <si>
     <t xml:space="preserve">1.86641001701355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9003449678421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973074436188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90882849693298</t>
+    <t xml:space="preserve">1.90034472942352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90882861614227</t>
   </si>
   <si>
     <t xml:space="preserve">1.88337755203247</t>
@@ -1760,40 +1760,40 @@
     <t xml:space="preserve">1.89186120033264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8748939037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792624950409</t>
+    <t xml:space="preserve">1.87489402294159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792636871338</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81550788879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75612246990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67976891994476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71370387077332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64583420753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59493219852448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60341584682465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56523942947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55251383781433</t>
+    <t xml:space="preserve">1.81550800800323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75612223148346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67976915836334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7137039899826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64583444595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59493231773376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60341596603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56523931026459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55251371860504</t>
   </si>
   <si>
     <t xml:space="preserve">1.54827201366425</t>
@@ -1805,22 +1805,22 @@
     <t xml:space="preserve">1.48464441299438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47191905975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46767711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49736988544464</t>
+    <t xml:space="preserve">1.47191894054413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46767687797546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49737000465393</t>
   </si>
   <si>
     <t xml:space="preserve">1.47616076469421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42525851726532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39132380485535</t>
+    <t xml:space="preserve">1.42525863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39132392406464</t>
   </si>
   <si>
     <t xml:space="preserve">1.44222593307495</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">1.36587285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3955659866333</t>
+    <t xml:space="preserve">1.39556586742401</t>
   </si>
   <si>
     <t xml:space="preserve">1.38284015655518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40829133987427</t>
+    <t xml:space="preserve">1.40829122066498</t>
   </si>
   <si>
     <t xml:space="preserve">1.43374228477478</t>
@@ -1853,61 +1853,61 @@
     <t xml:space="preserve">1.41253304481506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45919334888458</t>
+    <t xml:space="preserve">1.45919346809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.46343517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44646775722504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4507098197937</t>
+    <t xml:space="preserve">1.44646763801575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45070970058441</t>
   </si>
   <si>
     <t xml:space="preserve">1.43798422813416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53130447864532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58644878864288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038350105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6118997335434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55675578117371</t>
+    <t xml:space="preserve">1.53130459785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58644866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038338184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61189961433411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55675566196442</t>
   </si>
   <si>
     <t xml:space="preserve">1.59069049358368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57372295856476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58220672607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60765790939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403042793274</t>
+    <t xml:space="preserve">1.57372319698334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58220684528351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6076580286026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403018951416</t>
   </si>
   <si>
     <t xml:space="preserve">1.95124697685242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03608369827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16333913803101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35846352577209</t>
+    <t xml:space="preserve">2.03608393669128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16333889961243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35846376419067</t>
   </si>
   <si>
     <t xml:space="preserve">2.34149646759033</t>
@@ -1916,13 +1916,16 @@
     <t xml:space="preserve">2.27362680435181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23969221115112</t>
+    <t xml:space="preserve">2.23969197273254</t>
   </si>
   <si>
     <t xml:space="preserve">2.14637160301208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23120856285095</t>
+    <t xml:space="preserve">2.23120832443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30756139755249</t>
   </si>
   <si>
     <t xml:space="preserve">2.30756163597107</t>
@@ -37907,7 +37910,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1339" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37933,7 +37936,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1340" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37959,7 +37962,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1341" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37985,7 +37988,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1342" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38011,7 +38014,7 @@
         <v>27</v>
       </c>
       <c r="G1343" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38037,7 +38040,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1344" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38063,7 +38066,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1345" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38089,7 +38092,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1346" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38115,7 +38118,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1347" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38141,7 +38144,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1348" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38167,7 +38170,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1349" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38193,7 +38196,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1350" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38219,7 +38222,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1351" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38245,7 +38248,7 @@
         <v>27</v>
       </c>
       <c r="G1352" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38271,7 +38274,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1353" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38297,7 +38300,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1354" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38323,7 +38326,7 @@
         <v>27</v>
       </c>
       <c r="G1355" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38349,7 +38352,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1356" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38375,7 +38378,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1357" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38401,7 +38404,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1358" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38427,7 +38430,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1359" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38453,7 +38456,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1360" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38479,7 +38482,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1361" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38505,7 +38508,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1362" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38531,7 +38534,7 @@
         <v>26.5</v>
       </c>
       <c r="G1363" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38557,7 +38560,7 @@
         <v>26.5</v>
       </c>
       <c r="G1364" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38583,7 +38586,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1365" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38609,7 +38612,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1366" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38635,7 +38638,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1367" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38661,7 +38664,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1368" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38687,7 +38690,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1369" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38713,7 +38716,7 @@
         <v>26.5</v>
       </c>
       <c r="G1370" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38739,7 +38742,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1371" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38765,7 +38768,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38791,7 +38794,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1373" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38817,7 +38820,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1374" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38843,7 +38846,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38869,7 +38872,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1376" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38895,7 +38898,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1377" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38921,7 +38924,7 @@
         <v>28.5</v>
       </c>
       <c r="G1378" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38947,7 +38950,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1379" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38973,7 +38976,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1380" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38999,7 +39002,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39025,7 +39028,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1382" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39051,7 +39054,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1383" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39077,7 +39080,7 @@
         <v>29</v>
       </c>
       <c r="G1384" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39103,7 +39106,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1385" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39129,7 +39132,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1386" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39155,7 +39158,7 @@
         <v>30</v>
       </c>
       <c r="G1387" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39181,7 +39184,7 @@
         <v>30</v>
       </c>
       <c r="G1388" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39207,7 +39210,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39233,7 +39236,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1390" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39259,7 +39262,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1391" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39285,7 +39288,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1392" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39311,7 +39314,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1393" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39337,7 +39340,7 @@
         <v>28.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39363,7 +39366,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1395" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39389,7 +39392,7 @@
         <v>29.5</v>
       </c>
       <c r="G1396" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39415,7 +39418,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1397" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39441,7 +39444,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1398" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39467,7 +39470,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1399" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39493,7 +39496,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1400" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39519,7 +39522,7 @@
         <v>29</v>
       </c>
       <c r="G1401" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39545,7 +39548,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1402" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39571,7 +39574,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1403" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39597,7 +39600,7 @@
         <v>30</v>
       </c>
       <c r="G1404" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39623,7 +39626,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1405" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39649,7 +39652,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1406" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39675,7 +39678,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1407" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39701,7 +39704,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1408" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39727,7 +39730,7 @@
         <v>28.5</v>
       </c>
       <c r="G1409" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39753,7 +39756,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1410" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39779,7 +39782,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1411" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39805,7 +39808,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1412" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39831,7 +39834,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1413" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39857,7 +39860,7 @@
         <v>28.5</v>
       </c>
       <c r="G1414" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39883,7 +39886,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1415" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39909,7 +39912,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1416" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39935,7 +39938,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1417" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39961,7 +39964,7 @@
         <v>28.5</v>
       </c>
       <c r="G1418" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39987,7 +39990,7 @@
         <v>28.5</v>
       </c>
       <c r="G1419" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40013,7 +40016,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1420" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40039,7 +40042,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1421" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40065,7 +40068,7 @@
         <v>29.5</v>
       </c>
       <c r="G1422" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40091,7 +40094,7 @@
         <v>29</v>
       </c>
       <c r="G1423" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40117,7 +40120,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1424" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40143,7 +40146,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1425" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40169,7 +40172,7 @@
         <v>28.5</v>
       </c>
       <c r="G1426" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40195,7 +40198,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1427" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40221,7 +40224,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1428" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40247,7 +40250,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1429" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40273,7 +40276,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1430" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40299,7 +40302,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1431" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40325,7 +40328,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1432" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40351,7 +40354,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1433" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40377,7 +40380,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1434" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40403,7 +40406,7 @@
         <v>28</v>
       </c>
       <c r="G1435" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40429,7 +40432,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1436" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40455,7 +40458,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1437" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40481,7 +40484,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1438" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40507,7 +40510,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1439" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40533,7 +40536,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1440" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40559,7 +40562,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1441" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40585,7 +40588,7 @@
         <v>28</v>
       </c>
       <c r="G1442" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40611,7 +40614,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1443" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40637,7 +40640,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1444" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40663,7 +40666,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1445" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40689,7 +40692,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1446" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40715,7 +40718,7 @@
         <v>28.5</v>
       </c>
       <c r="G1447" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40741,7 +40744,7 @@
         <v>28.5</v>
       </c>
       <c r="G1448" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40767,7 +40770,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1449" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40793,7 +40796,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1450" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40819,7 +40822,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1451" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40845,7 +40848,7 @@
         <v>28.5</v>
       </c>
       <c r="G1452" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40871,7 +40874,7 @@
         <v>28.5</v>
       </c>
       <c r="G1453" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40897,7 +40900,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40923,7 +40926,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40949,7 +40952,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1456" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40975,7 +40978,7 @@
         <v>28</v>
       </c>
       <c r="G1457" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41001,7 +41004,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1458" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41027,7 +41030,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1459" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41053,7 +41056,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1460" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41079,7 +41082,7 @@
         <v>28</v>
       </c>
       <c r="G1461" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41105,7 +41108,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1462" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41131,7 +41134,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1463" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41157,7 +41160,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1464" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41183,7 +41186,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1465" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41209,7 +41212,7 @@
         <v>28</v>
       </c>
       <c r="G1466" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41235,7 +41238,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1467" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41261,7 +41264,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1468" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41287,7 +41290,7 @@
         <v>28</v>
       </c>
       <c r="G1469" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41313,7 +41316,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1470" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41339,7 +41342,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1471" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41365,7 +41368,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1472" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41391,7 +41394,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1473" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41417,7 +41420,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1474" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41443,7 +41446,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1475" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41469,7 +41472,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1476" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41495,7 +41498,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1477" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41521,7 +41524,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1478" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41547,7 +41550,7 @@
         <v>28</v>
       </c>
       <c r="G1479" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41573,7 +41576,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1480" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41599,7 +41602,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41625,7 +41628,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1482" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41651,7 +41654,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1483" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41677,7 +41680,7 @@
         <v>28</v>
       </c>
       <c r="G1484" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41703,7 +41706,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1485" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41729,7 +41732,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1486" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41755,7 +41758,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1487" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41781,7 +41784,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1488" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41807,7 +41810,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1489" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41833,7 +41836,7 @@
         <v>27.5</v>
       </c>
       <c r="G1490" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41859,7 +41862,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1491" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41885,7 +41888,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1492" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41911,7 +41914,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41937,7 +41940,7 @@
         <v>26</v>
       </c>
       <c r="G1494" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41963,7 +41966,7 @@
         <v>26.5</v>
       </c>
       <c r="G1495" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41989,7 +41992,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1496" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42015,7 +42018,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1497" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42041,7 +42044,7 @@
         <v>26</v>
       </c>
       <c r="G1498" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42067,7 +42070,7 @@
         <v>26</v>
       </c>
       <c r="G1499" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42093,7 +42096,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1500" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42119,7 +42122,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1501" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42145,7 +42148,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1502" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42171,7 +42174,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1503" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42197,7 +42200,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1504" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42223,7 +42226,7 @@
         <v>25</v>
       </c>
       <c r="G1505" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42249,7 +42252,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1506" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42275,7 +42278,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1507" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42301,7 +42304,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1508" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42327,7 +42330,7 @@
         <v>26</v>
       </c>
       <c r="G1509" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42353,7 +42356,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1510" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42379,7 +42382,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1511" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42405,7 +42408,7 @@
         <v>26</v>
       </c>
       <c r="G1512" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42431,7 +42434,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1513" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42457,7 +42460,7 @@
         <v>26</v>
       </c>
       <c r="G1514" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42483,7 +42486,7 @@
         <v>26</v>
       </c>
       <c r="G1515" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42509,7 +42512,7 @@
         <v>26</v>
       </c>
       <c r="G1516" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42535,7 +42538,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1517" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42561,7 +42564,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1518" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42587,7 +42590,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1519" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42613,7 +42616,7 @@
         <v>26.5</v>
       </c>
       <c r="G1520" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42639,7 +42642,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1521" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42665,7 +42668,7 @@
         <v>28</v>
       </c>
       <c r="G1522" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42691,7 +42694,7 @@
         <v>28</v>
       </c>
       <c r="G1523" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42717,7 +42720,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1524" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42743,7 +42746,7 @@
         <v>28</v>
       </c>
       <c r="G1525" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42769,7 +42772,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1526" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42795,7 +42798,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1527" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42821,7 +42824,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1528" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42847,7 +42850,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1529" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42873,7 +42876,7 @@
         <v>27.5</v>
       </c>
       <c r="G1530" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42899,7 +42902,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1531" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42925,7 +42928,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1532" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42951,7 +42954,7 @@
         <v>27.5</v>
       </c>
       <c r="G1533" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42977,7 +42980,7 @@
         <v>27.5</v>
       </c>
       <c r="G1534" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43003,7 +43006,7 @@
         <v>27.5</v>
       </c>
       <c r="G1535" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43029,7 +43032,7 @@
         <v>27.5</v>
       </c>
       <c r="G1536" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43055,7 +43058,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1537" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43081,7 +43084,7 @@
         <v>26.5</v>
       </c>
       <c r="G1538" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43107,7 +43110,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1539" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43133,7 +43136,7 @@
         <v>27</v>
       </c>
       <c r="G1540" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43159,7 +43162,7 @@
         <v>26.5</v>
       </c>
       <c r="G1541" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43185,7 +43188,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1542" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43211,7 +43214,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1543" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43237,7 +43240,7 @@
         <v>27</v>
       </c>
       <c r="G1544" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43263,7 +43266,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1545" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43289,7 +43292,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1546" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43315,7 +43318,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1547" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43341,7 +43344,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1548" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43367,7 +43370,7 @@
         <v>26.5</v>
       </c>
       <c r="G1549" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43393,7 +43396,7 @@
         <v>26.5</v>
       </c>
       <c r="G1550" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43419,7 +43422,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1551" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43445,7 +43448,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1552" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43471,7 +43474,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1553" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43497,7 +43500,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1554" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43523,7 +43526,7 @@
         <v>27.5</v>
       </c>
       <c r="G1555" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43549,7 +43552,7 @@
         <v>27.5</v>
       </c>
       <c r="G1556" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43575,7 +43578,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1557" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43601,7 +43604,7 @@
         <v>27.5</v>
       </c>
       <c r="G1558" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43627,7 +43630,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1559" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43653,7 +43656,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43679,7 +43682,7 @@
         <v>27</v>
       </c>
       <c r="G1561" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43705,7 +43708,7 @@
         <v>27</v>
       </c>
       <c r="G1562" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43731,7 +43734,7 @@
         <v>26.5</v>
       </c>
       <c r="G1563" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43757,7 +43760,7 @@
         <v>29.5</v>
       </c>
       <c r="G1564" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43783,7 +43786,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1565" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43809,7 +43812,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1566" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43835,7 +43838,7 @@
         <v>29</v>
       </c>
       <c r="G1567" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43861,7 +43864,7 @@
         <v>29.5</v>
       </c>
       <c r="G1568" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43887,7 +43890,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1569" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43913,7 +43916,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1570" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43939,7 +43942,7 @@
         <v>29.5</v>
       </c>
       <c r="G1571" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43965,7 +43968,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1572" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43991,7 +43994,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1573" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44017,7 +44020,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1574" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44043,7 +44046,7 @@
         <v>30</v>
       </c>
       <c r="G1575" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44069,7 +44072,7 @@
         <v>30.5</v>
       </c>
       <c r="G1576" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44095,7 +44098,7 @@
         <v>30.5</v>
       </c>
       <c r="G1577" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44121,7 +44124,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1578" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44147,7 +44150,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1579" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44173,7 +44176,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G1580" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44199,7 +44202,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G1581" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44225,7 +44228,7 @@
         <v>34</v>
       </c>
       <c r="G1582" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44251,7 +44254,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1583" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44277,7 +44280,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1584" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44303,7 +44306,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G1585" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44329,7 +44332,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G1586" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44355,7 +44358,7 @@
         <v>39.2000007629395</v>
       </c>
       <c r="G1587" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44381,7 +44384,7 @@
         <v>39.0999984741211</v>
       </c>
       <c r="G1588" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44407,7 +44410,7 @@
         <v>39</v>
       </c>
       <c r="G1589" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44433,7 +44436,7 @@
         <v>39.0999984741211</v>
       </c>
       <c r="G1590" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44459,7 +44462,7 @@
         <v>39.9000015258789</v>
       </c>
       <c r="G1591" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44485,7 +44488,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44511,7 +44514,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44537,7 +44540,7 @@
         <v>38.2999992370605</v>
       </c>
       <c r="G1594" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44563,7 +44566,7 @@
         <v>38.2999992370605</v>
       </c>
       <c r="G1595" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44589,7 +44592,7 @@
         <v>38.7999992370605</v>
       </c>
       <c r="G1596" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44615,7 +44618,7 @@
         <v>38.5</v>
       </c>
       <c r="G1597" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44641,7 +44644,7 @@
         <v>38</v>
       </c>
       <c r="G1598" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44667,7 +44670,7 @@
         <v>38</v>
       </c>
       <c r="G1599" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44693,7 +44696,7 @@
         <v>38</v>
       </c>
       <c r="G1600" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44719,7 +44722,7 @@
         <v>38.4000015258789</v>
       </c>
       <c r="G1601" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44745,7 +44748,7 @@
         <v>38</v>
       </c>
       <c r="G1602" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44771,7 +44774,7 @@
         <v>37.7999992370605</v>
       </c>
       <c r="G1603" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44797,7 +44800,7 @@
         <v>37.5</v>
       </c>
       <c r="G1604" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44823,7 +44826,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1605" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44849,7 +44852,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1606" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44875,7 +44878,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1607" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44901,7 +44904,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1608" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44927,7 +44930,7 @@
         <v>37.5</v>
       </c>
       <c r="G1609" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44953,7 +44956,7 @@
         <v>38</v>
       </c>
       <c r="G1610" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44979,7 +44982,7 @@
         <v>37.0999984741211</v>
       </c>
       <c r="G1611" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45005,7 +45008,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1612" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45031,7 +45034,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1613" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45057,7 +45060,7 @@
         <v>37</v>
       </c>
       <c r="G1614" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45083,7 +45086,7 @@
         <v>37</v>
       </c>
       <c r="G1615" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45109,7 +45112,7 @@
         <v>37.5</v>
       </c>
       <c r="G1616" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45135,7 +45138,7 @@
         <v>39.2999992370605</v>
       </c>
       <c r="G1617" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45161,7 +45164,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45187,7 +45190,7 @@
         <v>37.7999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45213,7 +45216,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1620" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45239,7 +45242,7 @@
         <v>38</v>
       </c>
       <c r="G1621" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45265,7 +45268,7 @@
         <v>35.5</v>
       </c>
       <c r="G1622" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45291,7 +45294,7 @@
         <v>37.5</v>
       </c>
       <c r="G1623" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45317,7 +45320,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1624" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45343,7 +45346,7 @@
         <v>36.5</v>
       </c>
       <c r="G1625" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45369,7 +45372,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1626" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45395,7 +45398,7 @@
         <v>37</v>
       </c>
       <c r="G1627" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45421,7 +45424,7 @@
         <v>36.5</v>
       </c>
       <c r="G1628" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45447,7 +45450,7 @@
         <v>36.7999992370605</v>
       </c>
       <c r="G1629" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45473,7 +45476,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1630" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45499,7 +45502,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1631" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45525,7 +45528,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G1632" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45551,7 +45554,7 @@
         <v>37</v>
       </c>
       <c r="G1633" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45577,7 +45580,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1634" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45603,7 +45606,7 @@
         <v>37.5</v>
       </c>
       <c r="G1635" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45629,7 +45632,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1636" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45655,7 +45658,7 @@
         <v>37.5</v>
       </c>
       <c r="G1637" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45681,7 +45684,7 @@
         <v>37.5</v>
       </c>
       <c r="G1638" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45707,7 +45710,7 @@
         <v>37.5</v>
       </c>
       <c r="G1639" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45733,7 +45736,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1640" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45759,7 +45762,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1641" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45785,7 +45788,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1642" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45811,7 +45814,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1643" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45837,7 +45840,7 @@
         <v>37.5</v>
       </c>
       <c r="G1644" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45863,7 +45866,7 @@
         <v>37.5</v>
       </c>
       <c r="G1645" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45889,7 +45892,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1646" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45915,7 +45918,7 @@
         <v>37.7999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45941,7 +45944,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1648" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45967,7 +45970,7 @@
         <v>37.5</v>
       </c>
       <c r="G1649" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45993,7 +45996,7 @@
         <v>38</v>
       </c>
       <c r="G1650" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46019,7 +46022,7 @@
         <v>38</v>
       </c>
       <c r="G1651" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46045,7 +46048,7 @@
         <v>37.7999992370605</v>
       </c>
       <c r="G1652" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46071,7 +46074,7 @@
         <v>37.7999992370605</v>
       </c>
       <c r="G1653" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46097,7 +46100,7 @@
         <v>38.0999984741211</v>
       </c>
       <c r="G1654" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46123,7 +46126,7 @@
         <v>38.4000015258789</v>
       </c>
       <c r="G1655" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46149,7 +46152,7 @@
         <v>37.7999992370605</v>
       </c>
       <c r="G1656" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46175,7 +46178,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46201,7 +46204,7 @@
         <v>37.5</v>
       </c>
       <c r="G1658" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46227,7 +46230,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46253,7 +46256,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1660" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46279,7 +46282,7 @@
         <v>37.5</v>
       </c>
       <c r="G1661" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46305,7 +46308,7 @@
         <v>38</v>
       </c>
       <c r="G1662" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46331,7 +46334,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G1663" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46357,7 +46360,7 @@
         <v>38</v>
       </c>
       <c r="G1664" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46383,7 +46386,7 @@
         <v>38</v>
       </c>
       <c r="G1665" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46409,7 +46412,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46435,7 +46438,7 @@
         <v>38</v>
       </c>
       <c r="G1667" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46461,7 +46464,7 @@
         <v>38.4000015258789</v>
       </c>
       <c r="G1668" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46487,7 +46490,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1669" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46513,7 +46516,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G1670" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46539,7 +46542,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1671" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46565,7 +46568,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1672" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46591,7 +46594,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46617,7 +46620,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1674" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46643,7 +46646,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G1675" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46669,7 +46672,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1676" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46695,7 +46698,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1677" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46721,7 +46724,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G1678" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46747,7 +46750,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1679" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46773,7 +46776,7 @@
         <v>37</v>
       </c>
       <c r="G1680" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46799,7 +46802,7 @@
         <v>37</v>
       </c>
       <c r="G1681" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46825,7 +46828,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1682" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46851,7 +46854,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1683" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46877,7 +46880,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1684" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46903,7 +46906,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G1685" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46929,7 +46932,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46955,7 +46958,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1687" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46981,7 +46984,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1688" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47007,7 +47010,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G1689" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47033,7 +47036,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1690" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47059,7 +47062,7 @@
         <v>37.5</v>
       </c>
       <c r="G1691" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47085,7 +47088,7 @@
         <v>36.5</v>
       </c>
       <c r="G1692" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47111,7 +47114,7 @@
         <v>36.5</v>
       </c>
       <c r="G1693" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47137,7 +47140,7 @@
         <v>37</v>
       </c>
       <c r="G1694" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47163,7 +47166,7 @@
         <v>37</v>
       </c>
       <c r="G1695" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47189,7 +47192,7 @@
         <v>37</v>
       </c>
       <c r="G1696" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47215,7 +47218,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G1697" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47241,7 +47244,7 @@
         <v>36.5</v>
       </c>
       <c r="G1698" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47267,7 +47270,7 @@
         <v>36.5</v>
       </c>
       <c r="G1699" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47293,7 +47296,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1700" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47319,7 +47322,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47345,7 +47348,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47371,7 +47374,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1703" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47397,7 +47400,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1704" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47423,7 +47426,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G1705" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47449,7 +47452,7 @@
         <v>37</v>
       </c>
       <c r="G1706" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47475,7 +47478,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G1707" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47501,7 +47504,7 @@
         <v>37.0999984741211</v>
       </c>
       <c r="G1708" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47527,7 +47530,7 @@
         <v>36.7999992370605</v>
       </c>
       <c r="G1709" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47553,7 +47556,7 @@
         <v>37</v>
       </c>
       <c r="G1710" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47579,7 +47582,7 @@
         <v>37</v>
       </c>
       <c r="G1711" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47605,7 +47608,7 @@
         <v>36.5</v>
       </c>
       <c r="G1712" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47631,7 +47634,7 @@
         <v>36</v>
       </c>
       <c r="G1713" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47657,7 +47660,7 @@
         <v>36.5</v>
       </c>
       <c r="G1714" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47683,7 +47686,7 @@
         <v>36</v>
       </c>
       <c r="G1715" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47709,7 +47712,7 @@
         <v>36</v>
       </c>
       <c r="G1716" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47735,7 +47738,7 @@
         <v>36</v>
       </c>
       <c r="G1717" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47761,7 +47764,7 @@
         <v>36</v>
       </c>
       <c r="G1718" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47787,7 +47790,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G1719" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47813,7 +47816,7 @@
         <v>37</v>
       </c>
       <c r="G1720" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47839,7 +47842,7 @@
         <v>36.5</v>
       </c>
       <c r="G1721" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47865,7 +47868,7 @@
         <v>36.5</v>
       </c>
       <c r="G1722" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47891,7 +47894,7 @@
         <v>37</v>
       </c>
       <c r="G1723" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47917,7 +47920,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1724" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47943,7 +47946,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1725" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47969,7 +47972,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1726" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47995,7 +47998,7 @@
         <v>36.7999992370605</v>
       </c>
       <c r="G1727" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48021,7 +48024,7 @@
         <v>36.7999992370605</v>
       </c>
       <c r="G1728" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48047,7 +48050,7 @@
         <v>37</v>
       </c>
       <c r="G1729" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48073,7 +48076,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1730" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48099,7 +48102,7 @@
         <v>37.5</v>
       </c>
       <c r="G1731" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48125,7 +48128,7 @@
         <v>37.5</v>
       </c>
       <c r="G1732" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48151,7 +48154,7 @@
         <v>37</v>
       </c>
       <c r="G1733" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48177,7 +48180,7 @@
         <v>37</v>
       </c>
       <c r="G1734" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48203,7 +48206,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1735" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48229,7 +48232,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1736" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48255,7 +48258,7 @@
         <v>37</v>
       </c>
       <c r="G1737" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48281,7 +48284,7 @@
         <v>37.5</v>
       </c>
       <c r="G1738" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48307,7 +48310,7 @@
         <v>37</v>
       </c>
       <c r="G1739" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48333,7 +48336,7 @@
         <v>37.5</v>
       </c>
       <c r="G1740" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48359,7 +48362,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48385,7 +48388,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1742" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48411,7 +48414,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48437,7 +48440,7 @@
         <v>37.0999984741211</v>
       </c>
       <c r="G1744" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48463,7 +48466,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1745" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48489,7 +48492,7 @@
         <v>37.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48515,7 +48518,7 @@
         <v>37.5</v>
       </c>
       <c r="G1747" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48541,7 +48544,7 @@
         <v>37.0999984741211</v>
       </c>
       <c r="G1748" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48567,7 +48570,7 @@
         <v>37.5</v>
       </c>
       <c r="G1749" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48593,7 +48596,7 @@
         <v>37.5</v>
       </c>
       <c r="G1750" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48619,7 +48622,7 @@
         <v>37.5</v>
       </c>
       <c r="G1751" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48645,7 +48648,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1752" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48671,7 +48674,7 @@
         <v>37.7999992370605</v>
       </c>
       <c r="G1753" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48697,7 +48700,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1754" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48723,7 +48726,7 @@
         <v>37.5</v>
       </c>
       <c r="G1755" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48749,7 +48752,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1756" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48775,7 +48778,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1757" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48801,7 +48804,7 @@
         <v>38</v>
       </c>
       <c r="G1758" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48827,7 +48830,7 @@
         <v>37.7999992370605</v>
       </c>
       <c r="G1759" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48853,7 +48856,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1760" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48879,7 +48882,7 @@
         <v>37.7999992370605</v>
       </c>
       <c r="G1761" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48905,7 +48908,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G1762" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48931,7 +48934,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1763" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48957,7 +48960,7 @@
         <v>38.0999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48983,7 +48986,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G1765" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49009,7 +49012,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1766" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49035,7 +49038,7 @@
         <v>38.7000007629395</v>
       </c>
       <c r="G1767" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49061,7 +49064,7 @@
         <v>39.5999984741211</v>
       </c>
       <c r="G1768" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49087,7 +49090,7 @@
         <v>39.5</v>
       </c>
       <c r="G1769" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49113,7 +49116,7 @@
         <v>39.2999992370605</v>
       </c>
       <c r="G1770" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49139,7 +49142,7 @@
         <v>39.7999992370605</v>
       </c>
       <c r="G1771" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49165,7 +49168,7 @@
         <v>39.7999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49191,7 +49194,7 @@
         <v>39.5</v>
       </c>
       <c r="G1773" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49217,7 +49220,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G1774" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49243,7 +49246,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G1775" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49269,7 +49272,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1776" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49295,7 +49298,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1777" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49321,7 +49324,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49347,7 +49350,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49373,7 +49376,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G1780" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49399,7 +49402,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1781" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49425,7 +49428,7 @@
         <v>11.5</v>
       </c>
       <c r="G1782" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49451,7 +49454,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1783" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49477,7 +49480,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1784" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49503,7 +49506,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1785" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49529,7 +49532,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1786" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49555,7 +49558,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1787" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49581,7 +49584,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1788" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49607,7 +49610,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1789" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49633,7 +49636,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1790" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49659,7 +49662,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1791" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49685,7 +49688,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49711,7 +49714,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49737,7 +49740,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1794" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49763,7 +49766,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1795" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49789,7 +49792,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G1796" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49815,7 +49818,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49841,7 +49844,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G1798" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49867,7 +49870,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49893,7 +49896,7 @@
         <v>12.5</v>
       </c>
       <c r="G1800" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49919,7 +49922,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1801" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49945,7 +49948,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1802" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49971,7 +49974,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1803" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49997,7 +50000,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1804" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50023,7 +50026,7 @@
         <v>12.25</v>
       </c>
       <c r="G1805" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50049,7 +50052,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50075,7 +50078,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1807" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50101,7 +50104,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50127,7 +50130,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1809" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50153,7 +50156,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1810" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50179,7 +50182,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1811" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50205,7 +50208,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50231,7 +50234,7 @@
         <v>12.5</v>
       </c>
       <c r="G1813" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50257,7 +50260,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1814" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50283,7 +50286,7 @@
         <v>12.25</v>
       </c>
       <c r="G1815" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50309,7 +50312,7 @@
         <v>12.25</v>
       </c>
       <c r="G1816" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50335,7 +50338,7 @@
         <v>12.25</v>
       </c>
       <c r="G1817" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50361,7 +50364,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50387,7 +50390,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1819" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50413,7 +50416,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1820" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50439,7 +50442,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1821" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50465,7 +50468,7 @@
         <v>13.75</v>
       </c>
       <c r="G1822" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50491,7 +50494,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50517,7 +50520,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1824" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50543,7 +50546,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50569,7 +50572,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1826" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50595,7 +50598,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1827" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50621,7 +50624,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1828" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50647,7 +50650,7 @@
         <v>15.25</v>
       </c>
       <c r="G1829" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50673,7 +50676,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50699,7 +50702,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50725,7 +50728,7 @@
         <v>14.5</v>
       </c>
       <c r="G1832" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50751,7 +50754,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50777,7 +50780,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1834" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50803,7 +50806,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1835" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50829,7 +50832,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50855,7 +50858,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1837" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50881,7 +50884,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1838" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50907,7 +50910,7 @@
         <v>15.5</v>
       </c>
       <c r="G1839" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50933,7 +50936,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1840" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50959,7 +50962,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50985,7 +50988,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51011,7 +51014,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51037,7 +51040,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1844" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51063,7 +51066,7 @@
         <v>16.1499996185303</v>
       </c>
       <c r="G1845" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51089,7 +51092,7 @@
         <v>16.25</v>
       </c>
       <c r="G1846" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51115,7 +51118,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1847" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51141,7 +51144,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1848" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51167,7 +51170,7 @@
         <v>17.25</v>
       </c>
       <c r="G1849" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51193,7 +51196,7 @@
         <v>17.25</v>
       </c>
       <c r="G1850" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51219,7 +51222,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1851" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51245,7 +51248,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1852" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51271,7 +51274,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1853" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51297,7 +51300,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1854" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51323,7 +51326,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1855" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51349,7 +51352,7 @@
         <v>21.5</v>
       </c>
       <c r="G1856" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51375,7 +51378,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1857" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51401,7 +51404,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1858" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51427,7 +51430,7 @@
         <v>23.5</v>
       </c>
       <c r="G1859" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51453,7 +51456,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51479,7 +51482,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1861" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51505,7 +51508,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1862" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51531,7 +51534,7 @@
         <v>14</v>
       </c>
       <c r="G1863" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51557,7 +51560,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1864" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51583,7 +51586,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1865" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51609,7 +51612,7 @@
         <v>12.5</v>
       </c>
       <c r="G1866" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51635,7 +51638,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1867" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51661,7 +51664,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1868" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51687,7 +51690,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51713,7 +51716,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G1870" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51739,7 +51742,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51765,7 +51768,7 @@
         <v>11.75</v>
       </c>
       <c r="G1872" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51791,7 +51794,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G1873" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51817,7 +51820,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G1874" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51843,7 +51846,7 @@
         <v>11.75</v>
       </c>
       <c r="G1875" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51869,7 +51872,7 @@
         <v>12.5</v>
       </c>
       <c r="G1876" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51895,7 +51898,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51921,7 +51924,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51947,7 +51950,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1879" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51973,7 +51976,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51999,7 +52002,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52025,7 +52028,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1882" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52051,7 +52054,7 @@
         <v>11.75</v>
       </c>
       <c r="G1883" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52077,7 +52080,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1884" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52103,7 +52106,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1885" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52129,7 +52132,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G1886" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52155,7 +52158,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G1887" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52181,7 +52184,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1888" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52207,7 +52210,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1889" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52233,7 +52236,7 @@
         <v>11.75</v>
       </c>
       <c r="G1890" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52259,7 +52262,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52285,7 +52288,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1892" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52311,7 +52314,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1893" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52337,7 +52340,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1894" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52363,7 +52366,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1895" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52389,7 +52392,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1896" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52415,7 +52418,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1897" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52441,7 +52444,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52467,7 +52470,7 @@
         <v>11.75</v>
       </c>
       <c r="G1899" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52493,7 +52496,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1900" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52519,7 +52522,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1901" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52545,7 +52548,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52571,7 +52574,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1903" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52597,7 +52600,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G1904" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52623,7 +52626,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1905" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52649,7 +52652,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52675,7 +52678,7 @@
         <v>11.5</v>
       </c>
       <c r="G1907" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52701,7 +52704,7 @@
         <v>11.5</v>
       </c>
       <c r="G1908" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52727,7 +52730,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52753,7 +52756,7 @@
         <v>11.5</v>
       </c>
       <c r="G1910" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52779,7 +52782,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1911" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52805,7 +52808,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1912" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52831,7 +52834,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52857,7 +52860,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52883,7 +52886,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52909,7 +52912,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1916" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52935,7 +52938,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52961,7 +52964,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1918" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52987,7 +52990,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1919" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53013,7 +53016,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1920" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53039,7 +53042,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1921" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53065,7 +53068,7 @@
         <v>11.75</v>
       </c>
       <c r="G1922" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53091,7 +53094,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1923" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53117,7 +53120,7 @@
         <v>12.25</v>
       </c>
       <c r="G1924" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53143,7 +53146,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1925" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53169,7 +53172,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53195,7 +53198,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53221,7 +53224,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53247,7 +53250,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53273,7 +53276,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1930" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53299,7 +53302,7 @@
         <v>12.25</v>
       </c>
       <c r="G1931" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53325,7 +53328,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1932" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53351,7 +53354,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1933" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53377,7 +53380,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53403,7 +53406,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1935" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53429,7 +53432,7 @@
         <v>13.75</v>
       </c>
       <c r="G1936" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53455,7 +53458,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1937" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53481,7 +53484,7 @@
         <v>16.1499996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53507,7 +53510,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53533,7 +53536,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53559,7 +53562,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1941" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53585,7 +53588,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1942" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53611,7 +53614,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53637,7 +53640,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1944" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53663,7 +53666,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1945" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53689,7 +53692,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1946" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53715,7 +53718,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1947" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53741,7 +53744,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1948" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53767,7 +53770,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53793,7 +53796,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1950" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53819,7 +53822,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1951" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53845,7 +53848,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1952" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53871,7 +53874,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1953" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53897,7 +53900,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1954" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53923,7 +53926,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1955" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53949,7 +53952,7 @@
         <v>15.25</v>
       </c>
       <c r="G1956" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53975,7 +53978,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1957" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54001,7 +54004,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54027,7 +54030,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54053,7 +54056,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54079,7 +54082,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G1961" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54105,7 +54108,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54131,7 +54134,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G1963" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54157,7 +54160,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G1964" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54183,7 +54186,7 @@
         <v>14.5</v>
       </c>
       <c r="G1965" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54209,7 +54212,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54235,7 +54238,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1967" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54261,7 +54264,7 @@
         <v>14.5</v>
       </c>
       <c r="G1968" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54287,7 +54290,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54313,7 +54316,7 @@
         <v>14</v>
       </c>
       <c r="G1970" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54339,7 +54342,7 @@
         <v>14</v>
       </c>
       <c r="G1971" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54365,7 +54368,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1972" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54391,7 +54394,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1973" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54417,7 +54420,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1974" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54443,7 +54446,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54469,7 +54472,7 @@
         <v>14</v>
       </c>
       <c r="G1976" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54495,7 +54498,7 @@
         <v>14</v>
       </c>
       <c r="G1977" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54521,7 +54524,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1978" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54547,7 +54550,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1979" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54573,7 +54576,7 @@
         <v>14.25</v>
       </c>
       <c r="G1980" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54599,7 +54602,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1981" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54625,7 +54628,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54651,7 +54654,7 @@
         <v>14</v>
       </c>
       <c r="G1983" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54677,7 +54680,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1984" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54703,7 +54706,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1985" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54729,7 +54732,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1986" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54755,7 +54758,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1987" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54781,7 +54784,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54807,7 +54810,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1989" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54833,7 +54836,7 @@
         <v>13.75</v>
       </c>
       <c r="G1990" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54859,7 +54862,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1991" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54885,7 +54888,7 @@
         <v>13.25</v>
       </c>
       <c r="G1992" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54911,7 +54914,7 @@
         <v>13.5</v>
       </c>
       <c r="G1993" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54937,7 +54940,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1994" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54963,7 +54966,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1995" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54989,7 +54992,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1996" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55015,7 +55018,7 @@
         <v>14</v>
       </c>
       <c r="G1997" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55041,7 +55044,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1998" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55067,7 +55070,7 @@
         <v>14</v>
       </c>
       <c r="G1999" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55093,7 +55096,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G2000" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55119,7 +55122,7 @@
         <v>13.75</v>
       </c>
       <c r="G2001" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55145,7 +55148,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G2002" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55171,7 +55174,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55197,7 +55200,7 @@
         <v>14.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55223,7 +55226,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2005" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55249,7 +55252,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55275,7 +55278,7 @@
         <v>14</v>
       </c>
       <c r="G2007" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55301,7 +55304,7 @@
         <v>14</v>
       </c>
       <c r="G2008" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55327,7 +55330,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G2009" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55353,7 +55356,7 @@
         <v>14</v>
       </c>
       <c r="G2010" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55379,7 +55382,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G2011" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55405,7 +55408,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55431,7 +55434,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55457,7 +55460,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G2014" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55483,7 +55486,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55509,7 +55512,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2016" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55535,7 +55538,7 @@
         <v>14.5</v>
       </c>
       <c r="G2017" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55561,7 +55564,7 @@
         <v>15</v>
       </c>
       <c r="G2018" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55587,7 +55590,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2019" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55613,7 +55616,7 @@
         <v>15.5</v>
       </c>
       <c r="G2020" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55639,7 +55642,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G2021" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55665,7 +55668,7 @@
         <v>16</v>
       </c>
       <c r="G2022" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55691,7 +55694,7 @@
         <v>16.5</v>
       </c>
       <c r="G2023" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55717,7 +55720,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G2024" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55743,7 +55746,7 @@
         <v>17.25</v>
       </c>
       <c r="G2025" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55769,7 +55772,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55795,7 +55798,7 @@
         <v>16</v>
       </c>
       <c r="G2027" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55821,7 +55824,7 @@
         <v>16</v>
       </c>
       <c r="G2028" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55847,7 +55850,7 @@
         <v>16.25</v>
       </c>
       <c r="G2029" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55873,7 +55876,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55899,7 +55902,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G2031" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55925,7 +55928,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2032" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55951,7 +55954,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G2033" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55977,7 +55980,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G2034" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56003,7 +56006,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2035" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56029,7 +56032,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2036" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56055,7 +56058,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G2037" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56081,7 +56084,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G2038" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56107,7 +56110,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G2039" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56133,7 +56136,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56159,7 +56162,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2041" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56185,7 +56188,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2042" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56211,7 +56214,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56237,7 +56240,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G2044" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56263,7 +56266,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G2045" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56289,7 +56292,7 @@
         <v>21</v>
       </c>
       <c r="G2046" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56315,7 +56318,7 @@
         <v>21</v>
       </c>
       <c r="G2047" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56341,7 +56344,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56367,7 +56370,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56393,7 +56396,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G2050" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56419,7 +56422,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56445,7 +56448,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56471,7 +56474,7 @@
         <v>10.5</v>
       </c>
       <c r="G2053" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56497,7 +56500,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G2054" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56523,7 +56526,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56549,7 +56552,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2056" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56575,7 +56578,7 @@
         <v>14</v>
       </c>
       <c r="G2057" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56601,7 +56604,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56627,7 +56630,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56653,7 +56656,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56679,7 +56682,7 @@
         <v>13</v>
       </c>
       <c r="G2061" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56705,7 +56708,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56731,7 +56734,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G2063" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56757,7 +56760,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2064" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56783,7 +56786,7 @@
         <v>12</v>
       </c>
       <c r="G2065" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56809,7 +56812,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56835,7 +56838,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56861,7 +56864,7 @@
         <v>13.5</v>
       </c>
       <c r="G2068" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56887,7 +56890,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G2069" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56913,7 +56916,7 @@
         <v>13.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56939,7 +56942,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56965,7 +56968,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56991,7 +56994,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G2073" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57017,7 +57020,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2074" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57043,7 +57046,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57069,7 +57072,7 @@
         <v>13.75</v>
       </c>
       <c r="G2076" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57095,7 +57098,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G2077" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57121,7 +57124,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G2078" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57147,7 +57150,7 @@
         <v>13.5</v>
       </c>
       <c r="G2079" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57173,7 +57176,7 @@
         <v>13.5</v>
       </c>
       <c r="G2080" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57199,7 +57202,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57225,7 +57228,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57251,7 +57254,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G2083" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57277,7 +57280,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57303,7 +57306,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2085" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57329,7 +57332,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57355,7 +57358,7 @@
         <v>14.75</v>
       </c>
       <c r="G2087" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57381,7 +57384,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57407,7 +57410,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57433,7 +57436,7 @@
         <v>14.25</v>
       </c>
       <c r="G2090" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57459,7 +57462,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G2091" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57485,7 +57488,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57511,7 +57514,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57537,7 +57540,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2094" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57563,7 +57566,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57589,7 +57592,7 @@
         <v>14</v>
       </c>
       <c r="G2096" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57615,7 +57618,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2097" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57641,7 +57644,7 @@
         <v>14.25</v>
       </c>
       <c r="G2098" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57667,7 +57670,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G2099" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57693,7 +57696,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G2100" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57719,7 +57722,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G2101" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57745,7 +57748,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G2102" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57771,7 +57774,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2103" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57797,7 +57800,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2104" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57823,7 +57826,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2105" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57849,7 +57852,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2106" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57875,7 +57878,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2107" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57901,7 +57904,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2108" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57927,7 +57930,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2109" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57953,7 +57956,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2110" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57979,7 +57982,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2111" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58005,7 +58008,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2112" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58031,7 +58034,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58057,7 +58060,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2114" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58083,7 +58086,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2115" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58109,7 +58112,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2116" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58135,7 +58138,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2117" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58161,7 +58164,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58187,7 +58190,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G2119" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58213,7 +58216,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2120" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58239,7 +58242,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58265,7 +58268,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G2122" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58291,7 +58294,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2123" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58317,7 +58320,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2124" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58343,7 +58346,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G2125" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58369,7 +58372,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2126" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58395,7 +58398,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G2127" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58421,7 +58424,7 @@
         <v>2.89499998092651</v>
       </c>
       <c r="G2128" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58447,7 +58450,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G2129" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58473,7 +58476,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G2130" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58499,7 +58502,7 @@
         <v>2.79500007629395</v>
       </c>
       <c r="G2131" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58525,7 +58528,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G2132" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58551,7 +58554,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G2133" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58577,7 +58580,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58603,7 +58606,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58629,7 +58632,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58655,7 +58658,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G2137" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58681,7 +58684,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G2138" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58707,7 +58710,7 @@
         <v>2.63499999046326</v>
       </c>
       <c r="G2139" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58733,7 +58736,7 @@
         <v>2.67499995231628</v>
       </c>
       <c r="G2140" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58759,7 +58762,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G2141" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58785,7 +58788,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2142" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58811,7 +58814,7 @@
         <v>2.68499994277954</v>
       </c>
       <c r="G2143" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58837,7 +58840,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G2144" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58863,7 +58866,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G2145" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58889,7 +58892,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G2146" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58915,7 +58918,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58941,7 +58944,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58967,7 +58970,7 @@
         <v>2.93499994277954</v>
       </c>
       <c r="G2149" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58993,7 +58996,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2150" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59019,7 +59022,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G2151" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59045,7 +59048,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G2152" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59071,7 +59074,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G2153" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59079,7 +59082,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.5936689815</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>1720</v>
@@ -59097,9 +59100,35 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G2154" t="s">
+        <v>914</v>
+      </c>
+      <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6494097222</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>2176</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>2.84999990463257</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>2.79999995231628</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>2.79999995231628</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>2.84999990463257</v>
+      </c>
+      <c r="G2155" t="s">
         <v>913</v>
       </c>
-      <c r="H2154" t="s">
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="919">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,382 +50,382 @@
     <t xml:space="preserve">1.29750096797943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27586364746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26840233802795</t>
+    <t xml:space="preserve">1.27586352825165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26840245723724</t>
   </si>
   <si>
     <t xml:space="preserve">1.27511739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26765632629395</t>
+    <t xml:space="preserve">1.26765608787537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29004001617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26616394519806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25944876670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25347983837128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25273394584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2176661491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24676489830017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31167733669281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30496215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30123138427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30570840835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3198846578598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28929376602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27884793281555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26317954063416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27437138557434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24601888656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28034043312073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25721061229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31316947937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3206307888031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31391561031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32436120510101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26989471912384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28183257579803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3295841217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32212293148041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32809197902679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3273458480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3348069190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32286906242371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31018507480621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31764626502991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30272388458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30346989631653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29675495624542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078590869904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28854775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28780138492584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30684340000153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3167724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32364642620087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33433961868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33204817771912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32975685596466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33052062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3183000087738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670187950134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32211899757385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34044981002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33663105964661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33510339260101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3289932012558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32822918891907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3213552236557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33815848827362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34426879882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34350514411926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33892250061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31906402111053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29538631439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29767751693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2831654548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851234912872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011059761047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2594883441925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26025211811066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23733842372894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22970032691956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2396297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22053503990173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22206258773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22129881381989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24115741252899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27552795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2747642993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29385876655579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29309511184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29233133792877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2892758846283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25872457027435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28469336032867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24955904483795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27018117904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27629160881042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28698468208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28622102737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28240203857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34121370315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3137172460556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36412727832794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572576522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38093090057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37405681610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38551342487335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36030840873718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37329292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558424472809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35419809818268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35648953914642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34503269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35190677642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35725331306458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35496187210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34961545467377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34885156154633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35801696777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36259984970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32441031932831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32288265228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30226051807404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32059168815613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33586716651917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31295371055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30455183982849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29462265968323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30073297023773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29844164848328</t>
   </si>
   <si>
     <t xml:space="preserve">1.29003989696503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26616394519806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944912433624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25348007678986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25273394584656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21766638755798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676489830017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31167733669281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30496215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30123174190521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30570840835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31988453865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28929376602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27884817123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317954063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27437126636505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24601888656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28034019470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25721061229706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31316959857941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32063090801239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31391584873199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3243613243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26989483833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28183257579803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3295841217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32212293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32809197902679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32734608650208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33480703830719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32286906242371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31018495559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3176463842392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30272376537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30346989631653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29675483703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078578948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28854775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28780162334442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30684328079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3167724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32364642620087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33433938026428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33204829692841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32975685596466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33052062988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31830012798309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670176029205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32211911678314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34044981002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33663105964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33510339260101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32899296283722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32822930812836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32135498523712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33815848827362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3442690372467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34350514411926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33892238140106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31906390190125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29538643360138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29767775535583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28316569328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28851234912872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011059761047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25948822498322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26025223731995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23733830451965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22970044612885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23962986469269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22053492069244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22206258773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22129893302917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24115717411041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27552795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27476406097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29385876655579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29309487342834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29233109951019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28927612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25872445106506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2846931219101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24955904483795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27018129825592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27629160881042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28698456287384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28622090816498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28240203857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34121358394623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31371736526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36412751674652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572576522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38093078136444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3740565776825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38551342487335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36030828952789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37329292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558424472809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35419809818268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954463481903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35648953914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34503281116486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35190689563751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35725331306458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35496199131012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34961545467377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885168075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35801708698273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36259984970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32441031932831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.322882771492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30226063728333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30989849567413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32059144973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33586716651917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31295359134674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30455183982849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29462265968323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30073297023773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29844152927399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003977775574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2908034324646</t>
+    <t xml:space="preserve">1.29080355167389</t>
   </si>
   <si>
     <t xml:space="preserve">1.29615020751953</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">1.2625435590744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26407086849213</t>
+    <t xml:space="preserve">1.26407098770142</t>
   </si>
   <si>
     <t xml:space="preserve">1.27170884609222</t>
@@ -452,64 +452,64 @@
     <t xml:space="preserve">1.23351943492889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26712620258331</t>
+    <t xml:space="preserve">1.26712608337402</t>
   </si>
   <si>
     <t xml:space="preserve">1.24497616291046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24879539012909</t>
+    <t xml:space="preserve">1.2487952709198</t>
   </si>
   <si>
     <t xml:space="preserve">1.27323663234711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26941764354706</t>
+    <t xml:space="preserve">1.26941776275635</t>
   </si>
   <si>
     <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33357572555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34197747707367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35114300251007</t>
+    <t xml:space="preserve">1.33357584476471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34197735786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35114288330078</t>
   </si>
   <si>
     <t xml:space="preserve">1.35343444347382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36718249320984</t>
+    <t xml:space="preserve">1.36718237400055</t>
   </si>
   <si>
     <t xml:space="preserve">1.3832221031189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39926171302795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162385463715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3923876285553</t>
+    <t xml:space="preserve">1.39926159381866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162361621857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39238750934601</t>
   </si>
   <si>
     <t xml:space="preserve">1.39009630680084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39697027206421</t>
+    <t xml:space="preserve">1.3969703912735</t>
   </si>
   <si>
     <t xml:space="preserve">1.39773404598236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40537202358246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40078938007355</t>
+    <t xml:space="preserve">1.40537178516388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40078926086426</t>
   </si>
   <si>
     <t xml:space="preserve">1.39849781990051</t>
@@ -524,94 +524,94 @@
     <t xml:space="preserve">1.40460813045502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42064774036407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41988396644592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3908599615097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40842735767365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39620649814606</t>
+    <t xml:space="preserve">1.42064797878265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41988408565521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39085984230042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40842723846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39620673656464</t>
   </si>
   <si>
     <t xml:space="preserve">1.40231692790985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40384435653687</t>
+    <t xml:space="preserve">1.40384447574615</t>
   </si>
   <si>
     <t xml:space="preserve">1.38704109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42293906211853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42752182483673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43668746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44279754161835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45883727073669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47411298751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46800255775452</t>
+    <t xml:space="preserve">1.42293894290924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42752194404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43668735027313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44279766082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45883738994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4741131067276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4680027961731</t>
   </si>
   <si>
     <t xml:space="preserve">1.46953022480011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47029399871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46418368816376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45349061489105</t>
+    <t xml:space="preserve">1.47029411792755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46418380737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45349085330963</t>
   </si>
   <si>
     <t xml:space="preserve">1.42904937267303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43897879123688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44967186450958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265614032745</t>
+    <t xml:space="preserve">1.43897867202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.449671626091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46265625953674</t>
   </si>
   <si>
     <t xml:space="preserve">1.55812978744507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.540562748909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54667282104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55660223960876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56882286071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53139710426331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52223181724548</t>
+    <t xml:space="preserve">1.54056251049042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54667294025421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55660212039948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56882309913635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5313972234726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52223193645477</t>
   </si>
   <si>
     <t xml:space="preserve">1.54361772537231</t>
@@ -620,46 +620,46 @@
     <t xml:space="preserve">1.56042122840881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5558385848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55278337001801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59402799606323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57569670677185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59937465190887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5963191986084</t>
+    <t xml:space="preserve">1.55583870410919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55278325080872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59402787685394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57569706439972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59937453269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59631931781769</t>
   </si>
   <si>
     <t xml:space="preserve">1.59861075878143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59479165077209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58104360103607</t>
+    <t xml:space="preserve">1.59479153156281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58104372024536</t>
   </si>
   <si>
     <t xml:space="preserve">1.56500387191772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56347620487213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049192905426</t>
+    <t xml:space="preserve">1.56347632408142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049180984497</t>
   </si>
   <si>
     <t xml:space="preserve">1.53521633148193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54896438121796</t>
+    <t xml:space="preserve">1.54896450042725</t>
   </si>
   <si>
     <t xml:space="preserve">1.52757823467255</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">1.51841282844543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5497282743454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58715391159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60472095012665</t>
+    <t xml:space="preserve">1.54972815513611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58715379238129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60472106933594</t>
   </si>
   <si>
     <t xml:space="preserve">1.65131211280823</t>
@@ -686,85 +686,85 @@
     <t xml:space="preserve">1.70551788806915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7204442024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70708906650543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73929834365845</t>
+    <t xml:space="preserve">1.72044408321381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70708918571472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73929822444916</t>
   </si>
   <si>
     <t xml:space="preserve">1.73537027835846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73379921913147</t>
+    <t xml:space="preserve">1.73379933834076</t>
   </si>
   <si>
     <t xml:space="preserve">1.84613871574402</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88698923587799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92469787597656</t>
+    <t xml:space="preserve">1.8869891166687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92469775676727</t>
   </si>
   <si>
     <t xml:space="preserve">2.00011444091797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08181619644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10145568847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03860831260681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06846117973328</t>
+    <t xml:space="preserve">2.08181595802307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10145545005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03860855102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0684609413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.01425504684448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91369950771332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98597395420074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98754501342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99540114402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01975440979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00639963150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9993292093277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96319174766541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01268434524536</t>
+    <t xml:space="preserve">1.91369962692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98597407341003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98754489421844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99540078639984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01975417137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00639939308167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99932897090912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96319186687469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01268410682678</t>
   </si>
   <si>
     <t xml:space="preserve">2.00561380386353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00954151153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02525353431702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01032733917236</t>
+    <t xml:space="preserve">2.00954174995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02525329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01032710075378</t>
   </si>
   <si>
     <t xml:space="preserve">1.98675966262817</t>
@@ -773,208 +773,208 @@
     <t xml:space="preserve">2.00325679779053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00247144699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0166118144989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.028395652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99382984638214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97261917591095</t>
+    <t xml:space="preserve">2.00247120857239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01661205291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02839589118958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99382972717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97261881828308</t>
   </si>
   <si>
     <t xml:space="preserve">1.99068748950958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97968935966492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97733235359192</t>
+    <t xml:space="preserve">1.97968924045563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97733223438263</t>
   </si>
   <si>
     <t xml:space="preserve">1.959263920784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94119513034821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84771013259888</t>
+    <t xml:space="preserve">1.9411952495575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84770977497101</t>
   </si>
   <si>
     <t xml:space="preserve">1.87599110603333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84535300731659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87284886837006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88620388507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91055738925934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92941093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90505790710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88934636116028</t>
+    <t xml:space="preserve">1.84535312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87284874916077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88620376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91055703163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9294114112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90505802631378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8893461227417</t>
   </si>
   <si>
     <t xml:space="preserve">1.90584361553192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91605615615845</t>
+    <t xml:space="preserve">1.91605627536774</t>
   </si>
   <si>
     <t xml:space="preserve">1.91919875144958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9333393573761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90113008022308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862546443939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705476284027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9176276922226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98047459125519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99618637561798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05981922149658</t>
+    <t xml:space="preserve">1.93333923816681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90113019943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862582206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705452442169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91762757301331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98047482967377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99618661403656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05981969833374</t>
   </si>
   <si>
     <t xml:space="preserve">2.05746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01504063606262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02053999900818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00482797622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97026193141937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96947634220123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97811806201935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97576105594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95062220096588</t>
+    <t xml:space="preserve">2.0150408744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0205397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00482821464539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97026216983795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96947646141052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97811794281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97576117515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95062232017517</t>
   </si>
   <si>
     <t xml:space="preserve">1.93962395191193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93726742267609</t>
+    <t xml:space="preserve">1.93726718425751</t>
   </si>
   <si>
     <t xml:space="preserve">1.93805289268494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93255376815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826543331146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96711981296539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95376479625702</t>
+    <t xml:space="preserve">1.93255364894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826555252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96711957454681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95376455783844</t>
   </si>
   <si>
     <t xml:space="preserve">1.95219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9427661895752</t>
+    <t xml:space="preserve">1.94276630878448</t>
   </si>
   <si>
     <t xml:space="preserve">1.96397733688354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94905090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95533573627472</t>
+    <t xml:space="preserve">1.9490510225296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95533585548401</t>
   </si>
   <si>
     <t xml:space="preserve">1.94669437408447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92548334598541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234086990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92784011363983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9231264591217</t>
+    <t xml:space="preserve">1.92548322677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234075069427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92784023284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92312657833099</t>
   </si>
   <si>
     <t xml:space="preserve">1.89720213413239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90348708629608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90820038318634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89484536647797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8995589017868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89013183116913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89563083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89327430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91527044773102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91212832927704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90191543102264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93098270893097</t>
+    <t xml:space="preserve">1.9034868478775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90820026397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89484548568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89955878257751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89013171195984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89563071727753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8932740688324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91527056694031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91212844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90191555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9309823513031</t>
   </si>
   <si>
     <t xml:space="preserve">1.98126018047333</t>
@@ -986,55 +986,55 @@
     <t xml:space="preserve">2.00090003013611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06610417366028</t>
+    <t xml:space="preserve">2.0661039352417</t>
   </si>
   <si>
     <t xml:space="preserve">2.05039238929749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03153800964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0566771030426</t>
+    <t xml:space="preserve">2.03153824806213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05667686462402</t>
   </si>
   <si>
     <t xml:space="preserve">2.05353474617004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04803586006165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19494104385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13287949562073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11245393753052</t>
+    <t xml:space="preserve">2.04803538322449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19494128227234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13287925720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11245369911194</t>
   </si>
   <si>
     <t xml:space="preserve">2.07396006584167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652949333191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0723888874054</t>
+    <t xml:space="preserve">2.08652925491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07238912582397</t>
   </si>
   <si>
     <t xml:space="preserve">2.07710242271423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05196356773376</t>
+    <t xml:space="preserve">2.05196332931519</t>
   </si>
   <si>
     <t xml:space="preserve">2.08574390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05117797851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06217622756958</t>
+    <t xml:space="preserve">2.0511782169342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06217646598816</t>
   </si>
   <si>
     <t xml:space="preserve">2.06924653053284</t>
@@ -1052,58 +1052,58 @@
     <t xml:space="preserve">2.17215895652771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17294478416443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17687225341797</t>
+    <t xml:space="preserve">2.17294454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17687249183655</t>
   </si>
   <si>
     <t xml:space="preserve">2.16823101043701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18708539009094</t>
+    <t xml:space="preserve">2.18708515167236</t>
   </si>
   <si>
     <t xml:space="preserve">2.18158602714539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20358228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1917986869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17765831947327</t>
+    <t xml:space="preserve">2.2035825252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19179844856262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17765784263611</t>
   </si>
   <si>
     <t xml:space="preserve">2.16037511825562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1501624584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14937663078308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14859127998352</t>
+    <t xml:space="preserve">2.15016222000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14937686920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14859104156494</t>
   </si>
   <si>
     <t xml:space="preserve">2.16665983200073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17451548576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1957266330719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17608666419983</t>
+    <t xml:space="preserve">2.17451596260071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19572687149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17608714103699</t>
   </si>
   <si>
     <t xml:space="preserve">2.22479343414307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28606939315796</t>
+    <t xml:space="preserve">2.28606963157654</t>
   </si>
   <si>
     <t xml:space="preserve">2.30963730812073</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">2.27035784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26250195503235</t>
+    <t xml:space="preserve">2.26250171661377</t>
   </si>
   <si>
     <t xml:space="preserve">2.30178141593933</t>
@@ -1121,34 +1121,34 @@
     <t xml:space="preserve">2.31749320030212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41176438331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46675539016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41962003707886</t>
+    <t xml:space="preserve">2.41176414489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46675586700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41961979866028</t>
   </si>
   <si>
     <t xml:space="preserve">2.43533182144165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47461152076721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42747616767883</t>
+    <t xml:space="preserve">2.47461128234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42747592926025</t>
   </si>
   <si>
     <t xml:space="preserve">2.38819622993469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36462879180908</t>
+    <t xml:space="preserve">2.3646285533905</t>
   </si>
   <si>
     <t xml:space="preserve">2.38034057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40390825271606</t>
+    <t xml:space="preserve">2.40390849113464</t>
   </si>
   <si>
     <t xml:space="preserve">2.39605236053467</t>
@@ -1157,88 +1157,91 @@
     <t xml:space="preserve">2.35677266120911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29392552375793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27821350097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54531455039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49032330513</t>
+    <t xml:space="preserve">2.29392528533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27821373939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54531478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49032306671143</t>
   </si>
   <si>
     <t xml:space="preserve">2.66315340995789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65529704093933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73385620117188</t>
+    <t xml:space="preserve">2.65529727935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73385667800903</t>
   </si>
   <si>
     <t xml:space="preserve">2.56888246536255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60030579566956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57673859596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50603485107422</t>
+    <t xml:space="preserve">2.60030603408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57673835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5060350894928</t>
   </si>
   <si>
     <t xml:space="preserve">2.53745865821838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58459424972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5531702041626</t>
+    <t xml:space="preserve">2.58459448814392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55317068099976</t>
   </si>
   <si>
     <t xml:space="preserve">2.51389098167419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59245038032532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56102633476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52174663543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61601781845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63958549499512</t>
+    <t xml:space="preserve">2.59245014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56102609634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52174687385559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61601758003235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63958501815796</t>
   </si>
   <si>
     <t xml:space="preserve">2.68816709518433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70436072349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69626379013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197346687317</t>
+    <t xml:space="preserve">2.70436096191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69626355171204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197322845459</t>
   </si>
   <si>
     <t xml:space="preserve">2.61529493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62339162826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63148832321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65577960014343</t>
+    <t xml:space="preserve">2.62339210510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63148880004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65577912330627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63958525657654</t>
   </si>
   <si>
     <t xml:space="preserve">2.59100413322449</t>
@@ -1247,10 +1250,10 @@
     <t xml:space="preserve">2.60719776153564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53432583808899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42906641960144</t>
+    <t xml:space="preserve">2.53432559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42906618118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.40477585792542</t>
@@ -1259,7 +1262,7 @@
     <t xml:space="preserve">2.38048505783081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4128725528717</t>
+    <t xml:space="preserve">2.41287279129028</t>
   </si>
   <si>
     <t xml:space="preserve">2.32380676269531</t>
@@ -1271,46 +1274,46 @@
     <t xml:space="preserve">2.29141926765442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31570982933044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33190369606018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35619425773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26712870597839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2104504108429</t>
+    <t xml:space="preserve">2.31571006774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33190393447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35619449615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26712846755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21045064926147</t>
   </si>
   <si>
     <t xml:space="preserve">2.28332257270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34809732437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21854734420776</t>
+    <t xml:space="preserve">2.34809756278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21854710578918</t>
   </si>
   <si>
     <t xml:space="preserve">2.19425678253174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22664427757263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18615984916687</t>
+    <t xml:space="preserve">2.22664403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18616008758545</t>
   </si>
   <si>
     <t xml:space="preserve">2.178062915802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16996598243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16186952590942</t>
+    <t xml:space="preserve">2.16996622085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16186904907227</t>
   </si>
   <si>
     <t xml:space="preserve">2.12948155403137</t>
@@ -1322,22 +1325,22 @@
     <t xml:space="preserve">2.25903177261353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24283790588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27522563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39667916297913</t>
+    <t xml:space="preserve">2.24283814430237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27522587776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39667892456055</t>
   </si>
   <si>
     <t xml:space="preserve">2.1213846206665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10519123077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11328792572021</t>
+    <t xml:space="preserve">2.10519099235535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11328768730164</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
@@ -1352,7 +1355,7 @@
     <t xml:space="preserve">2.02422213554382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754384040833</t>
+    <t xml:space="preserve">1.96754395961761</t>
   </si>
   <si>
     <t xml:space="preserve">1.95944702625275</t>
@@ -1361,19 +1364,19 @@
     <t xml:space="preserve">1.93515622615814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95135021209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87038111686707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91896271705627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91086566448212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94325304031372</t>
+    <t xml:space="preserve">1.95134997367859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87038123607635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91896259784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91086554527283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94325315952301</t>
   </si>
   <si>
     <t xml:space="preserve">2.25093483924866</t>
@@ -1385,19 +1388,19 @@
     <t xml:space="preserve">2.13757848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08899736404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06470632553101</t>
+    <t xml:space="preserve">2.08899688720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06470656394958</t>
   </si>
   <si>
     <t xml:space="preserve">2.08090019226074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00802803039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705929279327</t>
+    <t xml:space="preserve">2.00802826881409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705953121185</t>
   </si>
   <si>
     <t xml:space="preserve">1.8865749835968</t>
@@ -1409,25 +1412,25 @@
     <t xml:space="preserve">1.85418736934662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82179987430573</t>
+    <t xml:space="preserve">1.82179975509644</t>
   </si>
   <si>
     <t xml:space="preserve">1.90276873111725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97564053535461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99993133544922</t>
+    <t xml:space="preserve">1.9756406545639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9999315738678</t>
   </si>
   <si>
     <t xml:space="preserve">2.30761313438416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20235371589661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14567542076111</t>
+    <t xml:space="preserve">2.20235347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14567518234253</t>
   </si>
   <si>
     <t xml:space="preserve">2.36429142951965</t>
@@ -1436,19 +1439,19 @@
     <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45335721969604</t>
+    <t xml:space="preserve">2.45335698127747</t>
   </si>
   <si>
     <t xml:space="preserve">2.42096972465515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43716335296631</t>
+    <t xml:space="preserve">2.43716359138489</t>
   </si>
   <si>
     <t xml:space="preserve">2.46145391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51003527641296</t>
+    <t xml:space="preserve">2.51003551483154</t>
   </si>
   <si>
     <t xml:space="preserve">2.48574471473694</t>
@@ -1457,52 +1460,52 @@
     <t xml:space="preserve">2.49384140968323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50193858146667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51813220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52622890472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4695508480072</t>
+    <t xml:space="preserve">2.5019383430481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51813244819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5262291431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46955060958862</t>
   </si>
   <si>
     <t xml:space="preserve">2.44526028633118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47764778137207</t>
+    <t xml:space="preserve">2.47764801979065</t>
   </si>
   <si>
     <t xml:space="preserve">2.55861663818359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58290719985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387629508972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65539240837097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62994146347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60449051856995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54510474205017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56207203865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5875232219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5960066318512</t>
+    <t xml:space="preserve">2.5829074382782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6638765335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65539216995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62994170188904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60449075698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54510450363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56207227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58752298355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59600687026978</t>
   </si>
   <si>
     <t xml:space="preserve">2.61297416687012</t>
@@ -1514,7 +1517,7 @@
     <t xml:space="preserve">2.53662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52813720703125</t>
+    <t xml:space="preserve">2.52813744544983</t>
   </si>
   <si>
     <t xml:space="preserve">2.46875166893005</t>
@@ -1523,13 +1526,13 @@
     <t xml:space="preserve">2.49420261383057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38391470909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37543129920959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32452893257141</t>
+    <t xml:space="preserve">2.38391494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37543106079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32452869415283</t>
   </si>
   <si>
     <t xml:space="preserve">2.33301258087158</t>
@@ -1538,19 +1541,19 @@
     <t xml:space="preserve">2.3499801158905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36694741249084</t>
+    <t xml:space="preserve">2.36694717407227</t>
   </si>
   <si>
     <t xml:space="preserve">2.4602677822113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42633295059204</t>
+    <t xml:space="preserve">2.42633318901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.44330048561096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47723507881165</t>
+    <t xml:space="preserve">2.47723531723022</t>
   </si>
   <si>
     <t xml:space="preserve">2.57055568695068</t>
@@ -1568,13 +1571,13 @@
     <t xml:space="preserve">2.69781088829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70629453659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67236018180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477818489075</t>
+    <t xml:space="preserve">2.70629477500916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67235994338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477842330933</t>
   </si>
   <si>
     <t xml:space="preserve">2.72326183319092</t>
@@ -1583,7 +1586,7 @@
     <t xml:space="preserve">2.68084359169006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68932771682739</t>
+    <t xml:space="preserve">2.68932723999023</t>
   </si>
   <si>
     <t xml:space="preserve">2.51965379714966</t>
@@ -1610,16 +1613,16 @@
     <t xml:space="preserve">2.39239859580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40936589241028</t>
+    <t xml:space="preserve">2.4093656539917</t>
   </si>
   <si>
     <t xml:space="preserve">2.40088200569153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20575761795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28211045265198</t>
+    <t xml:space="preserve">2.20575737953186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28211069107056</t>
   </si>
   <si>
     <t xml:space="preserve">2.2227246761322</t>
@@ -1634,55 +1637,55 @@
     <t xml:space="preserve">2.21424102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13788795471191</t>
+    <t xml:space="preserve">2.13788819313049</t>
   </si>
   <si>
     <t xml:space="preserve">1.97669792175293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73067128658295</t>
+    <t xml:space="preserve">1.73067116737366</t>
   </si>
   <si>
     <t xml:space="preserve">1.73915493488312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69673645496368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53554666042328</t>
+    <t xml:space="preserve">1.69673633575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5355464220047</t>
   </si>
   <si>
     <t xml:space="preserve">1.56948125362396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57796490192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68401098251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62462508678436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6161413192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59917414188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5609974861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65431809425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67128539085388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64159262180328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62886703014374</t>
+    <t xml:space="preserve">1.57796502113342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68401110172272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62462520599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61614143848419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59917402267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56099736690521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65431797504425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67128551006317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64159250259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62886714935303</t>
   </si>
   <si>
     <t xml:space="preserve">1.65007627010345</t>
@@ -1700,67 +1703,67 @@
     <t xml:space="preserve">1.67552721500397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69249475002289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65855991840363</t>
+    <t xml:space="preserve">1.6924946308136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65855979919434</t>
   </si>
   <si>
     <t xml:space="preserve">1.68825280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74763870239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78157317638397</t>
+    <t xml:space="preserve">1.74763858318329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78157329559326</t>
   </si>
   <si>
     <t xml:space="preserve">1.84095907211304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80702424049377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79005718231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7730895280838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72218751907349</t>
+    <t xml:space="preserve">1.80702435970306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79005694389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77308976650238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7221873998642</t>
   </si>
   <si>
     <t xml:space="preserve">1.82399165630341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83247530460358</t>
+    <t xml:space="preserve">1.83247542381287</t>
   </si>
   <si>
     <t xml:space="preserve">1.84944272041321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86641013622284</t>
+    <t xml:space="preserve">1.86641025543213</t>
   </si>
   <si>
     <t xml:space="preserve">1.90034484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95973062515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90882861614227</t>
+    <t xml:space="preserve">1.95973074436188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90882849693298</t>
   </si>
   <si>
     <t xml:space="preserve">1.88337755203247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89186120033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8748939037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792648792267</t>
+    <t xml:space="preserve">1.89186108112335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87489378452301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792636871338</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
@@ -1769,7 +1772,7 @@
     <t xml:space="preserve">1.81550800800323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75612235069275</t>
+    <t xml:space="preserve">1.75612246990204</t>
   </si>
   <si>
     <t xml:space="preserve">1.67976891994476</t>
@@ -1778,19 +1781,19 @@
     <t xml:space="preserve">1.71370387077332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64583444595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59493231773376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60341596603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56523942947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55251371860504</t>
+    <t xml:space="preserve">1.64583420753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59493219852448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60341584682465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56523954868317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55251383781433</t>
   </si>
   <si>
     <t xml:space="preserve">1.54827213287354</t>
@@ -1799,28 +1802,28 @@
     <t xml:space="preserve">1.49312818050385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48464453220367</t>
+    <t xml:space="preserve">1.48464441299438</t>
   </si>
   <si>
     <t xml:space="preserve">1.47191894054413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46767687797546</t>
+    <t xml:space="preserve">1.46767711639404</t>
   </si>
   <si>
     <t xml:space="preserve">1.49736988544464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47616064548492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42525863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39132404327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44222593307495</t>
+    <t xml:space="preserve">1.47616076469421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42525851726532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39132380485535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44222605228424</t>
   </si>
   <si>
     <t xml:space="preserve">1.41677498817444</t>
@@ -1832,13 +1835,13 @@
     <t xml:space="preserve">1.3489054441452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36587285995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39556574821472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38284003734589</t>
+    <t xml:space="preserve">1.36587274074554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3955659866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38284015655518</t>
   </si>
   <si>
     <t xml:space="preserve">1.40829133987427</t>
@@ -1850,10 +1853,10 @@
     <t xml:space="preserve">1.41253304481506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45919346809387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46343529224396</t>
+    <t xml:space="preserve">1.45919334888458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46343505382538</t>
   </si>
   <si>
     <t xml:space="preserve">1.44646787643433</t>
@@ -1862,28 +1865,28 @@
     <t xml:space="preserve">1.45070970058441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43798434734344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53130447864532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58644866943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038338184357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61189961433411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55675578117371</t>
+    <t xml:space="preserve">1.43798422813416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53130459785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58644878864288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038350105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6118997335434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55675566196442</t>
   </si>
   <si>
     <t xml:space="preserve">1.59069049358368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57372307777405</t>
+    <t xml:space="preserve">1.57372295856476</t>
   </si>
   <si>
     <t xml:space="preserve">1.58220672607422</t>
@@ -1895,7 +1898,7 @@
     <t xml:space="preserve">1.54403030872345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95124685764313</t>
+    <t xml:space="preserve">1.95124697685242</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608369827271</t>
@@ -1913,7 +1916,7 @@
     <t xml:space="preserve">2.27362680435181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23969197273254</t>
+    <t xml:space="preserve">2.23969221115112</t>
   </si>
   <si>
     <t xml:space="preserve">2.14637160301208</t>
@@ -1925,13 +1928,10 @@
     <t xml:space="preserve">2.30756163597107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30756187438965</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.31620407104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33348941802979</t>
+    <t xml:space="preserve">2.33348917961121</t>
   </si>
   <si>
     <t xml:space="preserve">2.34213185310364</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">2.35077452659607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29891920089722</t>
+    <t xml:space="preserve">2.29891896247864</t>
   </si>
   <si>
     <t xml:space="preserve">2.32484674453735</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">2.46312761306763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47177004814148</t>
+    <t xml:space="preserve">2.47177028656006</t>
   </si>
   <si>
     <t xml:space="preserve">2.48905515670776</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">2.50634026527405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55819582939148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58412337303162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59276580810547</t>
+    <t xml:space="preserve">2.5581955909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59276604652405</t>
   </si>
   <si>
     <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52362537384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4976978302002</t>
+    <t xml:space="preserve">2.52362561225891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49769759178162</t>
   </si>
   <si>
     <t xml:space="preserve">2.48041272163391</t>
@@ -2000,19 +2000,19 @@
     <t xml:space="preserve">2.43720006942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42855739593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40262961387634</t>
+    <t xml:space="preserve">2.42855763435364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40262985229492</t>
   </si>
   <si>
     <t xml:space="preserve">2.41991496086121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41127228736877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45448517799377</t>
+    <t xml:space="preserve">2.41127252578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4544849395752</t>
   </si>
   <si>
     <t xml:space="preserve">2.39398717880249</t>
@@ -2021,13 +2021,13 @@
     <t xml:space="preserve">2.38534474372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37670207023621</t>
+    <t xml:space="preserve">2.37670183181763</t>
   </si>
   <si>
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113609313965</t>
+    <t xml:space="preserve">2.22113633155823</t>
   </si>
   <si>
     <t xml:space="preserve">2.22977876663208</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">2.19520854949951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16063833236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26434874534607</t>
+    <t xml:space="preserve">2.16063809394836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26434898376465</t>
   </si>
   <si>
     <t xml:space="preserve">2.23842120170593</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">2.36805939674377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35941696166992</t>
+    <t xml:space="preserve">2.35941672325134</t>
   </si>
   <si>
     <t xml:space="preserve">2.51498293876648</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">2.57548069953918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61005091667175</t>
+    <t xml:space="preserve">2.61005115509033</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597869873047</t>
@@ -2075,19 +2075,19 @@
     <t xml:space="preserve">2.61869359016418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73968958854675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83475756645203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81747198104858</t>
+    <t xml:space="preserve">2.73968935012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83475732803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81747221946716</t>
   </si>
   <si>
     <t xml:space="preserve">2.93846797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9730384349823</t>
+    <t xml:space="preserve">2.97303819656372</t>
   </si>
   <si>
     <t xml:space="preserve">2.99032306671143</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">3.16317415237427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38788080215454</t>
+    <t xml:space="preserve">3.38788104057312</t>
   </si>
   <si>
     <t xml:space="preserve">3.37923812866211</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37059569358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44837880134583</t>
+    <t xml:space="preserve">3.37059545516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4483790397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.2582426071167</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">3.31009769439697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35331058502197</t>
+    <t xml:space="preserve">3.35331034660339</t>
   </si>
   <si>
     <t xml:space="preserve">3.32738280296326</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">3.27552771568298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22367215156555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20638704299927</t>
+    <t xml:space="preserve">3.22367238998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20638680458069</t>
   </si>
   <si>
     <t xml:space="preserve">3.24959993362427</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">3.2150297164917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19774460792542</t>
+    <t xml:space="preserve">3.19774436950684</t>
   </si>
   <si>
     <t xml:space="preserve">3.39652323722839</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">3.23231506347656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06810617446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15453195571899</t>
+    <t xml:space="preserve">3.06810641288757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15453171730042</t>
   </si>
   <si>
     <t xml:space="preserve">3.18045926094055</t>
@@ -2174,16 +2174,16 @@
     <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29281234741211</t>
+    <t xml:space="preserve">3.29281258583069</t>
   </si>
   <si>
     <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11996126174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13724684715271</t>
+    <t xml:space="preserve">3.11996150016785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13724660873413</t>
   </si>
   <si>
     <t xml:space="preserve">3.11131906509399</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">3.10267663002014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34466814994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42245054244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41380834579468</t>
+    <t xml:space="preserve">3.34466791152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42245101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41380858421326</t>
   </si>
   <si>
     <t xml:space="preserve">3.43973612785339</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46071004867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264116287231</t>
+    <t xml:space="preserve">4.4607105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264163970947</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760856628418</t>
+    <t xml:space="preserve">4.84760808944702</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450708389282</t>
+    <t xml:space="preserve">5.23450660705566</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278253555298</t>
+    <t xml:space="preserve">5.30278301239014</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07658004760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87175130844116</t>
+    <t xml:space="preserve">6.07657957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.871750831604</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071641921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968105316162</t>
+    <t xml:space="preserve">5.78071594238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968152999878</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312871932983</t>
+    <t xml:space="preserve">5.55312919616699</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348031997681</t>
+    <t xml:space="preserve">7.12348079681396</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796382904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244638442993</t>
+    <t xml:space="preserve">7.07796335220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244590759277</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2318,19 +2318,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175401687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60003042221069</t>
+    <t xml:space="preserve">6.53175449371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60002994537354</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5545129776001</t>
+    <t xml:space="preserve">6.80485868453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55451250076294</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382698059082</t>
+    <t xml:space="preserve">7.37382745742798</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900413513184</t>
+    <t xml:space="preserve">8.12486553192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900508880615</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6510829925537</t>
+    <t xml:space="preserve">10.651083946228</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -2766,6 +2766,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.83999991416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70499992370605</t>
   </si>
 </sst>
 </file>
@@ -18725,7 +18728,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18751,7 +18754,7 @@
         <v>32</v>
       </c>
       <c r="G602" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18777,7 +18780,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18803,7 +18806,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G604" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18855,7 +18858,7 @@
         <v>32</v>
       </c>
       <c r="G606" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18881,7 +18884,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G607" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18907,7 +18910,7 @@
         <v>30</v>
       </c>
       <c r="G608" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18933,7 +18936,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G609" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18959,7 +18962,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18985,7 +18988,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G611" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19011,7 +19014,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G612" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19037,7 +19040,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19063,7 +19066,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19089,7 +19092,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19115,7 +19118,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G616" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19141,7 +19144,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19167,7 +19170,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19193,7 +19196,7 @@
         <v>28</v>
       </c>
       <c r="G619" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19219,7 +19222,7 @@
         <v>28</v>
       </c>
       <c r="G620" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19245,7 +19248,7 @@
         <v>28</v>
       </c>
       <c r="G621" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19271,7 +19274,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G622" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19297,7 +19300,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19323,7 +19326,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19349,7 +19352,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19375,7 +19378,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19401,7 +19404,7 @@
         <v>29</v>
       </c>
       <c r="G627" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19427,7 +19430,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G628" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19453,7 +19456,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G629" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19479,7 +19482,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G630" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19505,7 +19508,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19531,7 +19534,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G632" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19557,7 +19560,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G633" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19583,7 +19586,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19609,7 +19612,7 @@
         <v>27.5</v>
       </c>
       <c r="G635" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19635,7 +19638,7 @@
         <v>27</v>
       </c>
       <c r="G636" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19661,7 +19664,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19687,7 +19690,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19713,7 +19716,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19739,7 +19742,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19765,7 +19768,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19791,7 +19794,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G642" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19817,7 +19820,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19843,7 +19846,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19869,7 +19872,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19895,7 +19898,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G646" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19921,7 +19924,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G647" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19947,7 +19950,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G648" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19973,7 +19976,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19999,7 +20002,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20025,7 +20028,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20051,7 +20054,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G652" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20077,7 +20080,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G653" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20103,7 +20106,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20129,7 +20132,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G655" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20155,7 +20158,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20181,7 +20184,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20207,7 +20210,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20233,7 +20236,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G659" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20259,7 +20262,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20285,7 +20288,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G661" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20311,7 +20314,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20337,7 +20340,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20363,7 +20366,7 @@
         <v>27.5</v>
       </c>
       <c r="G664" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20389,7 +20392,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20415,7 +20418,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20441,7 +20444,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G667" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20467,7 +20470,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G668" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20493,7 +20496,7 @@
         <v>27</v>
       </c>
       <c r="G669" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20519,7 +20522,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20545,7 +20548,7 @@
         <v>27</v>
       </c>
       <c r="G671" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20571,7 +20574,7 @@
         <v>26</v>
       </c>
       <c r="G672" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20597,7 +20600,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20623,7 +20626,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G674" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20649,7 +20652,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G675" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20675,7 +20678,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20701,7 +20704,7 @@
         <v>25</v>
       </c>
       <c r="G677" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20727,7 +20730,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20753,7 +20756,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G679" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20779,7 +20782,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20805,7 +20808,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20831,7 +20834,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20857,7 +20860,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G683" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20883,7 +20886,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G684" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20909,7 +20912,7 @@
         <v>24</v>
       </c>
       <c r="G685" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20935,7 +20938,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20961,7 +20964,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G687" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20987,7 +20990,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21013,7 +21016,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G689" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21039,7 +21042,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G690" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21065,7 +21068,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G691" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21091,7 +21094,7 @@
         <v>27</v>
       </c>
       <c r="G692" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21117,7 +21120,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G693" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21143,7 +21146,7 @@
         <v>26</v>
       </c>
       <c r="G694" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21169,7 +21172,7 @@
         <v>26</v>
       </c>
       <c r="G695" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21195,7 +21198,7 @@
         <v>26</v>
       </c>
       <c r="G696" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21221,7 +21224,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G697" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21247,7 +21250,7 @@
         <v>26</v>
       </c>
       <c r="G698" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21273,7 +21276,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21299,7 +21302,7 @@
         <v>26</v>
       </c>
       <c r="G700" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21325,7 +21328,7 @@
         <v>25.5</v>
       </c>
       <c r="G701" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21351,7 +21354,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21377,7 +21380,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21403,7 +21406,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G704" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21429,7 +21432,7 @@
         <v>26</v>
       </c>
       <c r="G705" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21455,7 +21458,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G706" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21481,7 +21484,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G707" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21507,7 +21510,7 @@
         <v>25.5</v>
       </c>
       <c r="G708" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21533,7 +21536,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21559,7 +21562,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21585,7 +21588,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21611,7 +21614,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21637,7 +21640,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G713" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21663,7 +21666,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21689,7 +21692,7 @@
         <v>24</v>
       </c>
       <c r="G715" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21715,7 +21718,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G716" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21741,7 +21744,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21767,7 +21770,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G718" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21793,7 +21796,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21819,7 +21822,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21845,7 +21848,7 @@
         <v>22.5</v>
       </c>
       <c r="G721" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21871,7 +21874,7 @@
         <v>23.5</v>
       </c>
       <c r="G722" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21897,7 +21900,7 @@
         <v>23.5</v>
       </c>
       <c r="G723" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21923,7 +21926,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21949,7 +21952,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21975,7 +21978,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22001,7 +22004,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22027,7 +22030,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22053,7 +22056,7 @@
         <v>25</v>
       </c>
       <c r="G729" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22079,7 +22082,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G730" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22105,7 +22108,7 @@
         <v>28</v>
       </c>
       <c r="G731" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22131,7 +22134,7 @@
         <v>28.5</v>
       </c>
       <c r="G732" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22157,7 +22160,7 @@
         <v>27.5</v>
       </c>
       <c r="G733" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22183,7 +22186,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G734" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22209,7 +22212,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22235,7 +22238,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G736" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22261,7 +22264,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G737" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22287,7 +22290,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22313,7 +22316,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22339,7 +22342,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22365,7 +22368,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G741" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22391,7 +22394,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22417,7 +22420,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22443,7 +22446,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22469,7 +22472,7 @@
         <v>27.5</v>
       </c>
       <c r="G745" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22495,7 +22498,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G746" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22521,7 +22524,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22547,7 +22550,7 @@
         <v>27.5</v>
       </c>
       <c r="G748" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22573,7 +22576,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G749" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22599,7 +22602,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G750" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22625,7 +22628,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22651,7 +22654,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22677,7 +22680,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G753" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22703,7 +22706,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G754" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22729,7 +22732,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G755" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22755,7 +22758,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G756" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22781,7 +22784,7 @@
         <v>26.5</v>
       </c>
       <c r="G757" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22807,7 +22810,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22833,7 +22836,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22859,7 +22862,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G760" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22885,7 +22888,7 @@
         <v>27</v>
       </c>
       <c r="G761" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22911,7 +22914,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22937,7 +22940,7 @@
         <v>27</v>
       </c>
       <c r="G763" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22963,7 +22966,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22989,7 +22992,7 @@
         <v>26.5</v>
       </c>
       <c r="G765" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23015,7 +23018,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23041,7 +23044,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G767" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23067,7 +23070,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G768" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23093,7 +23096,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G769" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23119,7 +23122,7 @@
         <v>28.5</v>
       </c>
       <c r="G770" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23145,7 +23148,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23171,7 +23174,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G772" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23197,7 +23200,7 @@
         <v>28</v>
       </c>
       <c r="G773" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23223,7 +23226,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23249,7 +23252,7 @@
         <v>28</v>
       </c>
       <c r="G775" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23275,7 +23278,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23301,7 +23304,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23327,7 +23330,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23353,7 +23356,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23379,7 +23382,7 @@
         <v>28.5</v>
       </c>
       <c r="G780" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23405,7 +23408,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23431,7 +23434,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G782" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23457,7 +23460,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23483,7 +23486,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23509,7 +23512,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G785" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23535,7 +23538,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23561,7 +23564,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G787" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23587,7 +23590,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23613,7 +23616,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G789" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23639,7 +23642,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23665,7 +23668,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23691,7 +23694,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23717,7 +23720,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G793" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23743,7 +23746,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G794" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23769,7 +23772,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G795" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23795,7 +23798,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23821,7 +23824,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G797" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23847,7 +23850,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23873,7 +23876,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G799" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23899,7 +23902,7 @@
         <v>30</v>
       </c>
       <c r="G800" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23925,7 +23928,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G801" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23951,7 +23954,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G802" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23977,7 +23980,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G803" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24003,7 +24006,7 @@
         <v>31</v>
       </c>
       <c r="G804" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24029,7 +24032,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24055,7 +24058,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G806" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24081,7 +24084,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24107,7 +24110,7 @@
         <v>31</v>
       </c>
       <c r="G808" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24133,7 +24136,7 @@
         <v>31</v>
       </c>
       <c r="G809" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24159,7 +24162,7 @@
         <v>31</v>
       </c>
       <c r="G810" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24185,7 +24188,7 @@
         <v>31</v>
       </c>
       <c r="G811" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24211,7 +24214,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24237,7 +24240,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24263,7 +24266,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24289,7 +24292,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G815" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24315,7 +24318,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24341,7 +24344,7 @@
         <v>31</v>
       </c>
       <c r="G817" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24367,7 +24370,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24393,7 +24396,7 @@
         <v>31</v>
       </c>
       <c r="G819" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24419,7 +24422,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G820" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24445,7 +24448,7 @@
         <v>30.5</v>
       </c>
       <c r="G821" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24471,7 +24474,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24497,7 +24500,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24523,7 +24526,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24549,7 +24552,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24575,7 +24578,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24601,7 +24604,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24627,7 +24630,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24653,7 +24656,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G829" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24679,7 +24682,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24705,7 +24708,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24731,7 +24734,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24757,7 +24760,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G833" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24783,7 +24786,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G834" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24809,7 +24812,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24835,7 +24838,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G836" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24861,7 +24864,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G837" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24887,7 +24890,7 @@
         <v>31</v>
       </c>
       <c r="G838" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24913,7 +24916,7 @@
         <v>31</v>
       </c>
       <c r="G839" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24939,7 +24942,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24965,7 +24968,7 @@
         <v>30</v>
       </c>
       <c r="G841" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24991,7 +24994,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25017,7 +25020,7 @@
         <v>30.5</v>
       </c>
       <c r="G843" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25043,7 +25046,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G844" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25069,7 +25072,7 @@
         <v>30.5</v>
       </c>
       <c r="G845" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25095,7 +25098,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G846" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25121,7 +25124,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G847" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25147,7 +25150,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25173,7 +25176,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G849" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25199,7 +25202,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25225,7 +25228,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G851" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25251,7 +25254,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25277,7 +25280,7 @@
         <v>28</v>
       </c>
       <c r="G853" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25303,7 +25306,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25329,7 +25332,7 @@
         <v>28</v>
       </c>
       <c r="G855" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25355,7 +25358,7 @@
         <v>27.5</v>
       </c>
       <c r="G856" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25381,7 +25384,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G857" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25407,7 +25410,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G858" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25433,7 +25436,7 @@
         <v>27.5</v>
       </c>
       <c r="G859" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25459,7 +25462,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G860" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25485,7 +25488,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G861" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25511,7 +25514,7 @@
         <v>28</v>
       </c>
       <c r="G862" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25537,7 +25540,7 @@
         <v>29</v>
       </c>
       <c r="G863" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25563,7 +25566,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25589,7 +25592,7 @@
         <v>29</v>
       </c>
       <c r="G865" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25615,7 +25618,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G866" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25641,7 +25644,7 @@
         <v>29</v>
       </c>
       <c r="G867" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25667,7 +25670,7 @@
         <v>29</v>
       </c>
       <c r="G868" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25693,7 +25696,7 @@
         <v>29</v>
       </c>
       <c r="G869" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25719,7 +25722,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25745,7 +25748,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G871" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25771,7 +25774,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G872" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25797,7 +25800,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25823,7 +25826,7 @@
         <v>30.5</v>
       </c>
       <c r="G874" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25849,7 +25852,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G875" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25875,7 +25878,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G876" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25901,7 +25904,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25927,7 +25930,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G878" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25953,7 +25956,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G879" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25979,7 +25982,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26005,7 +26008,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26031,7 +26034,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26057,7 +26060,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26083,7 +26086,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G884" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26109,7 +26112,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G885" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26135,7 +26138,7 @@
         <v>31.5</v>
       </c>
       <c r="G886" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26161,7 +26164,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26187,7 +26190,7 @@
         <v>32</v>
       </c>
       <c r="G888" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26213,7 +26216,7 @@
         <v>31.5</v>
       </c>
       <c r="G889" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26239,7 +26242,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G890" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26265,7 +26268,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G891" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26291,7 +26294,7 @@
         <v>32</v>
       </c>
       <c r="G892" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26317,7 +26320,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26343,7 +26346,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G894" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26369,7 +26372,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26395,7 +26398,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G896" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26421,7 +26424,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G897" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26447,7 +26450,7 @@
         <v>31</v>
       </c>
       <c r="G898" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26473,7 +26476,7 @@
         <v>31</v>
       </c>
       <c r="G899" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26499,7 +26502,7 @@
         <v>31</v>
       </c>
       <c r="G900" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26525,7 +26528,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G901" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26551,7 +26554,7 @@
         <v>31</v>
       </c>
       <c r="G902" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26577,7 +26580,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G903" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26603,7 +26606,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26629,7 +26632,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26655,7 +26658,7 @@
         <v>31</v>
       </c>
       <c r="G906" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26681,7 +26684,7 @@
         <v>31</v>
       </c>
       <c r="G907" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26707,7 +26710,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26733,7 +26736,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26759,7 +26762,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26785,7 +26788,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26811,7 +26814,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G912" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26837,7 +26840,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26863,7 +26866,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26889,7 +26892,7 @@
         <v>30</v>
       </c>
       <c r="G915" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26915,7 +26918,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G916" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26941,7 +26944,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G917" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26967,7 +26970,7 @@
         <v>29</v>
       </c>
       <c r="G918" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26993,7 +26996,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G919" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27019,7 +27022,7 @@
         <v>29</v>
       </c>
       <c r="G920" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27045,7 +27048,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27071,7 +27074,7 @@
         <v>29.5</v>
       </c>
       <c r="G922" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27097,7 +27100,7 @@
         <v>29</v>
       </c>
       <c r="G923" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27123,7 +27126,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G924" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27149,7 +27152,7 @@
         <v>29</v>
       </c>
       <c r="G925" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27175,7 +27178,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G926" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27201,7 +27204,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G927" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27227,7 +27230,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G928" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27253,7 +27256,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G929" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27279,7 +27282,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27305,7 +27308,7 @@
         <v>30.5</v>
       </c>
       <c r="G931" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27331,7 +27334,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27357,7 +27360,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G933" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27383,7 +27386,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G934" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27409,7 +27412,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27435,7 +27438,7 @@
         <v>30</v>
       </c>
       <c r="G936" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27461,7 +27464,7 @@
         <v>29.5</v>
       </c>
       <c r="G937" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27487,7 +27490,7 @@
         <v>29.5</v>
       </c>
       <c r="G938" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27513,7 +27516,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27539,7 +27542,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27565,7 +27568,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G941" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27591,7 +27594,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G942" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27617,7 +27620,7 @@
         <v>30</v>
       </c>
       <c r="G943" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27643,7 +27646,7 @@
         <v>30</v>
       </c>
       <c r="G944" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27669,7 +27672,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G945" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27695,7 +27698,7 @@
         <v>30</v>
       </c>
       <c r="G946" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27721,7 +27724,7 @@
         <v>30.5</v>
       </c>
       <c r="G947" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27747,7 +27750,7 @@
         <v>30.5</v>
       </c>
       <c r="G948" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27773,7 +27776,7 @@
         <v>30</v>
       </c>
       <c r="G949" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27799,7 +27802,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G950" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27825,7 +27828,7 @@
         <v>30</v>
       </c>
       <c r="G951" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27851,7 +27854,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G952" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27877,7 +27880,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G953" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27903,7 +27906,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27929,7 +27932,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G955" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27955,7 +27958,7 @@
         <v>30</v>
       </c>
       <c r="G956" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27981,7 +27984,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28007,7 +28010,7 @@
         <v>30</v>
       </c>
       <c r="G958" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28033,7 +28036,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28059,7 +28062,7 @@
         <v>30</v>
       </c>
       <c r="G960" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28085,7 +28088,7 @@
         <v>30</v>
       </c>
       <c r="G961" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28111,7 +28114,7 @@
         <v>30</v>
       </c>
       <c r="G962" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28137,7 +28140,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28163,7 +28166,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G964" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28189,7 +28192,7 @@
         <v>30</v>
       </c>
       <c r="G965" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28215,7 +28218,7 @@
         <v>30</v>
       </c>
       <c r="G966" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28241,7 +28244,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G967" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28267,7 +28270,7 @@
         <v>30</v>
       </c>
       <c r="G968" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28293,7 +28296,7 @@
         <v>30</v>
       </c>
       <c r="G969" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28319,7 +28322,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G970" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28345,7 +28348,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G971" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28371,7 +28374,7 @@
         <v>30</v>
       </c>
       <c r="G972" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28397,7 +28400,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28423,7 +28426,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28449,7 +28452,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28475,7 +28478,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28501,7 +28504,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G977" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28527,7 +28530,7 @@
         <v>31</v>
       </c>
       <c r="G978" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28553,7 +28556,7 @@
         <v>31</v>
       </c>
       <c r="G979" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28579,7 +28582,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28605,7 +28608,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G981" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28631,7 +28634,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28657,7 +28660,7 @@
         <v>31</v>
       </c>
       <c r="G983" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28683,7 +28686,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G984" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28709,7 +28712,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G985" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28735,7 +28738,7 @@
         <v>31</v>
       </c>
       <c r="G986" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28761,7 +28764,7 @@
         <v>31.5</v>
       </c>
       <c r="G987" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28787,7 +28790,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28813,7 +28816,7 @@
         <v>31.5</v>
       </c>
       <c r="G989" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28839,7 +28842,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G990" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28865,7 +28868,7 @@
         <v>31.5</v>
       </c>
       <c r="G991" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28891,7 +28894,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28917,7 +28920,7 @@
         <v>31.5</v>
       </c>
       <c r="G993" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28943,7 +28946,7 @@
         <v>31.5</v>
       </c>
       <c r="G994" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28969,7 +28972,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G995" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28995,7 +28998,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G996" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29021,7 +29024,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29047,7 +29050,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G998" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29073,7 +29076,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29099,7 +29102,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29125,7 +29128,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1001" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29151,7 +29154,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29177,7 +29180,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29203,7 +29206,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1004" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29229,7 +29232,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1005" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29255,7 +29258,7 @@
         <v>31</v>
       </c>
       <c r="G1006" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29281,7 +29284,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1007" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29307,7 +29310,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29333,7 +29336,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29359,7 +29362,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29385,7 +29388,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29411,7 +29414,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29437,7 +29440,7 @@
         <v>30.5</v>
       </c>
       <c r="G1013" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29463,7 +29466,7 @@
         <v>30.5</v>
       </c>
       <c r="G1014" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29489,7 +29492,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1015" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29515,7 +29518,7 @@
         <v>30.5</v>
       </c>
       <c r="G1016" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29541,7 +29544,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29567,7 +29570,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1018" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29593,7 +29596,7 @@
         <v>30</v>
       </c>
       <c r="G1019" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29619,7 +29622,7 @@
         <v>30.5</v>
       </c>
       <c r="G1020" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29645,7 +29648,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1021" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29671,7 +29674,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1022" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29697,7 +29700,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1023" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29723,7 +29726,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1024" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29749,7 +29752,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29775,7 +29778,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1026" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29801,7 +29804,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1027" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29827,7 +29830,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29853,7 +29856,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29879,7 +29882,7 @@
         <v>30</v>
       </c>
       <c r="G1030" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29905,7 +29908,7 @@
         <v>30</v>
       </c>
       <c r="G1031" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29931,7 +29934,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1032" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29957,7 +29960,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29983,7 +29986,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30009,7 +30012,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1035" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30035,7 +30038,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30061,7 +30064,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1037" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30087,7 +30090,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30113,7 +30116,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30139,7 +30142,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30165,7 +30168,7 @@
         <v>28</v>
       </c>
       <c r="G1041" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30191,7 +30194,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1042" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30217,7 +30220,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30243,7 +30246,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30269,7 +30272,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30295,7 +30298,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1046" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30321,7 +30324,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30347,7 +30350,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1048" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30373,7 +30376,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30399,7 +30402,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30425,7 +30428,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1051" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30451,7 +30454,7 @@
         <v>28</v>
       </c>
       <c r="G1052" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30477,7 +30480,7 @@
         <v>26</v>
       </c>
       <c r="G1053" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30503,7 +30506,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1054" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30529,7 +30532,7 @@
         <v>27.5</v>
       </c>
       <c r="G1055" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30555,7 +30558,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1056" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30581,7 +30584,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30607,7 +30610,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30633,7 +30636,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1059" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30659,7 +30662,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1060" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30685,7 +30688,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1061" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30711,7 +30714,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1062" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30737,7 +30740,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30763,7 +30766,7 @@
         <v>20.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30789,7 +30792,7 @@
         <v>20</v>
       </c>
       <c r="G1065" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30815,7 +30818,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1066" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30841,7 +30844,7 @@
         <v>18.5</v>
       </c>
       <c r="G1067" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30867,7 +30870,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1068" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30893,7 +30896,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1069" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30919,7 +30922,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30945,7 +30948,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30971,7 +30974,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1072" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30997,7 +31000,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31023,7 +31026,7 @@
         <v>19.5</v>
       </c>
       <c r="G1074" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31049,7 +31052,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1075" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31075,7 +31078,7 @@
         <v>20.5</v>
       </c>
       <c r="G1076" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31101,7 +31104,7 @@
         <v>19.5</v>
       </c>
       <c r="G1077" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31127,7 +31130,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1078" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31153,7 +31156,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31179,7 +31182,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1080" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31205,7 +31208,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1081" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31231,7 +31234,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1082" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31257,7 +31260,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1083" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31283,7 +31286,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1084" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31309,7 +31312,7 @@
         <v>19.5</v>
       </c>
       <c r="G1085" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31335,7 +31338,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31361,7 +31364,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1087" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31387,7 +31390,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1088" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31413,7 +31416,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31439,7 +31442,7 @@
         <v>19.75</v>
       </c>
       <c r="G1090" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31465,7 +31468,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31491,7 +31494,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1092" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31517,7 +31520,7 @@
         <v>19.5499992370605</v>
       </c>
       <c r="G1093" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31543,7 +31546,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1094" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31569,7 +31572,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31595,7 +31598,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31621,7 +31624,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31647,7 +31650,7 @@
         <v>21</v>
       </c>
       <c r="G1098" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31673,7 +31676,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31699,7 +31702,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1100" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31725,7 +31728,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1101" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31751,7 +31754,7 @@
         <v>21</v>
       </c>
       <c r="G1102" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31777,7 +31780,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31803,7 +31806,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1104" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31829,7 +31832,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31855,7 +31858,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31881,7 +31884,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1107" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31907,7 +31910,7 @@
         <v>20.5</v>
       </c>
       <c r="G1108" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31933,7 +31936,7 @@
         <v>20.5</v>
       </c>
       <c r="G1109" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31959,7 +31962,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1110" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31985,7 +31988,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1111" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32011,7 +32014,7 @@
         <v>20.5</v>
       </c>
       <c r="G1112" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32037,7 +32040,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1113" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32063,7 +32066,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1114" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32089,7 +32092,7 @@
         <v>20.5</v>
       </c>
       <c r="G1115" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32115,7 +32118,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1116" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32141,7 +32144,7 @@
         <v>21</v>
       </c>
       <c r="G1117" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32167,7 +32170,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32193,7 +32196,7 @@
         <v>21</v>
       </c>
       <c r="G1119" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32219,7 +32222,7 @@
         <v>21.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32245,7 +32248,7 @@
         <v>21.5</v>
       </c>
       <c r="G1121" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32271,7 +32274,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32297,7 +32300,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1123" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32323,7 +32326,7 @@
         <v>22</v>
       </c>
       <c r="G1124" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32349,7 +32352,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32375,7 +32378,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1126" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32401,7 +32404,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1127" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32427,7 +32430,7 @@
         <v>21.5</v>
       </c>
       <c r="G1128" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32453,7 +32456,7 @@
         <v>22</v>
       </c>
       <c r="G1129" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32479,7 +32482,7 @@
         <v>22</v>
       </c>
       <c r="G1130" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32505,7 +32508,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32531,7 +32534,7 @@
         <v>22.5</v>
       </c>
       <c r="G1132" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32557,7 +32560,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32583,7 +32586,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32609,7 +32612,7 @@
         <v>22</v>
       </c>
       <c r="G1135" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32635,7 +32638,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1136" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32661,7 +32664,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1137" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32687,7 +32690,7 @@
         <v>22</v>
       </c>
       <c r="G1138" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32713,7 +32716,7 @@
         <v>22</v>
       </c>
       <c r="G1139" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32739,7 +32742,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32765,7 +32768,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1141" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32791,7 +32794,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1142" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32817,7 +32820,7 @@
         <v>22</v>
       </c>
       <c r="G1143" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32843,7 +32846,7 @@
         <v>22</v>
       </c>
       <c r="G1144" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32869,7 +32872,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1145" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32895,7 +32898,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1146" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32921,7 +32924,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1147" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32947,7 +32950,7 @@
         <v>21.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32973,7 +32976,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1149" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32999,7 +33002,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33025,7 +33028,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33051,7 +33054,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33077,7 +33080,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1153" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33103,7 +33106,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1154" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33129,7 +33132,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1155" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33155,7 +33158,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33181,7 +33184,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1157" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33207,7 +33210,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1158" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33233,7 +33236,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1159" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33259,7 +33262,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33285,7 +33288,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33311,7 +33314,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33337,7 +33340,7 @@
         <v>20.5</v>
       </c>
       <c r="G1163" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33363,7 +33366,7 @@
         <v>20.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33389,7 +33392,7 @@
         <v>21</v>
       </c>
       <c r="G1165" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33415,7 +33418,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33441,7 +33444,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1167" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33467,7 +33470,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33493,7 +33496,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1169" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33519,7 +33522,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33545,7 +33548,7 @@
         <v>21.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33571,7 +33574,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33597,7 +33600,7 @@
         <v>21.5</v>
       </c>
       <c r="G1173" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33623,7 +33626,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1174" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33649,7 +33652,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33675,7 +33678,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1176" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33701,7 +33704,7 @@
         <v>21.5</v>
       </c>
       <c r="G1177" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33727,7 +33730,7 @@
         <v>21.5</v>
       </c>
       <c r="G1178" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33753,7 +33756,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1179" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33779,7 +33782,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33805,7 +33808,7 @@
         <v>21.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33831,7 +33834,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1182" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33857,7 +33860,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1183" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33883,7 +33886,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1184" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33909,7 +33912,7 @@
         <v>21</v>
       </c>
       <c r="G1185" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33935,7 +33938,7 @@
         <v>21</v>
       </c>
       <c r="G1186" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33961,7 +33964,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33987,7 +33990,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1188" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34013,7 +34016,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34039,7 +34042,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1190" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34065,7 +34068,7 @@
         <v>20</v>
       </c>
       <c r="G1191" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34091,7 +34094,7 @@
         <v>20</v>
       </c>
       <c r="G1192" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34117,7 +34120,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34143,7 +34146,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1194" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34169,7 +34172,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34195,7 +34198,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1196" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34221,7 +34224,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1197" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34247,7 +34250,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34273,7 +34276,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34299,7 +34302,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34325,7 +34328,7 @@
         <v>19.75</v>
       </c>
       <c r="G1201" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34351,7 +34354,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34377,7 +34380,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1203" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34403,7 +34406,7 @@
         <v>19.75</v>
       </c>
       <c r="G1204" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34429,7 +34432,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1205" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34455,7 +34458,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1206" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34481,7 +34484,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1207" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34507,7 +34510,7 @@
         <v>18.5</v>
       </c>
       <c r="G1208" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34533,7 +34536,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1209" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34559,7 +34562,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34585,7 +34588,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1211" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34611,7 +34614,7 @@
         <v>18.5</v>
       </c>
       <c r="G1212" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34637,7 +34640,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1213" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34663,7 +34666,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1214" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34689,7 +34692,7 @@
         <v>18.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34715,7 +34718,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34741,7 +34744,7 @@
         <v>17.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34767,7 +34770,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1218" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34793,7 +34796,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34819,7 +34822,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34845,7 +34848,7 @@
         <v>17.5</v>
       </c>
       <c r="G1221" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34871,7 +34874,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34897,7 +34900,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34923,7 +34926,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1224" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34949,7 +34952,7 @@
         <v>17</v>
       </c>
       <c r="G1225" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34975,7 +34978,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35001,7 +35004,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1227" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35027,7 +35030,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1228" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35053,7 +35056,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1229" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35079,7 +35082,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35105,7 +35108,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35131,7 +35134,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35157,7 +35160,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1233" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35183,7 +35186,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35209,7 +35212,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35235,7 +35238,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1236" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35261,7 +35264,7 @@
         <v>17.25</v>
       </c>
       <c r="G1237" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35287,7 +35290,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35313,7 +35316,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1239" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35339,7 +35342,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35365,7 +35368,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1241" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35391,7 +35394,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1242" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35417,7 +35420,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1243" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35443,7 +35446,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35469,7 +35472,7 @@
         <v>17.5</v>
       </c>
       <c r="G1245" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35495,7 +35498,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1246" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35521,7 +35524,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1247" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35547,7 +35550,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1248" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35573,7 +35576,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35599,7 +35602,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35625,7 +35628,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1251" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35651,7 +35654,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35677,7 +35680,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1253" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35703,7 +35706,7 @@
         <v>19</v>
       </c>
       <c r="G1254" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35729,7 +35732,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1255" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35755,7 +35758,7 @@
         <v>18.5</v>
       </c>
       <c r="G1256" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35781,7 +35784,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1257" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35807,7 +35810,7 @@
         <v>18.25</v>
       </c>
       <c r="G1258" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35833,7 +35836,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35859,7 +35862,7 @@
         <v>18.5</v>
       </c>
       <c r="G1260" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35885,7 +35888,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1261" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35911,7 +35914,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35937,7 +35940,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35963,7 +35966,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1264" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35989,7 +35992,7 @@
         <v>18.75</v>
       </c>
       <c r="G1265" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36015,7 +36018,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1266" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36041,7 +36044,7 @@
         <v>18.5</v>
       </c>
       <c r="G1267" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36067,7 +36070,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1268" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36093,7 +36096,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36119,7 +36122,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36145,7 +36148,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36171,7 +36174,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1272" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36197,7 +36200,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36223,7 +36226,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1274" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36249,7 +36252,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36275,7 +36278,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1276" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36301,7 +36304,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1277" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36327,7 +36330,7 @@
         <v>19</v>
       </c>
       <c r="G1278" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36353,7 +36356,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36379,7 +36382,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1280" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36405,7 +36408,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1281" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36431,7 +36434,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1282" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36457,7 +36460,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1283" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36483,7 +36486,7 @@
         <v>18.5</v>
       </c>
       <c r="G1284" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36509,7 +36512,7 @@
         <v>18.5</v>
       </c>
       <c r="G1285" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36535,7 +36538,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36561,7 +36564,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1287" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36587,7 +36590,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36613,7 +36616,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1289" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36639,7 +36642,7 @@
         <v>18.25</v>
       </c>
       <c r="G1290" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36665,7 +36668,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1291" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36691,7 +36694,7 @@
         <v>19</v>
       </c>
       <c r="G1292" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36717,7 +36720,7 @@
         <v>23</v>
       </c>
       <c r="G1293" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36743,7 +36746,7 @@
         <v>24</v>
       </c>
       <c r="G1294" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36769,7 +36772,7 @@
         <v>25.5</v>
       </c>
       <c r="G1295" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36795,7 +36798,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1296" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36821,7 +36824,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1297" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36847,7 +36850,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1298" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36873,7 +36876,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1299" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36899,7 +36902,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1300" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36925,7 +36928,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36951,7 +36954,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1302" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36977,7 +36980,7 @@
         <v>29</v>
       </c>
       <c r="G1303" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37003,7 +37006,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1304" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37029,7 +37032,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1305" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37055,7 +37058,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1306" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37081,7 +37084,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1307" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37107,7 +37110,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1308" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37133,7 +37136,7 @@
         <v>28</v>
       </c>
       <c r="G1309" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37159,7 +37162,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37185,7 +37188,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37211,7 +37214,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1312" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37237,7 +37240,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1313" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37263,7 +37266,7 @@
         <v>28</v>
       </c>
       <c r="G1314" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37289,7 +37292,7 @@
         <v>28</v>
       </c>
       <c r="G1315" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37315,7 +37318,7 @@
         <v>28</v>
       </c>
       <c r="G1316" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37341,7 +37344,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1317" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37367,7 +37370,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1318" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37393,7 +37396,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1319" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37419,7 +37422,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1320" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37445,7 +37448,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1321" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37471,7 +37474,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1322" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37497,7 +37500,7 @@
         <v>26</v>
       </c>
       <c r="G1323" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37523,7 +37526,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1324" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37549,7 +37552,7 @@
         <v>25.5</v>
       </c>
       <c r="G1325" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37575,7 +37578,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37601,7 +37604,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1327" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37627,7 +37630,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1328" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37653,7 +37656,7 @@
         <v>26</v>
       </c>
       <c r="G1329" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37679,7 +37682,7 @@
         <v>27.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37705,7 +37708,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1331" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37731,7 +37734,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37757,7 +37760,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1333" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37783,7 +37786,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37809,7 +37812,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1335" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37835,7 +37838,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37861,7 +37864,7 @@
         <v>27.5</v>
       </c>
       <c r="G1337" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37887,7 +37890,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1338" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -59215,7 +59218,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.636099537</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>1200</v>
@@ -59236,6 +59239,32 @@
         <v>898</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6493981481</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>956</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>2.71000003814697</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>2.70499992370605</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>2.71000003814697</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>2.70499992370605</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>918</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -44,34 +44,34 @@
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973936080933</t>
+    <t xml:space="preserve">1.29973948001862</t>
   </si>
   <si>
     <t xml:space="preserve">1.29750108718872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27586376667023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26840245723724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27511751651764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26765620708466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29004001617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26616406440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944888591766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25347983837128</t>
+    <t xml:space="preserve">1.27586364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26840233802795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27511739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26765632629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29003989696503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26616382598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25944900512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25347995758057</t>
   </si>
   <si>
     <t xml:space="preserve">1.25273394584656</t>
@@ -83,25 +83,25 @@
     <t xml:space="preserve">1.24676489830017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3116774559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30496227741241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30123174190521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30570828914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31988453865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28929364681244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27884781360626</t>
+    <t xml:space="preserve">1.31167721748352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30496215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30123150348663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30570840835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31988477706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28929376602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27884805202484</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317965984344</t>
@@ -122,28 +122,28 @@
     <t xml:space="preserve">1.31316947937012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3206307888031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31391561031342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3243613243103</t>
+    <t xml:space="preserve">1.32063066959381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31391584873199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32436120510101</t>
   </si>
   <si>
     <t xml:space="preserve">1.26989471912384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28183257579803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32958400249481</t>
+    <t xml:space="preserve">1.28183245658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32958424091339</t>
   </si>
   <si>
     <t xml:space="preserve">1.32212293148041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3280918598175</t>
+    <t xml:space="preserve">1.32809174060822</t>
   </si>
   <si>
     <t xml:space="preserve">1.3273458480835</t>
@@ -152,16 +152,16 @@
     <t xml:space="preserve">1.3348069190979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.322869181633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31018507480621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3176463842392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30272376537323</t>
+    <t xml:space="preserve">1.32286894321442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3101851940155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31764626502991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30272388458252</t>
   </si>
   <si>
     <t xml:space="preserve">1.30346989631653</t>
@@ -173,91 +173,91 @@
     <t xml:space="preserve">1.29078590869904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28854763507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28780150413513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30684328079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3167724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32364642620087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33433961868286</t>
+    <t xml:space="preserve">1.28854775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28780162334442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30684316158295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31677234172821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33433949947357</t>
   </si>
   <si>
     <t xml:space="preserve">1.33204829692841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32975685596466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33052062988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3183000087738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670176029205</t>
+    <t xml:space="preserve">1.32975673675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3305207490921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31830012798309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670187950134</t>
   </si>
   <si>
     <t xml:space="preserve">1.32211899757385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34044981002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33663105964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33510327339172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3289932012558</t>
+    <t xml:space="preserve">1.34044992923737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33663094043732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33510339260101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32899296283722</t>
   </si>
   <si>
     <t xml:space="preserve">1.32822930812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3213552236557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33815860748291</t>
+    <t xml:space="preserve">1.32135510444641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33815848827362</t>
   </si>
   <si>
     <t xml:space="preserve">1.34426879882812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34350526332855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33892226219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31906390190125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29538631439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29767763614655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2831654548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28851246833801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011083602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2594883441925</t>
+    <t xml:space="preserve">1.34350502490997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33892250061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31906402111053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2953861951828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29767775535583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28316569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851234912872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011059761047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25948810577393</t>
   </si>
   <si>
     <t xml:space="preserve">1.26025199890137</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">1.22970044612885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23962986469269</t>
+    <t xml:space="preserve">1.2396297454834</t>
   </si>
   <si>
     <t xml:space="preserve">1.22053503990173</t>
@@ -284,25 +284,25 @@
     <t xml:space="preserve">1.2411572933197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27552783489227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2747642993927</t>
+    <t xml:space="preserve">1.27552795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27476418018341</t>
   </si>
   <si>
     <t xml:space="preserve">1.29385888576508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29309487342834</t>
+    <t xml:space="preserve">1.29309511184692</t>
   </si>
   <si>
     <t xml:space="preserve">1.29233121871948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2892758846283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25872445106506</t>
+    <t xml:space="preserve">1.28927612304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25872457027435</t>
   </si>
   <si>
     <t xml:space="preserve">1.28469336032867</t>
@@ -311,16 +311,16 @@
     <t xml:space="preserve">1.24955904483795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27018129825592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27629172801971</t>
+    <t xml:space="preserve">1.27018117904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27629160881042</t>
   </si>
   <si>
     <t xml:space="preserve">1.28698456287384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28622090816498</t>
+    <t xml:space="preserve">1.28622078895569</t>
   </si>
   <si>
     <t xml:space="preserve">1.28240203857422</t>
@@ -338,13 +338,13 @@
     <t xml:space="preserve">1.35572564601898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38093054294586</t>
+    <t xml:space="preserve">1.38093066215515</t>
   </si>
   <si>
     <t xml:space="preserve">1.37405669689178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38551354408264</t>
+    <t xml:space="preserve">1.38551342487335</t>
   </si>
   <si>
     <t xml:space="preserve">1.36030840873718</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">1.37329280376434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37558424472809</t>
+    <t xml:space="preserve">1.37558436393738</t>
   </si>
   <si>
     <t xml:space="preserve">1.35419809818268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35954463481903</t>
+    <t xml:space="preserve">1.35954451560974</t>
   </si>
   <si>
     <t xml:space="preserve">1.35648953914642</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">1.34503281116486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35190677642822</t>
+    <t xml:space="preserve">1.35190665721893</t>
   </si>
   <si>
     <t xml:space="preserve">1.35725343227386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35496199131012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34961557388306</t>
+    <t xml:space="preserve">1.35496187210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34961545467377</t>
   </si>
   <si>
     <t xml:space="preserve">1.34885168075562</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">1.32441031932831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.322882771492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30226039886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30989825725555</t>
+    <t xml:space="preserve">1.32288265228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30226051807404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30989837646484</t>
   </si>
   <si>
     <t xml:space="preserve">1.32059156894684</t>
@@ -410,28 +410,28 @@
     <t xml:space="preserve">1.31295359134674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3045517206192</t>
+    <t xml:space="preserve">1.30455183982849</t>
   </si>
   <si>
     <t xml:space="preserve">1.29462265968323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30073297023773</t>
+    <t xml:space="preserve">1.30073285102844</t>
   </si>
   <si>
     <t xml:space="preserve">1.29844152927399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29003989696503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29080367088318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29615008831024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28545701503754</t>
+    <t xml:space="preserve">1.29003965854645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2908034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29614996910095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28545713424683</t>
   </si>
   <si>
     <t xml:space="preserve">1.2625435590744</t>
@@ -443,31 +443,31 @@
     <t xml:space="preserve">1.27170884609222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26788997650146</t>
+    <t xml:space="preserve">1.26788985729218</t>
   </si>
   <si>
     <t xml:space="preserve">1.24192118644714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23351943492889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26712608337402</t>
+    <t xml:space="preserve">1.2335193157196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2671263217926</t>
   </si>
   <si>
     <t xml:space="preserve">1.24497628211975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24879539012909</t>
+    <t xml:space="preserve">1.24879515171051</t>
   </si>
   <si>
     <t xml:space="preserve">1.27323651313782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26941764354706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31448113918304</t>
+    <t xml:space="preserve">1.26941752433777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31448125839233</t>
   </si>
   <si>
     <t xml:space="preserve">1.33357584476471</t>
@@ -476,31 +476,31 @@
     <t xml:space="preserve">1.34197735786438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35114300251007</t>
+    <t xml:space="preserve">1.35114312171936</t>
   </si>
   <si>
     <t xml:space="preserve">1.35343432426453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36718249320984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322222232819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39926171302795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162373542786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3923876285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39009618759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39697027206421</t>
+    <t xml:space="preserve">1.36718273162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3832221031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39926159381866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162385463715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39238750934601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39009630680084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3969703912735</t>
   </si>
   <si>
     <t xml:space="preserve">1.39773416519165</t>
@@ -518,31 +518,31 @@
     <t xml:space="preserve">1.38474953174591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37863922119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40460824966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42064785957336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41988408565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3908599615097</t>
+    <t xml:space="preserve">1.37863910198212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40460813045502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42064797878265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41988396644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39085984230042</t>
   </si>
   <si>
     <t xml:space="preserve">1.40842735767365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39620649814606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40231680870056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40384447574615</t>
+    <t xml:space="preserve">1.39620673656464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40231692790985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40384435653687</t>
   </si>
   <si>
     <t xml:space="preserve">1.38704109191895</t>
@@ -551,19 +551,19 @@
     <t xml:space="preserve">1.42293906211853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42752182483673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43668723106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44279766082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45883738994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47411286830902</t>
+    <t xml:space="preserve">1.42752206325531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43668735027313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44279778003693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45883727073669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47411298751831</t>
   </si>
   <si>
     <t xml:space="preserve">1.46800255775452</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">1.47029411792755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46418392658234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45349061489105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42904937267303</t>
+    <t xml:space="preserve">1.46418368816376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45349073410034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42904925346375</t>
   </si>
   <si>
     <t xml:space="preserve">1.43897879123688</t>
@@ -590,28 +590,28 @@
     <t xml:space="preserve">1.44967174530029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46265614032745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812966823578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54056251049042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5466730594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55660223960876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56882297992706</t>
+    <t xml:space="preserve">1.46265625953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812990665436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.540562748909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54667294025421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55660235881805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56882309913635</t>
   </si>
   <si>
     <t xml:space="preserve">1.5313972234726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52223193645477</t>
+    <t xml:space="preserve">1.52223205566406</t>
   </si>
   <si>
     <t xml:space="preserve">1.54361772537231</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">1.55278325080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59402811527252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57569694519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59937453269958</t>
+    <t xml:space="preserve">1.59402787685394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57569682598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5993744134903</t>
   </si>
   <si>
     <t xml:space="preserve">1.59631943702698</t>
@@ -647,73 +647,73 @@
     <t xml:space="preserve">1.58104360103607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56500387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56347620487213</t>
+    <t xml:space="preserve">1.56500375270844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56347644329071</t>
   </si>
   <si>
     <t xml:space="preserve">1.55049192905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53521621227264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54896438121796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52757823467255</t>
+    <t xml:space="preserve">1.53521633148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54896450042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52757835388184</t>
   </si>
   <si>
     <t xml:space="preserve">1.51841270923615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54972815513611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58715391159058</t>
+    <t xml:space="preserve">1.54972803592682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58715379238129</t>
   </si>
   <si>
     <t xml:space="preserve">1.60472095012665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65131235122681</t>
+    <t xml:space="preserve">1.65131223201752</t>
   </si>
   <si>
     <t xml:space="preserve">1.70237565040588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70551776885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72044396400452</t>
+    <t xml:space="preserve">1.70551764965057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72044408321381</t>
   </si>
   <si>
     <t xml:space="preserve">1.70708918571472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73929810523987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73537027835846</t>
+    <t xml:space="preserve">1.73929822444916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73537051677704</t>
   </si>
   <si>
     <t xml:space="preserve">1.73379921913147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84613871574402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8869891166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92469775676727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00011444091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08181619644165</t>
+    <t xml:space="preserve">1.84613859653473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88698935508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92469763755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00011420249939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
     <t xml:space="preserve">2.10145568847656</t>
@@ -740,19 +740,19 @@
     <t xml:space="preserve">1.99540102481842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01975417137146</t>
+    <t xml:space="preserve">2.01975440979004</t>
   </si>
   <si>
     <t xml:space="preserve">2.00639915466309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99932897090912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96319150924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01268410682678</t>
+    <t xml:space="preserve">1.99932885169983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96319186687469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0126838684082</t>
   </si>
   <si>
     <t xml:space="preserve">2.00561380386353</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">2.01032710075378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98675966262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00325655937195</t>
+    <t xml:space="preserve">1.98675942420959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00325703620911</t>
   </si>
   <si>
     <t xml:space="preserve">2.00247120857239</t>
@@ -779,25 +779,25 @@
     <t xml:space="preserve">2.0166118144989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02839589118958</t>
+    <t xml:space="preserve">2.028395652771</t>
   </si>
   <si>
     <t xml:space="preserve">1.99382984638214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97261893749237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99068748950958</t>
+    <t xml:space="preserve">1.97261869907379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99068760871887</t>
   </si>
   <si>
     <t xml:space="preserve">1.97968935966492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97733211517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.959263920784</t>
+    <t xml:space="preserve">1.97733235359192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95926403999329</t>
   </si>
   <si>
     <t xml:space="preserve">1.94119536876678</t>
@@ -806,25 +806,25 @@
     <t xml:space="preserve">1.8477098941803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87599110603333</t>
+    <t xml:space="preserve">1.87599098682404</t>
   </si>
   <si>
     <t xml:space="preserve">1.84535312652588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87284862995148</t>
+    <t xml:space="preserve">1.87284898757935</t>
   </si>
   <si>
     <t xml:space="preserve">1.88620388507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91055715084076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9294114112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90505814552307</t>
+    <t xml:space="preserve">1.91055703163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92941129207611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90505802631378</t>
   </si>
   <si>
     <t xml:space="preserve">1.8893461227417</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">1.90584361553192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91605639457703</t>
+    <t xml:space="preserve">1.91605627536774</t>
   </si>
   <si>
     <t xml:space="preserve">1.9191986322403</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">1.93333923816681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90112996101379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862570285797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705452442169</t>
+    <t xml:space="preserve">1.90113019943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862558364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705464363098</t>
   </si>
   <si>
     <t xml:space="preserve">1.91762745380402</t>
@@ -857,40 +857,40 @@
     <t xml:space="preserve">1.98047471046448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99618649482727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05981945991516</t>
+    <t xml:space="preserve">1.99618661403656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05981922149658</t>
   </si>
   <si>
     <t xml:space="preserve">2.05746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01504063606262</t>
+    <t xml:space="preserve">2.0150408744812</t>
   </si>
   <si>
     <t xml:space="preserve">2.0205397605896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00482797622681</t>
+    <t xml:space="preserve">2.00482821464539</t>
   </si>
   <si>
     <t xml:space="preserve">1.97026216983795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96947658061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97811794281006</t>
+    <t xml:space="preserve">1.96947646141052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97811818122864</t>
   </si>
   <si>
     <t xml:space="preserve">1.97576117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95062232017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93962395191193</t>
+    <t xml:space="preserve">1.95062220096588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93962407112122</t>
   </si>
   <si>
     <t xml:space="preserve">1.93726718425751</t>
@@ -899,82 +899,82 @@
     <t xml:space="preserve">1.93805289268494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93255388736725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826543331146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9671196937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95376455783844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95219349861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9427661895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96397733688354</t>
+    <t xml:space="preserve">1.93255364894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826555252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96711993217468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95376479625702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95219361782074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94276630878448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96397721767426</t>
   </si>
   <si>
     <t xml:space="preserve">1.94905114173889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9553359746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94669437408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92548334598541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234098911285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92784023284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9231264591217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89720213413239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9034868478775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90820026397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89484572410583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89955902099609</t>
+    <t xml:space="preserve">1.95533561706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94669461250305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9254834651947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234110832214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92784011363983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92312657833099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8972020149231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90348672866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90820050239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89484536647797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89955878257751</t>
   </si>
   <si>
     <t xml:space="preserve">1.89013171195984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89563071727753</t>
+    <t xml:space="preserve">1.89563095569611</t>
   </si>
   <si>
     <t xml:space="preserve">1.8932740688324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91527092456818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91212832927704</t>
+    <t xml:space="preserve">1.91527056694031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91212821006775</t>
   </si>
   <si>
     <t xml:space="preserve">1.90191555023193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93098258972168</t>
+    <t xml:space="preserve">1.93098247051239</t>
   </si>
   <si>
     <t xml:space="preserve">1.98126018047333</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">2.00090003013611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06610417366028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05039238929749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03153824806213</t>
+    <t xml:space="preserve">2.06610441207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05039215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03153800964355</t>
   </si>
   <si>
     <t xml:space="preserve">2.0566771030426</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">2.13287925720215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11245393753052</t>
+    <t xml:space="preserve">2.11245369911194</t>
   </si>
   <si>
     <t xml:space="preserve">2.07396006584167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652925491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07238864898682</t>
+    <t xml:space="preserve">2.08652949333191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0723888874054</t>
   </si>
   <si>
     <t xml:space="preserve">2.07710242271423</t>
@@ -1034,16 +1034,16 @@
     <t xml:space="preserve">2.05117797851562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.062175989151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06924629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11323976516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15251898765564</t>
+    <t xml:space="preserve">2.06217622756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06924653053284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11323952674866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15251922607422</t>
   </si>
   <si>
     <t xml:space="preserve">2.16587424278259</t>
@@ -1055,22 +1055,22 @@
     <t xml:space="preserve">2.17294454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16823101043701</t>
+    <t xml:space="preserve">2.17687249183655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16823124885559</t>
   </si>
   <si>
     <t xml:space="preserve">2.18708515167236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18158602714539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20358276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19179844856262</t>
+    <t xml:space="preserve">2.18158626556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2035825252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1917986869812</t>
   </si>
   <si>
     <t xml:space="preserve">2.17765784263611</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">2.16037511825562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15016222000122</t>
+    <t xml:space="preserve">2.15016269683838</t>
   </si>
   <si>
     <t xml:space="preserve">2.14937686920166</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">2.14859104156494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16665983200073</t>
+    <t xml:space="preserve">2.16665959358215</t>
   </si>
   <si>
     <t xml:space="preserve">2.17451572418213</t>
@@ -1097,22 +1097,22 @@
     <t xml:space="preserve">2.19572687149048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17608714103699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22479343414307</t>
+    <t xml:space="preserve">2.17608690261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22479367256165</t>
   </si>
   <si>
     <t xml:space="preserve">2.28606963157654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30963730812073</t>
+    <t xml:space="preserve">2.30963754653931</t>
   </si>
   <si>
     <t xml:space="preserve">2.27035784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26250195503235</t>
+    <t xml:space="preserve">2.26250171661377</t>
   </si>
   <si>
     <t xml:space="preserve">2.30178165435791</t>
@@ -1136,31 +1136,31 @@
     <t xml:space="preserve">2.47461128234863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42747569084167</t>
+    <t xml:space="preserve">2.42747592926025</t>
   </si>
   <si>
     <t xml:space="preserve">2.38819622993469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36462879180908</t>
+    <t xml:space="preserve">2.36462903022766</t>
   </si>
   <si>
     <t xml:space="preserve">2.38034057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40390849113464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39605212211609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35677242279053</t>
+    <t xml:space="preserve">2.40390825271606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39605236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35677266120911</t>
   </si>
   <si>
     <t xml:space="preserve">2.29392528533936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27821373939514</t>
+    <t xml:space="preserve">2.27821397781372</t>
   </si>
   <si>
     <t xml:space="preserve">2.54531478881836</t>
@@ -1175,10 +1175,10 @@
     <t xml:space="preserve">2.65529704093933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73385643959045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56888270378113</t>
+    <t xml:space="preserve">2.73385620117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56888222694397</t>
   </si>
   <si>
     <t xml:space="preserve">2.60030603408813</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">2.5060350894928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53745865821838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58459448814392</t>
+    <t xml:space="preserve">2.5374584197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58459424972534</t>
   </si>
   <si>
     <t xml:space="preserve">2.55317044258118</t>
@@ -1208,19 +1208,19 @@
     <t xml:space="preserve">2.56102633476257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52174639701843</t>
+    <t xml:space="preserve">2.52174663543701</t>
   </si>
   <si>
     <t xml:space="preserve">2.61601758003235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63958525657654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68816709518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70436072349548</t>
+    <t xml:space="preserve">2.63958549499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68816661834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70436096191406</t>
   </si>
   <si>
     <t xml:space="preserve">2.69626355171204</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">2.61529469490051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62339210510254</t>
+    <t xml:space="preserve">2.62339186668396</t>
   </si>
   <si>
     <t xml:space="preserve">2.63148856163025</t>
@@ -1247,25 +1247,25 @@
     <t xml:space="preserve">2.60719799995422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53432559967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42906618118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40477585792542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38048505783081</t>
+    <t xml:space="preserve">2.53432583808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42906641960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40477609634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38048529624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.41287279129028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32380676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29951620101929</t>
+    <t xml:space="preserve">2.32380700111389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29951643943787</t>
   </si>
   <si>
     <t xml:space="preserve">2.29141926765442</t>
@@ -1274,31 +1274,31 @@
     <t xml:space="preserve">2.31571006774902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33190393447876</t>
+    <t xml:space="preserve">2.33190369606018</t>
   </si>
   <si>
     <t xml:space="preserve">2.35619449615479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26712870597839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21045064926147</t>
+    <t xml:space="preserve">2.26712894439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2104504108429</t>
   </si>
   <si>
     <t xml:space="preserve">2.28332257270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34809756278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21854710578918</t>
+    <t xml:space="preserve">2.3480978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21854734420776</t>
   </si>
   <si>
     <t xml:space="preserve">2.19425678253174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22664403915405</t>
+    <t xml:space="preserve">2.22664427757263</t>
   </si>
   <si>
     <t xml:space="preserve">2.18615961074829</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">2.16186928749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12948155403137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2347412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25903153419495</t>
+    <t xml:space="preserve">2.12948179244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23474144935608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25903177261353</t>
   </si>
   <si>
     <t xml:space="preserve">2.24283814430237</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">2.10519099235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11328792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0970938205719</t>
+    <t xml:space="preserve">2.11328768730164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09709429740906</t>
   </si>
   <si>
     <t xml:space="preserve">2.05660963058472</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">2.04851245880127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02422213554382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96754384040833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95944690704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93515622615814</t>
+    <t xml:space="preserve">2.02422189712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96754360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95944714546204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93515610694885</t>
   </si>
   <si>
     <t xml:space="preserve">1.95134997367859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87038123607635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91896271705627</t>
+    <t xml:space="preserve">1.87038111686707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9189624786377</t>
   </si>
   <si>
     <t xml:space="preserve">1.91086554527283</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">1.94325304031372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25093507766724</t>
+    <t xml:space="preserve">2.25093483924866</t>
   </si>
   <si>
     <t xml:space="preserve">2.1537721157074</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">2.08899688720703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06470632553101</t>
+    <t xml:space="preserve">2.06470656394958</t>
   </si>
   <si>
     <t xml:space="preserve">2.08090019226074</t>
@@ -1403,19 +1403,19 @@
     <t xml:space="preserve">1.8865749835968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82989680767059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85418748855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179963588715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90276873111725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9756406545639</t>
+    <t xml:space="preserve">1.8298966884613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85418736934662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179987430573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90276861190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97564077377319</t>
   </si>
   <si>
     <t xml:space="preserve">1.9999315738678</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">2.30761313438416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20235347747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14567565917969</t>
+    <t xml:space="preserve">2.20235371589661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14567542076111</t>
   </si>
   <si>
     <t xml:space="preserve">2.36429119110107</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45335698127747</t>
+    <t xml:space="preserve">2.45335721969604</t>
   </si>
   <si>
     <t xml:space="preserve">2.42096948623657</t>
@@ -1460,55 +1460,55 @@
     <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51813244819641</t>
+    <t xml:space="preserve">2.51813220977783</t>
   </si>
   <si>
     <t xml:space="preserve">2.5262291431427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46955060958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44526028633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47764801979065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55861687660217</t>
+    <t xml:space="preserve">2.4695508480072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44526052474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47764778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55861663818359</t>
   </si>
   <si>
     <t xml:space="preserve">2.5829074382782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6638765335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65539216995239</t>
+    <t xml:space="preserve">2.66387629508972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65539240837097</t>
   </si>
   <si>
     <t xml:space="preserve">2.62994170188904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60449075698853</t>
+    <t xml:space="preserve">2.60449051856995</t>
   </si>
   <si>
     <t xml:space="preserve">2.54510450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56207227706909</t>
+    <t xml:space="preserve">2.56207203865051</t>
   </si>
   <si>
     <t xml:space="preserve">2.58752298355103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59600687026978</t>
+    <t xml:space="preserve">2.5960066318512</t>
   </si>
   <si>
     <t xml:space="preserve">2.61297416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51117014884949</t>
+    <t xml:space="preserve">2.51116991043091</t>
   </si>
   <si>
     <t xml:space="preserve">2.53662109375</t>
@@ -1517,19 +1517,19 @@
     <t xml:space="preserve">2.52813744544983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46875166893005</t>
+    <t xml:space="preserve">2.46875143051147</t>
   </si>
   <si>
     <t xml:space="preserve">2.49420261383057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38391494750977</t>
+    <t xml:space="preserve">2.38391470909119</t>
   </si>
   <si>
     <t xml:space="preserve">2.37543106079102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32452869415283</t>
+    <t xml:space="preserve">2.32452893257141</t>
   </si>
   <si>
     <t xml:space="preserve">2.33301258087158</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">2.36694717407227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4602677822113</t>
+    <t xml:space="preserve">2.46026802062988</t>
   </si>
   <si>
     <t xml:space="preserve">2.42633318901062</t>
@@ -1568,28 +1568,28 @@
     <t xml:space="preserve">2.69781088829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70629477500916</t>
+    <t xml:space="preserve">2.70629501342773</t>
   </si>
   <si>
     <t xml:space="preserve">2.67235994338989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71477842330933</t>
+    <t xml:space="preserve">2.71477818489075</t>
   </si>
   <si>
     <t xml:space="preserve">2.72326183319092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68084359169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68932723999023</t>
+    <t xml:space="preserve">2.68084383010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68932700157166</t>
   </si>
   <si>
     <t xml:space="preserve">2.51965379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43481683731079</t>
+    <t xml:space="preserve">2.43481707572937</t>
   </si>
   <si>
     <t xml:space="preserve">2.45178413391113</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">2.57903933525085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55358839035034</t>
+    <t xml:space="preserve">2.55358862876892</t>
   </si>
   <si>
     <t xml:space="preserve">2.4857189655304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39239859580994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4093656539917</t>
+    <t xml:space="preserve">2.39239835739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40936589241028</t>
   </si>
   <si>
     <t xml:space="preserve">2.40088200569153</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">2.20575737953186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28211069107056</t>
+    <t xml:space="preserve">2.28211045265198</t>
   </si>
   <si>
     <t xml:space="preserve">2.2227246761322</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">2.19727373123169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424102783203</t>
+    <t xml:space="preserve">2.21424126625061</t>
   </si>
   <si>
     <t xml:space="preserve">2.13788819313049</t>
@@ -1646,13 +1646,13 @@
     <t xml:space="preserve">1.73915493488312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69673633575439</t>
+    <t xml:space="preserve">1.69673645496368</t>
   </si>
   <si>
     <t xml:space="preserve">1.5355464220047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56948125362396</t>
+    <t xml:space="preserve">1.56948113441467</t>
   </si>
   <si>
     <t xml:space="preserve">1.57796502113342</t>
@@ -1667,28 +1667,28 @@
     <t xml:space="preserve">1.61614143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59917402267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56099736690521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65431797504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67128551006317</t>
+    <t xml:space="preserve">1.59917414188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5609974861145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65431809425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67128539085388</t>
   </si>
   <si>
     <t xml:space="preserve">1.64159250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62886714935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65007627010345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63735067844391</t>
+    <t xml:space="preserve">1.62886703014374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65007638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63735055923462</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">1.76460587978363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67552721500397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6924946308136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65855979919434</t>
+    <t xml:space="preserve">1.67552733421326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69249475002289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65855991840363</t>
   </si>
   <si>
     <t xml:space="preserve">1.68825280666351</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">1.78157329559326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84095907211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80702435970306</t>
+    <t xml:space="preserve">1.84095919132233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80702447891235</t>
   </si>
   <si>
     <t xml:space="preserve">1.79005694389343</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">1.77308976650238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7221873998642</t>
+    <t xml:space="preserve">1.72218763828278</t>
   </si>
   <si>
     <t xml:space="preserve">1.82399165630341</t>
@@ -1736,19 +1736,19 @@
     <t xml:space="preserve">1.83247542381287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84944272041321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86641025543213</t>
+    <t xml:space="preserve">1.8494428396225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86641013622284</t>
   </si>
   <si>
     <t xml:space="preserve">1.90034484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95973074436188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90882849693298</t>
+    <t xml:space="preserve">1.95973062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90882873535156</t>
   </si>
   <si>
     <t xml:space="preserve">1.88337755203247</t>
@@ -1757,28 +1757,28 @@
     <t xml:space="preserve">1.89186108112335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87489378452301</t>
+    <t xml:space="preserve">1.8748939037323</t>
   </si>
   <si>
     <t xml:space="preserve">1.85792636871338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79854083061218</t>
+    <t xml:space="preserve">1.79854071140289</t>
   </si>
   <si>
     <t xml:space="preserve">1.81550800800323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75612246990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67976891994476</t>
+    <t xml:space="preserve">1.75612235069275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67976903915405</t>
   </si>
   <si>
     <t xml:space="preserve">1.71370387077332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64583420753479</t>
+    <t xml:space="preserve">1.64583432674408</t>
   </si>
   <si>
     <t xml:space="preserve">1.59493219852448</t>
@@ -1787,16 +1787,16 @@
     <t xml:space="preserve">1.60341584682465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56523954868317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55251383781433</t>
+    <t xml:space="preserve">1.56523942947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55251395702362</t>
   </si>
   <si>
     <t xml:space="preserve">1.54827213287354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312818050385</t>
+    <t xml:space="preserve">1.49312806129456</t>
   </si>
   <si>
     <t xml:space="preserve">1.48464441299438</t>
@@ -1805,22 +1805,22 @@
     <t xml:space="preserve">1.47191894054413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46767711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49736988544464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47616076469421</t>
+    <t xml:space="preserve">1.46767699718475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49736976623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47616064548492</t>
   </si>
   <si>
     <t xml:space="preserve">1.42525851726532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39132380485535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44222605228424</t>
+    <t xml:space="preserve">1.39132392406464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44222593307495</t>
   </si>
   <si>
     <t xml:space="preserve">1.41677498817444</t>
@@ -1832,16 +1832,16 @@
     <t xml:space="preserve">1.3489054441452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36587274074554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3955659866333</t>
+    <t xml:space="preserve">1.36587297916412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39556586742401</t>
   </si>
   <si>
     <t xml:space="preserve">1.38284015655518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40829133987427</t>
+    <t xml:space="preserve">1.40829122066498</t>
   </si>
   <si>
     <t xml:space="preserve">1.43374228477478</t>
@@ -1853,61 +1853,61 @@
     <t xml:space="preserve">1.45919334888458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46343505382538</t>
+    <t xml:space="preserve">1.46343517303467</t>
   </si>
   <si>
     <t xml:space="preserve">1.44646787643433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45070970058441</t>
+    <t xml:space="preserve">1.4507098197937</t>
   </si>
   <si>
     <t xml:space="preserve">1.43798422813416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53130459785461</t>
+    <t xml:space="preserve">1.53130447864532</t>
   </si>
   <si>
     <t xml:space="preserve">1.58644878864288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62038350105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6118997335434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55675566196442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59069049358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57372295856476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58220672607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60765790939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403030872345</t>
+    <t xml:space="preserve">1.62038338184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61189985275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55675578117371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59069037437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57372283935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58220684528351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60765767097473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403042793274</t>
   </si>
   <si>
     <t xml:space="preserve">1.95124697685242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03608369827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16333889961243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35846352577209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34149646759033</t>
+    <t xml:space="preserve">2.03608393669128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16333913803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35846376419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34149622917175</t>
   </si>
   <si>
     <t xml:space="preserve">2.27362680435181</t>
@@ -1916,19 +1916,19 @@
     <t xml:space="preserve">2.23969221115112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14637160301208</t>
+    <t xml:space="preserve">2.14637136459351</t>
   </si>
   <si>
     <t xml:space="preserve">2.23120856285095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30756163597107</t>
+    <t xml:space="preserve">2.30756187438965</t>
   </si>
   <si>
     <t xml:space="preserve">2.31620407104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33348917961121</t>
+    <t xml:space="preserve">2.33348941802979</t>
   </si>
   <si>
     <t xml:space="preserve">2.34213185310364</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">2.35077452659607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29891896247864</t>
+    <t xml:space="preserve">2.29891920089722</t>
   </si>
   <si>
     <t xml:space="preserve">2.32484674453735</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">2.46312761306763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47177028656006</t>
+    <t xml:space="preserve">2.47177004814148</t>
   </si>
   <si>
     <t xml:space="preserve">2.48905515670776</t>
@@ -1964,22 +1964,22 @@
     <t xml:space="preserve">2.50634026527405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5581955909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59276604652405</t>
+    <t xml:space="preserve">2.55819582939148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58412337303162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59276580810547</t>
   </si>
   <si>
     <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52362561225891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49769759178162</t>
+    <t xml:space="preserve">2.52362537384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4976978302002</t>
   </si>
   <si>
     <t xml:space="preserve">2.48041272163391</t>
@@ -1997,19 +1997,19 @@
     <t xml:space="preserve">2.43720006942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42855763435364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40262985229492</t>
+    <t xml:space="preserve">2.42855739593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40262961387634</t>
   </si>
   <si>
     <t xml:space="preserve">2.41991496086121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41127252578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4544849395752</t>
+    <t xml:space="preserve">2.41127228736877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45448517799377</t>
   </si>
   <si>
     <t xml:space="preserve">2.39398717880249</t>
@@ -2018,13 +2018,13 @@
     <t xml:space="preserve">2.38534474372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37670183181763</t>
+    <t xml:space="preserve">2.37670207023621</t>
   </si>
   <si>
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113633155823</t>
+    <t xml:space="preserve">2.22113609313965</t>
   </si>
   <si>
     <t xml:space="preserve">2.22977876663208</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">2.19520854949951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16063809394836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26434898376465</t>
+    <t xml:space="preserve">2.16063833236694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26434874534607</t>
   </si>
   <si>
     <t xml:space="preserve">2.23842120170593</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">2.36805939674377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35941672325134</t>
+    <t xml:space="preserve">2.35941696166992</t>
   </si>
   <si>
     <t xml:space="preserve">2.51498293876648</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">2.57548069953918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61005115509033</t>
+    <t xml:space="preserve">2.61005091667175</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597869873047</t>
@@ -2072,19 +2072,19 @@
     <t xml:space="preserve">2.61869359016418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73968935012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83475732803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81747221946716</t>
+    <t xml:space="preserve">2.73968958854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83475756645203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81747198104858</t>
   </si>
   <si>
     <t xml:space="preserve">2.93846797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97303819656372</t>
+    <t xml:space="preserve">2.9730384349823</t>
   </si>
   <si>
     <t xml:space="preserve">2.99032306671143</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">3.16317415237427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38788104057312</t>
+    <t xml:space="preserve">3.38788080215454</t>
   </si>
   <si>
     <t xml:space="preserve">3.37923812866211</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37059545516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4483790397644</t>
+    <t xml:space="preserve">3.37059569358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44837880134583</t>
   </si>
   <si>
     <t xml:space="preserve">3.2582426071167</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">3.31009769439697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35331034660339</t>
+    <t xml:space="preserve">3.35331058502197</t>
   </si>
   <si>
     <t xml:space="preserve">3.32738280296326</t>
@@ -2138,10 +2138,10 @@
     <t xml:space="preserve">3.27552771568298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22367238998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20638680458069</t>
+    <t xml:space="preserve">3.22367215156555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20638704299927</t>
   </si>
   <si>
     <t xml:space="preserve">3.24959993362427</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">3.2150297164917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19774436950684</t>
+    <t xml:space="preserve">3.19774460792542</t>
   </si>
   <si>
     <t xml:space="preserve">3.39652323722839</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">3.23231506347656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06810641288757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15453171730042</t>
+    <t xml:space="preserve">3.06810617446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15453195571899</t>
   </si>
   <si>
     <t xml:space="preserve">3.18045926094055</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29281258583069</t>
+    <t xml:space="preserve">3.29281234741211</t>
   </si>
   <si>
     <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11996150016785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13724660873413</t>
+    <t xml:space="preserve">3.11996126174927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13724684715271</t>
   </si>
   <si>
     <t xml:space="preserve">3.11131906509399</t>
@@ -2189,13 +2189,13 @@
     <t xml:space="preserve">3.10267663002014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34466791152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42245101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41380858421326</t>
+    <t xml:space="preserve">3.34466814994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42245054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41380834579468</t>
   </si>
   <si>
     <t xml:space="preserve">3.43973612785339</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4607105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264163970947</t>
+    <t xml:space="preserve">4.46071004867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264116287231</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760808944702</t>
+    <t xml:space="preserve">4.84760856628418</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450660705566</t>
+    <t xml:space="preserve">5.23450708389282</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278301239014</t>
+    <t xml:space="preserve">5.30278253555298</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2255,19 +2255,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07657957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.871750831604</t>
+    <t xml:space="preserve">6.07658004760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87175130844116</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071594238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968152999878</t>
+    <t xml:space="preserve">5.78071641921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968105316162</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312919616699</t>
+    <t xml:space="preserve">5.55312871932983</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348079681396</t>
+    <t xml:space="preserve">7.12348031997681</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796335220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244590759277</t>
+    <t xml:space="preserve">7.07796382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244638442993</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2315,19 +2315,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175449371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.53175401687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60003042221069</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485868453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55451250076294</t>
+    <t xml:space="preserve">6.80485916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5545129776001</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382745742798</t>
+    <t xml:space="preserve">7.37382698059082</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2357,10 +2357,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486553192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900508880615</t>
+    <t xml:space="preserve">8.12486457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900413513184</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.651083946228</t>
+    <t xml:space="preserve">10.6510829925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -59539,7 +59539,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6457291667</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>7134</v>
@@ -59560,6 +59560,32 @@
         <v>921</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6495833333</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>5218</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>2.6800000667572</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>2.66000008583069</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>2.67000007629395</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>2.6800000667572</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>909</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">1.29973948001862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29750096797943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27586376667023</t>
+    <t xml:space="preserve">1.29750108718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27586364746094</t>
   </si>
   <si>
     <t xml:space="preserve">1.26840245723724</t>
@@ -62,46 +62,46 @@
     <t xml:space="preserve">1.26765632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29004001617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26616382598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944876670837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25347995758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25273382663727</t>
+    <t xml:space="preserve">1.29003989696503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26616406440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25944888591766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25347983837128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25273394584656</t>
   </si>
   <si>
     <t xml:space="preserve">1.21766626834869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24676501750946</t>
+    <t xml:space="preserve">1.24676477909088</t>
   </si>
   <si>
     <t xml:space="preserve">1.31167721748352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30496215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30123150348663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.305708527565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31988453865051</t>
+    <t xml:space="preserve">1.30496227741241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30123174190521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30570840835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3198846578598</t>
   </si>
   <si>
     <t xml:space="preserve">1.28929376602173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27884793281555</t>
+    <t xml:space="preserve">1.27884781360626</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317954063416</t>
@@ -110,79 +110,79 @@
     <t xml:space="preserve">1.27437138557434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24601888656616</t>
+    <t xml:space="preserve">1.24601900577545</t>
   </si>
   <si>
     <t xml:space="preserve">1.28034031391144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25721073150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31316947937012</t>
+    <t xml:space="preserve">1.25721061229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31316959857941</t>
   </si>
   <si>
     <t xml:space="preserve">1.3206307888031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31391561031342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32436120510101</t>
+    <t xml:space="preserve">1.31391572952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3243613243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.26989471912384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28183257579803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32958424091339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32212281227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32809197902679</t>
+    <t xml:space="preserve">1.28183245658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3295841217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32212293148041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32809174060822</t>
   </si>
   <si>
     <t xml:space="preserve">1.3273458480835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33480703830719</t>
+    <t xml:space="preserve">1.3348069190979</t>
   </si>
   <si>
     <t xml:space="preserve">1.322869181633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31018507480621</t>
+    <t xml:space="preserve">1.31018483638763</t>
   </si>
   <si>
     <t xml:space="preserve">1.31764614582062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30272376537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30346989631653</t>
+    <t xml:space="preserve">1.30272400379181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30347001552582</t>
   </si>
   <si>
     <t xml:space="preserve">1.29675495624542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29078578948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28854739665985</t>
+    <t xml:space="preserve">1.29078590869904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28854751586914</t>
   </si>
   <si>
     <t xml:space="preserve">1.28780150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30684316158295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3167724609375</t>
+    <t xml:space="preserve">1.30684328079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31677258014679</t>
   </si>
   <si>
     <t xml:space="preserve">1.32364642620087</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">1.33433949947357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3320484161377</t>
+    <t xml:space="preserve">1.33204829692841</t>
   </si>
   <si>
     <t xml:space="preserve">1.32975697517395</t>
@@ -203,19 +203,19 @@
     <t xml:space="preserve">1.3183000087738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32670199871063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32211887836456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34044992923737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33663105964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3351035118103</t>
+    <t xml:space="preserve">1.32670176029205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32211899757385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34045004844666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33663094043732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33510327339172</t>
   </si>
   <si>
     <t xml:space="preserve">1.32899308204651</t>
@@ -224,19 +224,19 @@
     <t xml:space="preserve">1.32822930812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32135510444641</t>
+    <t xml:space="preserve">1.3213552236557</t>
   </si>
   <si>
     <t xml:space="preserve">1.33815860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34426891803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34350490570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33892226219177</t>
+    <t xml:space="preserve">1.34426879882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34350502490997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33892238140106</t>
   </si>
   <si>
     <t xml:space="preserve">1.31906378269196</t>
@@ -248,22 +248,22 @@
     <t xml:space="preserve">1.29767763614655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28316557407379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28851234912872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011071681976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2594883441925</t>
+    <t xml:space="preserve">1.28316569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851246833801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011059761047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25948822498322</t>
   </si>
   <si>
     <t xml:space="preserve">1.26025199890137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23733842372894</t>
+    <t xml:space="preserve">1.23733854293823</t>
   </si>
   <si>
     <t xml:space="preserve">1.22970056533813</t>
@@ -278,16 +278,16 @@
     <t xml:space="preserve">1.22206258773804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22129881381989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2411572933197</t>
+    <t xml:space="preserve">1.2212986946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24115717411041</t>
   </si>
   <si>
     <t xml:space="preserve">1.27552783489227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27476394176483</t>
+    <t xml:space="preserve">1.27476406097412</t>
   </si>
   <si>
     <t xml:space="preserve">1.29385876655579</t>
@@ -296,28 +296,28 @@
     <t xml:space="preserve">1.29309499263763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29233109951019</t>
+    <t xml:space="preserve">1.29233121871948</t>
   </si>
   <si>
     <t xml:space="preserve">1.28927600383759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25872433185577</t>
+    <t xml:space="preserve">1.25872457027435</t>
   </si>
   <si>
     <t xml:space="preserve">1.28469336032867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24955916404724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27018129825592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27629160881042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28698480129242</t>
+    <t xml:space="preserve">1.24955904483795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27018117904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27629148960114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28698468208313</t>
   </si>
   <si>
     <t xml:space="preserve">1.28622078895569</t>
@@ -326,16 +326,16 @@
     <t xml:space="preserve">1.28240203857422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34121358394623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3137172460556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36412763595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572564601898</t>
+    <t xml:space="preserve">1.34121382236481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31371736526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36412739753723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572576522827</t>
   </si>
   <si>
     <t xml:space="preserve">1.38093078136444</t>
@@ -344,85 +344,82 @@
     <t xml:space="preserve">1.3740565776825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38551366329193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36030852794647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37329292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558424472809</t>
+    <t xml:space="preserve">1.38551342487335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36030840873718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37329280376434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3755841255188</t>
   </si>
   <si>
     <t xml:space="preserve">1.35419809818268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35954451560974</t>
+    <t xml:space="preserve">1.35954463481903</t>
   </si>
   <si>
     <t xml:space="preserve">1.35648953914642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34503281116486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35190677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35725343227386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35496199131012</t>
+    <t xml:space="preserve">1.34503257274628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35190689563751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35725331306458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35496187210083</t>
   </si>
   <si>
     <t xml:space="preserve">1.34961533546448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34885156154633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35801720619202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36259984970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3244104385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288265228271</t>
+    <t xml:space="preserve">1.34885168075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35801708698273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36259973049164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32441031932831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.322882771492</t>
   </si>
   <si>
     <t xml:space="preserve">1.30226039886475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30989837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32059156894684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33586716651917</t>
+    <t xml:space="preserve">1.30989849567413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32059144973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33586728572845</t>
   </si>
   <si>
     <t xml:space="preserve">1.31295347213745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30455183982849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29462277889252</t>
+    <t xml:space="preserve">1.3045517206192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29462254047394</t>
   </si>
   <si>
     <t xml:space="preserve">1.30073285102844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2984414100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003989696503</t>
+    <t xml:space="preserve">1.29844164848328</t>
   </si>
   <si>
     <t xml:space="preserve">1.29080367088318</t>
@@ -431,10 +428,10 @@
     <t xml:space="preserve">1.29615008831024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28545725345612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2625435590744</t>
+    <t xml:space="preserve">1.28545701503754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26254343986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.26407098770142</t>
@@ -443,22 +440,22 @@
     <t xml:space="preserve">1.27170872688293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26788997650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24192118644714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23351943492889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26712620258331</t>
+    <t xml:space="preserve">1.26789009571075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24192106723785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2335193157196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2671263217926</t>
   </si>
   <si>
     <t xml:space="preserve">1.24497628211975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24879515171051</t>
+    <t xml:space="preserve">1.24879539012909</t>
   </si>
   <si>
     <t xml:space="preserve">1.27323639392853</t>
@@ -470,10 +467,10 @@
     <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33357584476471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34197747707367</t>
+    <t xml:space="preserve">1.33357560634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34197759628296</t>
   </si>
   <si>
     <t xml:space="preserve">1.35114312171936</t>
@@ -485,34 +482,34 @@
     <t xml:space="preserve">1.36718261241913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3832221031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39926159381866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162385463715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39238774776459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39009618759155</t>
+    <t xml:space="preserve">1.38322222232819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39926171302795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162373542786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3923876285553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39009630680084</t>
   </si>
   <si>
     <t xml:space="preserve">1.3969703912735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39773416519165</t>
+    <t xml:space="preserve">1.39773404598236</t>
   </si>
   <si>
     <t xml:space="preserve">1.40537202358246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40078938007355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39849781990051</t>
+    <t xml:space="preserve">1.40078914165497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3984979391098</t>
   </si>
   <si>
     <t xml:space="preserve">1.3847496509552</t>
@@ -524,19 +521,19 @@
     <t xml:space="preserve">1.40460824966431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42064774036407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41988396644592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3908599615097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40842723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39620649814606</t>
+    <t xml:space="preserve">1.42064762115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41988408565521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39085984230042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40842711925507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39620661735535</t>
   </si>
   <si>
     <t xml:space="preserve">1.40231680870056</t>
@@ -545,7 +542,7 @@
     <t xml:space="preserve">1.40384447574615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38704097270966</t>
+    <t xml:space="preserve">1.38704109191895</t>
   </si>
   <si>
     <t xml:space="preserve">1.42293906211853</t>
@@ -560,7 +557,7 @@
     <t xml:space="preserve">1.44279754161835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45883727073669</t>
+    <t xml:space="preserve">1.4588371515274</t>
   </si>
   <si>
     <t xml:space="preserve">1.47411286830902</t>
@@ -569,115 +566,115 @@
     <t xml:space="preserve">1.46800267696381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4695303440094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47029423713684</t>
+    <t xml:space="preserve">1.46953022480011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47029411792755</t>
   </si>
   <si>
     <t xml:space="preserve">1.46418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45349073410034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42904949188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43897879123688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44967174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265602111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54056251049042</t>
+    <t xml:space="preserve">1.45349061489105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42904925346375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43897867202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.449671626091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46265614032745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812990665436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.540562748909</t>
   </si>
   <si>
     <t xml:space="preserve">1.5466730594635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55660223960876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56882286071777</t>
+    <t xml:space="preserve">1.55660235881805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56882297992706</t>
   </si>
   <si>
     <t xml:space="preserve">1.53139710426331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52223181724548</t>
+    <t xml:space="preserve">1.5222315788269</t>
   </si>
   <si>
     <t xml:space="preserve">1.54361772537231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56042122840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55583846569061</t>
+    <t xml:space="preserve">1.5604213476181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55583870410919</t>
   </si>
   <si>
     <t xml:space="preserve">1.55278337001801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59402811527252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57569682598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5993744134903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5963191986084</t>
+    <t xml:space="preserve">1.59402799606323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57569694519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59937465190887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59631931781769</t>
   </si>
   <si>
     <t xml:space="preserve">1.59861052036285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59479165077209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58104348182678</t>
+    <t xml:space="preserve">1.59479153156281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58104360103607</t>
   </si>
   <si>
     <t xml:space="preserve">1.56500399112701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56347644329071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049192905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53521621227264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54896438121796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52757835388184</t>
+    <t xml:space="preserve">1.56347608566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049180984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53521633148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54896450042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52757823467255</t>
   </si>
   <si>
     <t xml:space="preserve">1.51841270923615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54972815513611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58715391159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60472106933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131211280823</t>
+    <t xml:space="preserve">1.5497282743454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58715379238129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60472083091736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131223201752</t>
   </si>
   <si>
     <t xml:space="preserve">1.70237553119659</t>
@@ -686,22 +683,22 @@
     <t xml:space="preserve">1.70551776885986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72044432163239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70708906650543</t>
+    <t xml:space="preserve">1.7204442024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70708918571472</t>
   </si>
   <si>
     <t xml:space="preserve">1.73929834365845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73537039756775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73379909992218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84613859653473</t>
+    <t xml:space="preserve">1.73537051677704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73379933834076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84613871574402</t>
   </si>
   <si>
     <t xml:space="preserve">1.88698947429657</t>
@@ -710,16 +707,16 @@
     <t xml:space="preserve">1.92469787597656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00011420249939</t>
+    <t xml:space="preserve">2.00011444091797</t>
   </si>
   <si>
     <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10145568847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03860831260681</t>
+    <t xml:space="preserve">2.10145592689514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03860855102539</t>
   </si>
   <si>
     <t xml:space="preserve">2.0684609413147</t>
@@ -728,73 +725,73 @@
     <t xml:space="preserve">2.01425504684448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91369962692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98597419261932</t>
+    <t xml:space="preserve">1.91369938850403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98597395420074</t>
   </si>
   <si>
     <t xml:space="preserve">1.98754489421844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99540102481842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01975417137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00639939308167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99932909011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96319150924683</t>
+    <t xml:space="preserve">1.99540078639984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01975440979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00639963150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99932897090912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96319162845612</t>
   </si>
   <si>
     <t xml:space="preserve">2.01268410682678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00561380386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00954151153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0252537727356</t>
+    <t xml:space="preserve">2.00561356544495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00954174995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02525353431702</t>
   </si>
   <si>
     <t xml:space="preserve">2.01032710075378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98675978183746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00325679779053</t>
+    <t xml:space="preserve">1.98675942420959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00325727462769</t>
   </si>
   <si>
     <t xml:space="preserve">2.00247144699097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01661205291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02839589118958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99382960796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97261881828308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99068737030029</t>
+    <t xml:space="preserve">2.0166118144989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.028395652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99382984638214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97261893749237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99068760871887</t>
   </si>
   <si>
     <t xml:space="preserve">1.97968924045563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9773325920105</t>
+    <t xml:space="preserve">1.97733235359192</t>
   </si>
   <si>
     <t xml:space="preserve">1.95926380157471</t>
@@ -806,25 +803,25 @@
     <t xml:space="preserve">1.84770977497101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87599110603333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84535324573517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87284886837006</t>
+    <t xml:space="preserve">1.87599122524261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84535312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87284874916077</t>
   </si>
   <si>
     <t xml:space="preserve">1.88620376586914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91055703163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92941117286682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90505814552307</t>
+    <t xml:space="preserve">1.91055691242218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92941129207611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9050577878952</t>
   </si>
   <si>
     <t xml:space="preserve">1.88934600353241</t>
@@ -833,151 +830,151 @@
     <t xml:space="preserve">1.90584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91605627536774</t>
+    <t xml:space="preserve">1.91605603694916</t>
   </si>
   <si>
     <t xml:space="preserve">1.91919875144958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93333923816681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90113019943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862570285797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705452442169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91762757301331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98047471046448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99618661403656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05981945991516</t>
+    <t xml:space="preserve">1.93333947658539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90112996101379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862558364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705464363098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91762745380402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98047459125519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99618637561798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05981922149658</t>
   </si>
   <si>
     <t xml:space="preserve">2.05746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0150408744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0205397605896</t>
+    <t xml:space="preserve">2.01504063606262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02053999900818</t>
   </si>
   <si>
     <t xml:space="preserve">2.00482821464539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97026193141937</t>
+    <t xml:space="preserve">1.97026216983795</t>
   </si>
   <si>
     <t xml:space="preserve">1.96947646141052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97811794281006</t>
+    <t xml:space="preserve">1.97811806201935</t>
   </si>
   <si>
     <t xml:space="preserve">1.97576117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95062208175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93962395191193</t>
+    <t xml:space="preserve">1.9506219625473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93962419033051</t>
   </si>
   <si>
     <t xml:space="preserve">1.93726718425751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93805277347565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93255364894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826543331146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96711993217468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95376479625702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95219337940216</t>
+    <t xml:space="preserve">1.93805289268494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93255376815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826555252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9671196937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95376467704773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95219326019287</t>
   </si>
   <si>
     <t xml:space="preserve">1.94276630878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96397733688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94905090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95533585548401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94669437408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92548358440399</t>
+    <t xml:space="preserve">1.96397757530212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94905126094818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95533549785614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94669425487518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92548334598541</t>
   </si>
   <si>
     <t xml:space="preserve">1.92234098911285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92784023284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92312657833099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89720225334167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90348696708679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90820026397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89484536647797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8995589017868</t>
+    <t xml:space="preserve">1.92784035205841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9231264591217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8972020149231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9034868478775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90820038318634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89484524726868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89955902099609</t>
   </si>
   <si>
     <t xml:space="preserve">1.89013171195984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89563083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89327430725098</t>
+    <t xml:space="preserve">1.89563071727753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89327418804169</t>
   </si>
   <si>
     <t xml:space="preserve">1.91527056694031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91212821006775</t>
+    <t xml:space="preserve">1.91212832927704</t>
   </si>
   <si>
     <t xml:space="preserve">1.90191555023193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93098247051239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98126018047333</t>
+    <t xml:space="preserve">1.93098258972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98126029968262</t>
   </si>
   <si>
     <t xml:space="preserve">2.02132534980774</t>
@@ -986,16 +983,16 @@
     <t xml:space="preserve">2.00090003013611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06610417366028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05039238929749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03153800964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0566771030426</t>
+    <t xml:space="preserve">2.0661039352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05039215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03153824806213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05667686462402</t>
   </si>
   <si>
     <t xml:space="preserve">2.05353450775146</t>
@@ -1016,10 +1013,10 @@
     <t xml:space="preserve">2.0739598274231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652925491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07238864898682</t>
+    <t xml:space="preserve">2.08652949333191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0723888874054</t>
   </si>
   <si>
     <t xml:space="preserve">2.07710242271423</t>
@@ -1031,7 +1028,7 @@
     <t xml:space="preserve">2.08574390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05117797851562</t>
+    <t xml:space="preserve">2.0511782169342</t>
   </si>
   <si>
     <t xml:space="preserve">2.06217622756958</t>
@@ -1046,16 +1043,16 @@
     <t xml:space="preserve">2.15251922607422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16587424278259</t>
+    <t xml:space="preserve">2.16587448120117</t>
   </si>
   <si>
     <t xml:space="preserve">2.17215895652771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17294478416443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17687201499939</t>
+    <t xml:space="preserve">2.17294454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17687225341797</t>
   </si>
   <si>
     <t xml:space="preserve">2.16823124885559</t>
@@ -1076,16 +1073,16 @@
     <t xml:space="preserve">2.17765784263611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16037511825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1501624584198</t>
+    <t xml:space="preserve">2.16037535667419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15016269683838</t>
   </si>
   <si>
     <t xml:space="preserve">2.14937686920166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1485915184021</t>
+    <t xml:space="preserve">2.14859127998352</t>
   </si>
   <si>
     <t xml:space="preserve">2.16665983200073</t>
@@ -1097,34 +1094,34 @@
     <t xml:space="preserve">2.1957266330719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17608714103699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22479319572449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28606963157654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30963706970215</t>
+    <t xml:space="preserve">2.17608690261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22479343414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28606986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30963730812073</t>
   </si>
   <si>
     <t xml:space="preserve">2.27035784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26250195503235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30178117752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31749320030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41176390647888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46675562858582</t>
+    <t xml:space="preserve">2.26250171661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30178165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3174934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41176438331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46675586700439</t>
   </si>
   <si>
     <t xml:space="preserve">2.41962003707886</t>
@@ -1133,7 +1130,7 @@
     <t xml:space="preserve">2.43533205986023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47461152076721</t>
+    <t xml:space="preserve">2.47461175918579</t>
   </si>
   <si>
     <t xml:space="preserve">2.42747592926025</t>
@@ -1142,7 +1139,7 @@
     <t xml:space="preserve">2.38819646835327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36462879180908</t>
+    <t xml:space="preserve">2.3646285533905</t>
   </si>
   <si>
     <t xml:space="preserve">2.3803403377533</t>
@@ -1157,34 +1154,34 @@
     <t xml:space="preserve">2.35677266120911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29392576217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27821373939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54531478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49032330513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66315340995789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65529727935791</t>
+    <t xml:space="preserve">2.29392552375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27821350097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54531455039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49032354354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66315317153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65529751777649</t>
   </si>
   <si>
     <t xml:space="preserve">2.73385643959045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56888246536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60030579566956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57673835754395</t>
+    <t xml:space="preserve">2.56888270378113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60030603408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57673811912537</t>
   </si>
   <si>
     <t xml:space="preserve">2.5060350894928</t>
@@ -1193,7 +1190,7 @@
     <t xml:space="preserve">2.53745865821838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58459448814392</t>
+    <t xml:space="preserve">2.58459424972534</t>
   </si>
   <si>
     <t xml:space="preserve">2.55317044258118</t>
@@ -1202,31 +1199,31 @@
     <t xml:space="preserve">2.51389098167419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59244990348816</t>
+    <t xml:space="preserve">2.59245014190674</t>
   </si>
   <si>
     <t xml:space="preserve">2.56102633476257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52174687385559</t>
+    <t xml:space="preserve">2.52174663543701</t>
   </si>
   <si>
     <t xml:space="preserve">2.61601758003235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63958525657654</t>
+    <t xml:space="preserve">2.63958549499512</t>
   </si>
   <si>
     <t xml:space="preserve">2.68816709518433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70436096191406</t>
+    <t xml:space="preserve">2.70436072349548</t>
   </si>
   <si>
     <t xml:space="preserve">2.69626355171204</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67197299003601</t>
+    <t xml:space="preserve">2.67197322845459</t>
   </si>
   <si>
     <t xml:space="preserve">2.61529469490051</t>
@@ -1235,22 +1232,22 @@
     <t xml:space="preserve">2.62339210510254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63148856163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65577912330627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59100413322449</t>
+    <t xml:space="preserve">2.63148880004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65577936172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59100437164307</t>
   </si>
   <si>
     <t xml:space="preserve">2.60719799995422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53432583808899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42906641960144</t>
+    <t xml:space="preserve">2.53432559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42906618118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.40477585792542</t>
@@ -1259,61 +1256,61 @@
     <t xml:space="preserve">2.38048505783081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41287279129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32380676269531</t>
+    <t xml:space="preserve">2.4128725528717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32380700111389</t>
   </si>
   <si>
     <t xml:space="preserve">2.29951620101929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.291419506073</t>
+    <t xml:space="preserve">2.29141926765442</t>
   </si>
   <si>
     <t xml:space="preserve">2.31571006774902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33190393447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35619449615479</t>
+    <t xml:space="preserve">2.33190369606018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35619473457336</t>
   </si>
   <si>
     <t xml:space="preserve">2.26712870597839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21045064926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28332233428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34809756278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21854734420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19425654411316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22664427757263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18616008758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.178062915802</t>
+    <t xml:space="preserve">2.2104504108429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28332257270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34809732437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21854710578918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19425678253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22664451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18615984916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17806315422058</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996598243713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16186928749084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12948155403137</t>
+    <t xml:space="preserve">2.16186904907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12948179244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.2347412109375</t>
@@ -1325,19 +1322,19 @@
     <t xml:space="preserve">2.24283790588379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27522563934326</t>
+    <t xml:space="preserve">2.27522587776184</t>
   </si>
   <si>
     <t xml:space="preserve">2.39667916297913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12138485908508</t>
+    <t xml:space="preserve">2.1213846206665</t>
   </si>
   <si>
     <t xml:space="preserve">2.10519099235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11328792572021</t>
+    <t xml:space="preserve">2.11328768730164</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
@@ -1355,7 +1352,7 @@
     <t xml:space="preserve">1.96754384040833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95944690704346</t>
+    <t xml:space="preserve">1.95944702625275</t>
   </si>
   <si>
     <t xml:space="preserve">1.93515622615814</t>
@@ -1364,16 +1361,16 @@
     <t xml:space="preserve">1.95134997367859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87038111686707</t>
+    <t xml:space="preserve">1.87038087844849</t>
   </si>
   <si>
     <t xml:space="preserve">1.9189624786377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91086554527283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94325315952301</t>
+    <t xml:space="preserve">1.91086566448212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94325304031372</t>
   </si>
   <si>
     <t xml:space="preserve">2.25093507766724</t>
@@ -1382,7 +1379,7 @@
     <t xml:space="preserve">2.15377235412598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13757848739624</t>
+    <t xml:space="preserve">2.13757824897766</t>
   </si>
   <si>
     <t xml:space="preserve">2.08899712562561</t>
@@ -1391,58 +1388,58 @@
     <t xml:space="preserve">2.06470656394958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08090019226074</t>
+    <t xml:space="preserve">2.08090043067932</t>
   </si>
   <si>
     <t xml:space="preserve">2.00802826881409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92705941200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8865749835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82989680767059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85418748855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179963588715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90276873111725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9756406545639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99993133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30761313438416</t>
+    <t xml:space="preserve">1.92705917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88657486438751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82989692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85418736934662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90276885032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97564101219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9999315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30761289596558</t>
   </si>
   <si>
     <t xml:space="preserve">2.20235371589661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14567518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36429119110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34000086784363</t>
+    <t xml:space="preserve">2.14567542076111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36429142951965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
     <t xml:space="preserve">2.45335698127747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42096948623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43716359138489</t>
+    <t xml:space="preserve">2.42096972465515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43716335296631</t>
   </si>
   <si>
     <t xml:space="preserve">2.46145415306091</t>
@@ -1451,28 +1448,28 @@
     <t xml:space="preserve">2.51003527641296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48574471473694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49384140968323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50193858146667</t>
+    <t xml:space="preserve">2.48574495315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49384164810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
     <t xml:space="preserve">2.51813220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5262291431427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4695508480072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44526028633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47764801979065</t>
+    <t xml:space="preserve">2.52622890472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46955108642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44526052474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47764778137207</t>
   </si>
   <si>
     <t xml:space="preserve">2.55861663818359</t>
@@ -1481,111 +1478,114 @@
     <t xml:space="preserve">2.5829074382782</t>
   </si>
   <si>
+    <t xml:space="preserve">2.66387629508972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65539216995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62994146347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60449075698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54510450363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56207227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5875232219696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59600687026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61297416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51117014884949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52813720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46875190734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49420261383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38391494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37543106079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32452869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33301281929016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34997987747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36694741249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46026754379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42633318901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44330048561096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47723531723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57055568695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62145781517029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63842511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6469087600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69781088829041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70629477500916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67235994338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477842330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72326183319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68084359169006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68932747840881</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.6638765335083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65539216995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62994170188904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60449075698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54510450363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56207227706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58752298355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59600687026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61297416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51117014884949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52813744544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46875166893005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49420261383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38391494750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37543106079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32452869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33301258087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3499801158905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36694717407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4602677822113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42633318901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44330048561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47723531723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57055568695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62145781517029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63842535018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6469087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69781088829041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70629477500916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67235994338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477842330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72326183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68084359169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68932723999023</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.51965379714966</t>
   </si>
   <si>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">2.50268626213074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57903933525085</t>
+    <t xml:space="preserve">2.57903957366943</t>
   </si>
   <si>
     <t xml:space="preserve">2.55358839035034</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.73067116737366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73915493488312</t>
+    <t xml:space="preserve">1.73915469646454</t>
   </si>
   <si>
     <t xml:space="preserve">1.69673633575439</t>
@@ -1655,22 +1655,22 @@
     <t xml:space="preserve">1.56948125362396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57796502113342</t>
+    <t xml:space="preserve">1.57796490192413</t>
   </si>
   <si>
     <t xml:space="preserve">1.68401110172272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62462520599365</t>
+    <t xml:space="preserve">1.62462508678436</t>
   </si>
   <si>
     <t xml:space="preserve">1.61614143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59917402267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56099736690521</t>
+    <t xml:space="preserve">1.59917414188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5609974861145</t>
   </si>
   <si>
     <t xml:space="preserve">1.65431797504425</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">1.64159250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62886714935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65007627010345</t>
+    <t xml:space="preserve">1.62886691093445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65007615089417</t>
   </si>
   <si>
     <t xml:space="preserve">1.63735067844391</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">1.70522022247314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76460587978363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67552721500397</t>
+    <t xml:space="preserve">1.76460599899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67552733421326</t>
   </si>
   <si>
     <t xml:space="preserve">1.6924946308136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65855979919434</t>
+    <t xml:space="preserve">1.65856003761292</t>
   </si>
   <si>
     <t xml:space="preserve">1.68825280666351</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">1.80702435970306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79005694389343</t>
+    <t xml:space="preserve">1.79005706310272</t>
   </si>
   <si>
     <t xml:space="preserve">1.77308976650238</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">1.83247542381287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84944272041321</t>
+    <t xml:space="preserve">1.84944260120392</t>
   </si>
   <si>
     <t xml:space="preserve">1.86641025543213</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.90034484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95973074436188</t>
+    <t xml:space="preserve">1.95973038673401</t>
   </si>
   <si>
     <t xml:space="preserve">1.90882849693298</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">1.89186108112335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87489378452301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792636871338</t>
+    <t xml:space="preserve">1.87489402294159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792648792267</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
@@ -1769,10 +1769,10 @@
     <t xml:space="preserve">1.81550800800323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75612246990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67976891994476</t>
+    <t xml:space="preserve">1.75612223148346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67976915836334</t>
   </si>
   <si>
     <t xml:space="preserve">1.71370387077332</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">1.64583420753479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59493219852448</t>
+    <t xml:space="preserve">1.59493231773376</t>
   </si>
   <si>
     <t xml:space="preserve">1.60341584682465</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">1.55251383781433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54827213287354</t>
+    <t xml:space="preserve">1.54827201366425</t>
   </si>
   <si>
     <t xml:space="preserve">1.49312818050385</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">1.47191894054413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46767711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49736988544464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47616076469421</t>
+    <t xml:space="preserve">1.46767687797546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49737000465393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47616064548492</t>
   </si>
   <si>
     <t xml:space="preserve">1.42525851726532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39132380485535</t>
+    <t xml:space="preserve">1.39132392406464</t>
   </si>
   <si>
     <t xml:space="preserve">1.44222605228424</t>
@@ -1832,10 +1832,10 @@
     <t xml:space="preserve">1.3489054441452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36587274074554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3955659866333</t>
+    <t xml:space="preserve">1.36587285995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39556574821472</t>
   </si>
   <si>
     <t xml:space="preserve">1.38284015655518</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">1.45919334888458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46343505382538</t>
+    <t xml:space="preserve">1.46343517303467</t>
   </si>
   <si>
     <t xml:space="preserve">1.44646787643433</t>
@@ -1862,19 +1862,19 @@
     <t xml:space="preserve">1.45070970058441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43798422813416</t>
+    <t xml:space="preserve">1.43798410892487</t>
   </si>
   <si>
     <t xml:space="preserve">1.53130459785461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58644878864288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038350105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6118997335434</t>
+    <t xml:space="preserve">1.58644866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038338184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61189961433411</t>
   </si>
   <si>
     <t xml:space="preserve">1.55675566196442</t>
@@ -1895,16 +1895,16 @@
     <t xml:space="preserve">1.54403030872345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95124697685242</t>
+    <t xml:space="preserve">1.95124685764313</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608369827271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16333889961243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35846352577209</t>
+    <t xml:space="preserve">2.16333913803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35846376419067</t>
   </si>
   <si>
     <t xml:space="preserve">2.34149646759033</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">2.27362680435181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23969221115112</t>
+    <t xml:space="preserve">2.23969197273254</t>
   </si>
   <si>
     <t xml:space="preserve">2.14637160301208</t>
@@ -8545,7 +8545,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G209" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8571,7 +8571,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G210" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8623,7 +8623,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G212" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8831,7 +8831,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G220" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9039,7 +9039,7 @@
         <v>16.5300006866455</v>
       </c>
       <c r="G228" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -9065,7 +9065,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G229" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -9091,7 +9091,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G230" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -9143,7 +9143,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G232" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -9169,7 +9169,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G233" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -9195,7 +9195,7 @@
         <v>16.1499996185303</v>
       </c>
       <c r="G234" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -9221,7 +9221,7 @@
         <v>16.5900001525879</v>
       </c>
       <c r="G235" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -9247,7 +9247,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G236" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -9273,7 +9273,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G237" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -9351,7 +9351,7 @@
         <v>16.6700000762939</v>
       </c>
       <c r="G240" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -9377,7 +9377,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G241" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -9429,7 +9429,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G243" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9507,7 +9507,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G246" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9533,7 +9533,7 @@
         <v>17.5699996948242</v>
       </c>
       <c r="G247" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9559,7 +9559,7 @@
         <v>17.6900005340576</v>
       </c>
       <c r="G248" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9611,7 +9611,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G250" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9637,7 +9637,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G251" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9715,7 +9715,7 @@
         <v>17.6900005340576</v>
       </c>
       <c r="G254" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9793,7 +9793,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G257" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9819,7 +9819,7 @@
         <v>18.1100006103516</v>
       </c>
       <c r="G258" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9845,7 +9845,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G259" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9871,7 +9871,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G260" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9897,7 +9897,7 @@
         <v>18.2299995422363</v>
       </c>
       <c r="G261" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9923,7 +9923,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G262" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9949,7 +9949,7 @@
         <v>18.2900009155273</v>
       </c>
       <c r="G263" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9975,7 +9975,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G264" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -10001,7 +10001,7 @@
         <v>18.2299995422363</v>
       </c>
       <c r="G265" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -10053,7 +10053,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G267" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -10079,7 +10079,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G268" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -10105,7 +10105,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G269" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -10131,7 +10131,7 @@
         <v>18.1299991607666</v>
       </c>
       <c r="G270" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -10157,7 +10157,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G271" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10183,7 +10183,7 @@
         <v>18.3899993896484</v>
       </c>
       <c r="G272" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10209,7 +10209,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G273" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -10235,7 +10235,7 @@
         <v>18.5900001525879</v>
       </c>
       <c r="G274" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -10261,7 +10261,7 @@
         <v>18.1299991607666</v>
       </c>
       <c r="G275" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -10287,7 +10287,7 @@
         <v>18.2099990844727</v>
       </c>
       <c r="G276" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -10313,7 +10313,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G277" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10339,7 +10339,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G278" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10365,7 +10365,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G279" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10391,7 +10391,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G280" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10417,7 +10417,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G281" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10443,7 +10443,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G282" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10469,7 +10469,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G283" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10495,7 +10495,7 @@
         <v>18.6299991607666</v>
       </c>
       <c r="G284" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10521,7 +10521,7 @@
         <v>18.6900005340576</v>
       </c>
       <c r="G285" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10547,7 +10547,7 @@
         <v>18.8099994659424</v>
       </c>
       <c r="G286" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10573,7 +10573,7 @@
         <v>18.8899993896484</v>
       </c>
       <c r="G287" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10599,7 +10599,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G288" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10625,7 +10625,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G289" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10651,7 +10651,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G290" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10677,7 +10677,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G291" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10703,7 +10703,7 @@
         <v>19.25</v>
       </c>
       <c r="G292" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10729,7 +10729,7 @@
         <v>19.1700000762939</v>
       </c>
       <c r="G293" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10755,7 +10755,7 @@
         <v>19.0300006866455</v>
       </c>
       <c r="G294" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10781,7 +10781,7 @@
         <v>18.7099990844727</v>
       </c>
       <c r="G295" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10807,7 +10807,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G296" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10833,7 +10833,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G297" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10859,7 +10859,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G298" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10885,7 +10885,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G299" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10911,7 +10911,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G300" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10937,7 +10937,7 @@
         <v>20.1700000762939</v>
       </c>
       <c r="G301" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10963,7 +10963,7 @@
         <v>20.25</v>
       </c>
       <c r="G302" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10989,7 +10989,7 @@
         <v>20.3799991607666</v>
       </c>
       <c r="G303" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11015,7 +11015,7 @@
         <v>20.5400009155273</v>
       </c>
       <c r="G304" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -11041,7 +11041,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G305" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -11067,7 +11067,7 @@
         <v>19.9300003051758</v>
       </c>
       <c r="G306" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -11093,7 +11093,7 @@
         <v>20.2099990844727</v>
       </c>
       <c r="G307" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -11119,7 +11119,7 @@
         <v>20.4300003051758</v>
       </c>
       <c r="G308" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -11145,7 +11145,7 @@
         <v>20.3700008392334</v>
       </c>
       <c r="G309" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11171,7 +11171,7 @@
         <v>20.3299999237061</v>
       </c>
       <c r="G310" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -11197,7 +11197,7 @@
         <v>20.25</v>
       </c>
       <c r="G311" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11223,7 +11223,7 @@
         <v>20.4300003051758</v>
       </c>
       <c r="G312" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11249,7 +11249,7 @@
         <v>20.8700008392334</v>
       </c>
       <c r="G313" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11275,7 +11275,7 @@
         <v>20.8700008392334</v>
       </c>
       <c r="G314" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11301,7 +11301,7 @@
         <v>20.6299991607666</v>
       </c>
       <c r="G315" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11327,7 +11327,7 @@
         <v>20.9400005340576</v>
       </c>
       <c r="G316" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11353,7 +11353,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G317" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11379,7 +11379,7 @@
         <v>20.9300003051758</v>
       </c>
       <c r="G318" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11405,7 +11405,7 @@
         <v>20.8799991607666</v>
       </c>
       <c r="G319" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11431,7 +11431,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G320" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11457,7 +11457,7 @@
         <v>20.4899997711182</v>
       </c>
       <c r="G321" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11483,7 +11483,7 @@
         <v>20.4699993133545</v>
       </c>
       <c r="G322" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11509,7 +11509,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G323" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11535,7 +11535,7 @@
         <v>20.25</v>
       </c>
       <c r="G324" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11561,7 +11561,7 @@
         <v>20.4300003051758</v>
       </c>
       <c r="G325" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11587,7 +11587,7 @@
         <v>20.3299999237061</v>
       </c>
       <c r="G326" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11613,7 +11613,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G327" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11639,7 +11639,7 @@
         <v>20.2800006866455</v>
       </c>
       <c r="G328" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11665,7 +11665,7 @@
         <v>20.25</v>
       </c>
       <c r="G329" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11691,7 +11691,7 @@
         <v>20</v>
       </c>
       <c r="G330" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11717,7 +11717,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G331" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11743,7 +11743,7 @@
         <v>20.2900009155273</v>
       </c>
       <c r="G332" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11769,7 +11769,7 @@
         <v>20.7800006866455</v>
       </c>
       <c r="G333" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11795,7 +11795,7 @@
         <v>21.0100002288818</v>
       </c>
       <c r="G334" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11821,7 +11821,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="G335" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11847,7 +11847,7 @@
         <v>21.6700000762939</v>
       </c>
       <c r="G336" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11873,7 +11873,7 @@
         <v>21.7099990844727</v>
       </c>
       <c r="G337" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11899,7 +11899,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G338" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11925,7 +11925,7 @@
         <v>21.7299995422363</v>
       </c>
       <c r="G339" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11951,7 +11951,7 @@
         <v>22.1399993896484</v>
       </c>
       <c r="G340" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11977,7 +11977,7 @@
         <v>22.0900001525879</v>
       </c>
       <c r="G341" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12003,7 +12003,7 @@
         <v>22.0699996948242</v>
       </c>
       <c r="G342" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12029,7 +12029,7 @@
         <v>23.5</v>
       </c>
       <c r="G343" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -12055,7 +12055,7 @@
         <v>24.0200004577637</v>
       </c>
       <c r="G344" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -12081,7 +12081,7 @@
         <v>24.5</v>
       </c>
       <c r="G345" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -12107,7 +12107,7 @@
         <v>25.4599990844727</v>
       </c>
       <c r="G346" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -12133,7 +12133,7 @@
         <v>26.5</v>
       </c>
       <c r="G347" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -12159,7 +12159,7 @@
         <v>26.75</v>
       </c>
       <c r="G348" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12185,7 +12185,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G349" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12211,7 +12211,7 @@
         <v>26.3299999237061</v>
       </c>
       <c r="G350" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12237,7 +12237,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G351" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12263,7 +12263,7 @@
         <v>24.5</v>
       </c>
       <c r="G352" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12289,7 +12289,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G353" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12315,7 +12315,7 @@
         <v>25.2800006866455</v>
       </c>
       <c r="G354" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12341,7 +12341,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G355" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12367,7 +12367,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G356" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12393,7 +12393,7 @@
         <v>25.7099990844727</v>
       </c>
       <c r="G357" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12419,7 +12419,7 @@
         <v>25.5400009155273</v>
       </c>
       <c r="G358" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12445,7 +12445,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G359" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12471,7 +12471,7 @@
         <v>24.9899997711182</v>
       </c>
       <c r="G360" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12497,7 +12497,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G361" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12523,7 +12523,7 @@
         <v>25.5300006866455</v>
       </c>
       <c r="G362" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12549,7 +12549,7 @@
         <v>25.5799999237061</v>
       </c>
       <c r="G363" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12575,7 +12575,7 @@
         <v>25.7800006866455</v>
       </c>
       <c r="G364" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12601,7 +12601,7 @@
         <v>25.5900001525879</v>
       </c>
       <c r="G365" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12627,7 +12627,7 @@
         <v>25.4599990844727</v>
       </c>
       <c r="G366" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12653,7 +12653,7 @@
         <v>25.2900009155273</v>
       </c>
       <c r="G367" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12679,7 +12679,7 @@
         <v>25.5</v>
       </c>
       <c r="G368" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12705,7 +12705,7 @@
         <v>25.5799999237061</v>
       </c>
       <c r="G369" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12731,7 +12731,7 @@
         <v>25.4899997711182</v>
       </c>
       <c r="G370" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12757,7 +12757,7 @@
         <v>25.6700000762939</v>
       </c>
       <c r="G371" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12783,7 +12783,7 @@
         <v>25.8199996948242</v>
       </c>
       <c r="G372" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12809,7 +12809,7 @@
         <v>25.5400009155273</v>
       </c>
       <c r="G373" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12835,7 +12835,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G374" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12861,7 +12861,7 @@
         <v>25.1100006103516</v>
       </c>
       <c r="G375" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12887,7 +12887,7 @@
         <v>25.3400001525879</v>
       </c>
       <c r="G376" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12913,7 +12913,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G377" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12939,7 +12939,7 @@
         <v>25.1700000762939</v>
       </c>
       <c r="G378" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12965,7 +12965,7 @@
         <v>24.9400005340576</v>
       </c>
       <c r="G379" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12991,7 +12991,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G380" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13017,7 +13017,7 @@
         <v>23.5200004577637</v>
       </c>
       <c r="G381" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -13043,7 +13043,7 @@
         <v>23.8799991607666</v>
       </c>
       <c r="G382" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -13069,7 +13069,7 @@
         <v>23.4899997711182</v>
       </c>
       <c r="G383" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -13095,7 +13095,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G384" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -13121,7 +13121,7 @@
         <v>24.0100002288818</v>
       </c>
       <c r="G385" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -13147,7 +13147,7 @@
         <v>24.3199996948242</v>
       </c>
       <c r="G386" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13173,7 +13173,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G387" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13199,7 +13199,7 @@
         <v>24.25</v>
       </c>
       <c r="G388" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13225,7 +13225,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G389" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13251,7 +13251,7 @@
         <v>24.0200004577637</v>
       </c>
       <c r="G390" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13277,7 +13277,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G391" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13303,7 +13303,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G392" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13329,7 +13329,7 @@
         <v>24.3899993896484</v>
       </c>
       <c r="G393" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13355,7 +13355,7 @@
         <v>24.4300003051758</v>
       </c>
       <c r="G394" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13381,7 +13381,7 @@
         <v>24.5</v>
       </c>
       <c r="G395" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13407,7 +13407,7 @@
         <v>24.5</v>
       </c>
       <c r="G396" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13433,7 +13433,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G397" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13459,7 +13459,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G398" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13485,7 +13485,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G399" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13511,7 +13511,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G400" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13537,7 +13537,7 @@
         <v>24.5300006866455</v>
       </c>
       <c r="G401" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13563,7 +13563,7 @@
         <v>24.4099998474121</v>
       </c>
       <c r="G402" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13589,7 +13589,7 @@
         <v>25.2099990844727</v>
       </c>
       <c r="G403" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13615,7 +13615,7 @@
         <v>25.4099998474121</v>
       </c>
       <c r="G404" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13641,7 +13641,7 @@
         <v>26.2199993133545</v>
       </c>
       <c r="G405" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13667,7 +13667,7 @@
         <v>26.2199993133545</v>
       </c>
       <c r="G406" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13693,7 +13693,7 @@
         <v>26.1900005340576</v>
       </c>
       <c r="G407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13719,7 +13719,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G408" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13745,7 +13745,7 @@
         <v>25.7199993133545</v>
       </c>
       <c r="G409" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13771,7 +13771,7 @@
         <v>25.6700000762939</v>
       </c>
       <c r="G410" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13797,7 +13797,7 @@
         <v>25.5200004577637</v>
       </c>
       <c r="G411" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13823,7 +13823,7 @@
         <v>25.5</v>
       </c>
       <c r="G412" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13849,7 +13849,7 @@
         <v>25.0799999237061</v>
       </c>
       <c r="G413" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13875,7 +13875,7 @@
         <v>25.1100006103516</v>
       </c>
       <c r="G414" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13901,7 +13901,7 @@
         <v>25.0699996948242</v>
       </c>
       <c r="G415" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13927,7 +13927,7 @@
         <v>25.1800003051758</v>
       </c>
       <c r="G416" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13953,7 +13953,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G417" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13979,7 +13979,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G418" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14005,7 +14005,7 @@
         <v>24.8299999237061</v>
       </c>
       <c r="G419" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14031,7 +14031,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G420" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14057,7 +14057,7 @@
         <v>24.6900005340576</v>
       </c>
       <c r="G421" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14083,7 +14083,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G422" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14109,7 +14109,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G423" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14135,7 +14135,7 @@
         <v>24.6700000762939</v>
       </c>
       <c r="G424" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14161,7 +14161,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G425" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14187,7 +14187,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G426" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14213,7 +14213,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G427" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14239,7 +14239,7 @@
         <v>25.0400009155273</v>
       </c>
       <c r="G428" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14265,7 +14265,7 @@
         <v>24.8700008392334</v>
       </c>
       <c r="G429" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14291,7 +14291,7 @@
         <v>24.6900005340576</v>
       </c>
       <c r="G430" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14317,7 +14317,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G431" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14343,7 +14343,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G432" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14369,7 +14369,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G433" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14395,7 +14395,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G434" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14421,7 +14421,7 @@
         <v>24.7299995422363</v>
       </c>
       <c r="G435" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14447,7 +14447,7 @@
         <v>25</v>
       </c>
       <c r="G436" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14473,7 +14473,7 @@
         <v>24.8099994659424</v>
       </c>
       <c r="G437" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14499,7 +14499,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G438" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14525,7 +14525,7 @@
         <v>24.8899993896484</v>
       </c>
       <c r="G439" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14551,7 +14551,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G440" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14577,7 +14577,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G441" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14603,7 +14603,7 @@
         <v>24.5100002288818</v>
       </c>
       <c r="G442" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14629,7 +14629,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G443" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14655,7 +14655,7 @@
         <v>24.4699993133545</v>
       </c>
       <c r="G444" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14681,7 +14681,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G445" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14707,7 +14707,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G446" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14733,7 +14733,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G447" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14759,7 +14759,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G448" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14785,7 +14785,7 @@
         <v>24.2299995422363</v>
       </c>
       <c r="G449" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14811,7 +14811,7 @@
         <v>24.2900009155273</v>
       </c>
       <c r="G450" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14837,7 +14837,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G451" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14863,7 +14863,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G452" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14889,7 +14889,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G453" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14915,7 +14915,7 @@
         <v>24.1299991607666</v>
       </c>
       <c r="G454" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14941,7 +14941,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G455" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14967,7 +14967,7 @@
         <v>24.3799991607666</v>
       </c>
       <c r="G456" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14993,7 +14993,7 @@
         <v>24.25</v>
       </c>
       <c r="G457" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15019,7 +15019,7 @@
         <v>24.3400001525879</v>
       </c>
       <c r="G458" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15045,7 +15045,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G459" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15071,7 +15071,7 @@
         <v>24.25</v>
       </c>
       <c r="G460" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15097,7 +15097,7 @@
         <v>24.5799999237061</v>
       </c>
       <c r="G461" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15123,7 +15123,7 @@
         <v>24.3799991607666</v>
       </c>
       <c r="G462" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15149,7 +15149,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G463" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15175,7 +15175,7 @@
         <v>25.2199993133545</v>
       </c>
       <c r="G464" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15201,7 +15201,7 @@
         <v>25.7299995422363</v>
       </c>
       <c r="G465" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15227,7 +15227,7 @@
         <v>25.4699993133545</v>
       </c>
       <c r="G466" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15253,7 +15253,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G467" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15279,7 +15279,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G468" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15305,7 +15305,7 @@
         <v>25.8199996948242</v>
       </c>
       <c r="G469" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15331,7 +15331,7 @@
         <v>25.8600006103516</v>
       </c>
       <c r="G470" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15357,7 +15357,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G471" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15383,7 +15383,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G472" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15409,7 +15409,7 @@
         <v>26.0699996948242</v>
       </c>
       <c r="G473" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15435,7 +15435,7 @@
         <v>27.9400005340576</v>
       </c>
       <c r="G474" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15461,7 +15461,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G475" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15487,7 +15487,7 @@
         <v>26.8899993896484</v>
       </c>
       <c r="G476" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15513,7 +15513,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G477" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15539,7 +15539,7 @@
         <v>26.5599994659424</v>
       </c>
       <c r="G478" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15565,7 +15565,7 @@
         <v>26.3799991607666</v>
       </c>
       <c r="G479" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15591,7 +15591,7 @@
         <v>26.4400005340576</v>
       </c>
       <c r="G480" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15617,7 +15617,7 @@
         <v>26.1200008392334</v>
       </c>
       <c r="G481" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15643,7 +15643,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G482" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15669,7 +15669,7 @@
         <v>26.1100006103516</v>
       </c>
       <c r="G483" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15695,7 +15695,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G484" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15721,7 +15721,7 @@
         <v>26.25</v>
       </c>
       <c r="G485" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15747,7 +15747,7 @@
         <v>26.3400001525879</v>
       </c>
       <c r="G486" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15773,7 +15773,7 @@
         <v>26.2199993133545</v>
       </c>
       <c r="G487" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15799,7 +15799,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G488" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15825,7 +15825,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G489" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15851,7 +15851,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15877,7 +15877,7 @@
         <v>27.5699996948242</v>
       </c>
       <c r="G491" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15903,7 +15903,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G492" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15929,7 +15929,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15955,7 +15955,7 @@
         <v>27.6599998474121</v>
       </c>
       <c r="G494" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15981,7 +15981,7 @@
         <v>27.7099990844727</v>
       </c>
       <c r="G495" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16007,7 +16007,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G496" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16033,7 +16033,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G497" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16059,7 +16059,7 @@
         <v>27.8400001525879</v>
       </c>
       <c r="G498" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16085,7 +16085,7 @@
         <v>27.7700004577637</v>
       </c>
       <c r="G499" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16111,7 +16111,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G500" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16137,7 +16137,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G501" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16163,7 +16163,7 @@
         <v>27.7199993133545</v>
       </c>
       <c r="G502" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16189,7 +16189,7 @@
         <v>27.5</v>
       </c>
       <c r="G503" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16215,7 +16215,7 @@
         <v>27.3700008392334</v>
       </c>
       <c r="G504" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16241,7 +16241,7 @@
         <v>27.3600006103516</v>
       </c>
       <c r="G505" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16267,7 +16267,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G506" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16293,7 +16293,7 @@
         <v>27.5699996948242</v>
       </c>
       <c r="G507" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16319,7 +16319,7 @@
         <v>27.5799999237061</v>
       </c>
       <c r="G508" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16345,7 +16345,7 @@
         <v>27.6800003051758</v>
       </c>
       <c r="G509" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16371,7 +16371,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G510" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16397,7 +16397,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G511" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16423,7 +16423,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G512" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16449,7 +16449,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16475,7 +16475,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G514" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16501,7 +16501,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16527,7 +16527,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G516" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16553,7 +16553,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G517" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16579,7 +16579,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G518" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16605,7 +16605,7 @@
         <v>29.5</v>
       </c>
       <c r="G519" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16631,7 +16631,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G520" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16657,7 +16657,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G521" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16683,7 +16683,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G522" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16709,7 +16709,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16735,7 +16735,7 @@
         <v>31</v>
       </c>
       <c r="G524" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16761,7 +16761,7 @@
         <v>31.5</v>
       </c>
       <c r="G525" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16787,7 +16787,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G526" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16813,7 +16813,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G527" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16839,7 +16839,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G528" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16865,7 +16865,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G529" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16891,7 +16891,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G530" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16917,7 +16917,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G531" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16943,7 +16943,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16969,7 +16969,7 @@
         <v>30.5</v>
       </c>
       <c r="G533" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16995,7 +16995,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G534" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17021,7 +17021,7 @@
         <v>30</v>
       </c>
       <c r="G535" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17047,7 +17047,7 @@
         <v>30</v>
       </c>
       <c r="G536" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17073,7 +17073,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17099,7 +17099,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G538" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17125,7 +17125,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G539" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17151,7 +17151,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G540" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17177,7 +17177,7 @@
         <v>29</v>
       </c>
       <c r="G541" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17203,7 +17203,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G542" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17229,7 +17229,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G543" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17255,7 +17255,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17281,7 +17281,7 @@
         <v>30</v>
       </c>
       <c r="G545" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17307,7 +17307,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G546" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17333,7 +17333,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G547" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17359,7 +17359,7 @@
         <v>31.5</v>
       </c>
       <c r="G548" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17385,7 +17385,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G549" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17411,7 +17411,7 @@
         <v>33.7999992370605</v>
       </c>
       <c r="G550" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17437,7 +17437,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17463,7 +17463,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G552" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17489,7 +17489,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G553" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17515,7 +17515,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G554" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17541,7 +17541,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G555" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17567,7 +17567,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G556" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17593,7 +17593,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G557" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17619,7 +17619,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G558" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17645,7 +17645,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G559" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17671,7 +17671,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G560" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17697,7 +17697,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G561" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17723,7 +17723,7 @@
         <v>32.5</v>
       </c>
       <c r="G562" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17749,7 +17749,7 @@
         <v>32</v>
       </c>
       <c r="G563" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17775,7 +17775,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G564" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17801,7 +17801,7 @@
         <v>32.5</v>
       </c>
       <c r="G565" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17827,7 +17827,7 @@
         <v>33</v>
       </c>
       <c r="G566" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17853,7 +17853,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G567" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17879,7 +17879,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G568" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17905,7 +17905,7 @@
         <v>32.5</v>
       </c>
       <c r="G569" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17931,7 +17931,7 @@
         <v>32.5</v>
       </c>
       <c r="G570" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17957,7 +17957,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17983,7 +17983,7 @@
         <v>32.5</v>
       </c>
       <c r="G572" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18009,7 +18009,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G573" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18035,7 +18035,7 @@
         <v>32.5</v>
       </c>
       <c r="G574" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18061,7 +18061,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18087,7 +18087,7 @@
         <v>32.5</v>
       </c>
       <c r="G576" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18113,7 +18113,7 @@
         <v>32.5</v>
       </c>
       <c r="G577" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18139,7 +18139,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G578" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18165,7 +18165,7 @@
         <v>32.5</v>
       </c>
       <c r="G579" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18191,7 +18191,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G580" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18217,7 +18217,7 @@
         <v>32.5</v>
       </c>
       <c r="G581" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18243,7 +18243,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G582" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18269,7 +18269,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G583" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18295,7 +18295,7 @@
         <v>33</v>
       </c>
       <c r="G584" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18321,7 +18321,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G585" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18347,7 +18347,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G586" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18373,7 +18373,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G587" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18399,7 +18399,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G588" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18425,7 +18425,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G589" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18451,7 +18451,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G590" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18477,7 +18477,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G591" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18503,7 +18503,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G592" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18529,7 +18529,7 @@
         <v>33</v>
       </c>
       <c r="G593" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18555,7 +18555,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18581,7 +18581,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G595" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18607,7 +18607,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G596" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18633,7 +18633,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G597" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18659,7 +18659,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G598" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18685,7 +18685,7 @@
         <v>32.5</v>
       </c>
       <c r="G599" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18711,7 +18711,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18737,7 +18737,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18763,7 +18763,7 @@
         <v>32</v>
       </c>
       <c r="G602" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18789,7 +18789,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18815,7 +18815,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G604" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18841,7 +18841,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G605" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18867,7 +18867,7 @@
         <v>32</v>
       </c>
       <c r="G606" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18893,7 +18893,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G607" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18919,7 +18919,7 @@
         <v>30</v>
       </c>
       <c r="G608" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18945,7 +18945,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G609" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18971,7 +18971,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18997,7 +18997,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G611" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19023,7 +19023,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G612" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19049,7 +19049,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19075,7 +19075,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19101,7 +19101,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19127,7 +19127,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G616" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19153,7 +19153,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19179,7 +19179,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19205,7 +19205,7 @@
         <v>28</v>
       </c>
       <c r="G619" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19231,7 +19231,7 @@
         <v>28</v>
       </c>
       <c r="G620" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19257,7 +19257,7 @@
         <v>28</v>
       </c>
       <c r="G621" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19283,7 +19283,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G622" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19309,7 +19309,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19335,7 +19335,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19361,7 +19361,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19387,7 +19387,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19413,7 +19413,7 @@
         <v>29</v>
       </c>
       <c r="G627" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19439,7 +19439,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G628" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19465,7 +19465,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G629" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19491,7 +19491,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G630" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19517,7 +19517,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19543,7 +19543,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G632" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19569,7 +19569,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G633" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19595,7 +19595,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19621,7 +19621,7 @@
         <v>27.5</v>
       </c>
       <c r="G635" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19647,7 +19647,7 @@
         <v>27</v>
       </c>
       <c r="G636" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19673,7 +19673,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19699,7 +19699,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19725,7 +19725,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19751,7 +19751,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19777,7 +19777,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19803,7 +19803,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G642" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19829,7 +19829,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19855,7 +19855,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19881,7 +19881,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19907,7 +19907,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G646" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19933,7 +19933,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G647" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19959,7 +19959,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G648" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19985,7 +19985,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20011,7 +20011,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20037,7 +20037,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20063,7 +20063,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G652" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20089,7 +20089,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G653" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20115,7 +20115,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20141,7 +20141,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G655" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20167,7 +20167,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20193,7 +20193,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20219,7 +20219,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20245,7 +20245,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G659" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20271,7 +20271,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20297,7 +20297,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G661" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20323,7 +20323,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20349,7 +20349,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20375,7 +20375,7 @@
         <v>27.5</v>
       </c>
       <c r="G664" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20401,7 +20401,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20427,7 +20427,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20453,7 +20453,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G667" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20479,7 +20479,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G668" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20505,7 +20505,7 @@
         <v>27</v>
       </c>
       <c r="G669" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20531,7 +20531,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20557,7 +20557,7 @@
         <v>27</v>
       </c>
       <c r="G671" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20583,7 +20583,7 @@
         <v>26</v>
       </c>
       <c r="G672" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20609,7 +20609,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20635,7 +20635,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G674" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20661,7 +20661,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G675" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20687,7 +20687,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20713,7 +20713,7 @@
         <v>25</v>
       </c>
       <c r="G677" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20739,7 +20739,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20765,7 +20765,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G679" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20791,7 +20791,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20817,7 +20817,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20843,7 +20843,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20869,7 +20869,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G683" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20895,7 +20895,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G684" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20921,7 +20921,7 @@
         <v>24</v>
       </c>
       <c r="G685" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20947,7 +20947,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20973,7 +20973,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G687" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20999,7 +20999,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21025,7 +21025,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G689" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21051,7 +21051,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G690" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21077,7 +21077,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G691" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21103,7 +21103,7 @@
         <v>27</v>
       </c>
       <c r="G692" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21129,7 +21129,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G693" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21155,7 +21155,7 @@
         <v>26</v>
       </c>
       <c r="G694" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21181,7 +21181,7 @@
         <v>26</v>
       </c>
       <c r="G695" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21207,7 +21207,7 @@
         <v>26</v>
       </c>
       <c r="G696" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21233,7 +21233,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G697" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21259,7 +21259,7 @@
         <v>26</v>
       </c>
       <c r="G698" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21285,7 +21285,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21311,7 +21311,7 @@
         <v>26</v>
       </c>
       <c r="G700" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21337,7 +21337,7 @@
         <v>25.5</v>
       </c>
       <c r="G701" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21363,7 +21363,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21389,7 +21389,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21415,7 +21415,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G704" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21441,7 +21441,7 @@
         <v>26</v>
       </c>
       <c r="G705" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21467,7 +21467,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G706" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21493,7 +21493,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G707" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21519,7 +21519,7 @@
         <v>25.5</v>
       </c>
       <c r="G708" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21545,7 +21545,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21571,7 +21571,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21597,7 +21597,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21623,7 +21623,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21649,7 +21649,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G713" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21675,7 +21675,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21701,7 +21701,7 @@
         <v>24</v>
       </c>
       <c r="G715" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21727,7 +21727,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G716" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21753,7 +21753,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21779,7 +21779,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G718" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21805,7 +21805,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21831,7 +21831,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21857,7 +21857,7 @@
         <v>22.5</v>
       </c>
       <c r="G721" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21883,7 +21883,7 @@
         <v>23.5</v>
       </c>
       <c r="G722" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21909,7 +21909,7 @@
         <v>23.5</v>
       </c>
       <c r="G723" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21935,7 +21935,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21961,7 +21961,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21987,7 +21987,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22013,7 +22013,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22039,7 +22039,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22065,7 +22065,7 @@
         <v>25</v>
       </c>
       <c r="G729" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22091,7 +22091,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G730" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22117,7 +22117,7 @@
         <v>28</v>
       </c>
       <c r="G731" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22143,7 +22143,7 @@
         <v>28.5</v>
       </c>
       <c r="G732" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22169,7 +22169,7 @@
         <v>27.5</v>
       </c>
       <c r="G733" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22195,7 +22195,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G734" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22221,7 +22221,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22247,7 +22247,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G736" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22273,7 +22273,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G737" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22299,7 +22299,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22325,7 +22325,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22351,7 +22351,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22377,7 +22377,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G741" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22403,7 +22403,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22429,7 +22429,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22455,7 +22455,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22481,7 +22481,7 @@
         <v>27.5</v>
       </c>
       <c r="G745" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22507,7 +22507,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G746" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22533,7 +22533,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22559,7 +22559,7 @@
         <v>27.5</v>
       </c>
       <c r="G748" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22585,7 +22585,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G749" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22611,7 +22611,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G750" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22637,7 +22637,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22663,7 +22663,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22689,7 +22689,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G753" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22715,7 +22715,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G754" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22741,7 +22741,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G755" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22767,7 +22767,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G756" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22793,7 +22793,7 @@
         <v>26.5</v>
       </c>
       <c r="G757" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22819,7 +22819,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22845,7 +22845,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22871,7 +22871,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G760" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22897,7 +22897,7 @@
         <v>27</v>
       </c>
       <c r="G761" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22923,7 +22923,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22949,7 +22949,7 @@
         <v>27</v>
       </c>
       <c r="G763" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22975,7 +22975,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23001,7 +23001,7 @@
         <v>26.5</v>
       </c>
       <c r="G765" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23027,7 +23027,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23053,7 +23053,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G767" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23079,7 +23079,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G768" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23105,7 +23105,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G769" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23131,7 +23131,7 @@
         <v>28.5</v>
       </c>
       <c r="G770" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23157,7 +23157,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23183,7 +23183,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G772" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23209,7 +23209,7 @@
         <v>28</v>
       </c>
       <c r="G773" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23235,7 +23235,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23261,7 +23261,7 @@
         <v>28</v>
       </c>
       <c r="G775" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23287,7 +23287,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23313,7 +23313,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23339,7 +23339,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23365,7 +23365,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23391,7 +23391,7 @@
         <v>28.5</v>
       </c>
       <c r="G780" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23417,7 +23417,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23443,7 +23443,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G782" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23469,7 +23469,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23495,7 +23495,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23521,7 +23521,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G785" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23547,7 +23547,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23573,7 +23573,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G787" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23599,7 +23599,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23625,7 +23625,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G789" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23651,7 +23651,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23677,7 +23677,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23703,7 +23703,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23729,7 +23729,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G793" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23755,7 +23755,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G794" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23781,7 +23781,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G795" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23807,7 +23807,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23833,7 +23833,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G797" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23859,7 +23859,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23885,7 +23885,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G799" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23911,7 +23911,7 @@
         <v>30</v>
       </c>
       <c r="G800" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23937,7 +23937,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G801" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23963,7 +23963,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G802" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23989,7 +23989,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G803" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24015,7 +24015,7 @@
         <v>31</v>
       </c>
       <c r="G804" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24041,7 +24041,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24067,7 +24067,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G806" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24093,7 +24093,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24119,7 +24119,7 @@
         <v>31</v>
       </c>
       <c r="G808" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24145,7 +24145,7 @@
         <v>31</v>
       </c>
       <c r="G809" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24171,7 +24171,7 @@
         <v>31</v>
       </c>
       <c r="G810" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24197,7 +24197,7 @@
         <v>31</v>
       </c>
       <c r="G811" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24223,7 +24223,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24249,7 +24249,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24275,7 +24275,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24301,7 +24301,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G815" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24327,7 +24327,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24353,7 +24353,7 @@
         <v>31</v>
       </c>
       <c r="G817" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24379,7 +24379,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24405,7 +24405,7 @@
         <v>31</v>
       </c>
       <c r="G819" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24431,7 +24431,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G820" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24457,7 +24457,7 @@
         <v>30.5</v>
       </c>
       <c r="G821" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24483,7 +24483,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24509,7 +24509,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24535,7 +24535,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24561,7 +24561,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24587,7 +24587,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24613,7 +24613,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24639,7 +24639,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24665,7 +24665,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G829" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24691,7 +24691,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24717,7 +24717,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24743,7 +24743,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24769,7 +24769,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G833" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24795,7 +24795,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G834" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24821,7 +24821,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24847,7 +24847,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G836" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24873,7 +24873,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G837" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24899,7 +24899,7 @@
         <v>31</v>
       </c>
       <c r="G838" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24925,7 +24925,7 @@
         <v>31</v>
       </c>
       <c r="G839" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24951,7 +24951,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24977,7 +24977,7 @@
         <v>30</v>
       </c>
       <c r="G841" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25003,7 +25003,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25029,7 +25029,7 @@
         <v>30.5</v>
       </c>
       <c r="G843" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25055,7 +25055,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G844" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25081,7 +25081,7 @@
         <v>30.5</v>
       </c>
       <c r="G845" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25107,7 +25107,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G846" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25133,7 +25133,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G847" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25159,7 +25159,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25185,7 +25185,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G849" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25211,7 +25211,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25237,7 +25237,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G851" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25263,7 +25263,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25289,7 +25289,7 @@
         <v>28</v>
       </c>
       <c r="G853" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25315,7 +25315,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25341,7 +25341,7 @@
         <v>28</v>
       </c>
       <c r="G855" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25367,7 +25367,7 @@
         <v>27.5</v>
       </c>
       <c r="G856" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25393,7 +25393,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G857" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25419,7 +25419,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G858" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25445,7 +25445,7 @@
         <v>27.5</v>
       </c>
       <c r="G859" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25471,7 +25471,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G860" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25497,7 +25497,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G861" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25523,7 +25523,7 @@
         <v>28</v>
       </c>
       <c r="G862" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25549,7 +25549,7 @@
         <v>29</v>
       </c>
       <c r="G863" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25575,7 +25575,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25601,7 +25601,7 @@
         <v>29</v>
       </c>
       <c r="G865" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25627,7 +25627,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G866" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25653,7 +25653,7 @@
         <v>29</v>
       </c>
       <c r="G867" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25679,7 +25679,7 @@
         <v>29</v>
       </c>
       <c r="G868" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25705,7 +25705,7 @@
         <v>29</v>
       </c>
       <c r="G869" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25731,7 +25731,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25757,7 +25757,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G871" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25783,7 +25783,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G872" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25809,7 +25809,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25835,7 +25835,7 @@
         <v>30.5</v>
       </c>
       <c r="G874" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25861,7 +25861,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G875" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25887,7 +25887,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G876" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25913,7 +25913,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25939,7 +25939,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G878" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25965,7 +25965,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G879" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25991,7 +25991,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26017,7 +26017,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26043,7 +26043,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26069,7 +26069,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26095,7 +26095,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G884" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26121,7 +26121,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G885" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26147,7 +26147,7 @@
         <v>31.5</v>
       </c>
       <c r="G886" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26173,7 +26173,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26199,7 +26199,7 @@
         <v>32</v>
       </c>
       <c r="G888" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26225,7 +26225,7 @@
         <v>31.5</v>
       </c>
       <c r="G889" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26251,7 +26251,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G890" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26277,7 +26277,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G891" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26303,7 +26303,7 @@
         <v>32</v>
       </c>
       <c r="G892" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26329,7 +26329,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26355,7 +26355,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G894" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26381,7 +26381,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26407,7 +26407,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G896" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26433,7 +26433,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G897" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26459,7 +26459,7 @@
         <v>31</v>
       </c>
       <c r="G898" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26485,7 +26485,7 @@
         <v>31</v>
       </c>
       <c r="G899" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26511,7 +26511,7 @@
         <v>31</v>
       </c>
       <c r="G900" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26537,7 +26537,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G901" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26563,7 +26563,7 @@
         <v>31</v>
       </c>
       <c r="G902" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26589,7 +26589,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G903" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26615,7 +26615,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26641,7 +26641,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26667,7 +26667,7 @@
         <v>31</v>
       </c>
       <c r="G906" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26693,7 +26693,7 @@
         <v>31</v>
       </c>
       <c r="G907" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26719,7 +26719,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26745,7 +26745,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26771,7 +26771,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26797,7 +26797,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26823,7 +26823,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G912" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26849,7 +26849,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26875,7 +26875,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26901,7 +26901,7 @@
         <v>30</v>
       </c>
       <c r="G915" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26927,7 +26927,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G916" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26979,7 +26979,7 @@
         <v>29</v>
       </c>
       <c r="G918" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27031,7 +27031,7 @@
         <v>29</v>
       </c>
       <c r="G920" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27109,7 +27109,7 @@
         <v>29</v>
       </c>
       <c r="G923" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27135,7 +27135,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G924" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27161,7 +27161,7 @@
         <v>29</v>
       </c>
       <c r="G925" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27187,7 +27187,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G926" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27213,7 +27213,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G927" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27239,7 +27239,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G928" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27291,7 +27291,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27317,7 +27317,7 @@
         <v>30.5</v>
       </c>
       <c r="G931" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27343,7 +27343,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27447,7 +27447,7 @@
         <v>30</v>
       </c>
       <c r="G936" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27525,7 +27525,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27551,7 +27551,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27577,7 +27577,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G941" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27603,7 +27603,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G942" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27629,7 +27629,7 @@
         <v>30</v>
       </c>
       <c r="G943" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27655,7 +27655,7 @@
         <v>30</v>
       </c>
       <c r="G944" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27707,7 +27707,7 @@
         <v>30</v>
       </c>
       <c r="G946" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27733,7 +27733,7 @@
         <v>30.5</v>
       </c>
       <c r="G947" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27759,7 +27759,7 @@
         <v>30.5</v>
       </c>
       <c r="G948" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27785,7 +27785,7 @@
         <v>30</v>
       </c>
       <c r="G949" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27837,7 +27837,7 @@
         <v>30</v>
       </c>
       <c r="G951" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27889,7 +27889,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G953" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27941,7 +27941,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G955" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27967,7 +27967,7 @@
         <v>30</v>
       </c>
       <c r="G956" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27993,7 +27993,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28019,7 +28019,7 @@
         <v>30</v>
       </c>
       <c r="G958" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28045,7 +28045,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28071,7 +28071,7 @@
         <v>30</v>
       </c>
       <c r="G960" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28097,7 +28097,7 @@
         <v>30</v>
       </c>
       <c r="G961" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28123,7 +28123,7 @@
         <v>30</v>
       </c>
       <c r="G962" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28149,7 +28149,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28175,7 +28175,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G964" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28201,7 +28201,7 @@
         <v>30</v>
       </c>
       <c r="G965" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28227,7 +28227,7 @@
         <v>30</v>
       </c>
       <c r="G966" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28279,7 +28279,7 @@
         <v>30</v>
       </c>
       <c r="G968" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28305,7 +28305,7 @@
         <v>30</v>
       </c>
       <c r="G969" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28383,7 +28383,7 @@
         <v>30</v>
       </c>
       <c r="G972" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28435,7 +28435,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28461,7 +28461,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28513,7 +28513,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G977" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28539,7 +28539,7 @@
         <v>31</v>
       </c>
       <c r="G978" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28565,7 +28565,7 @@
         <v>31</v>
       </c>
       <c r="G979" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28591,7 +28591,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28617,7 +28617,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G981" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28643,7 +28643,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28669,7 +28669,7 @@
         <v>31</v>
       </c>
       <c r="G983" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28695,7 +28695,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G984" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28721,7 +28721,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G985" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28747,7 +28747,7 @@
         <v>31</v>
       </c>
       <c r="G986" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28773,7 +28773,7 @@
         <v>31.5</v>
       </c>
       <c r="G987" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28799,7 +28799,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28825,7 +28825,7 @@
         <v>31.5</v>
       </c>
       <c r="G989" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28851,7 +28851,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G990" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28877,7 +28877,7 @@
         <v>31.5</v>
       </c>
       <c r="G991" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28903,7 +28903,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28929,7 +28929,7 @@
         <v>31.5</v>
       </c>
       <c r="G993" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28955,7 +28955,7 @@
         <v>31.5</v>
       </c>
       <c r="G994" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28981,7 +28981,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G995" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29007,7 +29007,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G996" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29033,7 +29033,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29059,7 +29059,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G998" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29085,7 +29085,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29111,7 +29111,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29137,7 +29137,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1001" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29163,7 +29163,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29189,7 +29189,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29215,7 +29215,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1004" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29241,7 +29241,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1005" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29267,7 +29267,7 @@
         <v>31</v>
       </c>
       <c r="G1006" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29293,7 +29293,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1007" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29319,7 +29319,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29345,7 +29345,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29371,7 +29371,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29397,7 +29397,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29423,7 +29423,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29449,7 +29449,7 @@
         <v>30.5</v>
       </c>
       <c r="G1013" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29475,7 +29475,7 @@
         <v>30.5</v>
       </c>
       <c r="G1014" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29527,7 +29527,7 @@
         <v>30.5</v>
       </c>
       <c r="G1016" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29579,7 +29579,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1018" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29605,7 +29605,7 @@
         <v>30</v>
       </c>
       <c r="G1019" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29631,7 +29631,7 @@
         <v>30.5</v>
       </c>
       <c r="G1020" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29657,7 +29657,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1021" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29683,7 +29683,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1022" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29709,7 +29709,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1023" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29735,7 +29735,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1024" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29761,7 +29761,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29787,7 +29787,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1026" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29813,7 +29813,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1027" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29839,7 +29839,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29865,7 +29865,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29891,7 +29891,7 @@
         <v>30</v>
       </c>
       <c r="G1030" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29917,7 +29917,7 @@
         <v>30</v>
       </c>
       <c r="G1031" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29943,7 +29943,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1032" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30125,7 +30125,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30151,7 +30151,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30177,7 +30177,7 @@
         <v>28</v>
       </c>
       <c r="G1041" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30307,7 +30307,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1046" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30359,7 +30359,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1048" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30385,7 +30385,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30437,7 +30437,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1051" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30463,7 +30463,7 @@
         <v>28</v>
       </c>
       <c r="G1052" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30541,7 +30541,7 @@
         <v>27.5</v>
       </c>
       <c r="G1055" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -36807,7 +36807,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1296" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36833,7 +36833,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1297" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36885,7 +36885,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1299" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36937,7 +36937,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36963,7 +36963,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1302" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36989,7 +36989,7 @@
         <v>29</v>
       </c>
       <c r="G1303" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37015,7 +37015,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1304" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37041,7 +37041,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1305" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37145,7 +37145,7 @@
         <v>28</v>
       </c>
       <c r="G1309" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37171,7 +37171,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37197,7 +37197,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37275,7 +37275,7 @@
         <v>28</v>
       </c>
       <c r="G1314" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37301,7 +37301,7 @@
         <v>28</v>
       </c>
       <c r="G1315" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37327,7 +37327,7 @@
         <v>28</v>
       </c>
       <c r="G1316" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37691,7 +37691,7 @@
         <v>27.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37873,7 +37873,7 @@
         <v>27.5</v>
       </c>
       <c r="G1337" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -59669,7 +59669,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6249884259</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>1703</v>
@@ -59690,6 +59690,32 @@
         <v>902</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6494444444</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>7301</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>2.70000004768372</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>2.66000008583069</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>2.67000007629395</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>2.69000005722046</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>920</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3004857301712</t>
+    <t xml:space="preserve">1.30048561096191</t>
   </si>
   <si>
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973924160004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29750096797943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27586340904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26840233802795</t>
+    <t xml:space="preserve">1.29973948001862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29750108718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27586364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26840257644653</t>
   </si>
   <si>
     <t xml:space="preserve">1.27511751651764</t>
@@ -62,40 +62,40 @@
     <t xml:space="preserve">1.26765632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29004001617432</t>
+    <t xml:space="preserve">1.29003989696503</t>
   </si>
   <si>
     <t xml:space="preserve">1.26616394519806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25944888591766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25347995758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25273382663727</t>
+    <t xml:space="preserve">1.25944876670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25347983837128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25273394584656</t>
   </si>
   <si>
     <t xml:space="preserve">1.2176661491394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24676489830017</t>
+    <t xml:space="preserve">1.24676501750946</t>
   </si>
   <si>
     <t xml:space="preserve">1.31167721748352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30496203899384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30123150348663</t>
+    <t xml:space="preserve">1.30496215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30123162269592</t>
   </si>
   <si>
     <t xml:space="preserve">1.30570840835571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31988453865051</t>
+    <t xml:space="preserve">1.3198846578598</t>
   </si>
   <si>
     <t xml:space="preserve">1.28929376602173</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">1.24601888656616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28034031391144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25721073150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31316947937012</t>
+    <t xml:space="preserve">1.28034007549286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25721049308777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3131697177887</t>
   </si>
   <si>
     <t xml:space="preserve">1.3206307888031</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">1.32436120510101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26989459991455</t>
+    <t xml:space="preserve">1.26989471912384</t>
   </si>
   <si>
     <t xml:space="preserve">1.28183245658875</t>
@@ -143,19 +143,19 @@
     <t xml:space="preserve">1.32212293148041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32809197902679</t>
+    <t xml:space="preserve">1.3280918598175</t>
   </si>
   <si>
     <t xml:space="preserve">1.32734596729279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33480703830719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32286906242371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3101851940155</t>
+    <t xml:space="preserve">1.3348069190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32286894321442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31018483638763</t>
   </si>
   <si>
     <t xml:space="preserve">1.31764614582062</t>
@@ -164,19 +164,19 @@
     <t xml:space="preserve">1.30272376537323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30347001552582</t>
+    <t xml:space="preserve">1.30346989631653</t>
   </si>
   <si>
     <t xml:space="preserve">1.29675483703613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29078578948975</t>
+    <t xml:space="preserve">1.29078602790833</t>
   </si>
   <si>
     <t xml:space="preserve">1.28854751586914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28780162334442</t>
+    <t xml:space="preserve">1.28780150413513</t>
   </si>
   <si>
     <t xml:space="preserve">1.30684340000153</t>
@@ -185,55 +185,55 @@
     <t xml:space="preserve">1.3167724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32364654541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33433949947357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33204853534698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32975697517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3305207490921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31830024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670187950134</t>
+    <t xml:space="preserve">1.32364630699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33433938026428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33204829692841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32975673675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33052086830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3183000087738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670199871063</t>
   </si>
   <si>
     <t xml:space="preserve">1.32211899757385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34044981002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33663094043732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33510327339172</t>
+    <t xml:space="preserve">1.34044992923737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33663105964661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33510363101959</t>
   </si>
   <si>
     <t xml:space="preserve">1.32899308204651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32822918891907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32135498523712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33815860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34426891803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34350502490997</t>
+    <t xml:space="preserve">1.32822930812836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3213552236557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33815836906433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34426879882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34350514411926</t>
   </si>
   <si>
     <t xml:space="preserve">1.33892238140106</t>
@@ -242,31 +242,31 @@
     <t xml:space="preserve">1.31906378269196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2953861951828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29767763614655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28316569328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28851246833801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011059761047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25948822498322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26025199890137</t>
+    <t xml:space="preserve">1.29538631439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29767787456512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28316557407379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851234912872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011071681976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2594883441925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26025223731995</t>
   </si>
   <si>
     <t xml:space="preserve">1.23733830451965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22970044612885</t>
+    <t xml:space="preserve">1.22970056533813</t>
   </si>
   <si>
     <t xml:space="preserve">1.2396297454834</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">1.22053503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22206258773804</t>
+    <t xml:space="preserve">1.22206270694733</t>
   </si>
   <si>
     <t xml:space="preserve">1.22129881381989</t>
@@ -284,82 +284,82 @@
     <t xml:space="preserve">1.2411572933197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27552783489227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27476418018341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2938586473465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29309487342834</t>
+    <t xml:space="preserve">1.27552795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2747642993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29385876655579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29309499263763</t>
   </si>
   <si>
     <t xml:space="preserve">1.29233121871948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28927600383759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25872457027435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28469336032867</t>
+    <t xml:space="preserve">1.2892758846283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25872433185577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28469347953796</t>
   </si>
   <si>
     <t xml:space="preserve">1.24955916404724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27018129825592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27629148960114</t>
+    <t xml:space="preserve">1.27018141746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27629160881042</t>
   </si>
   <si>
     <t xml:space="preserve">1.28698468208313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28622090816498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28240203857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34121382236481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31371736526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36412751674652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572564601898</t>
+    <t xml:space="preserve">1.28622078895569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28240215778351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34121370315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3137172460556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36412727832794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572576522827</t>
   </si>
   <si>
     <t xml:space="preserve">1.38093078136444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3740565776825</t>
+    <t xml:space="preserve">1.37405681610107</t>
   </si>
   <si>
     <t xml:space="preserve">1.38551342487335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36030828952789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37329268455505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558436393738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35419797897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954439640045</t>
+    <t xml:space="preserve">1.36030852794647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37329280376434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558448314667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35419809818268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954463481903</t>
   </si>
   <si>
     <t xml:space="preserve">1.35648953914642</t>
@@ -374,13 +374,13 @@
     <t xml:space="preserve">1.35725331306458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35496187210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34961545467377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885168075562</t>
+    <t xml:space="preserve">1.35496199131012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34961557388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34885156154633</t>
   </si>
   <si>
     <t xml:space="preserve">1.35801720619202</t>
@@ -395,16 +395,16 @@
     <t xml:space="preserve">1.322882771492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30226039886475</t>
+    <t xml:space="preserve">1.30226051807404</t>
   </si>
   <si>
     <t xml:space="preserve">1.30989825725555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32059133052826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33586716651917</t>
+    <t xml:space="preserve">1.32059156894684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33586704730988</t>
   </si>
   <si>
     <t xml:space="preserve">1.31295347213745</t>
@@ -413,52 +413,52 @@
     <t xml:space="preserve">1.30455195903778</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29462242126465</t>
+    <t xml:space="preserve">1.29462277889252</t>
   </si>
   <si>
     <t xml:space="preserve">1.30073297023773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2984414100647</t>
+    <t xml:space="preserve">1.29844152927399</t>
   </si>
   <si>
     <t xml:space="preserve">1.29003977775574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29080367088318</t>
+    <t xml:space="preserve">1.29080355167389</t>
   </si>
   <si>
     <t xml:space="preserve">1.29615008831024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28545713424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26254343986511</t>
+    <t xml:space="preserve">1.28545701503754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2625435590744</t>
   </si>
   <si>
     <t xml:space="preserve">1.26407098770142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27170896530151</t>
+    <t xml:space="preserve">1.27170872688293</t>
   </si>
   <si>
     <t xml:space="preserve">1.26788997650146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24192118644714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2335193157196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26712620258331</t>
+    <t xml:space="preserve">1.24192106723785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23351943492889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26712608337402</t>
   </si>
   <si>
     <t xml:space="preserve">1.24497628211975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2487952709198</t>
+    <t xml:space="preserve">1.24879515171051</t>
   </si>
   <si>
     <t xml:space="preserve">1.27323651313782</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">1.35343420505524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36718261241913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322234153748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39926159381866</t>
+    <t xml:space="preserve">1.36718249320984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3832221031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39926171302795</t>
   </si>
   <si>
     <t xml:space="preserve">1.39162373542786</t>
@@ -497,34 +497,34 @@
     <t xml:space="preserve">1.3923876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39009630680084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39697027206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39773392677307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40537190437317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40078926086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3984979391098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38474977016449</t>
+    <t xml:space="preserve">1.39009618759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3969703912735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39773416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40537202358246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40078938007355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39849781990051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38474953174591</t>
   </si>
   <si>
     <t xml:space="preserve">1.37863922119141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40460801124573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42064785957336</t>
+    <t xml:space="preserve">1.40460813045502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42064797878265</t>
   </si>
   <si>
     <t xml:space="preserve">1.41988396644592</t>
@@ -536,43 +536,43 @@
     <t xml:space="preserve">1.40842723846436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39620637893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40231704711914</t>
+    <t xml:space="preserve">1.39620661735535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40231692790985</t>
   </si>
   <si>
     <t xml:space="preserve">1.40384447574615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38704097270966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42293894290924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42752182483673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43668723106384</t>
+    <t xml:space="preserve">1.38704085350037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42293906211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42752194404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43668735027313</t>
   </si>
   <si>
     <t xml:space="preserve">1.44279766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45883727073669</t>
+    <t xml:space="preserve">1.45883738994598</t>
   </si>
   <si>
     <t xml:space="preserve">1.47411286830902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4680027961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46953046321869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47029399871826</t>
+    <t xml:space="preserve">1.46800267696381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46953022480011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47029411792755</t>
   </si>
   <si>
     <t xml:space="preserve">1.46418368816376</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">1.45349061489105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42904961109161</t>
+    <t xml:space="preserve">1.42904937267303</t>
   </si>
   <si>
     <t xml:space="preserve">1.43897867202759</t>
@@ -593,16 +593,16 @@
     <t xml:space="preserve">1.46265602111816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55812978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54056262969971</t>
+    <t xml:space="preserve">1.55812990665436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54056251049042</t>
   </si>
   <si>
     <t xml:space="preserve">1.5466730594635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55660200119019</t>
+    <t xml:space="preserve">1.55660223960876</t>
   </si>
   <si>
     <t xml:space="preserve">1.56882297992706</t>
@@ -611,22 +611,22 @@
     <t xml:space="preserve">1.53139710426331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52223169803619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361796379089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5604213476181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5558385848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55278325080872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59402787685394</t>
+    <t xml:space="preserve">1.52223181724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5436178445816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56042122840881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55583846569061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55278337001801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59402799606323</t>
   </si>
   <si>
     <t xml:space="preserve">1.57569682598114</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">1.59631931781769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59861052036285</t>
+    <t xml:space="preserve">1.59861075878143</t>
   </si>
   <si>
     <t xml:space="preserve">1.59479165077209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58104348182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56500399112701</t>
+    <t xml:space="preserve">1.58104360103607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56500375270844</t>
   </si>
   <si>
     <t xml:space="preserve">1.56347632408142</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">1.53521609306335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54896438121796</t>
+    <t xml:space="preserve">1.54896450042725</t>
   </si>
   <si>
     <t xml:space="preserve">1.52757835388184</t>
@@ -671,10 +671,10 @@
     <t xml:space="preserve">1.5497282743454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58715403079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60472118854523</t>
+    <t xml:space="preserve">1.58715391159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60472106933594</t>
   </si>
   <si>
     <t xml:space="preserve">1.65131223201752</t>
@@ -683,31 +683,31 @@
     <t xml:space="preserve">1.70237553119659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70551764965057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72044408321381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70708906650543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73929858207703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73537027835846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73379909992218</t>
+    <t xml:space="preserve">1.70551776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7204442024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70708930492401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73929810523987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73537015914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73379921913147</t>
   </si>
   <si>
     <t xml:space="preserve">1.84613859653473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88698947429657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92469787597656</t>
+    <t xml:space="preserve">1.88698935508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92469775676727</t>
   </si>
   <si>
     <t xml:space="preserve">2.00011444091797</t>
@@ -716,40 +716,40 @@
     <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10145568847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03860831260681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0684609413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01425528526306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9136997461319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98597407341003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98754513263702</t>
+    <t xml:space="preserve">2.10145592689514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03860855102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06846117973328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01425504684448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91369962692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98597395420074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98754477500916</t>
   </si>
   <si>
     <t xml:space="preserve">1.99540090560913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01975417137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00639939308167</t>
+    <t xml:space="preserve">2.01975440979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00639915466309</t>
   </si>
   <si>
     <t xml:space="preserve">1.99932897090912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96319162845612</t>
+    <t xml:space="preserve">1.96319186687469</t>
   </si>
   <si>
     <t xml:space="preserve">2.01268410682678</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">2.00561380386353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00954151153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02525353431702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01032733917236</t>
+    <t xml:space="preserve">2.00954174995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02525329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01032710075378</t>
   </si>
   <si>
     <t xml:space="preserve">1.98675966262817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00325679779053</t>
+    <t xml:space="preserve">2.00325703620911</t>
   </si>
   <si>
     <t xml:space="preserve">2.00247120857239</t>
@@ -779,34 +779,34 @@
     <t xml:space="preserve">2.0166118144989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02839612960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99382960796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97261869907379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99068737030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97968900203705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97733223438263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95926380157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94119513034821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84770977497101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87599110603333</t>
+    <t xml:space="preserve">2.028395652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99382984638214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97261881828308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99068748950958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97968924045563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97733247280121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.959263920784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9411952495575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8477098941803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87599122524261</t>
   </si>
   <si>
     <t xml:space="preserve">1.84535312652588</t>
@@ -815,94 +815,94 @@
     <t xml:space="preserve">1.87284874916077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88620400428772</t>
+    <t xml:space="preserve">1.88620388507843</t>
   </si>
   <si>
     <t xml:space="preserve">1.91055715084076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92941117286682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90505802631378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8893461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90584349632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605615615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91919875144958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93333947658539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90112996101379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862558364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9270544052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91762757301331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9804744720459</t>
+    <t xml:space="preserve">1.9294114112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90505790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88934600353241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90584361553192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605627536774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91919851303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93333911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90113031864166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862570285797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705452442169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91762745380402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98047482967377</t>
   </si>
   <si>
     <t xml:space="preserve">1.99618661403656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05981922149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05746293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0150408744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0205397605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00482845306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97026181221008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96947634220123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97811806201935</t>
+    <t xml:space="preserve">2.05981945991516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05746269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01504063606262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02053952217102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00482821464539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97026228904724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96947658061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97811794281006</t>
   </si>
   <si>
     <t xml:space="preserve">1.97576117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95062208175659</t>
+    <t xml:space="preserve">1.95062232017517</t>
   </si>
   <si>
     <t xml:space="preserve">1.93962407112122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9372673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93805277347565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93255376815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826519489288</t>
+    <t xml:space="preserve">1.93726718425751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93805265426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93255364894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826543331146</t>
   </si>
   <si>
     <t xml:space="preserve">1.96711993217468</t>
@@ -911,25 +911,25 @@
     <t xml:space="preserve">1.95376467704773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95219326019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94276642799377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96397757530212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94905090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95533561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94669449329376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92548334598541</t>
+    <t xml:space="preserve">1.95219349861145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94276630878448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96397733688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94905114173889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95533585548401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94669437408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92548358440399</t>
   </si>
   <si>
     <t xml:space="preserve">1.92234086990356</t>
@@ -941,46 +941,46 @@
     <t xml:space="preserve">1.92312657833099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89720213413239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9034868478775</t>
+    <t xml:space="preserve">1.89720225334167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90348696708679</t>
   </si>
   <si>
     <t xml:space="preserve">1.90820050239563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89484524726868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89955902099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89013159275055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89563095569611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89327430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9152706861496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91212832927704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90191543102264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93098223209381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98126006126404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02132558822632</t>
+    <t xml:space="preserve">1.89484536647797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8995589017868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89013195037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89563083648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89327394962311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91527056694031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91212821006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90191555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9309823513031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98126018047333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02132534980774</t>
   </si>
   <si>
     <t xml:space="preserve">2.00090003013611</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">2.06610417366028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05039215087891</t>
+    <t xml:space="preserve">2.05039238929749</t>
   </si>
   <si>
     <t xml:space="preserve">2.03153800964355</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">2.05353474617004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04803562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19494080543518</t>
+    <t xml:space="preserve">2.04803538322449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19494104385376</t>
   </si>
   <si>
     <t xml:space="preserve">2.13287925720215</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">2.11245393753052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0739598274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08652949333191</t>
+    <t xml:space="preserve">2.07396006584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08652925491333</t>
   </si>
   <si>
     <t xml:space="preserve">2.07238864898682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07710266113281</t>
+    <t xml:space="preserve">2.07710242271423</t>
   </si>
   <si>
     <t xml:space="preserve">2.05196332931519</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">2.08574390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05117774009705</t>
+    <t xml:space="preserve">2.05117797851562</t>
   </si>
   <si>
     <t xml:space="preserve">2.06217622756958</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">2.06924653053284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11323952674866</t>
+    <t xml:space="preserve">2.11323976516724</t>
   </si>
   <si>
     <t xml:space="preserve">2.15251922607422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16587400436401</t>
+    <t xml:space="preserve">2.16587424278259</t>
   </si>
   <si>
     <t xml:space="preserve">2.17215895652771</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">2.17294454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16823124885559</t>
+    <t xml:space="preserve">2.17687249183655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16823101043701</t>
   </si>
   <si>
     <t xml:space="preserve">2.18708515167236</t>
@@ -1067,43 +1067,43 @@
     <t xml:space="preserve">2.18158602714539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20358228683472</t>
+    <t xml:space="preserve">2.2035825252533</t>
   </si>
   <si>
     <t xml:space="preserve">2.1917986869812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17765808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16037487983704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15016269683838</t>
+    <t xml:space="preserve">2.17765784263611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16037511825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1501624584198</t>
   </si>
   <si>
     <t xml:space="preserve">2.14937663078308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14859127998352</t>
+    <t xml:space="preserve">2.1485915184021</t>
   </si>
   <si>
     <t xml:space="preserve">2.16665959358215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17451548576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1957266330719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17608690261841</t>
+    <t xml:space="preserve">2.17451596260071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19572687149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17608714103699</t>
   </si>
   <si>
     <t xml:space="preserve">2.22479343414307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28606939315796</t>
+    <t xml:space="preserve">2.28606963157654</t>
   </si>
   <si>
     <t xml:space="preserve">2.30963730812073</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">2.27035784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26250171661377</t>
+    <t xml:space="preserve">2.26250195503235</t>
   </si>
   <si>
     <t xml:space="preserve">2.30178141593933</t>
@@ -1121,28 +1121,28 @@
     <t xml:space="preserve">2.31749320030212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41176414489746</t>
+    <t xml:space="preserve">2.41176462173462</t>
   </si>
   <si>
     <t xml:space="preserve">2.46675562858582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41962027549744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43533205986023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47461152076721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42747592926025</t>
+    <t xml:space="preserve">2.41962003707886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43533182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47461128234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42747569084167</t>
   </si>
   <si>
     <t xml:space="preserve">2.38819622993469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3646285533905</t>
+    <t xml:space="preserve">2.36462879180908</t>
   </si>
   <si>
     <t xml:space="preserve">2.3803403377533</t>
@@ -1151,28 +1151,28 @@
     <t xml:space="preserve">2.40390825271606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39605259895325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35677289962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29392600059509</t>
+    <t xml:space="preserve">2.39605236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35677266120911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29392528533936</t>
   </si>
   <si>
     <t xml:space="preserve">2.27821373939514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54531478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49032306671143</t>
+    <t xml:space="preserve">2.54531455039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49032330513</t>
   </si>
   <si>
     <t xml:space="preserve">2.66315340995789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65529727935791</t>
+    <t xml:space="preserve">2.65529704093933</t>
   </si>
   <si>
     <t xml:space="preserve">2.73385643959045</t>
@@ -1181,25 +1181,25 @@
     <t xml:space="preserve">2.56888246536255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60030603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57673835754395</t>
+    <t xml:space="preserve">2.60030579566956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57673811912537</t>
   </si>
   <si>
     <t xml:space="preserve">2.5060350894928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53745889663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58459424972534</t>
+    <t xml:space="preserve">2.53745865821838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58459448814392</t>
   </si>
   <si>
     <t xml:space="preserve">2.55317044258118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51389074325562</t>
+    <t xml:space="preserve">2.51389122009277</t>
   </si>
   <si>
     <t xml:space="preserve">2.59245014190674</t>
@@ -1211,25 +1211,25 @@
     <t xml:space="preserve">2.52174687385559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61601781845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63958549499512</t>
+    <t xml:space="preserve">2.61601758003235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63958525657654</t>
   </si>
   <si>
     <t xml:space="preserve">2.68816685676575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70436072349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69626379013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197299003601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61529493331909</t>
+    <t xml:space="preserve">2.70436096191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69626355171204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197322845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61529469490051</t>
   </si>
   <si>
     <t xml:space="preserve">2.62339186668396</t>
@@ -1238,40 +1238,40 @@
     <t xml:space="preserve">2.63148856163025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65577936172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59100413322449</t>
+    <t xml:space="preserve">2.65577912330627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59100437164307</t>
   </si>
   <si>
     <t xml:space="preserve">2.60719799995422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53432607650757</t>
+    <t xml:space="preserve">2.53432583808899</t>
   </si>
   <si>
     <t xml:space="preserve">2.42906641960144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40477609634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38048529624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4128725528717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32380676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29951596260071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.291419506073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3157103061676</t>
+    <t xml:space="preserve">2.40477585792542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38048505783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41287279129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32380700111389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29951643943787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29141926765442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31571006774902</t>
   </si>
   <si>
     <t xml:space="preserve">2.33190393447876</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">2.26712870597839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2104504108429</t>
+    <t xml:space="preserve">2.21045064926147</t>
   </si>
   <si>
     <t xml:space="preserve">2.28332233428955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3480978012085</t>
+    <t xml:space="preserve">2.34809756278992</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854734420776</t>
@@ -1298,22 +1298,22 @@
     <t xml:space="preserve">2.19425678253174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22664427757263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18616008758545</t>
+    <t xml:space="preserve">2.22664403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18615961074829</t>
   </si>
   <si>
     <t xml:space="preserve">2.178062915802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16996574401855</t>
+    <t xml:space="preserve">2.16996598243713</t>
   </si>
   <si>
     <t xml:space="preserve">2.16186928749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12948155403137</t>
+    <t xml:space="preserve">2.12948179244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.2347412109375</t>
@@ -1322,10 +1322,10 @@
     <t xml:space="preserve">2.25903177261353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24283790588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27522563934326</t>
+    <t xml:space="preserve">2.24283814430237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27522587776184</t>
   </si>
   <si>
     <t xml:space="preserve">2.39667892456055</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">2.10519099235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11328792572021</t>
+    <t xml:space="preserve">2.11328768730164</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">2.05660963058472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04851269721985</t>
+    <t xml:space="preserve">2.04851245880127</t>
   </si>
   <si>
     <t xml:space="preserve">2.02422213554382</t>
@@ -1358,16 +1358,16 @@
     <t xml:space="preserve">1.95944714546204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93515610694885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95134997367859</t>
+    <t xml:space="preserve">1.93515622615814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9513498544693</t>
   </si>
   <si>
     <t xml:space="preserve">1.87038111686707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91896271705627</t>
+    <t xml:space="preserve">1.91896259784698</t>
   </si>
   <si>
     <t xml:space="preserve">1.91086554527283</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">1.9432532787323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25093507766724</t>
+    <t xml:space="preserve">2.25093483924866</t>
   </si>
   <si>
     <t xml:space="preserve">2.1537721157074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13757824897766</t>
+    <t xml:space="preserve">2.13757848739624</t>
   </si>
   <si>
     <t xml:space="preserve">2.08899712562561</t>
@@ -1394,16 +1394,16 @@
     <t xml:space="preserve">2.08090019226074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00802803039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705941200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88657486438751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8298966884613</t>
+    <t xml:space="preserve">2.00802826881409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705929279327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88657510280609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82989680767059</t>
   </si>
   <si>
     <t xml:space="preserve">1.85418736934662</t>
@@ -1412,34 +1412,34 @@
     <t xml:space="preserve">1.82179987430573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90276885032654</t>
+    <t xml:space="preserve">1.90276861190796</t>
   </si>
   <si>
     <t xml:space="preserve">1.97564053535461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9999315738678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30761337280273</t>
+    <t xml:space="preserve">1.99993133544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30761289596558</t>
   </si>
   <si>
     <t xml:space="preserve">2.20235371589661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14567542076111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36429142951965</t>
+    <t xml:space="preserve">2.14567518234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36429119110107</t>
   </si>
   <si>
     <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45335721969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42096972465515</t>
+    <t xml:space="preserve">2.45335674285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42096948623657</t>
   </si>
   <si>
     <t xml:space="preserve">2.43716359138489</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">2.46145391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51003551483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48574471473694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49384164810181</t>
+    <t xml:space="preserve">2.51003527641296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48574495315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49384140968323</t>
   </si>
   <si>
     <t xml:space="preserve">2.5019383430481</t>
@@ -1463,160 +1463,160 @@
     <t xml:space="preserve">2.51813220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5262291431427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46955108642578</t>
+    <t xml:space="preserve">2.52622890472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4695508480072</t>
   </si>
   <si>
     <t xml:space="preserve">2.44526028633118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47764801979065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55861663818359</t>
+    <t xml:space="preserve">2.47764778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55861687660217</t>
   </si>
   <si>
     <t xml:space="preserve">2.5829074382782</t>
   </si>
   <si>
+    <t xml:space="preserve">2.6638765335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65539216995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62994170188904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60449075698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54510474205017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56207227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5875232219696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59600687026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61297416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51117014884949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52813720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46875166893005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49420261383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38391470909119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37543129920959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32452869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33301281929016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3499801158905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36694717407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4602677822113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42633318901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44330048561096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47723531723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57055568695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62145781517029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63842511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64690899848938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69781088829041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70629477500916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67236018180847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477842330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72326183319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68084359169006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68932723999023</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.66387629508972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65539240837097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62994170188904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60449075698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54510474205017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56207203865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58752298355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5960066318512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61297416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51117014884949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52813720703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46875166893005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49420261383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38391470909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37543082237244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32452869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33301281929016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3499801158905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36694717407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46026802062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42633318901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44330048561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4772355556488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57055568695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62145781517029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63842511177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64690899848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69781088829041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70629477500916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67235970497131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477818489075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72326183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68084383010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68932723999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387605667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51965379714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43481707572937</t>
+    <t xml:space="preserve">2.51965403556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43481683731079</t>
   </si>
   <si>
     <t xml:space="preserve">2.45178413391113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50268650054932</t>
+    <t xml:space="preserve">2.50268626213074</t>
   </si>
   <si>
     <t xml:space="preserve">2.57903933525085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55358862876892</t>
+    <t xml:space="preserve">2.55358839035034</t>
   </si>
   <si>
     <t xml:space="preserve">2.4857189655304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39239811897278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40936589241028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40088176727295</t>
+    <t xml:space="preserve">2.39239859580994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4093656539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40088200569153</t>
   </si>
   <si>
     <t xml:space="preserve">2.20575761795044</t>
@@ -1625,28 +1625,28 @@
     <t xml:space="preserve">2.28211069107056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22272491455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17182278633118</t>
+    <t xml:space="preserve">2.2227246761322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1718225479126</t>
   </si>
   <si>
     <t xml:space="preserve">2.19727373123169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424126625061</t>
+    <t xml:space="preserve">2.21424102783203</t>
   </si>
   <si>
     <t xml:space="preserve">2.13788819313049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97669780254364</t>
+    <t xml:space="preserve">1.97669804096222</t>
   </si>
   <si>
     <t xml:space="preserve">1.73067116737366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73915493488312</t>
+    <t xml:space="preserve">1.73915481567383</t>
   </si>
   <si>
     <t xml:space="preserve">1.69673645496368</t>
@@ -1658,31 +1658,31 @@
     <t xml:space="preserve">1.56948125362396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57796490192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68401086330414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62462520599365</t>
+    <t xml:space="preserve">1.57796502113342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68401110172272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62462508678436</t>
   </si>
   <si>
     <t xml:space="preserve">1.61614143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59917426109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56099760532379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65431809425354</t>
+    <t xml:space="preserve">1.59917414188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56099736690521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65431797504425</t>
   </si>
   <si>
     <t xml:space="preserve">1.67128551006317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64159250259399</t>
+    <t xml:space="preserve">1.64159262180328</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886703014374</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">1.65007638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63735067844391</t>
+    <t xml:space="preserve">1.63735055923462</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
@@ -1703,10 +1703,10 @@
     <t xml:space="preserve">1.67552721500397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6924946308136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65855979919434</t>
+    <t xml:space="preserve">1.69249475002289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65855991840363</t>
   </si>
   <si>
     <t xml:space="preserve">1.68825280666351</t>
@@ -1718,37 +1718,37 @@
     <t xml:space="preserve">1.78157329559326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84095942974091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80702447891235</t>
+    <t xml:space="preserve">1.84095907211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80702424049377</t>
   </si>
   <si>
     <t xml:space="preserve">1.79005694389343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77308976650238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7221873998642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8239917755127</t>
+    <t xml:space="preserve">1.77308964729309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72218751907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82399165630341</t>
   </si>
   <si>
     <t xml:space="preserve">1.83247542381287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8494428396225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86641013622284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90034472942352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973062515259</t>
+    <t xml:space="preserve">1.84944272041321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86641001701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9003449678421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973074436188</t>
   </si>
   <si>
     <t xml:space="preserve">1.90882849693298</t>
@@ -1757,73 +1757,73 @@
     <t xml:space="preserve">1.88337755203247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89186108112335</t>
+    <t xml:space="preserve">1.89186120033264</t>
   </si>
   <si>
     <t xml:space="preserve">1.8748939037323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85792660713196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79854071140289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81550800800323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75612235069275</t>
+    <t xml:space="preserve">1.85792624950409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79854083061218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81550788879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75612246990204</t>
   </si>
   <si>
     <t xml:space="preserve">1.67976891994476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7137039899826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64583432674408</t>
+    <t xml:space="preserve">1.71370387077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64583420753479</t>
   </si>
   <si>
     <t xml:space="preserve">1.59493219852448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60341596603394</t>
+    <t xml:space="preserve">1.60341584682465</t>
   </si>
   <si>
     <t xml:space="preserve">1.56523942947388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55251395702362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54827213287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49312806129456</t>
+    <t xml:space="preserve">1.55251383781433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54827201366425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49312818050385</t>
   </si>
   <si>
     <t xml:space="preserve">1.48464441299438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47191882133484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46767699718475</t>
+    <t xml:space="preserve">1.47191905975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46767711639404</t>
   </si>
   <si>
     <t xml:space="preserve">1.49736988544464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47616064548492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42525863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39132392406464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44222605228424</t>
+    <t xml:space="preserve">1.47616076469421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42525851726532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39132380485535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44222593307495</t>
   </si>
   <si>
     <t xml:space="preserve">1.41677498817444</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">1.36587285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39556586742401</t>
+    <t xml:space="preserve">1.3955659866333</t>
   </si>
   <si>
     <t xml:space="preserve">1.38284015655518</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">1.43374228477478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41253316402435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45919346809387</t>
+    <t xml:space="preserve">1.41253304481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45919334888458</t>
   </si>
   <si>
     <t xml:space="preserve">1.46343517303467</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.58644878864288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62038338184357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61189961433411</t>
+    <t xml:space="preserve">1.62038350105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6118997335434</t>
   </si>
   <si>
     <t xml:space="preserve">1.55675578117371</t>
@@ -1886,16 +1886,16 @@
     <t xml:space="preserve">1.59069049358368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57372307777405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58220684528351</t>
+    <t xml:space="preserve">1.57372295856476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58220672607422</t>
   </si>
   <si>
     <t xml:space="preserve">1.60765790939331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403018951416</t>
+    <t xml:space="preserve">1.54403042793274</t>
   </si>
   <si>
     <t xml:space="preserve">1.95124697685242</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">2.16333913803101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35846376419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34149622917175</t>
+    <t xml:space="preserve">2.35846352577209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34149646759033</t>
   </si>
   <si>
     <t xml:space="preserve">2.27362680435181</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">2.14637160301208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23120832443237</t>
+    <t xml:space="preserve">2.23120856285095</t>
   </si>
   <si>
     <t xml:space="preserve">2.30756163597107</t>
@@ -1937,13 +1937,13 @@
     <t xml:space="preserve">2.34213185310364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35077452659607</t>
+    <t xml:space="preserve">2.35077428817749</t>
   </si>
   <si>
     <t xml:space="preserve">2.29891920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32484698295593</t>
+    <t xml:space="preserve">2.32484674453735</t>
   </si>
   <si>
     <t xml:space="preserve">2.29027652740479</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">2.27299118041992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44584226608276</t>
+    <t xml:space="preserve">2.44584250450134</t>
   </si>
   <si>
     <t xml:space="preserve">2.46312761306763</t>
@@ -1970,25 +1970,25 @@
     <t xml:space="preserve">2.5581955909729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58412337303162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59276580810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6014084815979</t>
+    <t xml:space="preserve">2.58412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59276604652405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60140872001648</t>
   </si>
   <si>
     <t xml:space="preserve">2.52362561225891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4976978302002</t>
+    <t xml:space="preserve">2.49769759178162</t>
   </si>
   <si>
     <t xml:space="preserve">2.48041272163391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54955339431763</t>
+    <t xml:space="preserve">2.54955315589905</t>
   </si>
   <si>
     <t xml:space="preserve">2.54091048240662</t>
@@ -2015,19 +2015,19 @@
     <t xml:space="preserve">2.45448517799377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39398717880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38534450531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37670207023621</t>
+    <t xml:space="preserve">2.39398741722107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38534474372864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37670230865479</t>
   </si>
   <si>
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113609313965</t>
+    <t xml:space="preserve">2.22113633155823</t>
   </si>
   <si>
     <t xml:space="preserve">2.22977876663208</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">2.51498293876648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57548069953918</t>
+    <t xml:space="preserve">2.57548046112061</t>
   </si>
   <si>
     <t xml:space="preserve">2.61005115509033</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">2.63597869873047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61869335174561</t>
+    <t xml:space="preserve">2.61869359016418</t>
   </si>
   <si>
     <t xml:space="preserve">2.73968935012817</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">2.83475732803345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81747198104858</t>
+    <t xml:space="preserve">2.81747221946716</t>
   </si>
   <si>
     <t xml:space="preserve">2.93846797943115</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">3.38788080215454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37923812866211</t>
+    <t xml:space="preserve">3.37923789024353</t>
   </si>
   <si>
     <t xml:space="preserve">3.37059569358826</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">3.35331058502197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32738304138184</t>
+    <t xml:space="preserve">3.32738280296326</t>
   </si>
   <si>
     <t xml:space="preserve">3.28417015075684</t>
@@ -2138,25 +2138,25 @@
     <t xml:space="preserve">3.24095749855042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27552771568298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22367215156555</t>
+    <t xml:space="preserve">3.27552795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22367238998413</t>
   </si>
   <si>
     <t xml:space="preserve">3.20638728141785</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24959969520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2150297164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19774460792542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39652323722839</t>
+    <t xml:space="preserve">3.24959993362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21502995491028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19774484634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39652299880981</t>
   </si>
   <si>
     <t xml:space="preserve">3.23231506347656</t>
@@ -2165,19 +2165,19 @@
     <t xml:space="preserve">3.06810641288757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15453195571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18045949935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18910217285156</t>
+    <t xml:space="preserve">3.15453171730042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18045926094055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18910193443298</t>
   </si>
   <si>
     <t xml:space="preserve">3.29281258583069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17181706428528</t>
+    <t xml:space="preserve">3.1718168258667</t>
   </si>
   <si>
     <t xml:space="preserve">3.11996150016785</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">3.42245101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41380834579468</t>
+    <t xml:space="preserve">3.41380858421326</t>
   </si>
   <si>
     <t xml:space="preserve">3.43973612785339</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46071004867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264116287231</t>
+    <t xml:space="preserve">4.4607105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264163970947</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760856628418</t>
+    <t xml:space="preserve">4.84760808944702</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450708389282</t>
+    <t xml:space="preserve">5.23450660705566</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278253555298</t>
+    <t xml:space="preserve">5.30278301239014</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07658004760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87175130844116</t>
+    <t xml:space="preserve">6.07657957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.871750831604</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071641921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968105316162</t>
+    <t xml:space="preserve">5.78071594238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968152999878</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312871932983</t>
+    <t xml:space="preserve">5.55312919616699</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348031997681</t>
+    <t xml:space="preserve">7.12348079681396</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796382904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244638442993</t>
+    <t xml:space="preserve">7.07796335220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244590759277</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2318,19 +2318,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175401687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60003042221069</t>
+    <t xml:space="preserve">6.53175449371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60002994537354</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5545129776001</t>
+    <t xml:space="preserve">6.80485868453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55451250076294</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382698059082</t>
+    <t xml:space="preserve">7.37382745742798</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900413513184</t>
+    <t xml:space="preserve">8.12486553192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900508880615</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6510829925537</t>
+    <t xml:space="preserve">10.651083946228</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -59727,7 +59727,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.645775463</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>1900</v>
@@ -59736,7 +59736,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="D2178" t="n">
-        <v>2.71000003814697</v>
+        <v>2.66499996185303</v>
       </c>
       <c r="E2178" t="n">
         <v>2.71000003814697</v>
@@ -59748,6 +59748,32 @@
         <v>923</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6493634259</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>4915</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>2.73000001907349</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>2.67000007629395</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>2.71000003814697</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>2.70000004768372</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>903</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -44,46 +44,46 @@
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973948001862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29750108718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27586364746094</t>
+    <t xml:space="preserve">1.29973924160004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29750096797943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27586376667023</t>
   </si>
   <si>
     <t xml:space="preserve">1.26840257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27511751651764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26765632629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003989696503</t>
+    <t xml:space="preserve">1.27511739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26765608787537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29004001617432</t>
   </si>
   <si>
     <t xml:space="preserve">1.26616394519806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25944876670837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25347983837128</t>
+    <t xml:space="preserve">1.25944900512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25347995758057</t>
   </si>
   <si>
     <t xml:space="preserve">1.25273394584656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2176661491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676501750946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31167721748352</t>
+    <t xml:space="preserve">1.21766626834869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24676489830017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31167733669281</t>
   </si>
   <si>
     <t xml:space="preserve">1.30496215820312</t>
@@ -101,28 +101,28 @@
     <t xml:space="preserve">1.28929376602173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27884793281555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317954063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27437138557434</t>
+    <t xml:space="preserve">1.27884805202484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26317965984344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27437114715576</t>
   </si>
   <si>
     <t xml:space="preserve">1.24601888656616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28034007549286</t>
+    <t xml:space="preserve">1.28034019470215</t>
   </si>
   <si>
     <t xml:space="preserve">1.25721049308777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3131697177887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3206307888031</t>
+    <t xml:space="preserve">1.31316959857941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32063090801239</t>
   </si>
   <si>
     <t xml:space="preserve">1.31391561031342</t>
@@ -131,16 +131,16 @@
     <t xml:space="preserve">1.32436120510101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26989471912384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28183245658875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3295841217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32212293148041</t>
+    <t xml:space="preserve">1.26989459991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28183233737946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32958424091339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3221230506897</t>
   </si>
   <si>
     <t xml:space="preserve">1.3280918598175</t>
@@ -155,22 +155,22 @@
     <t xml:space="preserve">1.32286894321442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31018483638763</t>
+    <t xml:space="preserve">1.31018507480621</t>
   </si>
   <si>
     <t xml:space="preserve">1.31764614582062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30272376537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30346989631653</t>
+    <t xml:space="preserve">1.30272388458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30347001552582</t>
   </si>
   <si>
     <t xml:space="preserve">1.29675483703613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29078602790833</t>
+    <t xml:space="preserve">1.29078590869904</t>
   </si>
   <si>
     <t xml:space="preserve">1.28854751586914</t>
@@ -179,31 +179,31 @@
     <t xml:space="preserve">1.28780150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30684340000153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3167724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32364630699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33433938026428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33204829692841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32975673675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33052086830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3183000087738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670199871063</t>
+    <t xml:space="preserve">1.30684316158295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31677258014679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33433961868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33204817771912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32975709438324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33052062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31830024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670187950134</t>
   </si>
   <si>
     <t xml:space="preserve">1.32211899757385</t>
@@ -215,58 +215,58 @@
     <t xml:space="preserve">1.33663105964661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33510363101959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32899308204651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32822930812836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3213552236557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33815836906433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34426879882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34350514411926</t>
+    <t xml:space="preserve">1.3351035118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32899296283722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32822918891907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32135510444641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33815848827362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34426891803741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34350502490997</t>
   </si>
   <si>
     <t xml:space="preserve">1.33892238140106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31906378269196</t>
+    <t xml:space="preserve">1.31906366348267</t>
   </si>
   <si>
     <t xml:space="preserve">1.29538631439209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29767787456512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28316557407379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28851234912872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011071681976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2594883441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26025223731995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23733830451965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22970056533813</t>
+    <t xml:space="preserve">1.29767751693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28316569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851246833801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011059761047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25948822498322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26025199890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23733842372894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22970044612885</t>
   </si>
   <si>
     <t xml:space="preserve">1.2396297454834</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">1.22053503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22206270694733</t>
+    <t xml:space="preserve">1.22206258773804</t>
   </si>
   <si>
     <t xml:space="preserve">1.22129881381989</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">1.27552795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2747642993927</t>
+    <t xml:space="preserve">1.27476406097412</t>
   </si>
   <si>
     <t xml:space="preserve">1.29385876655579</t>
@@ -299,79 +299,79 @@
     <t xml:space="preserve">1.29233121871948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2892758846283</t>
+    <t xml:space="preserve">1.28927612304688</t>
   </si>
   <si>
     <t xml:space="preserve">1.25872433185577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28469347953796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24955916404724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27018141746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27629160881042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28698468208313</t>
+    <t xml:space="preserve">1.28469324111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24955892562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27018117904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27629172801971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28698456287384</t>
   </si>
   <si>
     <t xml:space="preserve">1.28622078895569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28240215778351</t>
+    <t xml:space="preserve">1.28240203857422</t>
   </si>
   <si>
     <t xml:space="preserve">1.34121370315552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3137172460556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36412727832794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572576522827</t>
+    <t xml:space="preserve">1.31371736526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36412751674652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572564601898</t>
   </si>
   <si>
     <t xml:space="preserve">1.38093078136444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37405681610107</t>
+    <t xml:space="preserve">1.3740565776825</t>
   </si>
   <si>
     <t xml:space="preserve">1.38551342487335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36030852794647</t>
+    <t xml:space="preserve">1.36030828952789</t>
   </si>
   <si>
     <t xml:space="preserve">1.37329280376434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37558448314667</t>
+    <t xml:space="preserve">1.37558436393738</t>
   </si>
   <si>
     <t xml:space="preserve">1.35419809818268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35954463481903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35648953914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34503281116486</t>
+    <t xml:space="preserve">1.35954451560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35648941993713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34503257274628</t>
   </si>
   <si>
     <t xml:space="preserve">1.35190689563751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35725331306458</t>
+    <t xml:space="preserve">1.35725343227386</t>
   </si>
   <si>
     <t xml:space="preserve">1.35496199131012</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">1.34961557388306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34885156154633</t>
+    <t xml:space="preserve">1.34885144233704</t>
   </si>
   <si>
     <t xml:space="preserve">1.35801720619202</t>
@@ -398,55 +398,55 @@
     <t xml:space="preserve">1.30226051807404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30989825725555</t>
+    <t xml:space="preserve">1.30989849567413</t>
   </si>
   <si>
     <t xml:space="preserve">1.32059156894684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33586704730988</t>
+    <t xml:space="preserve">1.33586692810059</t>
   </si>
   <si>
     <t xml:space="preserve">1.31295347213745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30455195903778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29462277889252</t>
+    <t xml:space="preserve">1.3045517206192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29462265968323</t>
   </si>
   <si>
     <t xml:space="preserve">1.30073297023773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29844152927399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003977775574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29080355167389</t>
+    <t xml:space="preserve">1.29844164848328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29003965854645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29080367088318</t>
   </si>
   <si>
     <t xml:space="preserve">1.29615008831024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28545701503754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2625435590744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26407098770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27170872688293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26788997650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24192106723785</t>
+    <t xml:space="preserve">1.28545725345612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26254343986511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26407110691071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27170884609222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26788985729218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24192118644714</t>
   </si>
   <si>
     <t xml:space="preserve">1.23351943492889</t>
@@ -458,46 +458,46 @@
     <t xml:space="preserve">1.24497628211975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24879515171051</t>
+    <t xml:space="preserve">1.2487952709198</t>
   </si>
   <si>
     <t xml:space="preserve">1.27323651313782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26941764354706</t>
+    <t xml:space="preserve">1.26941776275635</t>
   </si>
   <si>
     <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33357572555542</t>
+    <t xml:space="preserve">1.33357584476471</t>
   </si>
   <si>
     <t xml:space="preserve">1.34197747707367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35114312171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35343420505524</t>
+    <t xml:space="preserve">1.35114288330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35343432426453</t>
   </si>
   <si>
     <t xml:space="preserve">1.36718249320984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3832221031189</t>
+    <t xml:space="preserve">1.38322198390961</t>
   </si>
   <si>
     <t xml:space="preserve">1.39926171302795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39162373542786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3923876285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39009618759155</t>
+    <t xml:space="preserve">1.39162397384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39238750934601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39009642601013</t>
   </si>
   <si>
     <t xml:space="preserve">1.3969703912735</t>
@@ -506,28 +506,28 @@
     <t xml:space="preserve">1.39773416519165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40537202358246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40078938007355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39849781990051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38474953174591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37863922119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40460813045502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42064797878265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41988396644592</t>
+    <t xml:space="preserve">1.40537190437317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40078926086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3984979391098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38474977016449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3786393404007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40460824966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42064762115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41988384723663</t>
   </si>
   <si>
     <t xml:space="preserve">1.3908599615097</t>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">1.39620661735535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40231692790985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40384447574615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38704085350037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42293906211853</t>
+    <t xml:space="preserve">1.40231680870056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40384435653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38704109191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42293930053711</t>
   </si>
   <si>
     <t xml:space="preserve">1.42752194404602</t>
@@ -560,25 +560,25 @@
     <t xml:space="preserve">1.44279766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45883738994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47411286830902</t>
+    <t xml:space="preserve">1.4588371515274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4741131067276</t>
   </si>
   <si>
     <t xml:space="preserve">1.46800267696381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46953022480011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47029411792755</t>
+    <t xml:space="preserve">1.46953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47029399871826</t>
   </si>
   <si>
     <t xml:space="preserve">1.46418368816376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45349061489105</t>
+    <t xml:space="preserve">1.45349073410034</t>
   </si>
   <si>
     <t xml:space="preserve">1.42904937267303</t>
@@ -590,67 +590,67 @@
     <t xml:space="preserve">1.449671626091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46265602111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812990665436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54056251049042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5466730594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55660223960876</t>
+    <t xml:space="preserve">1.46265614032745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812978744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.540562748909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54667282104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55660235881805</t>
   </si>
   <si>
     <t xml:space="preserve">1.56882297992706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53139710426331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52223181724548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5436178445816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56042122840881</t>
+    <t xml:space="preserve">1.53139734268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52223169803619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54361772537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5604213476181</t>
   </si>
   <si>
     <t xml:space="preserve">1.55583846569061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55278337001801</t>
+    <t xml:space="preserve">1.55278348922729</t>
   </si>
   <si>
     <t xml:space="preserve">1.59402799606323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57569682598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5993744134903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59631931781769</t>
+    <t xml:space="preserve">1.57569694519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59937429428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5963191986084</t>
   </si>
   <si>
     <t xml:space="preserve">1.59861075878143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59479165077209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58104360103607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56500375270844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56347632408142</t>
+    <t xml:space="preserve">1.59479176998138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58104348182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56500387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56347620487213</t>
   </si>
   <si>
     <t xml:space="preserve">1.55049192905426</t>
@@ -668,43 +668,43 @@
     <t xml:space="preserve">1.51841282844543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5497282743454</t>
+    <t xml:space="preserve">1.54972815513611</t>
   </si>
   <si>
     <t xml:space="preserve">1.58715391159058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60472106933594</t>
+    <t xml:space="preserve">1.60472095012665</t>
   </si>
   <si>
     <t xml:space="preserve">1.65131223201752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70237553119659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70551776885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7204442024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70708930492401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73929810523987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73537015914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73379921913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84613859653473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88698935508728</t>
+    <t xml:space="preserve">1.7023754119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70551764965057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72044408321381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70708894729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73929822444916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73537027835846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73379909992218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84613883495331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88698923587799</t>
   </si>
   <si>
     <t xml:space="preserve">1.92469775676727</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10145592689514</t>
+    <t xml:space="preserve">2.10145568847656</t>
   </si>
   <si>
     <t xml:space="preserve">2.03860855102539</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">2.06846117973328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01425504684448</t>
+    <t xml:space="preserve">2.01425528526306</t>
   </si>
   <si>
     <t xml:space="preserve">1.91369962692261</t>
@@ -734,46 +734,46 @@
     <t xml:space="preserve">1.98597395420074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98754477500916</t>
+    <t xml:space="preserve">1.98754501342773</t>
   </si>
   <si>
     <t xml:space="preserve">1.99540090560913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01975440979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00639915466309</t>
+    <t xml:space="preserve">2.01975417137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00639939308167</t>
   </si>
   <si>
     <t xml:space="preserve">1.99932897090912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96319186687469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01268410682678</t>
+    <t xml:space="preserve">1.96319174766541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0126838684082</t>
   </si>
   <si>
     <t xml:space="preserve">2.00561380386353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00954174995422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02525329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01032710075378</t>
+    <t xml:space="preserve">2.00954151153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02525353431702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01032733917236</t>
   </si>
   <si>
     <t xml:space="preserve">1.98675966262817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00325703620911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00247120857239</t>
+    <t xml:space="preserve">2.00325679779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00247144699097</t>
   </si>
   <si>
     <t xml:space="preserve">2.0166118144989</t>
@@ -785,25 +785,25 @@
     <t xml:space="preserve">1.99382984638214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97261881828308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99068748950958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97968924045563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97733247280121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.959263920784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9411952495575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8477098941803</t>
+    <t xml:space="preserve">1.97261893749237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99068737030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97968935966492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97733223438263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95926356315613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94119513034821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84771001338959</t>
   </si>
   <si>
     <t xml:space="preserve">1.87599122524261</t>
@@ -815,10 +815,10 @@
     <t xml:space="preserve">1.87284874916077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88620388507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91055715084076</t>
+    <t xml:space="preserve">1.88620376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91055703163147</t>
   </si>
   <si>
     <t xml:space="preserve">1.9294114112854</t>
@@ -827,40 +827,40 @@
     <t xml:space="preserve">1.90505790710449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88934600353241</t>
+    <t xml:space="preserve">1.88934636116028</t>
   </si>
   <si>
     <t xml:space="preserve">1.90584361553192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91605627536774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91919851303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93333911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90113031864166</t>
+    <t xml:space="preserve">1.91605615615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91919839382172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9333393573761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90113019943237</t>
   </si>
   <si>
     <t xml:space="preserve">1.92862570285797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92705452442169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91762745380402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98047482967377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99618661403656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05981945991516</t>
+    <t xml:space="preserve">1.92705488204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91762757301331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98047471046448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99618637561798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05981922149658</t>
   </si>
   <si>
     <t xml:space="preserve">2.05746269226074</t>
@@ -869,43 +869,43 @@
     <t xml:space="preserve">2.01504063606262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02053952217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00482821464539</t>
+    <t xml:space="preserve">2.0205397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00482797622681</t>
   </si>
   <si>
     <t xml:space="preserve">1.97026228904724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96947658061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97811794281006</t>
+    <t xml:space="preserve">1.96947634220123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97811770439148</t>
   </si>
   <si>
     <t xml:space="preserve">1.97576117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95062232017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93962407112122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93726718425751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93805265426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93255364894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826543331146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96711993217468</t>
+    <t xml:space="preserve">1.95062220096588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93962419033051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93726706504822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93805277347565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93255376815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826555252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96711981296539</t>
   </si>
   <si>
     <t xml:space="preserve">1.95376467704773</t>
@@ -914,73 +914,73 @@
     <t xml:space="preserve">1.95219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94276630878448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96397733688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94905114173889</t>
+    <t xml:space="preserve">1.9427661895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96397721767426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9490510225296</t>
   </si>
   <si>
     <t xml:space="preserve">1.95533585548401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94669437408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92548358440399</t>
+    <t xml:space="preserve">1.94669449329376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92548322677612</t>
   </si>
   <si>
     <t xml:space="preserve">1.92234086990356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92784023284912</t>
+    <t xml:space="preserve">1.92784035205841</t>
   </si>
   <si>
     <t xml:space="preserve">1.92312657833099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89720225334167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90348696708679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90820050239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89484536647797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8995589017868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89013195037842</t>
+    <t xml:space="preserve">1.8972020149231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90348672866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90820074081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89484548568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89955878257751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89013171195984</t>
   </si>
   <si>
     <t xml:space="preserve">1.89563083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89327394962311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91527056694031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91212821006775</t>
+    <t xml:space="preserve">1.89327430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9152706861496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91212844848633</t>
   </si>
   <si>
     <t xml:space="preserve">1.90191555023193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9309823513031</t>
+    <t xml:space="preserve">1.93098258972168</t>
   </si>
   <si>
     <t xml:space="preserve">1.98126018047333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02132534980774</t>
+    <t xml:space="preserve">2.02132558822632</t>
   </si>
   <si>
     <t xml:space="preserve">2.00090003013611</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">2.06610417366028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05039238929749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03153800964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0566771030426</t>
+    <t xml:space="preserve">2.05039215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03153824806213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05667686462402</t>
   </si>
   <si>
     <t xml:space="preserve">2.05353474617004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04803538322449</t>
+    <t xml:space="preserve">2.04803562164307</t>
   </si>
   <si>
     <t xml:space="preserve">2.19494104385376</t>
@@ -1016,16 +1016,16 @@
     <t xml:space="preserve">2.07396006584167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652925491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07238864898682</t>
+    <t xml:space="preserve">2.08652949333191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0723888874054</t>
   </si>
   <si>
     <t xml:space="preserve">2.07710242271423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05196332931519</t>
+    <t xml:space="preserve">2.05196356773376</t>
   </si>
   <si>
     <t xml:space="preserve">2.08574390411377</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">2.05117797851562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06217622756958</t>
+    <t xml:space="preserve">2.062175989151</t>
   </si>
   <si>
     <t xml:space="preserve">2.06924653053284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11323976516724</t>
+    <t xml:space="preserve">2.11323952674866</t>
   </si>
   <si>
     <t xml:space="preserve">2.15251922607422</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">2.16587424278259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17215895652771</t>
+    <t xml:space="preserve">2.17215871810913</t>
   </si>
   <si>
     <t xml:space="preserve">2.17294454574585</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">2.16823101043701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18708515167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18158602714539</t>
+    <t xml:space="preserve">2.18708539009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18158578872681</t>
   </si>
   <si>
     <t xml:space="preserve">2.2035825252533</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">2.1917986869812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17765784263611</t>
+    <t xml:space="preserve">2.17765808105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.16037511825562</t>
@@ -1082,22 +1082,22 @@
     <t xml:space="preserve">2.1501624584198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14937663078308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1485915184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16665959358215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17451596260071</t>
+    <t xml:space="preserve">2.14937686920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14859127998352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16665983200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17451548576355</t>
   </si>
   <si>
     <t xml:space="preserve">2.19572687149048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17608714103699</t>
+    <t xml:space="preserve">2.17608690261841</t>
   </si>
   <si>
     <t xml:space="preserve">2.22479343414307</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">2.27035784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26250195503235</t>
+    <t xml:space="preserve">2.26250171661377</t>
   </si>
   <si>
     <t xml:space="preserve">2.30178141593933</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">2.31749320030212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41176462173462</t>
+    <t xml:space="preserve">2.41176414489746</t>
   </si>
   <si>
     <t xml:space="preserve">2.46675562858582</t>
@@ -1133,31 +1133,31 @@
     <t xml:space="preserve">2.43533182144165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47461128234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42747569084167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38819622993469</t>
+    <t xml:space="preserve">2.47461152076721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42747592926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38819646835327</t>
   </si>
   <si>
     <t xml:space="preserve">2.36462879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3803403377533</t>
+    <t xml:space="preserve">2.38034057617188</t>
   </si>
   <si>
     <t xml:space="preserve">2.40390825271606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39605236053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35677266120911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29392528533936</t>
+    <t xml:space="preserve">2.39605259895325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35677242279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29392552375793</t>
   </si>
   <si>
     <t xml:space="preserve">2.27821373939514</t>
@@ -1169,22 +1169,22 @@
     <t xml:space="preserve">2.49032330513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66315340995789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65529704093933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73385643959045</t>
+    <t xml:space="preserve">2.66315364837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65529751777649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73385620117188</t>
   </si>
   <si>
     <t xml:space="preserve">2.56888246536255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60030579566956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57673811912537</t>
+    <t xml:space="preserve">2.60030627250671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57673835754395</t>
   </si>
   <si>
     <t xml:space="preserve">2.5060350894928</t>
@@ -1193,13 +1193,13 @@
     <t xml:space="preserve">2.53745865821838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58459448814392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55317044258118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51389122009277</t>
+    <t xml:space="preserve">2.5845947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5531702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51389098167419</t>
   </si>
   <si>
     <t xml:space="preserve">2.59245014190674</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">2.56102633476257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52174687385559</t>
+    <t xml:space="preserve">2.52174711227417</t>
   </si>
   <si>
     <t xml:space="preserve">2.61601758003235</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">2.63958525657654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68816685676575</t>
+    <t xml:space="preserve">2.68816661834717</t>
   </si>
   <si>
     <t xml:space="preserve">2.70436096191406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69626355171204</t>
+    <t xml:space="preserve">2.69626379013062</t>
   </si>
   <si>
     <t xml:space="preserve">2.67197322845459</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">2.63148856163025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65577912330627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59100437164307</t>
+    <t xml:space="preserve">2.65577960014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59100413322449</t>
   </si>
   <si>
     <t xml:space="preserve">2.60719799995422</t>
@@ -1259,19 +1259,19 @@
     <t xml:space="preserve">2.38048505783081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41287279129028</t>
+    <t xml:space="preserve">2.4128725528717</t>
   </si>
   <si>
     <t xml:space="preserve">2.32380700111389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29951643943787</t>
+    <t xml:space="preserve">2.29951620101929</t>
   </si>
   <si>
     <t xml:space="preserve">2.29141926765442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31571006774902</t>
+    <t xml:space="preserve">2.31570982933044</t>
   </si>
   <si>
     <t xml:space="preserve">2.33190393447876</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">2.26712870597839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21045064926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28332233428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34809756278992</t>
+    <t xml:space="preserve">2.2104504108429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28332281112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34809732437134</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854734420776</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">2.22664403915405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18615961074829</t>
+    <t xml:space="preserve">2.18615984916687</t>
   </si>
   <si>
     <t xml:space="preserve">2.178062915802</t>
@@ -1313,19 +1313,19 @@
     <t xml:space="preserve">2.16186928749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12948179244995</t>
+    <t xml:space="preserve">2.12948155403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25903177261353</t>
+    <t xml:space="preserve">2.25903153419495</t>
   </si>
   <si>
     <t xml:space="preserve">2.24283814430237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27522587776184</t>
+    <t xml:space="preserve">2.27522563934326</t>
   </si>
   <si>
     <t xml:space="preserve">2.39667892456055</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">2.10519099235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11328768730164</t>
+    <t xml:space="preserve">2.11328792572021</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
@@ -1346,34 +1346,34 @@
     <t xml:space="preserve">2.05660963058472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04851245880127</t>
+    <t xml:space="preserve">2.04851269721985</t>
   </si>
   <si>
     <t xml:space="preserve">2.02422213554382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754384040833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95944714546204</t>
+    <t xml:space="preserve">1.96754372119904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95944702625275</t>
   </si>
   <si>
     <t xml:space="preserve">1.93515622615814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9513498544693</t>
+    <t xml:space="preserve">1.95135021209717</t>
   </si>
   <si>
     <t xml:space="preserve">1.87038111686707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91896259784698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91086554527283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9432532787323</t>
+    <t xml:space="preserve">1.91896271705627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91086566448212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94325292110443</t>
   </si>
   <si>
     <t xml:space="preserve">2.25093483924866</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">2.08899712562561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06470656394958</t>
+    <t xml:space="preserve">2.06470632553101</t>
   </si>
   <si>
     <t xml:space="preserve">2.08090019226074</t>
@@ -1397,52 +1397,52 @@
     <t xml:space="preserve">2.00802826881409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92705929279327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88657510280609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82989680767059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85418736934662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179987430573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90276861190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97564053535461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99993133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30761289596558</t>
+    <t xml:space="preserve">1.92705941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8865749835968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8298966884613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85418725013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90276873111725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9756406545639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9999315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30761313438416</t>
   </si>
   <si>
     <t xml:space="preserve">2.20235371589661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14567518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36429119110107</t>
+    <t xml:space="preserve">2.14567542076111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36429142951965</t>
   </si>
   <si>
     <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45335674285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42096948623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43716359138489</t>
+    <t xml:space="preserve">2.45335721969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42096972465515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43716311454773</t>
   </si>
   <si>
     <t xml:space="preserve">2.46145391464233</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">2.48574495315552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49384140968323</t>
+    <t xml:space="preserve">2.49384164810181</t>
   </si>
   <si>
     <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51813220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52622890472412</t>
+    <t xml:space="preserve">2.51813244819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5262291431427</t>
   </si>
   <si>
     <t xml:space="preserve">2.4695508480072</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">2.44526028633118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47764778137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55861687660217</t>
+    <t xml:space="preserve">2.47764754295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55861663818359</t>
   </si>
   <si>
     <t xml:space="preserve">2.5829074382782</t>
@@ -1484,28 +1484,28 @@
     <t xml:space="preserve">2.6638765335083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65539216995239</t>
+    <t xml:space="preserve">2.65539240837097</t>
   </si>
   <si>
     <t xml:space="preserve">2.62994170188904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60449075698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54510474205017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56207227706909</t>
+    <t xml:space="preserve">2.60449051856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54510450363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56207203865051</t>
   </si>
   <si>
     <t xml:space="preserve">2.5875232219696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59600687026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61297416687012</t>
+    <t xml:space="preserve">2.5960066318512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61297392845154</t>
   </si>
   <si>
     <t xml:space="preserve">2.51117014884949</t>
@@ -1526,22 +1526,22 @@
     <t xml:space="preserve">2.38391470909119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37543129920959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32452869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33301281929016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3499801158905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36694717407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4602677822113</t>
+    <t xml:space="preserve">2.37543106079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32452893257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33301258087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34998035430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36694741249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46026802062988</t>
   </si>
   <si>
     <t xml:space="preserve">2.42633318901062</t>
@@ -1553,43 +1553,43 @@
     <t xml:space="preserve">2.47723531723022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57055568695068</t>
+    <t xml:space="preserve">2.57055592536926</t>
   </si>
   <si>
     <t xml:space="preserve">2.62145781517029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842511177063</t>
+    <t xml:space="preserve">2.63842558860779</t>
   </si>
   <si>
     <t xml:space="preserve">2.64690899848938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69781088829041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70629477500916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67236018180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477842330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72326183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68084359169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68932723999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387629508972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51965403556824</t>
+    <t xml:space="preserve">2.69781112670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70629453659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67235994338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477818489075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72326159477234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68084383010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68932771682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66387605667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51965379714966</t>
   </si>
   <si>
     <t xml:space="preserve">2.43481683731079</t>
@@ -1607,31 +1607,31 @@
     <t xml:space="preserve">2.55358839035034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4857189655304</t>
+    <t xml:space="preserve">2.48571872711182</t>
   </si>
   <si>
     <t xml:space="preserve">2.39239859580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4093656539917</t>
+    <t xml:space="preserve">2.40936589241028</t>
   </si>
   <si>
     <t xml:space="preserve">2.40088200569153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20575761795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28211069107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2227246761322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1718225479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19727373123169</t>
+    <t xml:space="preserve">2.20575737953186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28211045265198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22272491455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17182278633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19727396965027</t>
   </si>
   <si>
     <t xml:space="preserve">2.21424102783203</t>
@@ -1640,22 +1640,22 @@
     <t xml:space="preserve">2.13788819313049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97669804096222</t>
+    <t xml:space="preserve">1.97669792175293</t>
   </si>
   <si>
     <t xml:space="preserve">1.73067116737366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73915481567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69673645496368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5355464220047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56948125362396</t>
+    <t xml:space="preserve">1.73915505409241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69673657417297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53554654121399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56948113441467</t>
   </si>
   <si>
     <t xml:space="preserve">1.57796502113342</t>
@@ -1664,76 +1664,76 @@
     <t xml:space="preserve">1.68401110172272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62462508678436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61614143848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59917414188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56099736690521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65431797504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67128551006317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64159262180328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62886703014374</t>
+    <t xml:space="preserve">1.62462520599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6161413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59917426109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5609974861145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65431809425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67128539085388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64159274101257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62886714935303</t>
   </si>
   <si>
     <t xml:space="preserve">1.65007638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63735055923462</t>
+    <t xml:space="preserve">1.6373507976532</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76460587978363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67552721500397</t>
+    <t xml:space="preserve">1.76460576057434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67552733421326</t>
   </si>
   <si>
     <t xml:space="preserve">1.69249475002289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65855991840363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68825280666351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74763858318329</t>
+    <t xml:space="preserve">1.65855979919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6882529258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74763870239258</t>
   </si>
   <si>
     <t xml:space="preserve">1.78157329559326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84095907211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80702424049377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79005694389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77308964729309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72218751907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82399165630341</t>
+    <t xml:space="preserve">1.84095919132233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80702447891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79005718231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77308940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72218728065491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82399153709412</t>
   </si>
   <si>
     <t xml:space="preserve">1.83247542381287</t>
@@ -1742,16 +1742,16 @@
     <t xml:space="preserve">1.84944272041321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86641001701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9003449678421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973074436188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90882849693298</t>
+    <t xml:space="preserve">1.86641025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90034484863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90882861614227</t>
   </si>
   <si>
     <t xml:space="preserve">1.88337755203247</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">1.89186120033264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8748939037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792624950409</t>
+    <t xml:space="preserve">1.87489366531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792660713196</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">1.81550788879395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75612246990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67976891994476</t>
+    <t xml:space="preserve">1.75612235069275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67976903915405</t>
   </si>
   <si>
     <t xml:space="preserve">1.71370387077332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64583420753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59493219852448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60341584682465</t>
+    <t xml:space="preserve">1.64583444595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59493207931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60341596603394</t>
   </si>
   <si>
     <t xml:space="preserve">1.56523942947388</t>
@@ -1796,70 +1796,70 @@
     <t xml:space="preserve">1.55251383781433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54827201366425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49312818050385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48464441299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47191905975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46767711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49736988544464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47616076469421</t>
+    <t xml:space="preserve">1.54827213287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49312829971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48464453220367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47191894054413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46767699718475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49737000465393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47616064548492</t>
   </si>
   <si>
     <t xml:space="preserve">1.42525851726532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39132380485535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44222593307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41677498817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36163091659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3489054441452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36587285995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3955659866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38284015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40829133987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43374228477478</t>
+    <t xml:space="preserve">1.39132404327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44222617149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41677510738373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36163079738617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34890556335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36587297916412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39556586742401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38284003734589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40829122066498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43374240398407</t>
   </si>
   <si>
     <t xml:space="preserve">1.41253304481506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45919334888458</t>
+    <t xml:space="preserve">1.45919346809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.46343517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44646775722504</t>
+    <t xml:space="preserve">1.44646787643433</t>
   </si>
   <si>
     <t xml:space="preserve">1.4507098197937</t>
@@ -1868,25 +1868,25 @@
     <t xml:space="preserve">1.43798422813416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53130447864532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58644878864288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038350105286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6118997335434</t>
+    <t xml:space="preserve">1.53130459785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58644866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038326263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61189961433411</t>
   </si>
   <si>
     <t xml:space="preserve">1.55675578117371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59069049358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57372295856476</t>
+    <t xml:space="preserve">1.59069037437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57372307777405</t>
   </si>
   <si>
     <t xml:space="preserve">1.58220672607422</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">1.60765790939331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403042793274</t>
+    <t xml:space="preserve">1.54403018951416</t>
   </si>
   <si>
     <t xml:space="preserve">1.95124697685242</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">2.03608369827271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16333913803101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35846352577209</t>
+    <t xml:space="preserve">2.16333889961243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35846376419067</t>
   </si>
   <si>
     <t xml:space="preserve">2.34149646759033</t>
@@ -1922,22 +1922,22 @@
     <t xml:space="preserve">2.14637160301208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23120856285095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30756163597107</t>
+    <t xml:space="preserve">2.23120832443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30756187438965</t>
   </si>
   <si>
     <t xml:space="preserve">2.31620407104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33348917961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34213185310364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35077428817749</t>
+    <t xml:space="preserve">2.33348941802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34213209152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35077452659607</t>
   </si>
   <si>
     <t xml:space="preserve">2.29891920089722</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">2.29027652740479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27299118041992</t>
+    <t xml:space="preserve">2.2729914188385</t>
   </si>
   <si>
     <t xml:space="preserve">2.44584250450134</t>
@@ -1961,28 +1961,28 @@
     <t xml:space="preserve">2.47177028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48905515670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50634026527405</t>
+    <t xml:space="preserve">2.48905539512634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50634050369263</t>
   </si>
   <si>
     <t xml:space="preserve">2.5581955909729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59276604652405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60140872001648</t>
+    <t xml:space="preserve">2.58412337303162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59276580810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
     <t xml:space="preserve">2.52362561225891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49769759178162</t>
+    <t xml:space="preserve">2.4976978302002</t>
   </si>
   <si>
     <t xml:space="preserve">2.48041272163391</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">2.54955315589905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54091048240662</t>
+    <t xml:space="preserve">2.5409107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.53226804733276</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">2.40262985229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41991472244263</t>
+    <t xml:space="preserve">2.41991496086121</t>
   </si>
   <si>
     <t xml:space="preserve">2.41127228736877</t>
@@ -2021,19 +2021,19 @@
     <t xml:space="preserve">2.38534474372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37670230865479</t>
+    <t xml:space="preserve">2.37670207023621</t>
   </si>
   <si>
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113633155823</t>
+    <t xml:space="preserve">2.22113609313965</t>
   </si>
   <si>
     <t xml:space="preserve">2.22977876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28163385391235</t>
+    <t xml:space="preserve">2.28163409233093</t>
   </si>
   <si>
     <t xml:space="preserve">2.17792344093323</t>
@@ -2063,10 +2063,10 @@
     <t xml:space="preserve">2.51498293876648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57548046112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61005115509033</t>
+    <t xml:space="preserve">2.57548069953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61005091667175</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597869873047</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">2.83475732803345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81747221946716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93846797943115</t>
+    <t xml:space="preserve">2.81747198104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93846821784973</t>
   </si>
   <si>
     <t xml:space="preserve">2.9730384349823</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">2.99032306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14588928222656</t>
+    <t xml:space="preserve">3.14588952064514</t>
   </si>
   <si>
     <t xml:space="preserve">3.16317415237427</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">3.38788080215454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37923789024353</t>
+    <t xml:space="preserve">3.37923812866211</t>
   </si>
   <si>
     <t xml:space="preserve">3.37059569358826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44837880134583</t>
+    <t xml:space="preserve">3.4483790397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.2582426071167</t>
@@ -2138,52 +2138,52 @@
     <t xml:space="preserve">3.24095749855042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27552795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22367238998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20638728141785</t>
+    <t xml:space="preserve">3.27552771568298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22367215156555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20638680458069</t>
   </si>
   <si>
     <t xml:space="preserve">3.24959993362427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21502995491028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19774484634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39652299880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23231506347656</t>
+    <t xml:space="preserve">3.2150297164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19774460792542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39652323722839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23231482505798</t>
   </si>
   <si>
     <t xml:space="preserve">3.06810641288757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15453171730042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18045926094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18910193443298</t>
+    <t xml:space="preserve">3.15453195571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18045949935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
     <t xml:space="preserve">3.29281258583069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1718168258667</t>
+    <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
     <t xml:space="preserve">3.11996150016785</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13724660873413</t>
+    <t xml:space="preserve">3.13724684715271</t>
   </si>
   <si>
     <t xml:space="preserve">3.11131906509399</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">3.10267663002014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34466814994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42245101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41380858421326</t>
+    <t xml:space="preserve">3.34466791152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42245078086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41380834579468</t>
   </si>
   <si>
     <t xml:space="preserve">3.43973612785339</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4607105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264163970947</t>
+    <t xml:space="preserve">4.46071004867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264116287231</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760808944702</t>
+    <t xml:space="preserve">4.84760856628418</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450660705566</t>
+    <t xml:space="preserve">5.23450708389282</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278301239014</t>
+    <t xml:space="preserve">5.30278253555298</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07657957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.871750831604</t>
+    <t xml:space="preserve">6.07658004760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87175130844116</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071594238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968152999878</t>
+    <t xml:space="preserve">5.78071641921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968105316162</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312919616699</t>
+    <t xml:space="preserve">5.55312871932983</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348079681396</t>
+    <t xml:space="preserve">7.12348031997681</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796335220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244590759277</t>
+    <t xml:space="preserve">7.07796382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244638442993</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2318,19 +2318,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175449371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.53175401687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60003042221069</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485868453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55451250076294</t>
+    <t xml:space="preserve">6.80485916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5545129776001</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382745742798</t>
+    <t xml:space="preserve">7.37382698059082</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486553192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900508880615</t>
+    <t xml:space="preserve">8.12486457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900413513184</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.651083946228</t>
+    <t xml:space="preserve">10.6510829925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -59753,7 +59753,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6493634259</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>4915</v>
@@ -59774,6 +59774,32 @@
         <v>903</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6493402778</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>14120</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>2.74000000953674</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>2.72499990463257</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>2.73000001907349</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>2.71000003814697</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>923</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="926">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3004857301712</t>
+    <t xml:space="preserve">1.30048549175262</t>
   </si>
   <si>
     <t xml:space="preserve">AUTME.MI</t>
@@ -47,22 +47,22 @@
     <t xml:space="preserve">1.29973936080933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29750108718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27586376667023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26840233802795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27511739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26765644550323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29004001617432</t>
+    <t xml:space="preserve">1.29750096797943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27586364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26840221881866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27511751651764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26765632629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29003989696503</t>
   </si>
   <si>
     <t xml:space="preserve">1.26616394519806</t>
@@ -71,46 +71,46 @@
     <t xml:space="preserve">1.25944900512695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25347995758057</t>
+    <t xml:space="preserve">1.25347983837128</t>
   </si>
   <si>
     <t xml:space="preserve">1.25273394584656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21766626834869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676477909088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31167733669281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30496215820312</t>
+    <t xml:space="preserve">1.2176661491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24676489830017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31167721748352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30496227741241</t>
   </si>
   <si>
     <t xml:space="preserve">1.30123162269592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30570828914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3198846578598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28929364681244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27884805202484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317942142487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27437150478363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24601876735687</t>
+    <t xml:space="preserve">1.305708527565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31988453865051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28929388523102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27884793281555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26317965984344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27437138557434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24601888656616</t>
   </si>
   <si>
     <t xml:space="preserve">1.28034031391144</t>
@@ -119,25 +119,25 @@
     <t xml:space="preserve">1.25721061229706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31316959857941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32063090801239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31391572952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3243613243103</t>
+    <t xml:space="preserve">1.31316947937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3206307888031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31391561031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32436108589172</t>
   </si>
   <si>
     <t xml:space="preserve">1.26989459991455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28183257579803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32958424091339</t>
+    <t xml:space="preserve">1.28183245658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3295841217041</t>
   </si>
   <si>
     <t xml:space="preserve">1.32212293148041</t>
@@ -146,40 +146,40 @@
     <t xml:space="preserve">1.3280918598175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32734572887421</t>
+    <t xml:space="preserve">1.32734596729279</t>
   </si>
   <si>
     <t xml:space="preserve">1.33480703830719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32286906242371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31018507480621</t>
+    <t xml:space="preserve">1.322869181633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3101851940155</t>
   </si>
   <si>
     <t xml:space="preserve">1.31764626502991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30272364616394</t>
+    <t xml:space="preserve">1.30272388458252</t>
   </si>
   <si>
     <t xml:space="preserve">1.30346989631653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29675483703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078590869904</t>
+    <t xml:space="preserve">1.29675495624542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078578948975</t>
   </si>
   <si>
     <t xml:space="preserve">1.28854763507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28780138492584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30684328079224</t>
+    <t xml:space="preserve">1.28780162334442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30684316158295</t>
   </si>
   <si>
     <t xml:space="preserve">1.3167724609375</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">1.33433949947357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33204829692841</t>
+    <t xml:space="preserve">1.3320484161377</t>
   </si>
   <si>
     <t xml:space="preserve">1.32975685596466</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">1.3183000087738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32670176029205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32211899757385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34044981002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33663094043732</t>
+    <t xml:space="preserve">1.32670199871063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32211887836456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34044992923737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33663105964661</t>
   </si>
   <si>
     <t xml:space="preserve">1.33510327339172</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">1.32822930812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32135510444641</t>
+    <t xml:space="preserve">1.32135498523712</t>
   </si>
   <si>
     <t xml:space="preserve">1.33815848827362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34426891803741</t>
+    <t xml:space="preserve">1.3442690372467</t>
   </si>
   <si>
     <t xml:space="preserve">1.34350526332855</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">1.33892238140106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31906390190125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29538631439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29767787456512</t>
+    <t xml:space="preserve">1.31906378269196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2953861951828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29767763614655</t>
   </si>
   <si>
     <t xml:space="preserve">1.28316569328308</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">1.28851234912872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28011059761047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2594883441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26025199890137</t>
+    <t xml:space="preserve">1.28011047840118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25948822498322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26025187969208</t>
   </si>
   <si>
     <t xml:space="preserve">1.23733842372894</t>
@@ -275,34 +275,34 @@
     <t xml:space="preserve">1.22053503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22206258773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2212986946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2411572933197</t>
+    <t xml:space="preserve">1.22206270694733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22129881381989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24115741252899</t>
   </si>
   <si>
     <t xml:space="preserve">1.27552783489227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27476406097412</t>
+    <t xml:space="preserve">1.27476418018341</t>
   </si>
   <si>
     <t xml:space="preserve">1.29385876655579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29309487342834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29233109951019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28927612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25872433185577</t>
+    <t xml:space="preserve">1.29309499263763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29233121871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28927600383759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25872445106506</t>
   </si>
   <si>
     <t xml:space="preserve">1.28469336032867</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">1.24955916404724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27018141746521</t>
+    <t xml:space="preserve">1.27018129825592</t>
   </si>
   <si>
     <t xml:space="preserve">1.27629148960114</t>
@@ -329,13 +329,13 @@
     <t xml:space="preserve">1.34121370315552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31371748447418</t>
+    <t xml:space="preserve">1.31371736526489</t>
   </si>
   <si>
     <t xml:space="preserve">1.36412751674652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35572576522827</t>
+    <t xml:space="preserve">1.35572564601898</t>
   </si>
   <si>
     <t xml:space="preserve">1.38093078136444</t>
@@ -344,64 +344,64 @@
     <t xml:space="preserve">1.3740565776825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38551330566406</t>
+    <t xml:space="preserve">1.38551342487335</t>
   </si>
   <si>
     <t xml:space="preserve">1.36030828952789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37329280376434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3755841255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35419809818268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954463481903</t>
+    <t xml:space="preserve">1.37329268455505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558424472809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35419797897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954451560974</t>
   </si>
   <si>
     <t xml:space="preserve">1.35648941993713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34503281116486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3519070148468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35725331306458</t>
+    <t xml:space="preserve">1.34503293037415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35190689563751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35725319385529</t>
   </si>
   <si>
     <t xml:space="preserve">1.35496187210083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34961557388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885168075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35801708698273</t>
+    <t xml:space="preserve">1.34961545467377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34885156154633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35801720619202</t>
   </si>
   <si>
     <t xml:space="preserve">1.36259984970093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3244104385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288265228271</t>
+    <t xml:space="preserve">1.32441031932831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.322882771492</t>
   </si>
   <si>
     <t xml:space="preserve">1.30226039886475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30989849567413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32059156894684</t>
+    <t xml:space="preserve">1.30989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32059144973755</t>
   </si>
   <si>
     <t xml:space="preserve">1.33586716651917</t>
@@ -413,10 +413,10 @@
     <t xml:space="preserve">1.30455195903778</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29462254047394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30073297023773</t>
+    <t xml:space="preserve">1.29462242126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30073308944702</t>
   </si>
   <si>
     <t xml:space="preserve">1.29844152927399</t>
@@ -431,37 +431,37 @@
     <t xml:space="preserve">1.29615008831024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28545701503754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26254367828369</t>
+    <t xml:space="preserve">1.28545713424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26254343986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.26407098770142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2717090845108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26789009571075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24192106723785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2335193157196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26712620258331</t>
+    <t xml:space="preserve">1.27170896530151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26788997650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24192118644714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23351943492889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2671263217926</t>
   </si>
   <si>
     <t xml:space="preserve">1.24497628211975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2487952709198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27323639392853</t>
+    <t xml:space="preserve">1.24879515171051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27323651313782</t>
   </si>
   <si>
     <t xml:space="preserve">1.26941764354706</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">1.35114300251007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35343432426453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36718249320984</t>
+    <t xml:space="preserve">1.35343420505524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36718261241913</t>
   </si>
   <si>
     <t xml:space="preserve">1.3832221031189</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">1.39926171302795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39162373542786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39238774776459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39009630680084</t>
+    <t xml:space="preserve">1.39162361621857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39238750934601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39009642601013</t>
   </si>
   <si>
     <t xml:space="preserve">1.39697051048279</t>
@@ -509,28 +509,28 @@
     <t xml:space="preserve">1.40537190437317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40078926086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39849781990051</t>
+    <t xml:space="preserve">1.40078914165497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3984979391098</t>
   </si>
   <si>
     <t xml:space="preserve">1.3847496509552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3786393404007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40460824966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42064797878265</t>
+    <t xml:space="preserve">1.37863922119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40460813045502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42064785957336</t>
   </si>
   <si>
     <t xml:space="preserve">1.41988396644592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39086008071899</t>
+    <t xml:space="preserve">1.3908599615097</t>
   </si>
   <si>
     <t xml:space="preserve">1.40842723846436</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">1.40231692790985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40384423732758</t>
+    <t xml:space="preserve">1.40384435653687</t>
   </si>
   <si>
     <t xml:space="preserve">1.38704097270966</t>
@@ -551,49 +551,49 @@
     <t xml:space="preserve">1.42293894290924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42752194404602</t>
+    <t xml:space="preserve">1.42752182483673</t>
   </si>
   <si>
     <t xml:space="preserve">1.43668723106384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44279778003693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45883727073669</t>
+    <t xml:space="preserve">1.44279766082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4588371515274</t>
   </si>
   <si>
     <t xml:space="preserve">1.47411286830902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4680027961731</t>
+    <t xml:space="preserve">1.46800267696381</t>
   </si>
   <si>
     <t xml:space="preserve">1.4695303440094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47029411792755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46418392658234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45349085330963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42904937267303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43897891044617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44967198371887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265625953674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812966823578</t>
+    <t xml:space="preserve">1.47029423713684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46418380737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45349061489105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42904949188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43897867202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44967174530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46265602111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812978744507</t>
   </si>
   <si>
     <t xml:space="preserve">1.540562748909</t>
@@ -605,10 +605,10 @@
     <t xml:space="preserve">1.55660212039948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56882297992706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5313972234726</t>
+    <t xml:space="preserve">1.56882309913635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53139734268188</t>
   </si>
   <si>
     <t xml:space="preserve">1.52223181724548</t>
@@ -617,37 +617,37 @@
     <t xml:space="preserve">1.54361772537231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56042122840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55583834648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55278325080872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59402799606323</t>
+    <t xml:space="preserve">1.56042110919952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55583846569061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55278313159943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59402787685394</t>
   </si>
   <si>
     <t xml:space="preserve">1.57569682598114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59937429428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5963191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59861075878143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59479153156281</t>
+    <t xml:space="preserve">1.5993744134903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59631931781769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59861063957214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59479165077209</t>
   </si>
   <si>
     <t xml:space="preserve">1.58104360103607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56500387191772</t>
+    <t xml:space="preserve">1.5650041103363</t>
   </si>
   <si>
     <t xml:space="preserve">1.56347632408142</t>
@@ -665,46 +665,46 @@
     <t xml:space="preserve">1.52757823467255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51841270923615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54972815513611</t>
+    <t xml:space="preserve">1.51841282844543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5497282743454</t>
   </si>
   <si>
     <t xml:space="preserve">1.58715379238129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60472095012665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131211280823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70237553119659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70551776885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72044408321381</t>
+    <t xml:space="preserve">1.60472106933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131223201752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70237529277802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70551788806915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72044432163239</t>
   </si>
   <si>
     <t xml:space="preserve">1.70708906650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73929822444916</t>
+    <t xml:space="preserve">1.73929810523987</t>
   </si>
   <si>
     <t xml:space="preserve">1.73537027835846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73379898071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84613883495331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88698935508728</t>
+    <t xml:space="preserve">1.73379909992218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84613859653473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88698923587799</t>
   </si>
   <si>
     <t xml:space="preserve">1.92469787597656</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10145592689514</t>
+    <t xml:space="preserve">2.10145568847656</t>
   </si>
   <si>
     <t xml:space="preserve">2.03860831260681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06846117973328</t>
+    <t xml:space="preserve">2.0684609413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.01425504684448</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">1.98597395420074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98754525184631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99540066719055</t>
+    <t xml:space="preserve">1.98754513263702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99540090560913</t>
   </si>
   <si>
     <t xml:space="preserve">2.01975417137146</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">1.99932897090912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96319174766541</t>
+    <t xml:space="preserve">1.96319162845612</t>
   </si>
   <si>
     <t xml:space="preserve">2.01268410682678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00561356544495</t>
+    <t xml:space="preserve">2.00561332702637</t>
   </si>
   <si>
     <t xml:space="preserve">2.00954174995422</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">2.02525353431702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01032710075378</t>
+    <t xml:space="preserve">2.01032686233521</t>
   </si>
   <si>
     <t xml:space="preserve">1.98675966262817</t>
@@ -776,28 +776,28 @@
     <t xml:space="preserve">2.00247120857239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0166118144989</t>
+    <t xml:space="preserve">2.01661205291748</t>
   </si>
   <si>
     <t xml:space="preserve">2.028395652771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99382984638214</t>
+    <t xml:space="preserve">1.99382972717285</t>
   </si>
   <si>
     <t xml:space="preserve">1.97261869907379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99068748950958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97968912124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97733235359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.959263920784</t>
+    <t xml:space="preserve">1.99068737030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97968924045563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97733223438263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95926380157471</t>
   </si>
   <si>
     <t xml:space="preserve">1.94119513034821</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">1.84535312652588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87284874916077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88620364665985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91055703163147</t>
+    <t xml:space="preserve">1.87284886837006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88620376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91055715084076</t>
   </si>
   <si>
     <t xml:space="preserve">1.92941105365753</t>
@@ -827,19 +827,19 @@
     <t xml:space="preserve">1.90505814552307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88934624195099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90584397315979</t>
+    <t xml:space="preserve">1.88934636116028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9058438539505</t>
   </si>
   <si>
     <t xml:space="preserve">1.91605615615845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91919875144958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9333393573761</t>
+    <t xml:space="preserve">1.91919887065887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93333947658539</t>
   </si>
   <si>
     <t xml:space="preserve">1.90112996101379</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">1.91762733459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98047459125519</t>
+    <t xml:space="preserve">1.98047471046448</t>
   </si>
   <si>
     <t xml:space="preserve">1.99618661403656</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">2.05981922149658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05746269226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01504063606262</t>
+    <t xml:space="preserve">2.05746293067932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0150408744812</t>
   </si>
   <si>
     <t xml:space="preserve">2.02053999900818</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">2.00482821464539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97026216983795</t>
+    <t xml:space="preserve">1.97026205062866</t>
   </si>
   <si>
     <t xml:space="preserve">1.96947634220123</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">1.97811782360077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97576129436493</t>
+    <t xml:space="preserve">1.97576141357422</t>
   </si>
   <si>
     <t xml:space="preserve">1.95062208175659</t>
@@ -899,34 +899,34 @@
     <t xml:space="preserve">1.93805301189423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93255388736725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826531410217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96711981296539</t>
+    <t xml:space="preserve">1.93255376815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826519489288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96711993217468</t>
   </si>
   <si>
     <t xml:space="preserve">1.95376467704773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95219349861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94276630878448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96397733688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9490510225296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95533573627472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94669437408447</t>
+    <t xml:space="preserve">1.95219326019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94276642799377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96397757530212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94905114173889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95533585548401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94669449329376</t>
   </si>
   <si>
     <t xml:space="preserve">1.92548334598541</t>
@@ -938,10 +938,10 @@
     <t xml:space="preserve">1.92784023284912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92312657833099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8972020149231</t>
+    <t xml:space="preserve">1.92312669754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89720189571381</t>
   </si>
   <si>
     <t xml:space="preserve">1.9034868478775</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">1.8932740688324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91527080535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91212809085846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90191555023193</t>
+    <t xml:space="preserve">1.91527044773102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91212821006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90191566944122</t>
   </si>
   <si>
     <t xml:space="preserve">1.9309823513031</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">2.06610417366028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05039238929749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03153848648071</t>
+    <t xml:space="preserve">2.05039215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03153824806213</t>
   </si>
   <si>
     <t xml:space="preserve">2.05667686462402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05353474617004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04803586006165</t>
+    <t xml:space="preserve">2.05353450775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04803562164307</t>
   </si>
   <si>
     <t xml:space="preserve">2.19494104385376</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">2.05196356773376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08574390411377</t>
+    <t xml:space="preserve">2.08574414253235</t>
   </si>
   <si>
     <t xml:space="preserve">2.05117774009705</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">2.15251898765564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16587424278259</t>
+    <t xml:space="preserve">2.16587400436401</t>
   </si>
   <si>
     <t xml:space="preserve">2.17215895652771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17294454574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17687225341797</t>
+    <t xml:space="preserve">2.17294478416443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17687249183655</t>
   </si>
   <si>
     <t xml:space="preserve">2.16823101043701</t>
@@ -1070,31 +1070,31 @@
     <t xml:space="preserve">2.20358228683472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19179892539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17765808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16037487983704</t>
+    <t xml:space="preserve">2.1917986869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17765784263611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16037511825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.15016269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14937686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14859127998352</t>
+    <t xml:space="preserve">2.14937663078308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14859104156494</t>
   </si>
   <si>
     <t xml:space="preserve">2.16665983200073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17451548576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19572639465332</t>
+    <t xml:space="preserve">2.17451572418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1957266330719</t>
   </si>
   <si>
     <t xml:space="preserve">2.17608690261841</t>
@@ -1118,28 +1118,28 @@
     <t xml:space="preserve">2.30178117752075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3174934387207</t>
+    <t xml:space="preserve">2.31749320030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.41176414489746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46675539016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41962003707886</t>
+    <t xml:space="preserve">2.46675562858582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41961979866028</t>
   </si>
   <si>
     <t xml:space="preserve">2.43533205986023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47461128234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42747592926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38819646835327</t>
+    <t xml:space="preserve">2.47461152076721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42747569084167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38819622993469</t>
   </si>
   <si>
     <t xml:space="preserve">2.36462879180908</t>
@@ -1151,28 +1151,28 @@
     <t xml:space="preserve">2.40390825271606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39605236053467</t>
+    <t xml:space="preserve">2.39605259895325</t>
   </si>
   <si>
     <t xml:space="preserve">2.35677289962769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29392528533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27821350097656</t>
+    <t xml:space="preserve">2.29392552375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27821373939514</t>
   </si>
   <si>
     <t xml:space="preserve">2.54531455039978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49032306671143</t>
+    <t xml:space="preserve">2.49032330513</t>
   </si>
   <si>
     <t xml:space="preserve">2.66315340995789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65529727935791</t>
+    <t xml:space="preserve">2.65529751777649</t>
   </si>
   <si>
     <t xml:space="preserve">2.73385643959045</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">2.60030579566956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57673859596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50603485107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53745865821838</t>
+    <t xml:space="preserve">2.57673835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5060350894928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53745889663696</t>
   </si>
   <si>
     <t xml:space="preserve">2.58459424972534</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">2.55317044258118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51389098167419</t>
+    <t xml:space="preserve">2.51389074325562</t>
   </si>
   <si>
     <t xml:space="preserve">2.59244990348816</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">2.52174687385559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61601805686951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63958525657654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68816685676575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70436072349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69626379013062</t>
+    <t xml:space="preserve">2.61601781845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63958549499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68816661834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7043604850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69626355171204</t>
   </si>
   <si>
     <t xml:space="preserve">2.67197299003601</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">2.63148880004883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65577936172485</t>
+    <t xml:space="preserve">2.65577912330627</t>
   </si>
   <si>
     <t xml:space="preserve">2.59100413322449</t>
@@ -1268,16 +1268,16 @@
     <t xml:space="preserve">2.29951643943787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29141902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31571006774902</t>
+    <t xml:space="preserve">2.29141926765442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3157103061676</t>
   </si>
   <si>
     <t xml:space="preserve">2.33190369606018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35619425773621</t>
+    <t xml:space="preserve">2.35619449615479</t>
   </si>
   <si>
     <t xml:space="preserve">2.26712870597839</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">2.28332233428955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34809756278992</t>
+    <t xml:space="preserve">2.3480978012085</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854734420776</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">2.18615984916687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17806315422058</t>
+    <t xml:space="preserve">2.178062915802</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996574401855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16186904907227</t>
+    <t xml:space="preserve">2.16186928749084</t>
   </si>
   <si>
     <t xml:space="preserve">2.12948155403137</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25903153419495</t>
+    <t xml:space="preserve">2.25903177261353</t>
   </si>
   <si>
     <t xml:space="preserve">2.24283814430237</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">2.12138485908508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10519099235535</t>
+    <t xml:space="preserve">2.10519075393677</t>
   </si>
   <si>
     <t xml:space="preserve">2.11328792572021</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">2.09709405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05660939216614</t>
+    <t xml:space="preserve">2.05660963058472</t>
   </si>
   <si>
     <t xml:space="preserve">2.04851269721985</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">1.96754384040833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95944702625275</t>
+    <t xml:space="preserve">1.95944690704346</t>
   </si>
   <si>
     <t xml:space="preserve">1.93515634536743</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">1.87038111686707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9189624786377</t>
+    <t xml:space="preserve">1.91896235942841</t>
   </si>
   <si>
     <t xml:space="preserve">1.91086578369141</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">2.06470656394958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08090019226074</t>
+    <t xml:space="preserve">2.08090043067932</t>
   </si>
   <si>
     <t xml:space="preserve">2.00802803039551</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">1.8298966884613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85418725013733</t>
+    <t xml:space="preserve">1.85418736934662</t>
   </si>
   <si>
     <t xml:space="preserve">1.82179987430573</t>
@@ -1415,31 +1415,31 @@
     <t xml:space="preserve">1.90276861190796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97564053535461</t>
+    <t xml:space="preserve">1.97564077377319</t>
   </si>
   <si>
     <t xml:space="preserve">1.99993133544922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30761289596558</t>
+    <t xml:space="preserve">2.30761313438416</t>
   </si>
   <si>
     <t xml:space="preserve">2.20235395431519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14567542076111</t>
+    <t xml:space="preserve">2.14567518234253</t>
   </si>
   <si>
     <t xml:space="preserve">2.36429142951965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34000062942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45335698127747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42096948623657</t>
+    <t xml:space="preserve">2.34000086784363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45335721969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42096972465515</t>
   </si>
   <si>
     <t xml:space="preserve">2.43716359138489</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">2.51003551483154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48574495315552</t>
+    <t xml:space="preserve">2.48574471473694</t>
   </si>
   <si>
     <t xml:space="preserve">2.49384164810181</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51813197135925</t>
+    <t xml:space="preserve">2.51813220977783</t>
   </si>
   <si>
     <t xml:space="preserve">2.52622938156128</t>
@@ -1469,13 +1469,13 @@
     <t xml:space="preserve">2.4695508480072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4452600479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47764778137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55861687660217</t>
+    <t xml:space="preserve">2.44526028633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47764801979065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55861663818359</t>
   </si>
   <si>
     <t xml:space="preserve">2.5829074382782</t>
@@ -1493,40 +1493,40 @@
     <t xml:space="preserve">2.60449051856995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54510474205017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56207227706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5875232219696</t>
+    <t xml:space="preserve">2.54510450363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56207203865051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58752298355103</t>
   </si>
   <si>
     <t xml:space="preserve">2.5960066318512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6129744052887</t>
+    <t xml:space="preserve">2.61297416687012</t>
   </si>
   <si>
     <t xml:space="preserve">2.51116991043091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53662085533142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52813696861267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46875166893005</t>
+    <t xml:space="preserve">2.53662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52813720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46875143051147</t>
   </si>
   <si>
     <t xml:space="preserve">2.49420261383057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38391470909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37543106079102</t>
+    <t xml:space="preserve">2.38391494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37543082237244</t>
   </si>
   <si>
     <t xml:space="preserve">2.32452893257141</t>
@@ -1535,22 +1535,22 @@
     <t xml:space="preserve">2.33301281929016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34998035430908</t>
+    <t xml:space="preserve">2.3499801158905</t>
   </si>
   <si>
     <t xml:space="preserve">2.36694741249084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4602677822113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42633318901062</t>
+    <t xml:space="preserve">2.46026802062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4263334274292</t>
   </si>
   <si>
     <t xml:space="preserve">2.44330048561096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47723531723022</t>
+    <t xml:space="preserve">2.4772355556488</t>
   </si>
   <si>
     <t xml:space="preserve">2.57055568695068</t>
@@ -1559,31 +1559,31 @@
     <t xml:space="preserve">2.62145781517029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842535018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64690899848938</t>
+    <t xml:space="preserve">2.63842511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64690923690796</t>
   </si>
   <si>
     <t xml:space="preserve">2.69781088829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70629477500916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67235970497131</t>
+    <t xml:space="preserve">2.70629501342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67235994338989</t>
   </si>
   <si>
     <t xml:space="preserve">2.71477818489075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72326183319092</t>
+    <t xml:space="preserve">2.7232620716095</t>
   </si>
   <si>
     <t xml:space="preserve">2.68084359169006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68932747840881</t>
+    <t xml:space="preserve">2.68932723999023</t>
   </si>
   <si>
     <t xml:space="preserve">2.66387629508972</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">2.43481683731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45178389549255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50268626213074</t>
+    <t xml:space="preserve">2.45178413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50268650054932</t>
   </si>
   <si>
     <t xml:space="preserve">2.57903933525085</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">2.4857189655304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39239859580994</t>
+    <t xml:space="preserve">2.39239835739136</t>
   </si>
   <si>
     <t xml:space="preserve">2.40936589241028</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">2.40088200569153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20575761795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28211045265198</t>
+    <t xml:space="preserve">2.20575737953186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28211069107056</t>
   </si>
   <si>
     <t xml:space="preserve">2.22272491455078</t>
@@ -1634,13 +1634,13 @@
     <t xml:space="preserve">2.19727373123169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424102783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13788795471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97669792175293</t>
+    <t xml:space="preserve">2.21424126625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13788819313049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97669780254364</t>
   </si>
   <si>
     <t xml:space="preserve">1.73067116737366</t>
@@ -1652,28 +1652,28 @@
     <t xml:space="preserve">1.69673645496368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53554654121399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56948137283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57796502113342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68401098251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62462508678436</t>
+    <t xml:space="preserve">1.5355464220047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56948125362396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57796490192413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68401086330414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62462520599365</t>
   </si>
   <si>
     <t xml:space="preserve">1.61614143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59917414188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5609974861145</t>
+    <t xml:space="preserve">1.59917426109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56099760532379</t>
   </si>
   <si>
     <t xml:space="preserve">1.65431809425354</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">1.67128551006317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64159262180328</t>
+    <t xml:space="preserve">1.64159250259399</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886703014374</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">1.76460587978363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67552733421326</t>
+    <t xml:space="preserve">1.67552721500397</t>
   </si>
   <si>
     <t xml:space="preserve">1.69249475002289</t>
@@ -1721,16 +1721,16 @@
     <t xml:space="preserve">1.84095919132233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80702435970306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79005706310272</t>
+    <t xml:space="preserve">1.80702447891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79005694389343</t>
   </si>
   <si>
     <t xml:space="preserve">1.7730895280838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7221873998642</t>
+    <t xml:space="preserve">1.72218763828278</t>
   </si>
   <si>
     <t xml:space="preserve">1.8239917755127</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">1.84944260120392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86641001701355</t>
+    <t xml:space="preserve">1.86640989780426</t>
   </si>
   <si>
     <t xml:space="preserve">1.90034472942352</t>
@@ -1751,52 +1751,52 @@
     <t xml:space="preserve">1.95973062515259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90882861614227</t>
+    <t xml:space="preserve">1.90882849693298</t>
   </si>
   <si>
     <t xml:space="preserve">1.88337755203247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89186120033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87489402294159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792636871338</t>
+    <t xml:space="preserve">1.89186131954193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8748939037323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792660713196</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81550800800323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75612223148346</t>
+    <t xml:space="preserve">1.81550788879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75612211227417</t>
   </si>
   <si>
     <t xml:space="preserve">1.67976915836334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7137039899826</t>
+    <t xml:space="preserve">1.71370387077332</t>
   </si>
   <si>
     <t xml:space="preserve">1.64583444595337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59493231773376</t>
+    <t xml:space="preserve">1.59493219852448</t>
   </si>
   <si>
     <t xml:space="preserve">1.60341596603394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56523931026459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55251371860504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54827201366425</t>
+    <t xml:space="preserve">1.56523942947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55251383781433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54827213287354</t>
   </si>
   <si>
     <t xml:space="preserve">1.49312818050385</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">1.48464441299438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47191894054413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46767687797546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49737000465393</t>
+    <t xml:space="preserve">1.47191882133484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46767699718475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49736988544464</t>
   </si>
   <si>
     <t xml:space="preserve">1.47616076469421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42525863647461</t>
+    <t xml:space="preserve">1.42525851726532</t>
   </si>
   <si>
     <t xml:space="preserve">1.39132392406464</t>
@@ -1829,22 +1829,22 @@
     <t xml:space="preserve">1.41677498817444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36163091659546</t>
+    <t xml:space="preserve">1.36163103580475</t>
   </si>
   <si>
     <t xml:space="preserve">1.3489054441452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36587285995483</t>
+    <t xml:space="preserve">1.36587297916412</t>
   </si>
   <si>
     <t xml:space="preserve">1.39556586742401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38284015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40829122066498</t>
+    <t xml:space="preserve">1.38284003734589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40829133987427</t>
   </si>
   <si>
     <t xml:space="preserve">1.43374228477478</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">1.45919346809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46343517303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44646763801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45070970058441</t>
+    <t xml:space="preserve">1.46343529224396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44646775722504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4507098197937</t>
   </si>
   <si>
     <t xml:space="preserve">1.43798422813416</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">1.53130459785461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58644866943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038338184357</t>
+    <t xml:space="preserve">1.58644878864288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038326263428</t>
   </si>
   <si>
     <t xml:space="preserve">1.61189961433411</t>
@@ -1886,13 +1886,13 @@
     <t xml:space="preserve">1.59069049358368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57372319698334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58220684528351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6076580286026</t>
+    <t xml:space="preserve">1.57372307777405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58220672607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60765790939331</t>
   </si>
   <si>
     <t xml:space="preserve">1.54403018951416</t>
@@ -1901,31 +1901,31 @@
     <t xml:space="preserve">1.95124697685242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03608393669128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16333889961243</t>
+    <t xml:space="preserve">2.03608369827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16333913803101</t>
   </si>
   <si>
     <t xml:space="preserve">2.35846376419067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34149646759033</t>
+    <t xml:space="preserve">2.34149622917175</t>
   </si>
   <si>
     <t xml:space="preserve">2.27362680435181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23969197273254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14637160301208</t>
+    <t xml:space="preserve">2.23969221115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14637136459351</t>
   </si>
   <si>
     <t xml:space="preserve">2.23120832443237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30756139755249</t>
+    <t xml:space="preserve">2.30756187438965</t>
   </si>
   <si>
     <t xml:space="preserve">2.30756163597107</t>
@@ -1940,13 +1940,13 @@
     <t xml:space="preserve">2.34213185310364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35077428817749</t>
+    <t xml:space="preserve">2.35077452659607</t>
   </si>
   <si>
     <t xml:space="preserve">2.29891920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32484674453735</t>
+    <t xml:space="preserve">2.32484698295593</t>
   </si>
   <si>
     <t xml:space="preserve">2.29027652740479</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">2.27299118041992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44584250450134</t>
+    <t xml:space="preserve">2.44584226608276</t>
   </si>
   <si>
     <t xml:space="preserve">2.46312761306763</t>
@@ -1973,25 +1973,25 @@
     <t xml:space="preserve">2.5581955909729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58412313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59276604652405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60140872001648</t>
+    <t xml:space="preserve">2.58412337303162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59276580810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
     <t xml:space="preserve">2.52362561225891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49769759178162</t>
+    <t xml:space="preserve">2.4976978302002</t>
   </si>
   <si>
     <t xml:space="preserve">2.48041272163391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54955315589905</t>
+    <t xml:space="preserve">2.54955339431763</t>
   </si>
   <si>
     <t xml:space="preserve">2.54091048240662</t>
@@ -2018,19 +2018,19 @@
     <t xml:space="preserve">2.45448517799377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39398741722107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38534474372864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37670230865479</t>
+    <t xml:space="preserve">2.39398717880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38534450531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37670207023621</t>
   </si>
   <si>
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113633155823</t>
+    <t xml:space="preserve">2.22113609313965</t>
   </si>
   <si>
     <t xml:space="preserve">2.22977876663208</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">2.51498293876648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57548046112061</t>
+    <t xml:space="preserve">2.57548069953918</t>
   </si>
   <si>
     <t xml:space="preserve">2.61005115509033</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">2.63597869873047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61869359016418</t>
+    <t xml:space="preserve">2.61869335174561</t>
   </si>
   <si>
     <t xml:space="preserve">2.73968935012817</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">2.83475732803345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81747221946716</t>
+    <t xml:space="preserve">2.81747198104858</t>
   </si>
   <si>
     <t xml:space="preserve">2.93846797943115</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">3.38788080215454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37923789024353</t>
+    <t xml:space="preserve">3.37923812866211</t>
   </si>
   <si>
     <t xml:space="preserve">3.37059569358826</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">3.35331058502197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32738280296326</t>
+    <t xml:space="preserve">3.32738304138184</t>
   </si>
   <si>
     <t xml:space="preserve">3.28417015075684</t>
@@ -2141,25 +2141,25 @@
     <t xml:space="preserve">3.24095749855042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27552795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22367238998413</t>
+    <t xml:space="preserve">3.27552771568298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22367215156555</t>
   </si>
   <si>
     <t xml:space="preserve">3.20638728141785</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24959993362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21502995491028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19774484634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39652299880981</t>
+    <t xml:space="preserve">3.24959969520569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2150297164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19774460792542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39652323722839</t>
   </si>
   <si>
     <t xml:space="preserve">3.23231506347656</t>
@@ -2168,19 +2168,19 @@
     <t xml:space="preserve">3.06810641288757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15453171730042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18045926094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18910193443298</t>
+    <t xml:space="preserve">3.15453195571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18045949935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
     <t xml:space="preserve">3.29281258583069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1718168258667</t>
+    <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
     <t xml:space="preserve">3.11996150016785</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">3.42245101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41380858421326</t>
+    <t xml:space="preserve">3.41380834579468</t>
   </si>
   <si>
     <t xml:space="preserve">3.43973612785339</t>
@@ -2210,16 +2210,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4607105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264163970947</t>
+    <t xml:space="preserve">4.46071004867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264116287231</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760808944702</t>
+    <t xml:space="preserve">4.84760856628418</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450660705566</t>
+    <t xml:space="preserve">5.23450708389282</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278301239014</t>
+    <t xml:space="preserve">5.30278253555298</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2261,19 +2261,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07657957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.871750831604</t>
+    <t xml:space="preserve">6.07658004760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87175130844116</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071594238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968152999878</t>
+    <t xml:space="preserve">5.78071641921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968105316162</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312919616699</t>
+    <t xml:space="preserve">5.55312871932983</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348079681396</t>
+    <t xml:space="preserve">7.12348031997681</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2306,10 +2306,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796335220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244590759277</t>
+    <t xml:space="preserve">7.07796382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244638442993</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175449371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.53175401687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60003042221069</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485868453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55451250076294</t>
+    <t xml:space="preserve">6.80485916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5545129776001</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382745742798</t>
+    <t xml:space="preserve">7.37382698059082</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2363,10 +2363,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486553192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900508880615</t>
+    <t xml:space="preserve">8.12486457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900413513184</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.651083946228</t>
+    <t xml:space="preserve">10.6510829925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -2787,6 +2787,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.71000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71499991416931</t>
   </si>
 </sst>
 </file>
@@ -59808,7 +59811,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.6115856481</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>812</v>
@@ -59829,6 +59832,32 @@
         <v>912</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6496412037</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>2.73499989509583</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>2.67000007629395</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>2.68499994277954</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>2.71499991416931</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>925</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -38,70 +38,70 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30048549175262</t>
+    <t xml:space="preserve">1.30048561096191</t>
   </si>
   <si>
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973948001862</t>
+    <t xml:space="preserve">1.29973936080933</t>
   </si>
   <si>
     <t xml:space="preserve">1.29750108718872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27586364746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26840245723724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27511739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26765620708466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003989696503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26616394519806</t>
+    <t xml:space="preserve">1.27586352825165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26840221881866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27511751651764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26765632629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29004001617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26616406440735</t>
   </si>
   <si>
     <t xml:space="preserve">1.25944888591766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25347983837128</t>
+    <t xml:space="preserve">1.25347995758057</t>
   </si>
   <si>
     <t xml:space="preserve">1.25273406505585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21766626834869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676489830017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3116774559021</t>
+    <t xml:space="preserve">1.21766638755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24676477909088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31167721748352</t>
   </si>
   <si>
     <t xml:space="preserve">1.30496215820312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30123174190521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30570840835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3198846578598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28929376602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27884805202484</t>
+    <t xml:space="preserve">1.30123150348663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30570816993713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31988477706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28929364681244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27884793281555</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317954063416</t>
@@ -116,19 +116,19 @@
     <t xml:space="preserve">1.28034031391144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25721049308777</t>
+    <t xml:space="preserve">1.25721073150635</t>
   </si>
   <si>
     <t xml:space="preserve">1.31316959857941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32063090801239</t>
+    <t xml:space="preserve">1.3206307888031</t>
   </si>
   <si>
     <t xml:space="preserve">1.31391572952271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3243613243103</t>
+    <t xml:space="preserve">1.32436108589172</t>
   </si>
   <si>
     <t xml:space="preserve">1.26989459991455</t>
@@ -137,16 +137,16 @@
     <t xml:space="preserve">1.28183245658875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3295841217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32212293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32809197902679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32734596729279</t>
+    <t xml:space="preserve">1.32958424091339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32212281227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32809174060822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3273458480835</t>
   </si>
   <si>
     <t xml:space="preserve">1.33480703830719</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">1.32286906242371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31018507480621</t>
+    <t xml:space="preserve">1.31018495559692</t>
   </si>
   <si>
     <t xml:space="preserve">1.31764614582062</t>
@@ -167,25 +167,25 @@
     <t xml:space="preserve">1.30347001552582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29675483703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078590869904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28854751586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28780150413513</t>
+    <t xml:space="preserve">1.29675471782684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078602790833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28854775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28780138492584</t>
   </si>
   <si>
     <t xml:space="preserve">1.30684328079224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3167724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32364654541016</t>
+    <t xml:space="preserve">1.31677234172821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32364666461945</t>
   </si>
   <si>
     <t xml:space="preserve">1.33433961868286</t>
@@ -194,16 +194,16 @@
     <t xml:space="preserve">1.33204817771912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32975697517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3305207490921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31830012798309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32670187950134</t>
+    <t xml:space="preserve">1.32975685596466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33052062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3183000087738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32670176029205</t>
   </si>
   <si>
     <t xml:space="preserve">1.32211887836456</t>
@@ -212,61 +212,61 @@
     <t xml:space="preserve">1.34044992923737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33663105964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33510339260101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32899296283722</t>
+    <t xml:space="preserve">1.33663082122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33510327339172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32899308204651</t>
   </si>
   <si>
     <t xml:space="preserve">1.32822930812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32135510444641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33815860748291</t>
+    <t xml:space="preserve">1.3213552236557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33815848827362</t>
   </si>
   <si>
     <t xml:space="preserve">1.34426891803741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34350490570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33892250061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31906390190125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29538631439209</t>
+    <t xml:space="preserve">1.34350514411926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33892238140106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31906402111053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2953861951828</t>
   </si>
   <si>
     <t xml:space="preserve">1.29767775535583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28316557407379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28851234912872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011059761047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25948810577393</t>
+    <t xml:space="preserve">1.28316569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851246833801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011047840118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25948822498322</t>
   </si>
   <si>
     <t xml:space="preserve">1.26025199890137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23733854293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22970032691956</t>
+    <t xml:space="preserve">1.23733842372894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22970056533813</t>
   </si>
   <si>
     <t xml:space="preserve">1.23962962627411</t>
@@ -284,28 +284,28 @@
     <t xml:space="preserve">1.2411572933197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27552795410156</t>
+    <t xml:space="preserve">1.27552783489227</t>
   </si>
   <si>
     <t xml:space="preserve">1.27476406097412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29385888576508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29309511184692</t>
+    <t xml:space="preserve">1.2938586473465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29309499263763</t>
   </si>
   <si>
     <t xml:space="preserve">1.29233121871948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28927612304688</t>
+    <t xml:space="preserve">1.28927600383759</t>
   </si>
   <si>
     <t xml:space="preserve">1.25872445106506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28469336032867</t>
+    <t xml:space="preserve">1.28469324111938</t>
   </si>
   <si>
     <t xml:space="preserve">1.24955904483795</t>
@@ -314,52 +314,52 @@
     <t xml:space="preserve">1.27018117904663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27629160881042</t>
+    <t xml:space="preserve">1.27629148960114</t>
   </si>
   <si>
     <t xml:space="preserve">1.28698480129242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28622090816498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28240191936493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34121370315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31371736526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36412751674652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572576522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38093078136444</t>
+    <t xml:space="preserve">1.28622078895569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28240215778351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34121358394623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3137172460556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36412727832794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572552680969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38093066215515</t>
   </si>
   <si>
     <t xml:space="preserve">1.3740565776825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38551342487335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36030852794647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37329292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3755841255188</t>
+    <t xml:space="preserve">1.38551330566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36030828952789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37329280376434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558424472809</t>
   </si>
   <si>
     <t xml:space="preserve">1.35419809818268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35954463481903</t>
+    <t xml:space="preserve">1.35954451560974</t>
   </si>
   <si>
     <t xml:space="preserve">1.35648953914642</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">1.35190689563751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35725343227386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35496187210083</t>
+    <t xml:space="preserve">1.35725331306458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35496175289154</t>
   </si>
   <si>
     <t xml:space="preserve">1.34961545467377</t>
@@ -383,25 +383,25 @@
     <t xml:space="preserve">1.34885156154633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35801720619202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36259973049164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3244104385376</t>
+    <t xml:space="preserve">1.35801708698273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36259984970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32441020011902</t>
   </si>
   <si>
     <t xml:space="preserve">1.32288265228271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30226027965546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30989825725555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32059144973755</t>
+    <t xml:space="preserve">1.30226039886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30989849567413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32059156894684</t>
   </si>
   <si>
     <t xml:space="preserve">1.33586716651917</t>
@@ -410,31 +410,31 @@
     <t xml:space="preserve">1.31295347213745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30455195903778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29462265968323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30073285102844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29844164848328</t>
+    <t xml:space="preserve">1.3045517206192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29462254047394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30073297023773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2984414100647</t>
   </si>
   <si>
     <t xml:space="preserve">1.29003977775574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29080355167389</t>
+    <t xml:space="preserve">1.2908034324646</t>
   </si>
   <si>
     <t xml:space="preserve">1.29615020751953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28545725345612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2625435590744</t>
+    <t xml:space="preserve">1.28545713424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26254343986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.26407098770142</t>
@@ -443,25 +443,25 @@
     <t xml:space="preserve">1.27170872688293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26789009571075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24192118644714</t>
+    <t xml:space="preserve">1.26788997650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24192106723785</t>
   </si>
   <si>
     <t xml:space="preserve">1.23351943492889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26712608337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24497628211975</t>
+    <t xml:space="preserve">1.26712620258331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24497616291046</t>
   </si>
   <si>
     <t xml:space="preserve">1.24879515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27323651313782</t>
+    <t xml:space="preserve">1.27323663234711</t>
   </si>
   <si>
     <t xml:space="preserve">1.26941752433777</t>
@@ -470,19 +470,19 @@
     <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33357560634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34197747707367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35114300251007</t>
+    <t xml:space="preserve">1.33357572555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34197759628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35114312171936</t>
   </si>
   <si>
     <t xml:space="preserve">1.35343420505524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36718249320984</t>
+    <t xml:space="preserve">1.36718237400055</t>
   </si>
   <si>
     <t xml:space="preserve">1.38322222232819</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">1.39926159381866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39162385463715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39238774776459</t>
+    <t xml:space="preserve">1.39162373542786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3923876285553</t>
   </si>
   <si>
     <t xml:space="preserve">1.39009630680084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39697027206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39773404598236</t>
+    <t xml:space="preserve">1.3969703912735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39773392677307</t>
   </si>
   <si>
     <t xml:space="preserve">1.40537190437317</t>
@@ -512,55 +512,55 @@
     <t xml:space="preserve">1.40078926086426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39849781990051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38474953174591</t>
+    <t xml:space="preserve">1.3984979391098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38474977016449</t>
   </si>
   <si>
     <t xml:space="preserve">1.3786393404007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40460813045502</t>
+    <t xml:space="preserve">1.40460824966431</t>
   </si>
   <si>
     <t xml:space="preserve">1.42064774036407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41988408565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39085984230042</t>
+    <t xml:space="preserve">1.41988396644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3908599615097</t>
   </si>
   <si>
     <t xml:space="preserve">1.40842723846436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39620661735535</t>
+    <t xml:space="preserve">1.39620649814606</t>
   </si>
   <si>
     <t xml:space="preserve">1.40231692790985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40384447574615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38704121112823</t>
+    <t xml:space="preserve">1.40384435653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38704109191895</t>
   </si>
   <si>
     <t xml:space="preserve">1.42293918132782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42752170562744</t>
+    <t xml:space="preserve">1.42752206325531</t>
   </si>
   <si>
     <t xml:space="preserve">1.43668723106384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44279754161835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4588371515274</t>
+    <t xml:space="preserve">1.44279766082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45883727073669</t>
   </si>
   <si>
     <t xml:space="preserve">1.47411286830902</t>
@@ -575,34 +575,34 @@
     <t xml:space="preserve">1.47029399871826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46418392658234</t>
+    <t xml:space="preserve">1.46418380737305</t>
   </si>
   <si>
     <t xml:space="preserve">1.45349085330963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42904937267303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43897879123688</t>
+    <t xml:space="preserve">1.42904925346375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4389785528183</t>
   </si>
   <si>
     <t xml:space="preserve">1.44967174530029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46265614032745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812978744507</t>
+    <t xml:space="preserve">1.46265625953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812966823578</t>
   </si>
   <si>
     <t xml:space="preserve">1.540562748909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54667294025421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55660247802734</t>
+    <t xml:space="preserve">1.54667317867279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55660223960876</t>
   </si>
   <si>
     <t xml:space="preserve">1.56882286071777</t>
@@ -614,79 +614,79 @@
     <t xml:space="preserve">1.52223169803619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5436178445816</t>
+    <t xml:space="preserve">1.54361772537231</t>
   </si>
   <si>
     <t xml:space="preserve">1.5604213476181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55583846569061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55278348922729</t>
+    <t xml:space="preserve">1.55583870410919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55278325080872</t>
   </si>
   <si>
     <t xml:space="preserve">1.59402799606323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57569706439972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59937465190887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59631931781769</t>
+    <t xml:space="preserve">1.57569682598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59937453269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5963191986084</t>
   </si>
   <si>
     <t xml:space="preserve">1.59861075878143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59479176998138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58104348182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56500387191772</t>
+    <t xml:space="preserve">1.59479165077209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58104360103607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56500399112701</t>
   </si>
   <si>
     <t xml:space="preserve">1.56347644329071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55049180984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53521621227264</t>
+    <t xml:space="preserve">1.55049192905426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53521609306335</t>
   </si>
   <si>
     <t xml:space="preserve">1.54896438121796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52757811546326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51841259002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54972815513611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58715403079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60472106933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131235122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70237565040588</t>
+    <t xml:space="preserve">1.52757835388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51841282844543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5497282743454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58715379238129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60472095012665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131211280823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70237553119659</t>
   </si>
   <si>
     <t xml:space="preserve">1.70551776885986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7204442024231</t>
+    <t xml:space="preserve">1.72044432163239</t>
   </si>
   <si>
     <t xml:space="preserve">1.70708906650543</t>
@@ -695,25 +695,25 @@
     <t xml:space="preserve">1.73929822444916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73537039756775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73379909992218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84613871574402</t>
+    <t xml:space="preserve">1.73537027835846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73379898071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84613847732544</t>
   </si>
   <si>
     <t xml:space="preserve">1.88698947429657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92469787597656</t>
+    <t xml:space="preserve">1.92469763755798</t>
   </si>
   <si>
     <t xml:space="preserve">2.00011444091797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08181595802307</t>
+    <t xml:space="preserve">2.08181571960449</t>
   </si>
   <si>
     <t xml:space="preserve">2.10145592689514</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">2.03860855102539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0684609413147</t>
+    <t xml:space="preserve">2.06846117973328</t>
   </si>
   <si>
     <t xml:space="preserve">2.01425504684448</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">1.98597395420074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98754465579987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99540078639984</t>
+    <t xml:space="preserve">1.98754513263702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99540102481842</t>
   </si>
   <si>
     <t xml:space="preserve">2.01975417137146</t>
@@ -746,19 +746,19 @@
     <t xml:space="preserve">2.00639939308167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99932897090912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96319162845612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01268410682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00561356544495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00954151153564</t>
+    <t xml:space="preserve">1.9993292093277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96319174766541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0126838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00561332702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00954127311707</t>
   </si>
   <si>
     <t xml:space="preserve">2.02525353431702</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">2.00325703620911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00247120857239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01661205291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.028395652771</t>
+    <t xml:space="preserve">2.00247144699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0166118144989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02839589118958</t>
   </si>
   <si>
     <t xml:space="preserve">1.99382984638214</t>
@@ -800,22 +800,22 @@
     <t xml:space="preserve">1.95926380157471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94119536876678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84770977497101</t>
+    <t xml:space="preserve">1.94119513034821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84771001338959</t>
   </si>
   <si>
     <t xml:space="preserve">1.87599098682404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84535300731659</t>
+    <t xml:space="preserve">1.8453528881073</t>
   </si>
   <si>
     <t xml:space="preserve">1.87284886837006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88620376586914</t>
+    <t xml:space="preserve">1.88620400428772</t>
   </si>
   <si>
     <t xml:space="preserve">1.91055715084076</t>
@@ -827,10 +827,10 @@
     <t xml:space="preserve">1.90505790710449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88934600353241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90584373474121</t>
+    <t xml:space="preserve">1.88934624195099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90584349632263</t>
   </si>
   <si>
     <t xml:space="preserve">1.91605627536774</t>
@@ -839,16 +839,16 @@
     <t xml:space="preserve">1.91919851303101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93333947658539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90113008022308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862582206726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705464363098</t>
+    <t xml:space="preserve">1.93333923816681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90113019943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862558364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705488204956</t>
   </si>
   <si>
     <t xml:space="preserve">1.91762745380402</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">1.98047459125519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99618637561798</t>
+    <t xml:space="preserve">1.99618649482727</t>
   </si>
   <si>
     <t xml:space="preserve">2.05981922149658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05746269226074</t>
+    <t xml:space="preserve">2.05746293067932</t>
   </si>
   <si>
     <t xml:space="preserve">2.01504063606262</t>
@@ -878,40 +878,40 @@
     <t xml:space="preserve">1.97026216983795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9694766998291</t>
+    <t xml:space="preserve">1.96947646141052</t>
   </si>
   <si>
     <t xml:space="preserve">1.97811806201935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97576129436493</t>
+    <t xml:space="preserve">1.97576093673706</t>
   </si>
   <si>
     <t xml:space="preserve">1.95062220096588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93962419033051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93726742267609</t>
+    <t xml:space="preserve">1.93962395191193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93726718425751</t>
   </si>
   <si>
     <t xml:space="preserve">1.93805265426636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93255376815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826531410217</t>
+    <t xml:space="preserve">1.93255400657654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826555252075</t>
   </si>
   <si>
     <t xml:space="preserve">1.9671196937561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95376467704773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95219373703003</t>
+    <t xml:space="preserve">1.95376491546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95219349861145</t>
   </si>
   <si>
     <t xml:space="preserve">1.94276630878448</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">1.9490510225296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95533573627472</t>
+    <t xml:space="preserve">1.95533585548401</t>
   </si>
   <si>
     <t xml:space="preserve">1.94669425487518</t>
@@ -935,55 +935,55 @@
     <t xml:space="preserve">1.92234098911285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92784011363983</t>
+    <t xml:space="preserve">1.92784035205841</t>
   </si>
   <si>
     <t xml:space="preserve">1.9231264591217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8972020149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90348672866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90820050239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89484536647797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8995589017868</t>
+    <t xml:space="preserve">1.89720225334167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9034868478775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90820038318634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89484548568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89955914020538</t>
   </si>
   <si>
     <t xml:space="preserve">1.89013171195984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89563083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8932740688324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91527032852173</t>
+    <t xml:space="preserve">1.89563095569611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89327430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91527056694031</t>
   </si>
   <si>
     <t xml:space="preserve">1.91212832927704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90191543102264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93098258972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98126029968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02132534980774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00090003013611</t>
+    <t xml:space="preserve">1.90191555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93098282814026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98126006126404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02132558822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00090026855469</t>
   </si>
   <si>
     <t xml:space="preserve">2.06610417366028</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">2.05039215087891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03153824806213</t>
+    <t xml:space="preserve">2.03153800964355</t>
   </si>
   <si>
     <t xml:space="preserve">2.0566771030426</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">2.19494104385376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13287925720215</t>
+    <t xml:space="preserve">2.13287949562073</t>
   </si>
   <si>
     <t xml:space="preserve">2.11245393753052</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">2.0739598274231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652973175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0723888874054</t>
+    <t xml:space="preserve">2.08652949333191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07238912582397</t>
   </si>
   <si>
     <t xml:space="preserve">2.07710242271423</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">2.08574390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0511782169342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06217622756958</t>
+    <t xml:space="preserve">2.05117797851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.062175989151</t>
   </si>
   <si>
     <t xml:space="preserve">2.06924653053284</t>
@@ -1043,16 +1043,16 @@
     <t xml:space="preserve">2.11323952674866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15251922607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16587448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17215871810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17294430732727</t>
+    <t xml:space="preserve">2.15251898765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16587424278259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17215895652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17294478416443</t>
   </si>
   <si>
     <t xml:space="preserve">2.17687225341797</t>
@@ -1061,25 +1061,25 @@
     <t xml:space="preserve">2.16823124885559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18708539009094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18158602714539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20358228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19179892539978</t>
+    <t xml:space="preserve">2.18708515167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18158626556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2035825252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1917986869812</t>
   </si>
   <si>
     <t xml:space="preserve">2.17765808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16037511825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15016269683838</t>
+    <t xml:space="preserve">2.16037487983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1501624584198</t>
   </si>
   <si>
     <t xml:space="preserve">2.14937663078308</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">2.27035784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26250195503235</t>
+    <t xml:space="preserve">2.26250171661377</t>
   </si>
   <si>
     <t xml:space="preserve">2.30178141593933</t>
@@ -1121,40 +1121,40 @@
     <t xml:space="preserve">2.31749320030212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41176414489746</t>
+    <t xml:space="preserve">2.41176438331604</t>
   </si>
   <si>
     <t xml:space="preserve">2.46675562858582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41962003707886</t>
+    <t xml:space="preserve">2.41961979866028</t>
   </si>
   <si>
     <t xml:space="preserve">2.43533182144165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47461152076721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42747569084167</t>
+    <t xml:space="preserve">2.47461175918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42747592926025</t>
   </si>
   <si>
     <t xml:space="preserve">2.38819622993469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3646285533905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3803403377533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40390801429749</t>
+    <t xml:space="preserve">2.36462879180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38034057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40390825271606</t>
   </si>
   <si>
     <t xml:space="preserve">2.39605236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35677266120911</t>
+    <t xml:space="preserve">2.35677242279053</t>
   </si>
   <si>
     <t xml:space="preserve">2.29392552375793</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">2.27821373939514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54531478881836</t>
+    <t xml:space="preserve">2.54531455039978</t>
   </si>
   <si>
     <t xml:space="preserve">2.49032354354858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66315317153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65529727935791</t>
+    <t xml:space="preserve">2.66315340995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65529751777649</t>
   </si>
   <si>
     <t xml:space="preserve">2.73385620117188</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">2.58459448814392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55317044258118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51389074325562</t>
+    <t xml:space="preserve">2.5531702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51389098167419</t>
   </si>
   <si>
     <t xml:space="preserve">2.59245014190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56102633476257</t>
+    <t xml:space="preserve">2.56102609634399</t>
   </si>
   <si>
     <t xml:space="preserve">2.52174663543701</t>
@@ -1220,27 +1220,30 @@
     <t xml:space="preserve">2.68816709518433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70436096191406</t>
+    <t xml:space="preserve">2.70436072349548</t>
   </si>
   <si>
     <t xml:space="preserve">2.69626355171204</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67197299003601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61529469490051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62339186668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63148856163025</t>
+    <t xml:space="preserve">2.67197322845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61529493331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62339162826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63148880004883</t>
   </si>
   <si>
     <t xml:space="preserve">2.65577936172485</t>
   </si>
   <si>
+    <t xml:space="preserve">2.63958525657654</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.59100413322449</t>
   </si>
   <si>
@@ -1250,13 +1253,13 @@
     <t xml:space="preserve">2.53432583808899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42906641960144</t>
+    <t xml:space="preserve">2.42906618118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.40477585792542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38048529624939</t>
+    <t xml:space="preserve">2.38048505783081</t>
   </si>
   <si>
     <t xml:space="preserve">2.4128725528717</t>
@@ -1268,7 +1271,7 @@
     <t xml:space="preserve">2.29951643943787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29141926765442</t>
+    <t xml:space="preserve">2.291419506073</t>
   </si>
   <si>
     <t xml:space="preserve">2.31571006774902</t>
@@ -1277,25 +1280,25 @@
     <t xml:space="preserve">2.33190369606018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35619449615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26712894439697</t>
+    <t xml:space="preserve">2.35619425773621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26712870597839</t>
   </si>
   <si>
     <t xml:space="preserve">2.2104504108429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28332257270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34809756278992</t>
+    <t xml:space="preserve">2.28332233428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3480978012085</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854734420776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19425702095032</t>
+    <t xml:space="preserve">2.19425678253174</t>
   </si>
   <si>
     <t xml:space="preserve">2.22664427757263</t>
@@ -1307,7 +1310,7 @@
     <t xml:space="preserve">2.178062915802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16996622085571</t>
+    <t xml:space="preserve">2.16996598243713</t>
   </si>
   <si>
     <t xml:space="preserve">2.16186904907227</t>
@@ -1316,10 +1319,10 @@
     <t xml:space="preserve">2.12948179244995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2347412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2590320110321</t>
+    <t xml:space="preserve">2.23474097251892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25903177261353</t>
   </si>
   <si>
     <t xml:space="preserve">2.24283814430237</t>
@@ -1328,25 +1331,25 @@
     <t xml:space="preserve">2.27522587776184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39667892456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12138485908508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10519123077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11328768730164</t>
+    <t xml:space="preserve">2.39667916297913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1213846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10519099235535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11328792572021</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05660963058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04851245880127</t>
+    <t xml:space="preserve">2.0566098690033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04851269721985</t>
   </si>
   <si>
     <t xml:space="preserve">2.02422213554382</t>
@@ -1361,13 +1364,13 @@
     <t xml:space="preserve">1.93515622615814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95134997367859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87038123607635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9189624786377</t>
+    <t xml:space="preserve">1.95135021209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87038111686707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91896271705627</t>
   </si>
   <si>
     <t xml:space="preserve">1.91086566448212</t>
@@ -1376,16 +1379,16 @@
     <t xml:space="preserve">1.94325304031372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25093507766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1537721157074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13757824897766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08899688720703</t>
+    <t xml:space="preserve">2.25093483924866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15377259254456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13757848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08899712562561</t>
   </si>
   <si>
     <t xml:space="preserve">2.06470656394958</t>
@@ -1397,7 +1400,7 @@
     <t xml:space="preserve">2.00802826881409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92705917358398</t>
+    <t xml:space="preserve">1.92705941200256</t>
   </si>
   <si>
     <t xml:space="preserve">1.88657486438751</t>
@@ -1406,28 +1409,28 @@
     <t xml:space="preserve">1.82989680767059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85418725013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179987430573</t>
+    <t xml:space="preserve">1.85418736934662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179975509644</t>
   </si>
   <si>
     <t xml:space="preserve">1.90276873111725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97564077377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9999315738678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30761313438416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20235371589661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14567542076111</t>
+    <t xml:space="preserve">1.97564053535461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99993133544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30761289596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20235395431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14567518234253</t>
   </si>
   <si>
     <t xml:space="preserve">2.36429142951965</t>
@@ -1436,19 +1439,19 @@
     <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45335698127747</t>
+    <t xml:space="preserve">2.45335721969604</t>
   </si>
   <si>
     <t xml:space="preserve">2.42096972465515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43716335296631</t>
+    <t xml:space="preserve">2.43716359138489</t>
   </si>
   <si>
     <t xml:space="preserve">2.46145391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51003527641296</t>
+    <t xml:space="preserve">2.51003551483154</t>
   </si>
   <si>
     <t xml:space="preserve">2.48574471473694</t>
@@ -1457,16 +1460,16 @@
     <t xml:space="preserve">2.49384164810181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50193810462952</t>
+    <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
     <t xml:space="preserve">2.51813220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52622890472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46955108642578</t>
+    <t xml:space="preserve">2.5262291431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4695508480072</t>
   </si>
   <si>
     <t xml:space="preserve">2.44526028633118</t>
@@ -1475,31 +1478,31 @@
     <t xml:space="preserve">2.47764754295349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55861687660217</t>
+    <t xml:space="preserve">2.55861663818359</t>
   </si>
   <si>
     <t xml:space="preserve">2.58290719985962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6638765335083</t>
+    <t xml:space="preserve">2.66387629508972</t>
   </si>
   <si>
     <t xml:space="preserve">2.65539240837097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62994146347046</t>
+    <t xml:space="preserve">2.62994170188904</t>
   </si>
   <si>
     <t xml:space="preserve">2.60449051856995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54510474205017</t>
+    <t xml:space="preserve">2.54510450363159</t>
   </si>
   <si>
     <t xml:space="preserve">2.56207203865051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5875232219696</t>
+    <t xml:space="preserve">2.58752298355103</t>
   </si>
   <si>
     <t xml:space="preserve">2.5960066318512</t>
@@ -1508,7 +1511,7 @@
     <t xml:space="preserve">2.61297416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51116991043091</t>
+    <t xml:space="preserve">2.51117014884949</t>
   </si>
   <si>
     <t xml:space="preserve">2.53662109375</t>
@@ -1517,16 +1520,16 @@
     <t xml:space="preserve">2.52813720703125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46875166893005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49420285224915</t>
+    <t xml:space="preserve">2.46875143051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49420261383057</t>
   </si>
   <si>
     <t xml:space="preserve">2.38391494750977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37543129920959</t>
+    <t xml:space="preserve">2.37543106079102</t>
   </si>
   <si>
     <t xml:space="preserve">2.32452893257141</t>
@@ -1538,10 +1541,10 @@
     <t xml:space="preserve">2.3499801158905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36694765090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4602677822113</t>
+    <t xml:space="preserve">2.36694741249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46026802062988</t>
   </si>
   <si>
     <t xml:space="preserve">2.42633318901062</t>
@@ -1553,16 +1556,16 @@
     <t xml:space="preserve">2.47723531723022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57055568695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62145757675171</t>
+    <t xml:space="preserve">2.57055592536926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62145781517029</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842511177063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6469087600708</t>
+    <t xml:space="preserve">2.64690899848938</t>
   </si>
   <si>
     <t xml:space="preserve">2.69781088829041</t>
@@ -1571,7 +1574,7 @@
     <t xml:space="preserve">2.70629453659058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67235994338989</t>
+    <t xml:space="preserve">2.67236018180847</t>
   </si>
   <si>
     <t xml:space="preserve">2.71477818489075</t>
@@ -1580,15 +1583,12 @@
     <t xml:space="preserve">2.72326183319092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68084383010864</t>
+    <t xml:space="preserve">2.68084359169006</t>
   </si>
   <si>
     <t xml:space="preserve">2.68932747840881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66387629508972</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.51965379714966</t>
   </si>
   <si>
@@ -1604,40 +1604,40 @@
     <t xml:space="preserve">2.57903933525085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55358839035034</t>
+    <t xml:space="preserve">2.55358862876892</t>
   </si>
   <si>
     <t xml:space="preserve">2.4857189655304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39239859580994</t>
+    <t xml:space="preserve">2.39239835739136</t>
   </si>
   <si>
     <t xml:space="preserve">2.40936589241028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40088200569153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20575761795044</t>
+    <t xml:space="preserve">2.40088224411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20575737953186</t>
   </si>
   <si>
     <t xml:space="preserve">2.28211045265198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22272491455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17182278633118</t>
+    <t xml:space="preserve">2.2227246761322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1718225479126</t>
   </si>
   <si>
     <t xml:space="preserve">2.19727373123169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424102783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13788795471191</t>
+    <t xml:space="preserve">2.21424126625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13788819313049</t>
   </si>
   <si>
     <t xml:space="preserve">1.97669792175293</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">1.73067116737366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73915493488312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69673633575439</t>
+    <t xml:space="preserve">1.73915481567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69673645496368</t>
   </si>
   <si>
     <t xml:space="preserve">1.53554666042328</t>
@@ -1661,37 +1661,37 @@
     <t xml:space="preserve">1.57796490192413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68401098251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62462508678436</t>
+    <t xml:space="preserve">1.68401110172272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62462520599365</t>
   </si>
   <si>
     <t xml:space="preserve">1.61614143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59917414188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56099760532379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65431797504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67128562927246</t>
+    <t xml:space="preserve">1.59917426109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5609974861145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65431809425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67128551006317</t>
   </si>
   <si>
     <t xml:space="preserve">1.64159250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62886703014374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65007615089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63735055923462</t>
+    <t xml:space="preserve">1.62886691093445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65007627010345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6373507976532</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
@@ -1703,82 +1703,82 @@
     <t xml:space="preserve">1.67552721500397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69249486923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65855991840363</t>
+    <t xml:space="preserve">1.69249475002289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65855979919434</t>
   </si>
   <si>
     <t xml:space="preserve">1.68825280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.747638463974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78157341480255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84095907211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80702412128448</t>
+    <t xml:space="preserve">1.74763882160187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78157329559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84095919132233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80702424049377</t>
   </si>
   <si>
     <t xml:space="preserve">1.79005706310272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77308964729309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7221873998642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8239917755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83247530460358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84944272041321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86641025543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90034472942352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973074436188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90882861614227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88337767124176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89186120033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87489402294159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792648792267</t>
+    <t xml:space="preserve">1.7730895280838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72218763828278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82399165630341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83247518539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84944260120392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86641013622284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90034484863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90882849693298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88337755203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89186131954193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8748939037323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792660713196</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81550800800323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75612223148346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67976903915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7137039899826</t>
+    <t xml:space="preserve">1.81550788879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75612235069275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67976891994476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71370387077332</t>
   </si>
   <si>
     <t xml:space="preserve">1.64583444595337</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">1.56523942947388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55251371860504</t>
+    <t xml:space="preserve">1.55251383781433</t>
   </si>
   <si>
     <t xml:space="preserve">1.54827213287354</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">1.48464453220367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47191894054413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46767687797546</t>
+    <t xml:space="preserve">1.47191882133484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46767699718475</t>
   </si>
   <si>
     <t xml:space="preserve">1.49736988544464</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">1.39132392406464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44222605228424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41677510738373</t>
+    <t xml:space="preserve">1.44222593307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41677498817444</t>
   </si>
   <si>
     <t xml:space="preserve">1.36163091659546</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">1.36587285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39556586742401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38284015655518</t>
+    <t xml:space="preserve">1.39556574821472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38284003734589</t>
   </si>
   <si>
     <t xml:space="preserve">1.40829133987427</t>
@@ -1859,28 +1859,28 @@
     <t xml:space="preserve">1.46343529224396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44646775722504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4507098197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43798422813416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53130459785461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5864485502243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038338184357</t>
+    <t xml:space="preserve">1.44646787643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45070970058441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43798434734344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53130447864532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58644878864288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038326263428</t>
   </si>
   <si>
     <t xml:space="preserve">1.61189961433411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55675578117371</t>
+    <t xml:space="preserve">1.55675566196442</t>
   </si>
   <si>
     <t xml:space="preserve">1.59069049358368</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.57372295856476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58220684528351</t>
+    <t xml:space="preserve">1.58220660686493</t>
   </si>
   <si>
     <t xml:space="preserve">1.60765790939331</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">1.54403030872345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95124685764313</t>
+    <t xml:space="preserve">1.95124697685242</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608369827271</t>
@@ -1907,40 +1907,40 @@
     <t xml:space="preserve">2.16333913803101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35846376419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34149646759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27362704277039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23969197273254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14637136459351</t>
+    <t xml:space="preserve">2.35846352577209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34149622917175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27362680435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23969221115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14637160301208</t>
   </si>
   <si>
     <t xml:space="preserve">2.23120856285095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30756163597107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3162043094635</t>
+    <t xml:space="preserve">2.30756187438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31620407104492</t>
   </si>
   <si>
     <t xml:space="preserve">2.33348941802979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34213209152222</t>
+    <t xml:space="preserve">2.34213185310364</t>
   </si>
   <si>
     <t xml:space="preserve">2.35077452659607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29891896247864</t>
+    <t xml:space="preserve">2.29891920089722</t>
   </si>
   <si>
     <t xml:space="preserve">2.32484674453735</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">2.46312761306763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47177028656006</t>
+    <t xml:space="preserve">2.47177004814148</t>
   </si>
   <si>
     <t xml:space="preserve">2.48905515670776</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">2.50634026527405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5581955909729</t>
+    <t xml:space="preserve">2.55819582939148</t>
   </si>
   <si>
     <t xml:space="preserve">2.58412337303162</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52362561225891</t>
+    <t xml:space="preserve">2.52362537384033</t>
   </si>
   <si>
     <t xml:space="preserve">2.4976978302002</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">2.54955315589905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5409107208252</t>
+    <t xml:space="preserve">2.54091048240662</t>
   </si>
   <si>
     <t xml:space="preserve">2.53226804733276</t>
@@ -2000,16 +2000,16 @@
     <t xml:space="preserve">2.43720006942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42855763435364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40262985229492</t>
+    <t xml:space="preserve">2.42855739593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40262961387634</t>
   </si>
   <si>
     <t xml:space="preserve">2.41991496086121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41127252578735</t>
+    <t xml:space="preserve">2.41127228736877</t>
   </si>
   <si>
     <t xml:space="preserve">2.45448517799377</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113633155823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2297785282135</t>
+    <t xml:space="preserve">2.22113609313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22977876663208</t>
   </si>
   <si>
     <t xml:space="preserve">2.28163385391235</t>
@@ -2039,13 +2039,13 @@
     <t xml:space="preserve">2.17792344093323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19520831108093</t>
+    <t xml:space="preserve">2.19520854949951</t>
   </si>
   <si>
     <t xml:space="preserve">2.16063833236694</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26434898376465</t>
+    <t xml:space="preserve">2.26434874534607</t>
   </si>
   <si>
     <t xml:space="preserve">2.23842120170593</t>
@@ -2075,16 +2075,16 @@
     <t xml:space="preserve">2.61869359016418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73968935012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83475732803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81747221946716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93846821784973</t>
+    <t xml:space="preserve">2.73968958854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83475756645203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81747198104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93846797943115</t>
   </si>
   <si>
     <t xml:space="preserve">2.9730384349823</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">3.16317415237427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38788104057312</t>
+    <t xml:space="preserve">3.38788080215454</t>
   </si>
   <si>
     <t xml:space="preserve">3.37923812866211</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37059545516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4483790397644</t>
+    <t xml:space="preserve">3.37059569358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44837880134583</t>
   </si>
   <si>
     <t xml:space="preserve">3.2582426071167</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">3.27552771568298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22367238998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20638680458069</t>
+    <t xml:space="preserve">3.22367215156555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20638704299927</t>
   </si>
   <si>
     <t xml:space="preserve">3.24959993362427</t>
@@ -2156,31 +2156,31 @@
     <t xml:space="preserve">3.19774460792542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39652347564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23231482505798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06810641288757</t>
+    <t xml:space="preserve">3.39652323722839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23231506347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06810617446899</t>
   </si>
   <si>
     <t xml:space="preserve">3.15453195571899</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18045949935913</t>
+    <t xml:space="preserve">3.18045926094055</t>
   </si>
   <si>
     <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29281258583069</t>
+    <t xml:space="preserve">3.29281234741211</t>
   </si>
   <si>
     <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11996150016785</t>
+    <t xml:space="preserve">3.11996126174927</t>
   </si>
   <si>
     <t xml:space="preserve">3.13724684715271</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">3.10267663002014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34466791152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42245078086853</t>
+    <t xml:space="preserve">3.34466814994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42245054244995</t>
   </si>
   <si>
     <t xml:space="preserve">3.41380834579468</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4607105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264163970947</t>
+    <t xml:space="preserve">4.46071004867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264116287231</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760808944702</t>
+    <t xml:space="preserve">4.84760856628418</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450660705566</t>
+    <t xml:space="preserve">5.23450708389282</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278301239014</t>
+    <t xml:space="preserve">5.30278253555298</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07657957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.871750831604</t>
+    <t xml:space="preserve">6.07658004760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87175130844116</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071594238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968152999878</t>
+    <t xml:space="preserve">5.78071641921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968105316162</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312919616699</t>
+    <t xml:space="preserve">5.55312871932983</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348079681396</t>
+    <t xml:space="preserve">7.12348031997681</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796335220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244590759277</t>
+    <t xml:space="preserve">7.07796382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244638442993</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2318,19 +2318,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175449371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.53175401687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60003042221069</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485868453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55451250076294</t>
+    <t xml:space="preserve">6.80485916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5545129776001</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382745742798</t>
+    <t xml:space="preserve">7.37382698059082</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486553192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900508880615</t>
+    <t xml:space="preserve">8.12486457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900413513184</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.651083946228</t>
+    <t xml:space="preserve">10.6510829925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -18746,7 +18746,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18772,7 +18772,7 @@
         <v>32</v>
       </c>
       <c r="G602" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18798,7 +18798,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18824,7 +18824,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G604" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18876,7 +18876,7 @@
         <v>32</v>
       </c>
       <c r="G606" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18902,7 +18902,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G607" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18928,7 +18928,7 @@
         <v>30</v>
       </c>
       <c r="G608" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18954,7 +18954,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G609" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18980,7 +18980,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19006,7 +19006,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G611" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19032,7 +19032,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G612" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19058,7 +19058,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19084,7 +19084,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19110,7 +19110,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19136,7 +19136,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G616" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19162,7 +19162,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19188,7 +19188,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19214,7 +19214,7 @@
         <v>28</v>
       </c>
       <c r="G619" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19240,7 +19240,7 @@
         <v>28</v>
       </c>
       <c r="G620" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19266,7 +19266,7 @@
         <v>28</v>
       </c>
       <c r="G621" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19292,7 +19292,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G622" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19318,7 +19318,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19344,7 +19344,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19370,7 +19370,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19396,7 +19396,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19422,7 +19422,7 @@
         <v>29</v>
       </c>
       <c r="G627" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19448,7 +19448,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G628" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19474,7 +19474,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G629" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19500,7 +19500,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G630" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19526,7 +19526,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19552,7 +19552,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G632" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19578,7 +19578,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G633" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19604,7 +19604,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19630,7 +19630,7 @@
         <v>27.5</v>
       </c>
       <c r="G635" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19656,7 +19656,7 @@
         <v>27</v>
       </c>
       <c r="G636" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19682,7 +19682,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19708,7 +19708,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19734,7 +19734,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19760,7 +19760,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19786,7 +19786,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19812,7 +19812,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G642" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19838,7 +19838,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19864,7 +19864,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19890,7 +19890,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19916,7 +19916,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G646" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19942,7 +19942,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G647" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19968,7 +19968,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G648" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19994,7 +19994,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20020,7 +20020,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20046,7 +20046,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20072,7 +20072,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G652" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20098,7 +20098,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G653" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20124,7 +20124,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20150,7 +20150,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G655" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20176,7 +20176,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20202,7 +20202,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20228,7 +20228,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20254,7 +20254,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G659" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20280,7 +20280,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20306,7 +20306,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G661" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20332,7 +20332,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20358,7 +20358,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20384,7 +20384,7 @@
         <v>27.5</v>
       </c>
       <c r="G664" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20410,7 +20410,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20436,7 +20436,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20462,7 +20462,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G667" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20488,7 +20488,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G668" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20514,7 +20514,7 @@
         <v>27</v>
       </c>
       <c r="G669" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20540,7 +20540,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20566,7 +20566,7 @@
         <v>27</v>
       </c>
       <c r="G671" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20592,7 +20592,7 @@
         <v>26</v>
       </c>
       <c r="G672" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20618,7 +20618,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20644,7 +20644,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G674" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20670,7 +20670,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G675" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20696,7 +20696,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20722,7 +20722,7 @@
         <v>25</v>
       </c>
       <c r="G677" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20748,7 +20748,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20774,7 +20774,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G679" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20800,7 +20800,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20826,7 +20826,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20852,7 +20852,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20878,7 +20878,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G683" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20904,7 +20904,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G684" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20930,7 +20930,7 @@
         <v>24</v>
       </c>
       <c r="G685" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20956,7 +20956,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20982,7 +20982,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G687" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21008,7 +21008,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21034,7 +21034,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G689" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21060,7 +21060,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G690" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21086,7 +21086,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G691" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21112,7 +21112,7 @@
         <v>27</v>
       </c>
       <c r="G692" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21138,7 +21138,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G693" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21164,7 +21164,7 @@
         <v>26</v>
       </c>
       <c r="G694" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21190,7 +21190,7 @@
         <v>26</v>
       </c>
       <c r="G695" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21216,7 +21216,7 @@
         <v>26</v>
       </c>
       <c r="G696" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21242,7 +21242,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G697" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21268,7 +21268,7 @@
         <v>26</v>
       </c>
       <c r="G698" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21294,7 +21294,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21320,7 +21320,7 @@
         <v>26</v>
       </c>
       <c r="G700" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21346,7 +21346,7 @@
         <v>25.5</v>
       </c>
       <c r="G701" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21372,7 +21372,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21398,7 +21398,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21424,7 +21424,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G704" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21450,7 +21450,7 @@
         <v>26</v>
       </c>
       <c r="G705" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21476,7 +21476,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G706" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21502,7 +21502,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G707" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21528,7 +21528,7 @@
         <v>25.5</v>
       </c>
       <c r="G708" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21554,7 +21554,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21580,7 +21580,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21606,7 +21606,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21632,7 +21632,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21658,7 +21658,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G713" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21684,7 +21684,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21710,7 +21710,7 @@
         <v>24</v>
       </c>
       <c r="G715" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21736,7 +21736,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G716" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21762,7 +21762,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21788,7 +21788,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G718" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21814,7 +21814,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21840,7 +21840,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21866,7 +21866,7 @@
         <v>22.5</v>
       </c>
       <c r="G721" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21892,7 +21892,7 @@
         <v>23.5</v>
       </c>
       <c r="G722" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21918,7 +21918,7 @@
         <v>23.5</v>
       </c>
       <c r="G723" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21944,7 +21944,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21970,7 +21970,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21996,7 +21996,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22022,7 +22022,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22048,7 +22048,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22074,7 +22074,7 @@
         <v>25</v>
       </c>
       <c r="G729" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22100,7 +22100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G730" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22126,7 +22126,7 @@
         <v>28</v>
       </c>
       <c r="G731" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22152,7 +22152,7 @@
         <v>28.5</v>
       </c>
       <c r="G732" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22178,7 +22178,7 @@
         <v>27.5</v>
       </c>
       <c r="G733" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22204,7 +22204,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G734" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22230,7 +22230,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22256,7 +22256,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G736" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22282,7 +22282,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G737" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22308,7 +22308,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22334,7 +22334,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22360,7 +22360,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22386,7 +22386,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G741" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22412,7 +22412,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22438,7 +22438,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22464,7 +22464,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22490,7 +22490,7 @@
         <v>27.5</v>
       </c>
       <c r="G745" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22516,7 +22516,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G746" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22542,7 +22542,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22568,7 +22568,7 @@
         <v>27.5</v>
       </c>
       <c r="G748" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22594,7 +22594,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G749" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22620,7 +22620,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G750" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22646,7 +22646,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22672,7 +22672,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22698,7 +22698,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G753" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22724,7 +22724,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G754" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22750,7 +22750,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G755" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22776,7 +22776,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G756" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22802,7 +22802,7 @@
         <v>26.5</v>
       </c>
       <c r="G757" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22828,7 +22828,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22854,7 +22854,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22880,7 +22880,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G760" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22906,7 +22906,7 @@
         <v>27</v>
       </c>
       <c r="G761" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22932,7 +22932,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22958,7 +22958,7 @@
         <v>27</v>
       </c>
       <c r="G763" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22984,7 +22984,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23010,7 +23010,7 @@
         <v>26.5</v>
       </c>
       <c r="G765" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23036,7 +23036,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23062,7 +23062,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G767" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23088,7 +23088,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G768" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23114,7 +23114,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G769" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23140,7 +23140,7 @@
         <v>28.5</v>
       </c>
       <c r="G770" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23166,7 +23166,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23192,7 +23192,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G772" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23218,7 +23218,7 @@
         <v>28</v>
       </c>
       <c r="G773" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23244,7 +23244,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23270,7 +23270,7 @@
         <v>28</v>
       </c>
       <c r="G775" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23296,7 +23296,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23322,7 +23322,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23348,7 +23348,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23374,7 +23374,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23400,7 +23400,7 @@
         <v>28.5</v>
       </c>
       <c r="G780" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23426,7 +23426,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23452,7 +23452,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G782" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23478,7 +23478,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23504,7 +23504,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23530,7 +23530,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G785" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23556,7 +23556,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23582,7 +23582,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G787" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23608,7 +23608,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23634,7 +23634,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G789" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23660,7 +23660,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23686,7 +23686,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23712,7 +23712,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23738,7 +23738,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G793" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23764,7 +23764,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G794" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23790,7 +23790,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G795" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23816,7 +23816,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23842,7 +23842,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G797" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23868,7 +23868,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23894,7 +23894,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G799" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23920,7 +23920,7 @@
         <v>30</v>
       </c>
       <c r="G800" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23946,7 +23946,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G801" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23972,7 +23972,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G802" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23998,7 +23998,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G803" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24024,7 +24024,7 @@
         <v>31</v>
       </c>
       <c r="G804" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24050,7 +24050,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24076,7 +24076,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G806" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24102,7 +24102,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24128,7 +24128,7 @@
         <v>31</v>
       </c>
       <c r="G808" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24154,7 +24154,7 @@
         <v>31</v>
       </c>
       <c r="G809" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24180,7 +24180,7 @@
         <v>31</v>
       </c>
       <c r="G810" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24206,7 +24206,7 @@
         <v>31</v>
       </c>
       <c r="G811" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24232,7 +24232,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24258,7 +24258,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24284,7 +24284,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24310,7 +24310,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G815" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24336,7 +24336,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24362,7 +24362,7 @@
         <v>31</v>
       </c>
       <c r="G817" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24388,7 +24388,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24414,7 +24414,7 @@
         <v>31</v>
       </c>
       <c r="G819" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24440,7 +24440,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G820" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24466,7 +24466,7 @@
         <v>30.5</v>
       </c>
       <c r="G821" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24492,7 +24492,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24518,7 +24518,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24544,7 +24544,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24570,7 +24570,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24596,7 +24596,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24622,7 +24622,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24648,7 +24648,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24674,7 +24674,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G829" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24700,7 +24700,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24726,7 +24726,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24752,7 +24752,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24778,7 +24778,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G833" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24804,7 +24804,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G834" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24830,7 +24830,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24856,7 +24856,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G836" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24882,7 +24882,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G837" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24908,7 +24908,7 @@
         <v>31</v>
       </c>
       <c r="G838" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24934,7 +24934,7 @@
         <v>31</v>
       </c>
       <c r="G839" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24960,7 +24960,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24986,7 +24986,7 @@
         <v>30</v>
       </c>
       <c r="G841" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25012,7 +25012,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25038,7 +25038,7 @@
         <v>30.5</v>
       </c>
       <c r="G843" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25064,7 +25064,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G844" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25090,7 +25090,7 @@
         <v>30.5</v>
       </c>
       <c r="G845" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25116,7 +25116,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G846" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25142,7 +25142,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G847" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25168,7 +25168,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25194,7 +25194,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G849" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25220,7 +25220,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25246,7 +25246,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G851" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25272,7 +25272,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25298,7 +25298,7 @@
         <v>28</v>
       </c>
       <c r="G853" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25324,7 +25324,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25350,7 +25350,7 @@
         <v>28</v>
       </c>
       <c r="G855" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25376,7 +25376,7 @@
         <v>27.5</v>
       </c>
       <c r="G856" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25402,7 +25402,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G857" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25428,7 +25428,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G858" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25454,7 +25454,7 @@
         <v>27.5</v>
       </c>
       <c r="G859" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25480,7 +25480,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G860" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25506,7 +25506,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G861" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25532,7 +25532,7 @@
         <v>28</v>
       </c>
       <c r="G862" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25558,7 +25558,7 @@
         <v>29</v>
       </c>
       <c r="G863" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25584,7 +25584,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25610,7 +25610,7 @@
         <v>29</v>
       </c>
       <c r="G865" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25636,7 +25636,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G866" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25662,7 +25662,7 @@
         <v>29</v>
       </c>
       <c r="G867" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25688,7 +25688,7 @@
         <v>29</v>
       </c>
       <c r="G868" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25714,7 +25714,7 @@
         <v>29</v>
       </c>
       <c r="G869" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25740,7 +25740,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25766,7 +25766,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G871" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25792,7 +25792,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G872" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25818,7 +25818,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25844,7 +25844,7 @@
         <v>30.5</v>
       </c>
       <c r="G874" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25870,7 +25870,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G875" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25896,7 +25896,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G876" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25922,7 +25922,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25948,7 +25948,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G878" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25974,7 +25974,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G879" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26000,7 +26000,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26026,7 +26026,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26052,7 +26052,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26078,7 +26078,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26104,7 +26104,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G884" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26130,7 +26130,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G885" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26156,7 +26156,7 @@
         <v>31.5</v>
       </c>
       <c r="G886" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26182,7 +26182,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26208,7 +26208,7 @@
         <v>32</v>
       </c>
       <c r="G888" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26234,7 +26234,7 @@
         <v>31.5</v>
       </c>
       <c r="G889" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26260,7 +26260,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G890" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26286,7 +26286,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G891" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26312,7 +26312,7 @@
         <v>32</v>
       </c>
       <c r="G892" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26338,7 +26338,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26364,7 +26364,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G894" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26390,7 +26390,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26416,7 +26416,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G896" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26442,7 +26442,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G897" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26468,7 +26468,7 @@
         <v>31</v>
       </c>
       <c r="G898" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26494,7 +26494,7 @@
         <v>31</v>
       </c>
       <c r="G899" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26520,7 +26520,7 @@
         <v>31</v>
       </c>
       <c r="G900" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26546,7 +26546,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G901" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26572,7 +26572,7 @@
         <v>31</v>
       </c>
       <c r="G902" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26598,7 +26598,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G903" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26624,7 +26624,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26650,7 +26650,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26676,7 +26676,7 @@
         <v>31</v>
       </c>
       <c r="G906" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26702,7 +26702,7 @@
         <v>31</v>
       </c>
       <c r="G907" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26728,7 +26728,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26754,7 +26754,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26780,7 +26780,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26806,7 +26806,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26832,7 +26832,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G912" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26858,7 +26858,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26884,7 +26884,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26910,7 +26910,7 @@
         <v>30</v>
       </c>
       <c r="G915" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26936,7 +26936,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G916" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26988,7 +26988,7 @@
         <v>29</v>
       </c>
       <c r="G918" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27040,7 +27040,7 @@
         <v>29</v>
       </c>
       <c r="G920" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27118,7 +27118,7 @@
         <v>29</v>
       </c>
       <c r="G923" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27144,7 +27144,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G924" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27170,7 +27170,7 @@
         <v>29</v>
       </c>
       <c r="G925" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27196,7 +27196,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G926" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27222,7 +27222,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G927" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27248,7 +27248,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G928" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27300,7 +27300,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27326,7 +27326,7 @@
         <v>30.5</v>
       </c>
       <c r="G931" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27352,7 +27352,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27456,7 +27456,7 @@
         <v>30</v>
       </c>
       <c r="G936" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27534,7 +27534,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27560,7 +27560,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27586,7 +27586,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G941" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27612,7 +27612,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G942" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27638,7 +27638,7 @@
         <v>30</v>
       </c>
       <c r="G943" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27664,7 +27664,7 @@
         <v>30</v>
       </c>
       <c r="G944" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27716,7 +27716,7 @@
         <v>30</v>
       </c>
       <c r="G946" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27742,7 +27742,7 @@
         <v>30.5</v>
       </c>
       <c r="G947" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27768,7 +27768,7 @@
         <v>30.5</v>
       </c>
       <c r="G948" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27794,7 +27794,7 @@
         <v>30</v>
       </c>
       <c r="G949" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27846,7 +27846,7 @@
         <v>30</v>
       </c>
       <c r="G951" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27898,7 +27898,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G953" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27950,7 +27950,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G955" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27976,7 +27976,7 @@
         <v>30</v>
       </c>
       <c r="G956" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -28002,7 +28002,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28028,7 +28028,7 @@
         <v>30</v>
       </c>
       <c r="G958" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28054,7 +28054,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28080,7 +28080,7 @@
         <v>30</v>
       </c>
       <c r="G960" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28106,7 +28106,7 @@
         <v>30</v>
       </c>
       <c r="G961" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28132,7 +28132,7 @@
         <v>30</v>
       </c>
       <c r="G962" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28158,7 +28158,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28184,7 +28184,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G964" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28210,7 +28210,7 @@
         <v>30</v>
       </c>
       <c r="G965" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28236,7 +28236,7 @@
         <v>30</v>
       </c>
       <c r="G966" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28288,7 +28288,7 @@
         <v>30</v>
       </c>
       <c r="G968" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28314,7 +28314,7 @@
         <v>30</v>
       </c>
       <c r="G969" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28392,7 +28392,7 @@
         <v>30</v>
       </c>
       <c r="G972" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28444,7 +28444,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28470,7 +28470,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28522,7 +28522,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G977" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28548,7 +28548,7 @@
         <v>31</v>
       </c>
       <c r="G978" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28574,7 +28574,7 @@
         <v>31</v>
       </c>
       <c r="G979" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28600,7 +28600,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28626,7 +28626,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G981" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28652,7 +28652,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28678,7 +28678,7 @@
         <v>31</v>
       </c>
       <c r="G983" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28704,7 +28704,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G984" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28730,7 +28730,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G985" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28756,7 +28756,7 @@
         <v>31</v>
       </c>
       <c r="G986" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28782,7 +28782,7 @@
         <v>31.5</v>
       </c>
       <c r="G987" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28808,7 +28808,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28834,7 +28834,7 @@
         <v>31.5</v>
       </c>
       <c r="G989" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28860,7 +28860,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G990" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28886,7 +28886,7 @@
         <v>31.5</v>
       </c>
       <c r="G991" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28912,7 +28912,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28938,7 +28938,7 @@
         <v>31.5</v>
       </c>
       <c r="G993" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28964,7 +28964,7 @@
         <v>31.5</v>
       </c>
       <c r="G994" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28990,7 +28990,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G995" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29016,7 +29016,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G996" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29042,7 +29042,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29068,7 +29068,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G998" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29094,7 +29094,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29120,7 +29120,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29146,7 +29146,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1001" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29172,7 +29172,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29198,7 +29198,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29224,7 +29224,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1004" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29250,7 +29250,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1005" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29276,7 +29276,7 @@
         <v>31</v>
       </c>
       <c r="G1006" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29302,7 +29302,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1007" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29328,7 +29328,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29354,7 +29354,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29380,7 +29380,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29406,7 +29406,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29432,7 +29432,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29458,7 +29458,7 @@
         <v>30.5</v>
       </c>
       <c r="G1013" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29484,7 +29484,7 @@
         <v>30.5</v>
       </c>
       <c r="G1014" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29536,7 +29536,7 @@
         <v>30.5</v>
       </c>
       <c r="G1016" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29588,7 +29588,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1018" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29614,7 +29614,7 @@
         <v>30</v>
       </c>
       <c r="G1019" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29640,7 +29640,7 @@
         <v>30.5</v>
       </c>
       <c r="G1020" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29666,7 +29666,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1021" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29692,7 +29692,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1022" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29718,7 +29718,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1023" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29744,7 +29744,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1024" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29770,7 +29770,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29796,7 +29796,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1026" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29822,7 +29822,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1027" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29848,7 +29848,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29874,7 +29874,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29900,7 +29900,7 @@
         <v>30</v>
       </c>
       <c r="G1030" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29926,7 +29926,7 @@
         <v>30</v>
       </c>
       <c r="G1031" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29952,7 +29952,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1032" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30134,7 +30134,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30160,7 +30160,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30186,7 +30186,7 @@
         <v>28</v>
       </c>
       <c r="G1041" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30316,7 +30316,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1046" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30368,7 +30368,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1048" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30394,7 +30394,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30446,7 +30446,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1051" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30472,7 +30472,7 @@
         <v>28</v>
       </c>
       <c r="G1052" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30550,7 +30550,7 @@
         <v>27.5</v>
       </c>
       <c r="G1055" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -36816,7 +36816,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1296" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36842,7 +36842,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1297" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36894,7 +36894,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1299" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36946,7 +36946,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36972,7 +36972,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1302" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36998,7 +36998,7 @@
         <v>29</v>
       </c>
       <c r="G1303" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37024,7 +37024,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1304" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37050,7 +37050,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1305" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37154,7 +37154,7 @@
         <v>28</v>
       </c>
       <c r="G1309" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37180,7 +37180,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37206,7 +37206,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37284,7 +37284,7 @@
         <v>28</v>
       </c>
       <c r="G1314" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37310,7 +37310,7 @@
         <v>28</v>
       </c>
       <c r="G1315" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37336,7 +37336,7 @@
         <v>28</v>
       </c>
       <c r="G1316" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37700,7 +37700,7 @@
         <v>27.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37882,7 +37882,7 @@
         <v>27.5</v>
       </c>
       <c r="G1337" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -59881,6 +59881,58 @@
         <v>920</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.2916666667</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>2.72499990463257</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>2.72499990463257</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>2.72499990463257</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>2.72499990463257</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>920</v>
+      </c>
+      <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.6494444444</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>7701</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>2.67499995231628</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>2.6800000667572</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>2.67499995231628</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>909</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -44,43 +44,43 @@
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973936080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29750108718872</t>
+    <t xml:space="preserve">1.29973948001862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29750096797943</t>
   </si>
   <si>
     <t xml:space="preserve">1.27586352825165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26840221881866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27511751651764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26765632629395</t>
+    <t xml:space="preserve">1.26840257644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27511727809906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26765620708466</t>
   </si>
   <si>
     <t xml:space="preserve">1.29004001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26616406440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944888591766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25347995758057</t>
+    <t xml:space="preserve">1.26616394519806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25944876670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25347983837128</t>
   </si>
   <si>
     <t xml:space="preserve">1.25273406505585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21766638755798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676477909088</t>
+    <t xml:space="preserve">1.2176661491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24676489830017</t>
   </si>
   <si>
     <t xml:space="preserve">1.31167721748352</t>
@@ -95,55 +95,55 @@
     <t xml:space="preserve">1.30570816993713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31988477706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28929364681244</t>
+    <t xml:space="preserve">1.31988453865051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28929376602173</t>
   </si>
   <si>
     <t xml:space="preserve">1.27884793281555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26317954063416</t>
+    <t xml:space="preserve">1.26317942142487</t>
   </si>
   <si>
     <t xml:space="preserve">1.27437126636505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24601876735687</t>
+    <t xml:space="preserve">1.24601900577545</t>
   </si>
   <si>
     <t xml:space="preserve">1.28034031391144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25721073150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31316959857941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3206307888031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31391572952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32436108589172</t>
+    <t xml:space="preserve">1.25721061229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3131697177887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32063066959381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31391561031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3243613243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.26989459991455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28183245658875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32958424091339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32212281227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32809174060822</t>
+    <t xml:space="preserve">1.28183257579803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32958400249481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3221230506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32809197902679</t>
   </si>
   <si>
     <t xml:space="preserve">1.3273458480835</t>
@@ -152,31 +152,31 @@
     <t xml:space="preserve">1.33480703830719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32286906242371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31018495559692</t>
+    <t xml:space="preserve">1.32286882400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31018507480621</t>
   </si>
   <si>
     <t xml:space="preserve">1.31764614582062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30272376537323</t>
+    <t xml:space="preserve">1.30272400379181</t>
   </si>
   <si>
     <t xml:space="preserve">1.30347001552582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29675471782684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078602790833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28854775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28780138492584</t>
+    <t xml:space="preserve">1.29675495624542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078614711761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28854763507843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28780150413513</t>
   </si>
   <si>
     <t xml:space="preserve">1.30684328079224</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">1.31677234172821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32364666461945</t>
+    <t xml:space="preserve">1.32364642620087</t>
   </si>
   <si>
     <t xml:space="preserve">1.33433961868286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33204817771912</t>
+    <t xml:space="preserve">1.33204829692841</t>
   </si>
   <si>
     <t xml:space="preserve">1.32975685596466</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">1.3183000087738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32670176029205</t>
+    <t xml:space="preserve">1.32670187950134</t>
   </si>
   <si>
     <t xml:space="preserve">1.32211887836456</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">1.34044992923737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33663082122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33510327339172</t>
+    <t xml:space="preserve">1.33663105964661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33510339260101</t>
   </si>
   <si>
     <t xml:space="preserve">1.32899308204651</t>
@@ -224,34 +224,34 @@
     <t xml:space="preserve">1.32822930812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3213552236557</t>
+    <t xml:space="preserve">1.32135510444641</t>
   </si>
   <si>
     <t xml:space="preserve">1.33815848827362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34426891803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34350514411926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33892238140106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31906402111053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2953861951828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29767775535583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28316569328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28851246833801</t>
+    <t xml:space="preserve">1.34426879882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34350502490997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33892250061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31906390190125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29538631439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29767763614655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28316557407379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851234912872</t>
   </si>
   <si>
     <t xml:space="preserve">1.28011047840118</t>
@@ -260,43 +260,43 @@
     <t xml:space="preserve">1.25948822498322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26025199890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23733842372894</t>
+    <t xml:space="preserve">1.26025211811066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23733830451965</t>
   </si>
   <si>
     <t xml:space="preserve">1.22970056533813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23962962627411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22053503990173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22206258773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22129881381989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2411572933197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27552783489227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27476406097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2938586473465</t>
+    <t xml:space="preserve">1.2396297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22053492069244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22206246852875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2212986946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24115717411041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27552795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27476418018341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29385876655579</t>
   </si>
   <si>
     <t xml:space="preserve">1.29309499263763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29233121871948</t>
+    <t xml:space="preserve">1.29233133792877</t>
   </si>
   <si>
     <t xml:space="preserve">1.28927600383759</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">1.25872445106506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28469324111938</t>
+    <t xml:space="preserve">1.28469336032867</t>
   </si>
   <si>
     <t xml:space="preserve">1.24955904483795</t>
@@ -317,88 +317,88 @@
     <t xml:space="preserve">1.27629148960114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698480129242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28622078895569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28240215778351</t>
+    <t xml:space="preserve">1.28698468208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28622090816498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28240191936493</t>
   </si>
   <si>
     <t xml:space="preserve">1.34121358394623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3137172460556</t>
+    <t xml:space="preserve">1.31371736526489</t>
   </si>
   <si>
     <t xml:space="preserve">1.36412727832794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35572552680969</t>
+    <t xml:space="preserve">1.35572576522827</t>
   </si>
   <si>
     <t xml:space="preserve">1.38093066215515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3740565776825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38551330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36030828952789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37329280376434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558424472809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35419809818268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954451560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35648953914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34503269195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35190689563751</t>
+    <t xml:space="preserve">1.37405669689178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38551354408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36030840873718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37329292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558436393738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35419797897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954463481903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35648941993713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34503281116486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35190665721893</t>
   </si>
   <si>
     <t xml:space="preserve">1.35725331306458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35496175289154</t>
+    <t xml:space="preserve">1.35496199131012</t>
   </si>
   <si>
     <t xml:space="preserve">1.34961545467377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34885156154633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35801708698273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36259984970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32441020011902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288265228271</t>
+    <t xml:space="preserve">1.34885168075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35801684856415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36259961128235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32441031932831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.322882771492</t>
   </si>
   <si>
     <t xml:space="preserve">1.30226039886475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30989849567413</t>
+    <t xml:space="preserve">1.30989825725555</t>
   </si>
   <si>
     <t xml:space="preserve">1.32059156894684</t>
@@ -407,28 +407,28 @@
     <t xml:space="preserve">1.33586716651917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31295347213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3045517206192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29462254047394</t>
+    <t xml:space="preserve">1.31295359134674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30455183982849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29462265968323</t>
   </si>
   <si>
     <t xml:space="preserve">1.30073297023773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2984414100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003977775574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2908034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29615020751953</t>
+    <t xml:space="preserve">1.29844152927399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29003965854645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29080367088318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29614996910095</t>
   </si>
   <si>
     <t xml:space="preserve">1.28545713424683</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">1.26407098770142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27170872688293</t>
+    <t xml:space="preserve">1.27170884609222</t>
   </si>
   <si>
     <t xml:space="preserve">1.26788997650146</t>
@@ -449,40 +449,40 @@
     <t xml:space="preserve">1.24192106723785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23351943492889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26712620258331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24497616291046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24879515171051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27323663234711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26941752433777</t>
+    <t xml:space="preserve">1.2335193157196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2671263217926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24497628211975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2487952709198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27323651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26941764354706</t>
   </si>
   <si>
     <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33357572555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34197759628296</t>
+    <t xml:space="preserve">1.33357584476471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34197735786438</t>
   </si>
   <si>
     <t xml:space="preserve">1.35114312171936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35343420505524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36718237400055</t>
+    <t xml:space="preserve">1.35343432426453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36718273162842</t>
   </si>
   <si>
     <t xml:space="preserve">1.38322222232819</t>
@@ -491,52 +491,52 @@
     <t xml:space="preserve">1.39926159381866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39162373542786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3923876285553</t>
+    <t xml:space="preserve">1.39162385463715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39238750934601</t>
   </si>
   <si>
     <t xml:space="preserve">1.39009630680084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3969703912735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39773392677307</t>
+    <t xml:space="preserve">1.39697027206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39773404598236</t>
   </si>
   <si>
     <t xml:space="preserve">1.40537190437317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40078926086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3984979391098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38474977016449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3786393404007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40460824966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42064774036407</t>
+    <t xml:space="preserve">1.40078914165497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39849770069122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3847496509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37863910198212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40460801124573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42064797878265</t>
   </si>
   <si>
     <t xml:space="preserve">1.41988396644592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3908599615097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40842723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39620649814606</t>
+    <t xml:space="preserve">1.39085984230042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40842747688293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39620673656464</t>
   </si>
   <si>
     <t xml:space="preserve">1.40231692790985</t>
@@ -548,25 +548,25 @@
     <t xml:space="preserve">1.38704109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42293918132782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42752206325531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43668723106384</t>
+    <t xml:space="preserve">1.42293894290924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42752194404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43668735027313</t>
   </si>
   <si>
     <t xml:space="preserve">1.44279766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45883727073669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47411286830902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46800267696381</t>
+    <t xml:space="preserve">1.4588371515274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47411298751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46800255775452</t>
   </si>
   <si>
     <t xml:space="preserve">1.46953022480011</t>
@@ -575,37 +575,37 @@
     <t xml:space="preserve">1.47029399871826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46418380737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45349085330963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42904925346375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4389785528183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44967174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265625953674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812966823578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.540562748909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54667317867279</t>
+    <t xml:space="preserve">1.46418368816376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45349073410034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42904937267303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43897879123688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.449671626091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46265614032745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812990665436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54056262969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54667294025421</t>
   </si>
   <si>
     <t xml:space="preserve">1.55660223960876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56882286071777</t>
+    <t xml:space="preserve">1.56882309913635</t>
   </si>
   <si>
     <t xml:space="preserve">1.53139710426331</t>
@@ -617,10 +617,10 @@
     <t xml:space="preserve">1.54361772537231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5604213476181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55583870410919</t>
+    <t xml:space="preserve">1.56042122840881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5558385848999</t>
   </si>
   <si>
     <t xml:space="preserve">1.55278325080872</t>
@@ -629,43 +629,43 @@
     <t xml:space="preserve">1.59402799606323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57569682598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59937453269958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5963191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59861075878143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59479165077209</t>
+    <t xml:space="preserve">1.57569694519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59937429428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59631943702698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59861052036285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59479153156281</t>
   </si>
   <si>
     <t xml:space="preserve">1.58104360103607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56500399112701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56347644329071</t>
+    <t xml:space="preserve">1.56500375270844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56347620487213</t>
   </si>
   <si>
     <t xml:space="preserve">1.55049192905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53521609306335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54896438121796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52757835388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51841282844543</t>
+    <t xml:space="preserve">1.53521621227264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54896450042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52757823467255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51841259002686</t>
   </si>
   <si>
     <t xml:space="preserve">1.5497282743454</t>
@@ -677,16 +677,16 @@
     <t xml:space="preserve">1.60472095012665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65131211280823</t>
+    <t xml:space="preserve">1.65131223201752</t>
   </si>
   <si>
     <t xml:space="preserve">1.70237553119659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70551776885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72044432163239</t>
+    <t xml:space="preserve">1.70551764965057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72044408321381</t>
   </si>
   <si>
     <t xml:space="preserve">1.70708906650543</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">1.73537027835846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73379898071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84613847732544</t>
+    <t xml:space="preserve">1.73379921913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84613859653473</t>
   </si>
   <si>
     <t xml:space="preserve">1.88698947429657</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">1.92469763755798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00011444091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08181571960449</t>
+    <t xml:space="preserve">2.00011420249939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
     <t xml:space="preserve">2.10145592689514</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">2.03860855102539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06846117973328</t>
+    <t xml:space="preserve">2.0684609413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.01425504684448</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">1.98597395420074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98754513263702</t>
+    <t xml:space="preserve">1.98754489421844</t>
   </si>
   <si>
     <t xml:space="preserve">1.99540102481842</t>
@@ -743,55 +743,55 @@
     <t xml:space="preserve">2.01975417137146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00639939308167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9993292093277</t>
+    <t xml:space="preserve">2.00639915466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99932897090912</t>
   </si>
   <si>
     <t xml:space="preserve">1.96319174766541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0126838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00561332702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00954127311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02525353431702</t>
+    <t xml:space="preserve">2.01268410682678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00561356544495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00954174995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02525329589844</t>
   </si>
   <si>
     <t xml:space="preserve">2.01032733917236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98675942420959</t>
+    <t xml:space="preserve">1.98675966262817</t>
   </si>
   <si>
     <t xml:space="preserve">2.00325703620911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00247144699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0166118144989</t>
+    <t xml:space="preserve">2.00247120857239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01661205291748</t>
   </si>
   <si>
     <t xml:space="preserve">2.02839589118958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99382984638214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97261893749237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99068737030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97968900203705</t>
+    <t xml:space="preserve">1.99382960796356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97261869907379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99068760871887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97968924045563</t>
   </si>
   <si>
     <t xml:space="preserve">1.97733235359192</t>
@@ -803,19 +803,19 @@
     <t xml:space="preserve">1.94119513034821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84771001338959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87599098682404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8453528881073</t>
+    <t xml:space="preserve">1.8477098941803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87599110603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84535312652588</t>
   </si>
   <si>
     <t xml:space="preserve">1.87284886837006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88620400428772</t>
+    <t xml:space="preserve">1.88620388507843</t>
   </si>
   <si>
     <t xml:space="preserve">1.91055715084076</t>
@@ -827,28 +827,28 @@
     <t xml:space="preserve">1.90505790710449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88934624195099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90584349632263</t>
+    <t xml:space="preserve">1.8893461227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90584373474121</t>
   </si>
   <si>
     <t xml:space="preserve">1.91605627536774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91919851303101</t>
+    <t xml:space="preserve">1.91919875144958</t>
   </si>
   <si>
     <t xml:space="preserve">1.93333923816681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90113019943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862558364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92705488204956</t>
+    <t xml:space="preserve">1.90113008022308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862582206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92705464363098</t>
   </si>
   <si>
     <t xml:space="preserve">1.91762745380402</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">1.99618649482727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05981922149658</t>
+    <t xml:space="preserve">2.05981945991516</t>
   </si>
   <si>
     <t xml:space="preserve">2.05746293067932</t>
@@ -884,31 +884,31 @@
     <t xml:space="preserve">1.97811806201935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97576093673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95062220096588</t>
+    <t xml:space="preserve">1.97576117515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95062243938446</t>
   </si>
   <si>
     <t xml:space="preserve">1.93962395191193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93726718425751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93805265426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93255400657654</t>
+    <t xml:space="preserve">1.93726694583893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93805289268494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93255376815796</t>
   </si>
   <si>
     <t xml:space="preserve">1.94826555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9671196937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95376491546631</t>
+    <t xml:space="preserve">1.96711993217468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95376467704773</t>
   </si>
   <si>
     <t xml:space="preserve">1.95219349861145</t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">1.9490510225296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95533585548401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94669425487518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92548334598541</t>
+    <t xml:space="preserve">1.95533573627472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94669449329376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92548358440399</t>
   </si>
   <si>
     <t xml:space="preserve">1.92234098911285</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">1.9231264591217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89720225334167</t>
+    <t xml:space="preserve">1.8972020149231</t>
   </si>
   <si>
     <t xml:space="preserve">1.9034868478775</t>
@@ -953,16 +953,16 @@
     <t xml:space="preserve">1.89484548568726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89955914020538</t>
+    <t xml:space="preserve">1.89955878257751</t>
   </si>
   <si>
     <t xml:space="preserve">1.89013171195984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89563095569611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89327430725098</t>
+    <t xml:space="preserve">1.89563071727753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89327418804169</t>
   </si>
   <si>
     <t xml:space="preserve">1.91527056694031</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">1.90191555023193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93098282814026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98126006126404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02132558822632</t>
+    <t xml:space="preserve">1.9309823513031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98126029968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02132534980774</t>
   </si>
   <si>
     <t xml:space="preserve">2.00090026855469</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">2.06610417366028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05039215087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03153800964355</t>
+    <t xml:space="preserve">2.05039238929749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03153824806213</t>
   </si>
   <si>
     <t xml:space="preserve">2.0566771030426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05353474617004</t>
+    <t xml:space="preserve">2.05353498458862</t>
   </si>
   <si>
     <t xml:space="preserve">2.04803562164307</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">2.11245393753052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0739598274231</t>
+    <t xml:space="preserve">2.07396006584167</t>
   </si>
   <si>
     <t xml:space="preserve">2.08652949333191</t>
@@ -1028,37 +1028,37 @@
     <t xml:space="preserve">2.05196356773376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08574390411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05117797851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.062175989151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06924653053284</t>
+    <t xml:space="preserve">2.08574366569519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0511782169342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06217622756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06924676895142</t>
   </si>
   <si>
     <t xml:space="preserve">2.11323952674866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15251898765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16587424278259</t>
+    <t xml:space="preserve">2.1525194644928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16587400436401</t>
   </si>
   <si>
     <t xml:space="preserve">2.17215895652771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17294478416443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16823124885559</t>
+    <t xml:space="preserve">2.17294454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17687249183655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16823101043701</t>
   </si>
   <si>
     <t xml:space="preserve">2.18708515167236</t>
@@ -1070,31 +1070,31 @@
     <t xml:space="preserve">2.2035825252533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1917986869812</t>
+    <t xml:space="preserve">2.19179844856262</t>
   </si>
   <si>
     <t xml:space="preserve">2.17765808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16037487983704</t>
+    <t xml:space="preserve">2.16037511825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.1501624584198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14937663078308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14859127998352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16665983200073</t>
+    <t xml:space="preserve">2.14937686920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14859104156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16665959358215</t>
   </si>
   <si>
     <t xml:space="preserve">2.17451572418213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1957266330719</t>
+    <t xml:space="preserve">2.19572687149048</t>
   </si>
   <si>
     <t xml:space="preserve">2.17608690261841</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">2.30963754653931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27035784721375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26250171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30178141593933</t>
+    <t xml:space="preserve">2.27035760879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26250195503235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30178165435791</t>
   </si>
   <si>
     <t xml:space="preserve">2.31749320030212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41176438331604</t>
+    <t xml:space="preserve">2.41176414489746</t>
   </si>
   <si>
     <t xml:space="preserve">2.46675562858582</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">2.41961979866028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43533182144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47461175918579</t>
+    <t xml:space="preserve">2.43533205986023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47461152076721</t>
   </si>
   <si>
     <t xml:space="preserve">2.42747592926025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38819622993469</t>
+    <t xml:space="preserve">2.38819646835327</t>
   </si>
   <si>
     <t xml:space="preserve">2.36462879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38034057617188</t>
+    <t xml:space="preserve">2.3803403377533</t>
   </si>
   <si>
     <t xml:space="preserve">2.40390825271606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39605236053467</t>
+    <t xml:space="preserve">2.39605212211609</t>
   </si>
   <si>
     <t xml:space="preserve">2.35677242279053</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">2.54531455039978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49032354354858</t>
+    <t xml:space="preserve">2.49032330513</t>
   </si>
   <si>
     <t xml:space="preserve">2.66315340995789</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">2.65529751777649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73385620117188</t>
+    <t xml:space="preserve">2.73385643959045</t>
   </si>
   <si>
     <t xml:space="preserve">2.56888246536255</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">2.60030603408813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57673835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50603485107422</t>
+    <t xml:space="preserve">2.57673811912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5060350894928</t>
   </si>
   <si>
     <t xml:space="preserve">2.5374584197998</t>
@@ -1199,55 +1199,55 @@
     <t xml:space="preserve">2.5531702041626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51389098167419</t>
+    <t xml:space="preserve">2.51389074325562</t>
   </si>
   <si>
     <t xml:space="preserve">2.59245014190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56102609634399</t>
+    <t xml:space="preserve">2.56102633476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.52174663543701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61601781845093</t>
+    <t xml:space="preserve">2.61601758003235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63958525657654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68816685676575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70436096191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69626355171204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197322845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61529493331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62339186668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63148856163025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65577912330627</t>
   </si>
   <si>
     <t xml:space="preserve">2.63958549499512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68816709518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70436072349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69626355171204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197322845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61529493331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62339162826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63148880004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65577936172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63958525657654</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.59100413322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60719799995422</t>
+    <t xml:space="preserve">2.6071982383728</t>
   </si>
   <si>
     <t xml:space="preserve">2.53432583808899</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">2.42906618118286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40477585792542</t>
+    <t xml:space="preserve">2.40477609634399</t>
   </si>
   <si>
     <t xml:space="preserve">2.38048505783081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4128725528717</t>
+    <t xml:space="preserve">2.41287279129028</t>
   </si>
   <si>
     <t xml:space="preserve">2.32380700111389</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">2.29951643943787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.291419506073</t>
+    <t xml:space="preserve">2.29141926765442</t>
   </si>
   <si>
     <t xml:space="preserve">2.31571006774902</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">2.33190369606018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35619425773621</t>
+    <t xml:space="preserve">2.35619449615479</t>
   </si>
   <si>
     <t xml:space="preserve">2.26712870597839</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">2.2104504108429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28332233428955</t>
+    <t xml:space="preserve">2.28332257270813</t>
   </si>
   <si>
     <t xml:space="preserve">2.3480978012085</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">2.21854734420776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19425678253174</t>
+    <t xml:space="preserve">2.19425702095032</t>
   </si>
   <si>
     <t xml:space="preserve">2.22664427757263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18615984916687</t>
+    <t xml:space="preserve">2.18615961074829</t>
   </si>
   <si>
     <t xml:space="preserve">2.178062915802</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">2.16996598243713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16186904907227</t>
+    <t xml:space="preserve">2.16186928749084</t>
   </si>
   <si>
     <t xml:space="preserve">2.12948179244995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23474097251892</t>
+    <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
     <t xml:space="preserve">2.25903177261353</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">2.24283814430237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27522587776184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39667916297913</t>
+    <t xml:space="preserve">2.27522563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39667892456055</t>
   </si>
   <si>
     <t xml:space="preserve">2.1213846206665</t>
@@ -1340,13 +1340,13 @@
     <t xml:space="preserve">2.10519099235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11328792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09709405899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0566098690033</t>
+    <t xml:space="preserve">2.11328768730164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09709429740906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05660963058472</t>
   </si>
   <si>
     <t xml:space="preserve">2.04851269721985</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">2.02422213554382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754384040833</t>
+    <t xml:space="preserve">1.96754360198975</t>
   </si>
   <si>
     <t xml:space="preserve">1.95944702625275</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">1.93515622615814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95135021209717</t>
+    <t xml:space="preserve">1.95134997367859</t>
   </si>
   <si>
     <t xml:space="preserve">1.87038111686707</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">1.94325304031372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25093483924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15377259254456</t>
+    <t xml:space="preserve">2.25093507766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15377235412598</t>
   </si>
   <si>
     <t xml:space="preserve">2.13757848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08899712562561</t>
+    <t xml:space="preserve">2.08899688720703</t>
   </si>
   <si>
     <t xml:space="preserve">2.06470656394958</t>
@@ -1403,34 +1403,34 @@
     <t xml:space="preserve">1.92705941200256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88657486438751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82989680767059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85418736934662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90276873111725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97564053535461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99993133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30761289596558</t>
+    <t xml:space="preserve">1.88657510280609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82989692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85418748855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179987430573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90276861190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97564077377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9999315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30761313438416</t>
   </si>
   <si>
     <t xml:space="preserve">2.20235395431519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14567518234253</t>
+    <t xml:space="preserve">2.14567542076111</t>
   </si>
   <si>
     <t xml:space="preserve">2.36429142951965</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45335721969604</t>
+    <t xml:space="preserve">2.45335698127747</t>
   </si>
   <si>
     <t xml:space="preserve">2.42096972465515</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">2.48574471473694</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49384164810181</t>
+    <t xml:space="preserve">2.49384140968323</t>
   </si>
   <si>
     <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51813220977783</t>
+    <t xml:space="preserve">2.51813268661499</t>
   </si>
   <si>
     <t xml:space="preserve">2.5262291431427</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">2.4695508480072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44526028633118</t>
+    <t xml:space="preserve">2.44526052474976</t>
   </si>
   <si>
     <t xml:space="preserve">2.47764754295349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55861663818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58290719985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387629508972</t>
+    <t xml:space="preserve">2.55861687660217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5829074382782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6638765335083</t>
   </si>
   <si>
     <t xml:space="preserve">2.65539240837097</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">2.54510450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56207203865051</t>
+    <t xml:space="preserve">2.56207227706909</t>
   </si>
   <si>
     <t xml:space="preserve">2.58752298355103</t>
@@ -1508,25 +1508,25 @@
     <t xml:space="preserve">2.5960066318512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61297416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51117014884949</t>
+    <t xml:space="preserve">2.61297392845154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51116991043091</t>
   </si>
   <si>
     <t xml:space="preserve">2.53662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52813720703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46875143051147</t>
+    <t xml:space="preserve">2.52813744544983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46875166893005</t>
   </si>
   <si>
     <t xml:space="preserve">2.49420261383057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38391494750977</t>
+    <t xml:space="preserve">2.38391470909119</t>
   </si>
   <si>
     <t xml:space="preserve">2.37543106079102</t>
@@ -1556,40 +1556,40 @@
     <t xml:space="preserve">2.47723531723022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57055592536926</t>
+    <t xml:space="preserve">2.57055568695068</t>
   </si>
   <si>
     <t xml:space="preserve">2.62145781517029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842511177063</t>
+    <t xml:space="preserve">2.63842558860779</t>
   </si>
   <si>
     <t xml:space="preserve">2.64690899848938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69781088829041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70629453659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67236018180847</t>
+    <t xml:space="preserve">2.69781112670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70629477500916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67235994338989</t>
   </si>
   <si>
     <t xml:space="preserve">2.71477818489075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72326183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68084359169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68932747840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51965379714966</t>
+    <t xml:space="preserve">2.72326159477234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68084383010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68932723999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51965403556824</t>
   </si>
   <si>
     <t xml:space="preserve">2.43481683731079</t>
@@ -1610,13 +1610,13 @@
     <t xml:space="preserve">2.4857189655304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39239835739136</t>
+    <t xml:space="preserve">2.39239859580994</t>
   </si>
   <si>
     <t xml:space="preserve">2.40936589241028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40088224411011</t>
+    <t xml:space="preserve">2.40088200569153</t>
   </si>
   <si>
     <t xml:space="preserve">2.20575737953186</t>
@@ -1628,37 +1628,37 @@
     <t xml:space="preserve">2.2227246761322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1718225479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19727373123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21424126625061</t>
+    <t xml:space="preserve">2.17182278633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19727396965027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21424102783203</t>
   </si>
   <si>
     <t xml:space="preserve">2.13788819313049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97669792175293</t>
+    <t xml:space="preserve">1.97669816017151</t>
   </si>
   <si>
     <t xml:space="preserve">1.73067116737366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73915481567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69673645496368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53554666042328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56948125362396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57796490192413</t>
+    <t xml:space="preserve">1.73915505409241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69673657417297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53554654121399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56948113441467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57796514034271</t>
   </si>
   <si>
     <t xml:space="preserve">1.68401110172272</t>
@@ -1667,10 +1667,10 @@
     <t xml:space="preserve">1.62462520599365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61614143848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59917426109314</t>
+    <t xml:space="preserve">1.61614155769348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59917402267456</t>
   </si>
   <si>
     <t xml:space="preserve">1.5609974861145</t>
@@ -1679,28 +1679,28 @@
     <t xml:space="preserve">1.65431809425354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67128551006317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64159250259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62886691093445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65007627010345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6373507976532</t>
+    <t xml:space="preserve">1.67128539085388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64159274101257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62886714935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65007638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63735055923462</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76460587978363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67552721500397</t>
+    <t xml:space="preserve">1.76460576057434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67552733421326</t>
   </si>
   <si>
     <t xml:space="preserve">1.69249475002289</t>
@@ -1709,10 +1709,10 @@
     <t xml:space="preserve">1.65855979919434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68825280666351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74763882160187</t>
+    <t xml:space="preserve">1.6882529258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74763870239258</t>
   </si>
   <si>
     <t xml:space="preserve">1.78157329559326</t>
@@ -1721,49 +1721,49 @@
     <t xml:space="preserve">1.84095919132233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80702424049377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79005706310272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7730895280838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72218763828278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82399165630341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83247518539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84944260120392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86641013622284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90034484863281</t>
+    <t xml:space="preserve">1.80702447891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79005694389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77308964729309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72218751907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82399153709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83247542381287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84944272041321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86641025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9003449678421</t>
   </si>
   <si>
     <t xml:space="preserve">1.95973062515259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90882849693298</t>
+    <t xml:space="preserve">1.90882861614227</t>
   </si>
   <si>
     <t xml:space="preserve">1.88337755203247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89186131954193</t>
+    <t xml:space="preserve">1.89186096191406</t>
   </si>
   <si>
     <t xml:space="preserve">1.8748939037323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85792660713196</t>
+    <t xml:space="preserve">1.85792636871338</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">1.75612235069275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67976891994476</t>
+    <t xml:space="preserve">1.67976903915405</t>
   </si>
   <si>
     <t xml:space="preserve">1.71370387077332</t>
@@ -1784,10 +1784,10 @@
     <t xml:space="preserve">1.64583444595337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59493231773376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60341596603394</t>
+    <t xml:space="preserve">1.59493207931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60341572761536</t>
   </si>
   <si>
     <t xml:space="preserve">1.56523942947388</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">1.54827213287354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312818050385</t>
+    <t xml:space="preserve">1.49312806129456</t>
   </si>
   <si>
     <t xml:space="preserve">1.48464453220367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47191882133484</t>
+    <t xml:space="preserve">1.47191894054413</t>
   </si>
   <si>
     <t xml:space="preserve">1.46767699718475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49736988544464</t>
+    <t xml:space="preserve">1.49736976623535</t>
   </si>
   <si>
     <t xml:space="preserve">1.47616064548492</t>
@@ -1820,34 +1820,34 @@
     <t xml:space="preserve">1.42525851726532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39132392406464</t>
+    <t xml:space="preserve">1.39132380485535</t>
   </si>
   <si>
     <t xml:space="preserve">1.44222593307495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41677498817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36163091659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3489054441452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36587285995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39556574821472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38284003734589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40829133987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43374228477478</t>
+    <t xml:space="preserve">1.41677510738373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36163079738617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34890556335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36587297916412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39556586742401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38284015655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40829122066498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43374240398407</t>
   </si>
   <si>
     <t xml:space="preserve">1.41253304481506</t>
@@ -1856,43 +1856,43 @@
     <t xml:space="preserve">1.45919346809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46343529224396</t>
+    <t xml:space="preserve">1.46343517303467</t>
   </si>
   <si>
     <t xml:space="preserve">1.44646787643433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45070970058441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43798434734344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53130447864532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58644878864288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038326263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61189961433411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55675566196442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59069049358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57372295856476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58220660686493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60765790939331</t>
+    <t xml:space="preserve">1.4507098197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43798422813416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53130459785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58644866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038350105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61189985275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55675578117371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59069037437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57372283935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5822069644928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60765767097473</t>
   </si>
   <si>
     <t xml:space="preserve">1.54403030872345</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">2.16333913803101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35846352577209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34149622917175</t>
+    <t xml:space="preserve">2.35846376419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34149646759033</t>
   </si>
   <si>
     <t xml:space="preserve">2.27362680435181</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">2.33348941802979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34213185310364</t>
+    <t xml:space="preserve">2.34213209152222</t>
   </si>
   <si>
     <t xml:space="preserve">2.35077452659607</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">2.46312761306763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47177004814148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48905515670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50634026527405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55819582939148</t>
+    <t xml:space="preserve">2.47177028656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48905539512634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50634050369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5581955909729</t>
   </si>
   <si>
     <t xml:space="preserve">2.58412337303162</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52362537384033</t>
+    <t xml:space="preserve">2.52362561225891</t>
   </si>
   <si>
     <t xml:space="preserve">2.4976978302002</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">2.54955315589905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54091048240662</t>
+    <t xml:space="preserve">2.5409107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.53226804733276</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">2.42855739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40262961387634</t>
+    <t xml:space="preserve">2.40262985229492</t>
   </si>
   <si>
     <t xml:space="preserve">2.41991496086121</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">2.45448517799377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39398717880249</t>
+    <t xml:space="preserve">2.39398741722107</t>
   </si>
   <si>
     <t xml:space="preserve">2.38534474372864</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">2.22977876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28163385391235</t>
+    <t xml:space="preserve">2.28163409233093</t>
   </si>
   <si>
     <t xml:space="preserve">2.17792344093323</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">2.19520854949951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16063833236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26434874534607</t>
+    <t xml:space="preserve">2.16063809394836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26434898376465</t>
   </si>
   <si>
     <t xml:space="preserve">2.23842120170593</t>
@@ -2075,16 +2075,16 @@
     <t xml:space="preserve">2.61869359016418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73968958854675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83475756645203</t>
+    <t xml:space="preserve">2.73968935012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83475732803345</t>
   </si>
   <si>
     <t xml:space="preserve">2.81747198104858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93846797943115</t>
+    <t xml:space="preserve">2.93846821784973</t>
   </si>
   <si>
     <t xml:space="preserve">2.9730384349823</t>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">3.37059569358826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44837880134583</t>
+    <t xml:space="preserve">3.4483790397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.2582426071167</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">3.22367215156555</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20638704299927</t>
+    <t xml:space="preserve">3.20638680458069</t>
   </si>
   <si>
     <t xml:space="preserve">3.24959993362427</t>
@@ -2159,28 +2159,28 @@
     <t xml:space="preserve">3.39652323722839</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23231506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06810617446899</t>
+    <t xml:space="preserve">3.23231482505798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06810641288757</t>
   </si>
   <si>
     <t xml:space="preserve">3.15453195571899</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18045926094055</t>
+    <t xml:space="preserve">3.18045949935913</t>
   </si>
   <si>
     <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29281234741211</t>
+    <t xml:space="preserve">3.29281258583069</t>
   </si>
   <si>
     <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11996126174927</t>
+    <t xml:space="preserve">3.11996150016785</t>
   </si>
   <si>
     <t xml:space="preserve">3.13724684715271</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">3.10267663002014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34466814994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42245054244995</t>
+    <t xml:space="preserve">3.34466791152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42245078086853</t>
   </si>
   <si>
     <t xml:space="preserve">3.41380834579468</t>
@@ -59912,7 +59912,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6494444444</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>7701</v>
@@ -59933,6 +59933,32 @@
         <v>909</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6495949074</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>2.72000002861023</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>2.67499995231628</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>2.6800000667572</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>2.69000005722046</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>921</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="926">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3004857301712</t>
+    <t xml:space="preserve">1.30048561096191</t>
   </si>
   <si>
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973936080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29750096797943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27586352825165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26840233802795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27511727809906</t>
+    <t xml:space="preserve">1.29973959922791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29750108718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27586364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26840221881866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27511739730835</t>
   </si>
   <si>
     <t xml:space="preserve">1.26765620708466</t>
@@ -71,25 +71,25 @@
     <t xml:space="preserve">1.25944912433624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25347983837128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25273394584656</t>
+    <t xml:space="preserve">1.25347995758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25273382663727</t>
   </si>
   <si>
     <t xml:space="preserve">1.21766638755798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24676477909088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31167733669281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30496227741241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30123174190521</t>
+    <t xml:space="preserve">1.24676465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31167721748352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30496203899384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30123162269592</t>
   </si>
   <si>
     <t xml:space="preserve">1.30570840835571</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">1.31988477706909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28929376602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27884793281555</t>
+    <t xml:space="preserve">1.28929388523102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27884817123413</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317942142487</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">1.24601888656616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28034019470215</t>
+    <t xml:space="preserve">1.28034043312073</t>
   </si>
   <si>
     <t xml:space="preserve">1.25721073150635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31316959857941</t>
+    <t xml:space="preserve">1.3131697177887</t>
   </si>
   <si>
     <t xml:space="preserve">1.32063090801239</t>
@@ -128,82 +128,82 @@
     <t xml:space="preserve">1.31391572952271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3243613243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26989459991455</t>
+    <t xml:space="preserve">1.32436120510101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26989471912384</t>
   </si>
   <si>
     <t xml:space="preserve">1.28183245658875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32958424091339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32212293148041</t>
+    <t xml:space="preserve">1.3295841217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32212281227112</t>
   </si>
   <si>
     <t xml:space="preserve">1.32809174060822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32734596729279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3348069190979</t>
+    <t xml:space="preserve">1.3273458480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33480703830719</t>
   </si>
   <si>
     <t xml:space="preserve">1.32286894321442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3101851940155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31764614582062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30272388458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30347001552582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29675495624542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29078590869904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28854763507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28780138492584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30684328079224</t>
+    <t xml:space="preserve">1.31018495559692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3176463842392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30272364616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30346989631653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29675507545471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29078602790833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28854751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28780150413513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30684316158295</t>
   </si>
   <si>
     <t xml:space="preserve">1.3167724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32364666461945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33433938026428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3320484161377</t>
+    <t xml:space="preserve">1.32364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33433949947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33204829692841</t>
   </si>
   <si>
     <t xml:space="preserve">1.32975697517395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3305207490921</t>
+    <t xml:space="preserve">1.33052086830139</t>
   </si>
   <si>
     <t xml:space="preserve">1.31830012798309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32670187950134</t>
+    <t xml:space="preserve">1.32670176029205</t>
   </si>
   <si>
     <t xml:space="preserve">1.32211899757385</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">1.34044992923737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33663094043732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33510339260101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32899308204651</t>
+    <t xml:space="preserve">1.33663105964661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33510315418243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3289932012558</t>
   </si>
   <si>
     <t xml:space="preserve">1.32822930812836</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">1.3213552236557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33815848827362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34426891803741</t>
+    <t xml:space="preserve">1.3381587266922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3442690372467</t>
   </si>
   <si>
     <t xml:space="preserve">1.34350502490997</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">1.31906378269196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29538631439209</t>
+    <t xml:space="preserve">1.2953861951828</t>
   </si>
   <si>
     <t xml:space="preserve">1.29767763614655</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">1.28316569328308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28851246833801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28011059761047</t>
+    <t xml:space="preserve">1.28851234912872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28011047840118</t>
   </si>
   <si>
     <t xml:space="preserve">1.25948822498322</t>
@@ -263,28 +263,28 @@
     <t xml:space="preserve">1.26025199890137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23733842372894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22970056533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2396297454834</t>
+    <t xml:space="preserve">1.23733854293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22970044612885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23962962627411</t>
   </si>
   <si>
     <t xml:space="preserve">1.22053492069244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22206258773804</t>
+    <t xml:space="preserve">1.22206270694733</t>
   </si>
   <si>
     <t xml:space="preserve">1.22129881381989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2411572933197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27552783489227</t>
+    <t xml:space="preserve">1.24115741252899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27552795410156</t>
   </si>
   <si>
     <t xml:space="preserve">1.27476406097412</t>
@@ -293,28 +293,28 @@
     <t xml:space="preserve">1.29385876655579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29309499263763</t>
+    <t xml:space="preserve">1.29309487342834</t>
   </si>
   <si>
     <t xml:space="preserve">1.29233109951019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28927600383759</t>
+    <t xml:space="preserve">1.28927624225616</t>
   </si>
   <si>
     <t xml:space="preserve">1.25872445106506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28469336032867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24955904483795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27018129825592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27629160881042</t>
+    <t xml:space="preserve">1.28469324111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24955892562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27018141746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27629137039185</t>
   </si>
   <si>
     <t xml:space="preserve">1.28698480129242</t>
@@ -326,25 +326,25 @@
     <t xml:space="preserve">1.28240191936493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34121382236481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31371736526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36412727832794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572552680969</t>
+    <t xml:space="preserve">1.34121358394623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3137172460556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36412739753723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572564601898</t>
   </si>
   <si>
     <t xml:space="preserve">1.38093078136444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3740565776825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38551354408264</t>
+    <t xml:space="preserve">1.37405669689178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38551342487335</t>
   </si>
   <si>
     <t xml:space="preserve">1.36030840873718</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">1.3755841255188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35419809818268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954463481903</t>
+    <t xml:space="preserve">1.35419797897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954451560974</t>
   </si>
   <si>
     <t xml:space="preserve">1.35648941993713</t>
@@ -368,34 +368,34 @@
     <t xml:space="preserve">1.34503269195557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35190689563751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35725331306458</t>
+    <t xml:space="preserve">1.3519070148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35725319385529</t>
   </si>
   <si>
     <t xml:space="preserve">1.35496175289154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34961569309235</t>
+    <t xml:space="preserve">1.34961545467377</t>
   </si>
   <si>
     <t xml:space="preserve">1.3488517999649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35801708698273</t>
+    <t xml:space="preserve">1.35801696777344</t>
   </si>
   <si>
     <t xml:space="preserve">1.36259984970093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32441020011902</t>
+    <t xml:space="preserve">1.32441031932831</t>
   </si>
   <si>
     <t xml:space="preserve">1.322882771492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30226039886475</t>
+    <t xml:space="preserve">1.30226027965546</t>
   </si>
   <si>
     <t xml:space="preserve">1.30989837646484</t>
@@ -404,25 +404,25 @@
     <t xml:space="preserve">1.32059144973755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33586716651917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31295347213745</t>
+    <t xml:space="preserve">1.33586704730988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31295335292816</t>
   </si>
   <si>
     <t xml:space="preserve">1.30455183982849</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29462254047394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30073297023773</t>
+    <t xml:space="preserve">1.29462242126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30073285102844</t>
   </si>
   <si>
     <t xml:space="preserve">1.2984414100647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29080367088318</t>
+    <t xml:space="preserve">1.29080355167389</t>
   </si>
   <si>
     <t xml:space="preserve">1.29615008831024</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">1.28545713424683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2625435590744</t>
+    <t xml:space="preserve">1.26254343986511</t>
   </si>
   <si>
     <t xml:space="preserve">1.26407098770142</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">1.27170896530151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26789009571075</t>
+    <t xml:space="preserve">1.26788997650146</t>
   </si>
   <si>
     <t xml:space="preserve">1.24192106723785</t>
@@ -449,19 +449,19 @@
     <t xml:space="preserve">1.23351943492889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26712620258331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24497640132904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24879515171051</t>
+    <t xml:space="preserve">1.2671263217926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24497628211975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2487952709198</t>
   </si>
   <si>
     <t xml:space="preserve">1.27323639392853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26941764354706</t>
+    <t xml:space="preserve">1.26941752433777</t>
   </si>
   <si>
     <t xml:space="preserve">1.31448101997375</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">1.33357560634613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34197747707367</t>
+    <t xml:space="preserve">1.34197759628296</t>
   </si>
   <si>
     <t xml:space="preserve">1.35114312171936</t>
@@ -485,82 +485,82 @@
     <t xml:space="preserve">1.38322222232819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39926183223724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162373542786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39238774776459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39009642601013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39697027206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39773404598236</t>
+    <t xml:space="preserve">1.39926159381866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162385463715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39238786697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39009630680084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3969703912735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39773392677307</t>
   </si>
   <si>
     <t xml:space="preserve">1.40537190437317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40078938007355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39849781990051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3847496509552</t>
+    <t xml:space="preserve">1.40078926086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39849770069122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38474977016449</t>
   </si>
   <si>
     <t xml:space="preserve">1.3786393404007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40460824966431</t>
+    <t xml:space="preserve">1.40460813045502</t>
   </si>
   <si>
     <t xml:space="preserve">1.42064785957336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41988408565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3908599615097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40842711925507</t>
+    <t xml:space="preserve">1.41988384723663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39086008071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40842723846436</t>
   </si>
   <si>
     <t xml:space="preserve">1.39620649814606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40231692790985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40384447574615</t>
+    <t xml:space="preserve">1.40231680870056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40384435653687</t>
   </si>
   <si>
     <t xml:space="preserve">1.38704109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42293906211853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42752194404602</t>
+    <t xml:space="preserve">1.42293918132782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42752182483673</t>
   </si>
   <si>
     <t xml:space="preserve">1.43668723106384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44279778003693</t>
+    <t xml:space="preserve">1.44279754161835</t>
   </si>
   <si>
     <t xml:space="preserve">1.4588371515274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47411298751831</t>
+    <t xml:space="preserve">1.47411286830902</t>
   </si>
   <si>
     <t xml:space="preserve">1.46800267696381</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">1.47029411792755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46418380737305</t>
+    <t xml:space="preserve">1.46418368816376</t>
   </si>
   <si>
     <t xml:space="preserve">1.45349061489105</t>
@@ -584,52 +584,52 @@
     <t xml:space="preserve">1.43897879123688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44967174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265602111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812966823578</t>
+    <t xml:space="preserve">1.44967186450958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46265614032745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812978744507</t>
   </si>
   <si>
     <t xml:space="preserve">1.540562748909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54667317867279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55660212039948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56882297992706</t>
+    <t xml:space="preserve">1.54667329788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55660223960876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56882321834564</t>
   </si>
   <si>
     <t xml:space="preserve">1.5313972234726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52223169803619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361772537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56042146682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55583846569061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55278301239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59402775764465</t>
+    <t xml:space="preserve">1.52223181724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5436178445816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56042110919952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55583834648132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55278313159943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59402787685394</t>
   </si>
   <si>
     <t xml:space="preserve">1.57569670677185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5993744134903</t>
+    <t xml:space="preserve">1.59937465190887</t>
   </si>
   <si>
     <t xml:space="preserve">1.5963191986084</t>
@@ -641,25 +641,25 @@
     <t xml:space="preserve">1.59479153156281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58104372024536</t>
+    <t xml:space="preserve">1.58104360103607</t>
   </si>
   <si>
     <t xml:space="preserve">1.56500387191772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56347632408142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049192905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53521609306335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54896461963654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52757835388184</t>
+    <t xml:space="preserve">1.56347620487213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049204826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53521597385406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54896450042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52757823467255</t>
   </si>
   <si>
     <t xml:space="preserve">1.51841270923615</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">1.5497282743454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58715403079987</t>
+    <t xml:space="preserve">1.58715391159058</t>
   </si>
   <si>
     <t xml:space="preserve">1.60472095012665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65131235122681</t>
+    <t xml:space="preserve">1.65131223201752</t>
   </si>
   <si>
     <t xml:space="preserve">1.70237553119659</t>
@@ -2787,6 +2787,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.71499991416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66499996185303</t>
   </si>
 </sst>
 </file>
@@ -59964,7 +59967,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6212962963</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>205</v>
@@ -59985,6 +59988,32 @@
         <v>911</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.5827777778</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>6088</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>2.67499995231628</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>2.67499995231628</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>925</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -65,34 +65,34 @@
     <t xml:space="preserve">1.29004001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26616406440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944900512695</t>
+    <t xml:space="preserve">1.26616382598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25944888591766</t>
   </si>
   <si>
     <t xml:space="preserve">1.25347995758057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25273406505585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2176661491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676489830017</t>
+    <t xml:space="preserve">1.25273394584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21766626834869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24676465988159</t>
   </si>
   <si>
     <t xml:space="preserve">1.31167721748352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30496203899384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30123162269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30570840835571</t>
+    <t xml:space="preserve">1.30496215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30123174190521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30570828914642</t>
   </si>
   <si>
     <t xml:space="preserve">1.3198846578598</t>
@@ -101,58 +101,58 @@
     <t xml:space="preserve">1.28929376602173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27884805202484</t>
+    <t xml:space="preserve">1.27884829044342</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317954063416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27437126636505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24601876735687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28034031391144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25721049308777</t>
+    <t xml:space="preserve">1.27437138557434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24601888656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28034055233002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25721073150635</t>
   </si>
   <si>
     <t xml:space="preserve">1.31316947937012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3206307888031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31391561031342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32436120510101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26989471912384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28183257579803</t>
+    <t xml:space="preserve">1.32063066959381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31391584873199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32436144351959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26989459991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28183233737946</t>
   </si>
   <si>
     <t xml:space="preserve">1.32958400249481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32212281227112</t>
+    <t xml:space="preserve">1.32212293148041</t>
   </si>
   <si>
     <t xml:space="preserve">1.32809174060822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3273458480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33480679988861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32286894321442</t>
+    <t xml:space="preserve">1.32734596729279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33480703830719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32286906242371</t>
   </si>
   <si>
     <t xml:space="preserve">1.31018507480621</t>
@@ -161,37 +161,37 @@
     <t xml:space="preserve">1.31764614582062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30272388458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30346989631653</t>
+    <t xml:space="preserve">1.30272376537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30347001552582</t>
   </si>
   <si>
     <t xml:space="preserve">1.29675483703613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29078578948975</t>
+    <t xml:space="preserve">1.29078590869904</t>
   </si>
   <si>
     <t xml:space="preserve">1.28854763507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28780162334442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30684316158295</t>
+    <t xml:space="preserve">1.28780150413513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30684328079224</t>
   </si>
   <si>
     <t xml:space="preserve">1.3167724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32364642620087</t>
+    <t xml:space="preserve">1.32364654541016</t>
   </si>
   <si>
     <t xml:space="preserve">1.33433961868286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33204829692841</t>
+    <t xml:space="preserve">1.3320484161377</t>
   </si>
   <si>
     <t xml:space="preserve">1.32975685596466</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">1.33052062988281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31830012798309</t>
+    <t xml:space="preserve">1.3183000087738</t>
   </si>
   <si>
     <t xml:space="preserve">1.32670176029205</t>
@@ -209,37 +209,37 @@
     <t xml:space="preserve">1.32211887836456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34044981002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33663105964661</t>
+    <t xml:space="preserve">1.34044992923737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33663094043732</t>
   </si>
   <si>
     <t xml:space="preserve">1.33510327339172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899296283722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32822930812836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3213552236557</t>
+    <t xml:space="preserve">1.32899308204651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32822918891907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32135510444641</t>
   </si>
   <si>
     <t xml:space="preserve">1.33815848827362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3442690372467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34350502490997</t>
+    <t xml:space="preserve">1.34426879882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34350514411926</t>
   </si>
   <si>
     <t xml:space="preserve">1.33892238140106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31906390190125</t>
+    <t xml:space="preserve">1.31906378269196</t>
   </si>
   <si>
     <t xml:space="preserve">1.29538631439209</t>
@@ -257,70 +257,70 @@
     <t xml:space="preserve">1.28011059761047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25948822498322</t>
+    <t xml:space="preserve">1.2594883441925</t>
   </si>
   <si>
     <t xml:space="preserve">1.26025223731995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23733842372894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22970032691956</t>
+    <t xml:space="preserve">1.23733830451965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22970056533813</t>
   </si>
   <si>
     <t xml:space="preserve">1.2396297454834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22053515911102</t>
+    <t xml:space="preserve">1.22053492069244</t>
   </si>
   <si>
     <t xml:space="preserve">1.22206258773804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22129893302917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24115741252899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27552795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27476418018341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29385888576508</t>
+    <t xml:space="preserve">1.2212986946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2411572933197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27552783489227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27476394176483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29385876655579</t>
   </si>
   <si>
     <t xml:space="preserve">1.29309499263763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29233121871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28927612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25872433185577</t>
+    <t xml:space="preserve">1.29233109951019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28927600383759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25872445106506</t>
   </si>
   <si>
     <t xml:space="preserve">1.28469324111938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24955904483795</t>
+    <t xml:space="preserve">1.24955892562866</t>
   </si>
   <si>
     <t xml:space="preserve">1.27018129825592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27629172801971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28698468208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28622090816498</t>
+    <t xml:space="preserve">1.27629148960114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28698480129242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28622078895569</t>
   </si>
   <si>
     <t xml:space="preserve">1.28240203857422</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">1.31371736526489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36412751674652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572564601898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38093078136444</t>
+    <t xml:space="preserve">1.36412739753723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572576522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38093054294586</t>
   </si>
   <si>
     <t xml:space="preserve">1.37405669689178</t>
@@ -347,52 +347,52 @@
     <t xml:space="preserve">1.38551354408264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36030828952789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37329292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558436393738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35419797897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35954463481903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35648941993713</t>
+    <t xml:space="preserve">1.36030840873718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37329280376434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3755841255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35419809818268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35954451560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35648953914642</t>
   </si>
   <si>
     <t xml:space="preserve">1.34503269195557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35190677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35725331306458</t>
+    <t xml:space="preserve">1.35190689563751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35725343227386</t>
   </si>
   <si>
     <t xml:space="preserve">1.35496199131012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34961557388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885144233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35801720619202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36259996891022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3244104385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288289070129</t>
+    <t xml:space="preserve">1.34961533546448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34885168075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35801732540131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36259973049164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32441055774689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.322882771492</t>
   </si>
   <si>
     <t xml:space="preserve">1.30226051807404</t>
@@ -404,94 +404,94 @@
     <t xml:space="preserve">1.32059156894684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33586716651917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31295359134674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30455195903778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29462277889252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30073297023773</t>
+    <t xml:space="preserve">1.33586704730988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31295347213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30455183982849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29462265968323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30073273181915</t>
   </si>
   <si>
     <t xml:space="preserve">1.29844152927399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29003977775574</t>
+    <t xml:space="preserve">1.29003989696503</t>
   </si>
   <si>
     <t xml:space="preserve">1.29080355167389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29615008831024</t>
+    <t xml:space="preserve">1.29614996910095</t>
   </si>
   <si>
     <t xml:space="preserve">1.28545713424683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2625435590744</t>
+    <t xml:space="preserve">1.26254367828369</t>
   </si>
   <si>
     <t xml:space="preserve">1.26407086849213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27170884609222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26788997650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24192118644714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23351955413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26712608337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24497628211975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2487952709198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27323663234711</t>
+    <t xml:space="preserve">1.2717090845108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26789009571075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24192106723785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23351943492889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26712620258331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24497640132904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24879503250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27323639392853</t>
   </si>
   <si>
     <t xml:space="preserve">1.26941764354706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448113918304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33357584476471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34197735786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35114288330078</t>
+    <t xml:space="preserve">1.31448101997375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33357572555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34197747707367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35114312171936</t>
   </si>
   <si>
     <t xml:space="preserve">1.35343432426453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36718249320984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322198390961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39926183223724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162385463715</t>
+    <t xml:space="preserve">1.36718261241913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3832221031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39926159381866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162373542786</t>
   </si>
   <si>
     <t xml:space="preserve">1.39238750934601</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">1.39009630680084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3969703912735</t>
+    <t xml:space="preserve">1.39697027206421</t>
   </si>
   <si>
     <t xml:space="preserve">1.39773404598236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40537190437317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40078949928284</t>
+    <t xml:space="preserve">1.40537214279175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40078938007355</t>
   </si>
   <si>
     <t xml:space="preserve">1.39849781990051</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">1.37863922119141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40460824966431</t>
+    <t xml:space="preserve">1.4046083688736</t>
   </si>
   <si>
     <t xml:space="preserve">1.42064785957336</t>
@@ -542,64 +542,64 @@
     <t xml:space="preserve">1.40231692790985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40384435653687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38704121112823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42293918132782</t>
+    <t xml:space="preserve">1.40384459495544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38704109191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42293906211853</t>
   </si>
   <si>
     <t xml:space="preserve">1.42752194404602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43668746948242</t>
+    <t xml:space="preserve">1.43668735027313</t>
   </si>
   <si>
     <t xml:space="preserve">1.44279754161835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45883727073669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4741131067276</t>
+    <t xml:space="preserve">1.45883738994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47411286830902</t>
   </si>
   <si>
     <t xml:space="preserve">1.46800267696381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46953022480011</t>
+    <t xml:space="preserve">1.4695303440094</t>
   </si>
   <si>
     <t xml:space="preserve">1.47029411792755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46418368816376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45349061489105</t>
+    <t xml:space="preserve">1.46418392658234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45349073410034</t>
   </si>
   <si>
     <t xml:space="preserve">1.42904937267303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43897867202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44967174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265614032745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.540562748909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54667270183563</t>
+    <t xml:space="preserve">1.4389785528183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44967186450958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46265602111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812966823578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54056262969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5466730594635</t>
   </si>
   <si>
     <t xml:space="preserve">1.55660223960876</t>
@@ -608,13 +608,13 @@
     <t xml:space="preserve">1.56882297992706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53139698505402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52223169803619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361772537231</t>
+    <t xml:space="preserve">1.53139710426331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5222315788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5436178445816</t>
   </si>
   <si>
     <t xml:space="preserve">1.56042122840881</t>
@@ -629,91 +629,91 @@
     <t xml:space="preserve">1.59402799606323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57569694519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59937465190887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59631907939911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59861075878143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59479176998138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58104372024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56500375270844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56347608566284</t>
+    <t xml:space="preserve">1.57569682598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5993744134903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59631931781769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59861052036285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59479153156281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58104348182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56500422954559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56347644329071</t>
   </si>
   <si>
     <t xml:space="preserve">1.55049192905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53521621227264</t>
+    <t xml:space="preserve">1.53521609306335</t>
   </si>
   <si>
     <t xml:space="preserve">1.54896438121796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52757823467255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51841282844543</t>
+    <t xml:space="preserve">1.52757835388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51841270923615</t>
   </si>
   <si>
     <t xml:space="preserve">1.54972815513611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.587153673172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60472083091736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131211280823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70237553119659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70551764965057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7204442024231</t>
+    <t xml:space="preserve">1.58715391159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60472106933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131223201752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7023754119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70551776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72044444084167</t>
   </si>
   <si>
     <t xml:space="preserve">1.70708918571472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73929822444916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73537027835846</t>
+    <t xml:space="preserve">1.73929846286774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73537039756775</t>
   </si>
   <si>
     <t xml:space="preserve">1.73379921913147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84613859653473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8869891166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92469763755798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00011420249939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08181571960449</t>
+    <t xml:space="preserve">1.84613871574402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88698935508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92469787597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00011444091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
     <t xml:space="preserve">2.10145568847656</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">2.0684609413147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01425528526306</t>
+    <t xml:space="preserve">2.01425504684448</t>
   </si>
   <si>
     <t xml:space="preserve">1.91369950771332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98597407341003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98754501342773</t>
+    <t xml:space="preserve">1.98597395420074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98754513263702</t>
   </si>
   <si>
     <t xml:space="preserve">1.99540102481842</t>
@@ -743,19 +743,19 @@
     <t xml:space="preserve">2.01975440979004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00639963150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99932909011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96319162845612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01268410682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00561356544495</t>
+    <t xml:space="preserve">2.00639939308167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99932897090912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96319150924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0126838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00561380386353</t>
   </si>
   <si>
     <t xml:space="preserve">2.00954174995422</t>
@@ -764,67 +764,67 @@
     <t xml:space="preserve">2.02525353431702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01032733917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98675942420959</t>
+    <t xml:space="preserve">2.01032686233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98675966262817</t>
   </si>
   <si>
     <t xml:space="preserve">2.00325703620911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00247144699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0166118144989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.028395652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99382984638214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97261917591095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99068760871887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97968935966492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97733235359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95926403999329</t>
+    <t xml:space="preserve">2.00247120857239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01661205291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02839589118958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99382960796356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97261869907379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99068737030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97968924045563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97733223438263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.959263920784</t>
   </si>
   <si>
     <t xml:space="preserve">1.94119513034821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84771013259888</t>
+    <t xml:space="preserve">1.84770977497101</t>
   </si>
   <si>
     <t xml:space="preserve">1.87599098682404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8453528881073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87284898757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88620388507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91055727005005</t>
+    <t xml:space="preserve">1.84535312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87284886837006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88620376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91055703163147</t>
   </si>
   <si>
     <t xml:space="preserve">1.92941117286682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90505802631378</t>
+    <t xml:space="preserve">1.90505814552307</t>
   </si>
   <si>
     <t xml:space="preserve">1.8893461227417</t>
@@ -836,28 +836,28 @@
     <t xml:space="preserve">1.91605627536774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9191986322403</t>
+    <t xml:space="preserve">1.91919851303101</t>
   </si>
   <si>
     <t xml:space="preserve">1.93333923816681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90113008022308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92862558364868</t>
+    <t xml:space="preserve">1.90113019943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92862570285797</t>
   </si>
   <si>
     <t xml:space="preserve">1.92705464363098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91762745380402</t>
+    <t xml:space="preserve">1.91762757301331</t>
   </si>
   <si>
     <t xml:space="preserve">1.98047471046448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99618661403656</t>
+    <t xml:space="preserve">1.99618649482727</t>
   </si>
   <si>
     <t xml:space="preserve">2.05981922149658</t>
@@ -866,52 +866,52 @@
     <t xml:space="preserve">2.05746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0150408744812</t>
+    <t xml:space="preserve">2.01504063606262</t>
   </si>
   <si>
     <t xml:space="preserve">2.0205397605896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00482797622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97026216983795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96947646141052</t>
+    <t xml:space="preserve">2.00482821464539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97026193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96947634220123</t>
   </si>
   <si>
     <t xml:space="preserve">1.97811794281006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97576117515564</t>
+    <t xml:space="preserve">1.97576129436493</t>
   </si>
   <si>
     <t xml:space="preserve">1.95062220096588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93962407112122</t>
+    <t xml:space="preserve">1.93962395191193</t>
   </si>
   <si>
     <t xml:space="preserve">1.9372673034668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93805265426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93255388736725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94826555252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9671196937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95376479625702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95219361782074</t>
+    <t xml:space="preserve">1.93805289268494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93255364894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94826531410217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96711993217468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95376467704773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95219349861145</t>
   </si>
   <si>
     <t xml:space="preserve">1.94276630878448</t>
@@ -920,67 +920,67 @@
     <t xml:space="preserve">1.96397745609283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94905114173889</t>
+    <t xml:space="preserve">1.9490510225296</t>
   </si>
   <si>
     <t xml:space="preserve">1.95533585548401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94669461250305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9254834651947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234110832214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92784011363983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9231264591217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8972020149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90348672866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90820062160492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89484560489655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89955902099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89013171195984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8956310749054</t>
+    <t xml:space="preserve">1.94669425487518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92548358440399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234086990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92784023284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92312657833099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89720213413239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90348696708679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90820050239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89484524726868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8995589017868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89013183116913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89563083648682</t>
   </si>
   <si>
     <t xml:space="preserve">1.89327430725098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9152706861496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91212844848633</t>
+    <t xml:space="preserve">1.91527056694031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91212821006775</t>
   </si>
   <si>
     <t xml:space="preserve">1.90191555023193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93098258972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98126018047333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02132558822632</t>
+    <t xml:space="preserve">1.93098247051239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98126029968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02132534980774</t>
   </si>
   <si>
     <t xml:space="preserve">2.00090003013611</t>
@@ -1001,28 +1001,28 @@
     <t xml:space="preserve">2.05353474617004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04803562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19494128227234</t>
+    <t xml:space="preserve">2.04803586006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19494104385376</t>
   </si>
   <si>
     <t xml:space="preserve">2.13287925720215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11245393753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07396006584167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08652949333191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0723888874054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07710266113281</t>
+    <t xml:space="preserve">2.11245369911194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0739598274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08652973175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07238864898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07710242271423</t>
   </si>
   <si>
     <t xml:space="preserve">2.05196356773376</t>
@@ -1034,10 +1034,10 @@
     <t xml:space="preserve">2.05117797851562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.062175989151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06924629211426</t>
+    <t xml:space="preserve">2.06217622756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06924653053284</t>
   </si>
   <si>
     <t xml:space="preserve">2.11323952674866</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">2.15251922607422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16587400436401</t>
+    <t xml:space="preserve">2.16587424278259</t>
   </si>
   <si>
     <t xml:space="preserve">2.17215895652771</t>
@@ -1055,19 +1055,19 @@
     <t xml:space="preserve">2.17294454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17687249183655</t>
+    <t xml:space="preserve">2.17687225341797</t>
   </si>
   <si>
     <t xml:space="preserve">2.16823101043701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18708515167236</t>
+    <t xml:space="preserve">2.18708539009094</t>
   </si>
   <si>
     <t xml:space="preserve">2.18158626556396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20358228683472</t>
+    <t xml:space="preserve">2.2035825252533</t>
   </si>
   <si>
     <t xml:space="preserve">2.19179892539978</t>
@@ -1076,40 +1076,40 @@
     <t xml:space="preserve">2.17765808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16037511825562</t>
+    <t xml:space="preserve">2.16037487983704</t>
   </si>
   <si>
     <t xml:space="preserve">2.1501624584198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14937686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14859104156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16665959358215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17451596260071</t>
+    <t xml:space="preserve">2.14937663078308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1485915184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16665983200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17451572418213</t>
   </si>
   <si>
     <t xml:space="preserve">2.1957266330719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17608690261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22479367256165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28606963157654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30963754653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27035784721375</t>
+    <t xml:space="preserve">2.17608714103699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22479343414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28606986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30963706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27035760879517</t>
   </si>
   <si>
     <t xml:space="preserve">2.26250195503235</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">2.30178141593933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31749320030212</t>
+    <t xml:space="preserve">2.3174934387207</t>
   </si>
   <si>
     <t xml:space="preserve">2.41176414489746</t>
@@ -1127,37 +1127,37 @@
     <t xml:space="preserve">2.46675562858582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41962003707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43533205986023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47461152076721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42747616767883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38819622993469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36462903022766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38034057617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40390825271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39605236053467</t>
+    <t xml:space="preserve">2.41961979866028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43533182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47461128234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42747592926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38819646835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3646285533905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3803403377533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40390849113464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39605259895325</t>
   </si>
   <si>
     <t xml:space="preserve">2.35677266120911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29392552375793</t>
+    <t xml:space="preserve">2.29392576217651</t>
   </si>
   <si>
     <t xml:space="preserve">2.27821373939514</t>
@@ -1169,25 +1169,25 @@
     <t xml:space="preserve">2.49032330513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66315364837646</t>
+    <t xml:space="preserve">2.66315317153931</t>
   </si>
   <si>
     <t xml:space="preserve">2.65529704093933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73385620117188</t>
+    <t xml:space="preserve">2.73385643959045</t>
   </si>
   <si>
     <t xml:space="preserve">2.56888222694397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60030603408813</t>
+    <t xml:space="preserve">2.60030579566956</t>
   </si>
   <si>
     <t xml:space="preserve">2.57673835754395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50603485107422</t>
+    <t xml:space="preserve">2.5060350894928</t>
   </si>
   <si>
     <t xml:space="preserve">2.53745865821838</t>
@@ -1205,40 +1205,40 @@
     <t xml:space="preserve">2.59245014190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56102633476257</t>
+    <t xml:space="preserve">2.56102657318115</t>
   </si>
   <si>
     <t xml:space="preserve">2.52174687385559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61601758003235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63958549499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68816685676575</t>
+    <t xml:space="preserve">2.61601805686951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63958525657654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68816709518433</t>
   </si>
   <si>
     <t xml:space="preserve">2.70436072349548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69626355171204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197322845459</t>
+    <t xml:space="preserve">2.69626379013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197299003601</t>
   </si>
   <si>
     <t xml:space="preserve">2.61529493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62339162826538</t>
+    <t xml:space="preserve">2.62339186668396</t>
   </si>
   <si>
     <t xml:space="preserve">2.63148856163025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65577936172485</t>
+    <t xml:space="preserve">2.65577912330627</t>
   </si>
   <si>
     <t xml:space="preserve">2.59100413322449</t>
@@ -1247,22 +1247,22 @@
     <t xml:space="preserve">2.60719799995422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53432583808899</t>
+    <t xml:space="preserve">2.53432607650757</t>
   </si>
   <si>
     <t xml:space="preserve">2.42906641960144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40477609634399</t>
+    <t xml:space="preserve">2.40477585792542</t>
   </si>
   <si>
     <t xml:space="preserve">2.38048529624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4128725528717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32380676269531</t>
+    <t xml:space="preserve">2.41287231445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32380700111389</t>
   </si>
   <si>
     <t xml:space="preserve">2.29951620101929</t>
@@ -1271,25 +1271,25 @@
     <t xml:space="preserve">2.291419506073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31571006774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33190393447876</t>
+    <t xml:space="preserve">2.3157103061676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3319034576416</t>
   </si>
   <si>
     <t xml:space="preserve">2.35619449615479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26712870597839</t>
+    <t xml:space="preserve">2.26712846755981</t>
   </si>
   <si>
     <t xml:space="preserve">2.2104504108429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28332257270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34809756278992</t>
+    <t xml:space="preserve">2.28332233428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34809732437134</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854734420776</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">2.22664427757263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18616008758545</t>
+    <t xml:space="preserve">2.18615961074829</t>
   </si>
   <si>
     <t xml:space="preserve">2.178062915802</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2590320110321</t>
+    <t xml:space="preserve">2.25903177261353</t>
   </si>
   <si>
     <t xml:space="preserve">2.24283814430237</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">2.27522563934326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39667892456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1213846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10519075393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11328792572021</t>
+    <t xml:space="preserve">2.39667916297913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12138485908508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10519099235535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11328768730164</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">1.96754384040833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95944690704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93515634536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95135021209717</t>
+    <t xml:space="preserve">1.95944702625275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93515622615814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95134997367859</t>
   </si>
   <si>
     <t xml:space="preserve">1.87038111686707</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">1.94325304031372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25093483924866</t>
+    <t xml:space="preserve">2.25093507766724</t>
   </si>
   <si>
     <t xml:space="preserve">2.15377235412598</t>
@@ -1397,34 +1397,34 @@
     <t xml:space="preserve">2.00802826881409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92705917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8865749835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8298966884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85418736934662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179987430573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90276861190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97564053535461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99993133544922</t>
+    <t xml:space="preserve">1.92705941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88657486438751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82989680767059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85418748855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90276873111725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9756406545639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99993145465851</t>
   </si>
   <si>
     <t xml:space="preserve">2.30761313438416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20235371589661</t>
+    <t xml:space="preserve">2.20235347747803</t>
   </si>
   <si>
     <t xml:space="preserve">2.14567518234253</t>
@@ -1436,19 +1436,19 @@
     <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45335721969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42096972465515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43716359138489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46145391464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51003551483154</t>
+    <t xml:space="preserve">2.45335698127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42096948623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43716335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46145415306091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51003527641296</t>
   </si>
   <si>
     <t xml:space="preserve">2.48574471473694</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">2.49384140968323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50193858146667</t>
+    <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
     <t xml:space="preserve">2.51813220977783</t>
@@ -1466,10 +1466,10 @@
     <t xml:space="preserve">2.5262291431427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4695508480072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4452600479126</t>
+    <t xml:space="preserve">2.46955108642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44526028633118</t>
   </si>
   <si>
     <t xml:space="preserve">2.47764778137207</t>
@@ -1481,28 +1481,28 @@
     <t xml:space="preserve">2.58290719985962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66387605667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65539240837097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62994170188904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60449051856995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54510450363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56207203865051</t>
+    <t xml:space="preserve">2.66387629508972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65539216995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62994146347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60449028015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54510474205017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56207227706909</t>
   </si>
   <si>
     <t xml:space="preserve">2.58752298355103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5960066318512</t>
+    <t xml:space="preserve">2.59600687026978</t>
   </si>
   <si>
     <t xml:space="preserve">2.61297416687012</t>
@@ -1511,13 +1511,13 @@
     <t xml:space="preserve">2.51117014884949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52813720703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46875143051147</t>
+    <t xml:space="preserve">2.53662085533142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52813744544983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46875166893005</t>
   </si>
   <si>
     <t xml:space="preserve">2.49420261383057</t>
@@ -1526,34 +1526,34 @@
     <t xml:space="preserve">2.38391494750977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37543106079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32452893257141</t>
+    <t xml:space="preserve">2.37543129920959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32452917098999</t>
   </si>
   <si>
     <t xml:space="preserve">2.33301258087158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3499801158905</t>
+    <t xml:space="preserve">2.34997987747192</t>
   </si>
   <si>
     <t xml:space="preserve">2.36694741249084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46026802062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42633318901062</t>
+    <t xml:space="preserve">2.4602677822113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4263334274292</t>
   </si>
   <si>
     <t xml:space="preserve">2.44330048561096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47723531723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57055592536926</t>
+    <t xml:space="preserve">2.4772355556488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57055568695068</t>
   </si>
   <si>
     <t xml:space="preserve">2.62145781517029</t>
@@ -1562,31 +1562,28 @@
     <t xml:space="preserve">2.63842511177063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64690899848938</t>
+    <t xml:space="preserve">2.6469087600708</t>
   </si>
   <si>
     <t xml:space="preserve">2.69781088829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70629453659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67236018180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477818489075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72326183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68084359169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68932747840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66387629508972</t>
+    <t xml:space="preserve">2.70629477500916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67235994338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477842330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7232620716095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68084383010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68932723999023</t>
   </si>
   <si>
     <t xml:space="preserve">2.51965379714966</t>
@@ -1595,34 +1592,34 @@
     <t xml:space="preserve">2.43481683731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45178413391113</t>
+    <t xml:space="preserve">2.45178389549255</t>
   </si>
   <si>
     <t xml:space="preserve">2.50268626213074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57903933525085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55358862876892</t>
+    <t xml:space="preserve">2.57903957366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55358815193176</t>
   </si>
   <si>
     <t xml:space="preserve">2.4857189655304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39239835739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40936589241028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40088224411011</t>
+    <t xml:space="preserve">2.39239859580994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4093656539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40088200569153</t>
   </si>
   <si>
     <t xml:space="preserve">2.20575737953186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28211045265198</t>
+    <t xml:space="preserve">2.28211069107056</t>
   </si>
   <si>
     <t xml:space="preserve">2.2227246761322</t>
@@ -1634,10 +1631,10 @@
     <t xml:space="preserve">2.19727373123169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424126625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13788819313049</t>
+    <t xml:space="preserve">2.21424102783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13788795471191</t>
   </si>
   <si>
     <t xml:space="preserve">1.97669792175293</t>
@@ -1652,7 +1649,7 @@
     <t xml:space="preserve">1.69673645496368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53554666042328</t>
+    <t xml:space="preserve">1.5355464220047</t>
   </si>
   <si>
     <t xml:space="preserve">1.56948125362396</t>
@@ -1661,37 +1658,37 @@
     <t xml:space="preserve">1.57796490192413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68401110172272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62462520599365</t>
+    <t xml:space="preserve">1.68401098251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62462508678436</t>
   </si>
   <si>
     <t xml:space="preserve">1.61614143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59917426109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5609974861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65431809425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67128551006317</t>
+    <t xml:space="preserve">1.59917414188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56099736690521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65431797504425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67128562927246</t>
   </si>
   <si>
     <t xml:space="preserve">1.64159250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62886691093445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65007627010345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6373507976532</t>
+    <t xml:space="preserve">1.62886703014374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65007615089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63735067844391</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
@@ -1706,19 +1703,19 @@
     <t xml:space="preserve">1.69249475002289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65855979919434</t>
+    <t xml:space="preserve">1.65855991840363</t>
   </si>
   <si>
     <t xml:space="preserve">1.68825280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74763882160187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78157329559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84095919132233</t>
+    <t xml:space="preserve">1.747638463974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78157341480255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84095907211304</t>
   </si>
   <si>
     <t xml:space="preserve">1.80702424049377</t>
@@ -1727,28 +1724,28 @@
     <t xml:space="preserve">1.79005706310272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7730895280838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72218763828278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82399165630341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83247518539429</t>
+    <t xml:space="preserve">1.77308976650238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7221873998642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8239917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83247542381287</t>
   </si>
   <si>
     <t xml:space="preserve">1.84944260120392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86641013622284</t>
+    <t xml:space="preserve">1.86641025543213</t>
   </si>
   <si>
     <t xml:space="preserve">1.90034484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95973062515259</t>
+    <t xml:space="preserve">1.9597305059433</t>
   </si>
   <si>
     <t xml:space="preserve">1.90882849693298</t>
@@ -1757,13 +1754,13 @@
     <t xml:space="preserve">1.88337755203247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89186131954193</t>
+    <t xml:space="preserve">1.89186120033264</t>
   </si>
   <si>
     <t xml:space="preserve">1.8748939037323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85792660713196</t>
+    <t xml:space="preserve">1.85792648792267</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
@@ -1772,16 +1769,16 @@
     <t xml:space="preserve">1.81550788879395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75612235069275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67976891994476</t>
+    <t xml:space="preserve">1.75612223148346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67976915836334</t>
   </si>
   <si>
     <t xml:space="preserve">1.71370387077332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64583444595337</t>
+    <t xml:space="preserve">1.64583432674408</t>
   </si>
   <si>
     <t xml:space="preserve">1.59493231773376</t>
@@ -1790,28 +1787,28 @@
     <t xml:space="preserve">1.60341596603394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56523942947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55251383781433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54827213287354</t>
+    <t xml:space="preserve">1.56523954868317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55251371860504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54827201366425</t>
   </si>
   <si>
     <t xml:space="preserve">1.49312818050385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48464453220367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47191882133484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46767699718475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49736988544464</t>
+    <t xml:space="preserve">1.48464441299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47191894054413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46767687797546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49737000465393</t>
   </si>
   <si>
     <t xml:space="preserve">1.47616064548492</t>
@@ -1820,7 +1817,7 @@
     <t xml:space="preserve">1.42525851726532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39132392406464</t>
+    <t xml:space="preserve">1.39132380485535</t>
   </si>
   <si>
     <t xml:space="preserve">1.44222593307495</t>
@@ -1829,7 +1826,7 @@
     <t xml:space="preserve">1.41677498817444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36163091659546</t>
+    <t xml:space="preserve">1.36163103580475</t>
   </si>
   <si>
     <t xml:space="preserve">1.3489054441452</t>
@@ -1838,10 +1835,10 @@
     <t xml:space="preserve">1.36587285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39556574821472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38284003734589</t>
+    <t xml:space="preserve">1.3955659866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38284015655518</t>
   </si>
   <si>
     <t xml:space="preserve">1.40829133987427</t>
@@ -1853,10 +1850,10 @@
     <t xml:space="preserve">1.41253304481506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45919346809387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46343529224396</t>
+    <t xml:space="preserve">1.45919334888458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46343517303467</t>
   </si>
   <si>
     <t xml:space="preserve">1.44646787643433</t>
@@ -1865,22 +1862,22 @@
     <t xml:space="preserve">1.45070970058441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43798434734344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53130447864532</t>
+    <t xml:space="preserve">1.43798422813416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53130459785461</t>
   </si>
   <si>
     <t xml:space="preserve">1.58644878864288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62038326263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61189961433411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55675566196442</t>
+    <t xml:space="preserve">1.62038338184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6118997335434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55675578117371</t>
   </si>
   <si>
     <t xml:space="preserve">1.59069049358368</t>
@@ -1889,7 +1886,7 @@
     <t xml:space="preserve">1.57372295856476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58220660686493</t>
+    <t xml:space="preserve">1.58220672607422</t>
   </si>
   <si>
     <t xml:space="preserve">1.60765790939331</t>
@@ -1898,7 +1895,7 @@
     <t xml:space="preserve">1.54403030872345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95124697685242</t>
+    <t xml:space="preserve">1.95124685764313</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608369827271</t>
@@ -1907,10 +1904,10 @@
     <t xml:space="preserve">2.16333913803101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35846352577209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34149622917175</t>
+    <t xml:space="preserve">2.35846376419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34149646759033</t>
   </si>
   <si>
     <t xml:space="preserve">2.27362680435181</t>
@@ -1928,10 +1925,13 @@
     <t xml:space="preserve">2.30756187438965</t>
   </si>
   <si>
+    <t xml:space="preserve">2.30756163597107</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.31620407104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33348941802979</t>
+    <t xml:space="preserve">2.33348917961121</t>
   </si>
   <si>
     <t xml:space="preserve">2.34213185310364</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">2.35077452659607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29891920089722</t>
+    <t xml:space="preserve">2.29891896247864</t>
   </si>
   <si>
     <t xml:space="preserve">2.32484674453735</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">2.46312761306763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47177004814148</t>
+    <t xml:space="preserve">2.47177028656006</t>
   </si>
   <si>
     <t xml:space="preserve">2.48905515670776</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">2.50634026527405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55819582939148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58412337303162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59276580810547</t>
+    <t xml:space="preserve">2.5581955909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58412313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59276604652405</t>
   </si>
   <si>
     <t xml:space="preserve">2.6014084815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52362537384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4976978302002</t>
+    <t xml:space="preserve">2.52362561225891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49769759178162</t>
   </si>
   <si>
     <t xml:space="preserve">2.48041272163391</t>
@@ -2000,19 +2000,19 @@
     <t xml:space="preserve">2.43720006942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42855739593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40262961387634</t>
+    <t xml:space="preserve">2.42855763435364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40262985229492</t>
   </si>
   <si>
     <t xml:space="preserve">2.41991496086121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41127228736877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45448517799377</t>
+    <t xml:space="preserve">2.41127252578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4544849395752</t>
   </si>
   <si>
     <t xml:space="preserve">2.39398717880249</t>
@@ -2021,13 +2021,13 @@
     <t xml:space="preserve">2.38534474372864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37670207023621</t>
+    <t xml:space="preserve">2.37670183181763</t>
   </si>
   <si>
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113609313965</t>
+    <t xml:space="preserve">2.22113633155823</t>
   </si>
   <si>
     <t xml:space="preserve">2.22977876663208</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">2.19520854949951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16063833236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26434874534607</t>
+    <t xml:space="preserve">2.16063809394836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26434898376465</t>
   </si>
   <si>
     <t xml:space="preserve">2.23842120170593</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">2.36805939674377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35941696166992</t>
+    <t xml:space="preserve">2.35941672325134</t>
   </si>
   <si>
     <t xml:space="preserve">2.51498293876648</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">2.57548069953918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61005091667175</t>
+    <t xml:space="preserve">2.61005115509033</t>
   </si>
   <si>
     <t xml:space="preserve">2.63597869873047</t>
@@ -2075,19 +2075,19 @@
     <t xml:space="preserve">2.61869359016418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73968958854675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83475756645203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81747198104858</t>
+    <t xml:space="preserve">2.73968935012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83475732803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81747221946716</t>
   </si>
   <si>
     <t xml:space="preserve">2.93846797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9730384349823</t>
+    <t xml:space="preserve">2.97303819656372</t>
   </si>
   <si>
     <t xml:space="preserve">2.99032306671143</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">3.16317415237427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38788080215454</t>
+    <t xml:space="preserve">3.38788104057312</t>
   </si>
   <si>
     <t xml:space="preserve">3.37923812866211</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37059569358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44837880134583</t>
+    <t xml:space="preserve">3.37059545516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4483790397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.2582426071167</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">3.31009769439697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35331058502197</t>
+    <t xml:space="preserve">3.35331034660339</t>
   </si>
   <si>
     <t xml:space="preserve">3.32738280296326</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">3.27552771568298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22367215156555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20638704299927</t>
+    <t xml:space="preserve">3.22367238998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20638680458069</t>
   </si>
   <si>
     <t xml:space="preserve">3.24959993362427</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">3.2150297164917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19774460792542</t>
+    <t xml:space="preserve">3.19774436950684</t>
   </si>
   <si>
     <t xml:space="preserve">3.39652323722839</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">3.23231506347656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06810617446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15453195571899</t>
+    <t xml:space="preserve">3.06810641288757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15453171730042</t>
   </si>
   <si>
     <t xml:space="preserve">3.18045926094055</t>
@@ -2174,16 +2174,16 @@
     <t xml:space="preserve">3.18910217285156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29281234741211</t>
+    <t xml:space="preserve">3.29281258583069</t>
   </si>
   <si>
     <t xml:space="preserve">3.17181706428528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11996126174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13724684715271</t>
+    <t xml:space="preserve">3.11996150016785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13724660873413</t>
   </si>
   <si>
     <t xml:space="preserve">3.11131906509399</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">3.10267663002014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34466814994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42245054244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41380834579468</t>
+    <t xml:space="preserve">3.34466791152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42245101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41380858421326</t>
   </si>
   <si>
     <t xml:space="preserve">3.43973612785339</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46071004867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264116287231</t>
+    <t xml:space="preserve">4.4607105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264163970947</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760856628418</t>
+    <t xml:space="preserve">4.84760808944702</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450708389282</t>
+    <t xml:space="preserve">5.23450660705566</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278253555298</t>
+    <t xml:space="preserve">5.30278301239014</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07658004760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87175130844116</t>
+    <t xml:space="preserve">6.07657957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.871750831604</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071641921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968105316162</t>
+    <t xml:space="preserve">5.78071594238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968152999878</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312871932983</t>
+    <t xml:space="preserve">5.55312919616699</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348031997681</t>
+    <t xml:space="preserve">7.12348079681396</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796382904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244638442993</t>
+    <t xml:space="preserve">7.07796335220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244590759277</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2318,19 +2318,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175401687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60003042221069</t>
+    <t xml:space="preserve">6.53175449371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60002994537354</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5545129776001</t>
+    <t xml:space="preserve">6.80485868453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55451250076294</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382698059082</t>
+    <t xml:space="preserve">7.37382745742798</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900413513184</t>
+    <t xml:space="preserve">8.12486553192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900508880615</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6510829925537</t>
+    <t xml:space="preserve">10.651083946228</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -26757,7 +26757,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26809,7 +26809,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26965,7 +26965,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G917" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27017,7 +27017,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G919" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27069,7 +27069,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27095,7 +27095,7 @@
         <v>29.5</v>
       </c>
       <c r="G922" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27277,7 +27277,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G929" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27381,7 +27381,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G933" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27407,7 +27407,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G934" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27433,7 +27433,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27485,7 +27485,7 @@
         <v>29.5</v>
       </c>
       <c r="G937" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27511,7 +27511,7 @@
         <v>29.5</v>
       </c>
       <c r="G938" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27693,7 +27693,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G945" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27823,7 +27823,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G950" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27875,7 +27875,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G952" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27927,7 +27927,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -28265,7 +28265,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G967" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28343,7 +28343,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G970" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28369,7 +28369,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G971" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28421,7 +28421,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28499,7 +28499,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -29513,7 +29513,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1015" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29565,7 +29565,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29981,7 +29981,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30007,7 +30007,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30033,7 +30033,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1035" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30059,7 +30059,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30085,7 +30085,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1037" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30111,7 +30111,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30215,7 +30215,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1042" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30241,7 +30241,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30267,7 +30267,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30293,7 +30293,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30345,7 +30345,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30423,7 +30423,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30501,7 +30501,7 @@
         <v>26</v>
       </c>
       <c r="G1053" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30527,7 +30527,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1054" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30579,7 +30579,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1056" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30605,7 +30605,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30631,7 +30631,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30657,7 +30657,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1059" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30683,7 +30683,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1060" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30709,7 +30709,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1061" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30735,7 +30735,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1062" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30761,7 +30761,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30787,7 +30787,7 @@
         <v>20.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30813,7 +30813,7 @@
         <v>20</v>
       </c>
       <c r="G1065" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30839,7 +30839,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1066" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30865,7 +30865,7 @@
         <v>18.5</v>
       </c>
       <c r="G1067" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30891,7 +30891,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1068" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30917,7 +30917,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1069" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30943,7 +30943,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30969,7 +30969,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30995,7 +30995,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1072" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31021,7 +31021,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31047,7 +31047,7 @@
         <v>19.5</v>
       </c>
       <c r="G1074" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31073,7 +31073,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1075" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31099,7 +31099,7 @@
         <v>20.5</v>
       </c>
       <c r="G1076" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31125,7 +31125,7 @@
         <v>19.5</v>
       </c>
       <c r="G1077" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31151,7 +31151,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1078" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31177,7 +31177,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31203,7 +31203,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1080" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31229,7 +31229,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1081" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31255,7 +31255,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1082" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31281,7 +31281,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1083" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31307,7 +31307,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1084" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31333,7 +31333,7 @@
         <v>19.5</v>
       </c>
       <c r="G1085" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31359,7 +31359,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31385,7 +31385,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1087" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31411,7 +31411,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1088" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31437,7 +31437,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31463,7 +31463,7 @@
         <v>19.75</v>
       </c>
       <c r="G1090" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31489,7 +31489,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31515,7 +31515,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1092" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31541,7 +31541,7 @@
         <v>19.5499992370605</v>
       </c>
       <c r="G1093" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31567,7 +31567,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1094" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31593,7 +31593,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31619,7 +31619,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31645,7 +31645,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31671,7 +31671,7 @@
         <v>21</v>
       </c>
       <c r="G1098" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31697,7 +31697,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31723,7 +31723,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1100" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31749,7 +31749,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1101" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31775,7 +31775,7 @@
         <v>21</v>
       </c>
       <c r="G1102" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31801,7 +31801,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31827,7 +31827,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1104" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31853,7 +31853,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31879,7 +31879,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31905,7 +31905,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1107" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31931,7 +31931,7 @@
         <v>20.5</v>
       </c>
       <c r="G1108" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31957,7 +31957,7 @@
         <v>20.5</v>
       </c>
       <c r="G1109" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31983,7 +31983,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1110" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32009,7 +32009,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1111" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32035,7 +32035,7 @@
         <v>20.5</v>
       </c>
       <c r="G1112" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32061,7 +32061,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32087,7 +32087,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1114" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32113,7 +32113,7 @@
         <v>20.5</v>
       </c>
       <c r="G1115" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32139,7 +32139,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1116" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32165,7 +32165,7 @@
         <v>21</v>
       </c>
       <c r="G1117" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32191,7 +32191,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32217,7 +32217,7 @@
         <v>21</v>
       </c>
       <c r="G1119" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32243,7 +32243,7 @@
         <v>21.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32269,7 +32269,7 @@
         <v>21.5</v>
       </c>
       <c r="G1121" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32295,7 +32295,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32321,7 +32321,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32347,7 +32347,7 @@
         <v>22</v>
       </c>
       <c r="G1124" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32373,7 +32373,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32399,7 +32399,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1126" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32425,7 +32425,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1127" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32451,7 +32451,7 @@
         <v>21.5</v>
       </c>
       <c r="G1128" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32477,7 +32477,7 @@
         <v>22</v>
       </c>
       <c r="G1129" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32503,7 +32503,7 @@
         <v>22</v>
       </c>
       <c r="G1130" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32529,7 +32529,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32555,7 +32555,7 @@
         <v>22.5</v>
       </c>
       <c r="G1132" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32581,7 +32581,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32607,7 +32607,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32633,7 +32633,7 @@
         <v>22</v>
       </c>
       <c r="G1135" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32659,7 +32659,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1136" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32685,7 +32685,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1137" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32711,7 +32711,7 @@
         <v>22</v>
       </c>
       <c r="G1138" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32737,7 +32737,7 @@
         <v>22</v>
       </c>
       <c r="G1139" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32763,7 +32763,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32789,7 +32789,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1141" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32815,7 +32815,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1142" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32841,7 +32841,7 @@
         <v>22</v>
       </c>
       <c r="G1143" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32867,7 +32867,7 @@
         <v>22</v>
       </c>
       <c r="G1144" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32893,7 +32893,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1145" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32919,7 +32919,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1146" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32945,7 +32945,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1147" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32971,7 +32971,7 @@
         <v>21.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32997,7 +32997,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1149" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33023,7 +33023,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33049,7 +33049,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33075,7 +33075,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33101,7 +33101,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33127,7 +33127,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1154" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33153,7 +33153,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1155" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33179,7 +33179,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33205,7 +33205,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1157" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33231,7 +33231,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1158" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33257,7 +33257,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1159" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33283,7 +33283,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33309,7 +33309,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33335,7 +33335,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33361,7 +33361,7 @@
         <v>20.5</v>
       </c>
       <c r="G1163" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33387,7 +33387,7 @@
         <v>20.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33413,7 +33413,7 @@
         <v>21</v>
       </c>
       <c r="G1165" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33439,7 +33439,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33465,7 +33465,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33491,7 +33491,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33517,7 +33517,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1169" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33543,7 +33543,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33569,7 +33569,7 @@
         <v>21.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33595,7 +33595,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33621,7 +33621,7 @@
         <v>21.5</v>
       </c>
       <c r="G1173" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33647,7 +33647,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1174" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33673,7 +33673,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33699,7 +33699,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1176" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33725,7 +33725,7 @@
         <v>21.5</v>
       </c>
       <c r="G1177" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33751,7 +33751,7 @@
         <v>21.5</v>
       </c>
       <c r="G1178" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33777,7 +33777,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33803,7 +33803,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33829,7 +33829,7 @@
         <v>21.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33855,7 +33855,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1182" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33881,7 +33881,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1183" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33907,7 +33907,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1184" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33933,7 +33933,7 @@
         <v>21</v>
       </c>
       <c r="G1185" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33959,7 +33959,7 @@
         <v>21</v>
       </c>
       <c r="G1186" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33985,7 +33985,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34011,7 +34011,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1188" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34037,7 +34037,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34063,7 +34063,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1190" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34089,7 +34089,7 @@
         <v>20</v>
       </c>
       <c r="G1191" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34115,7 +34115,7 @@
         <v>20</v>
       </c>
       <c r="G1192" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34141,7 +34141,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34167,7 +34167,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34193,7 +34193,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34219,7 +34219,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1196" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34245,7 +34245,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1197" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34271,7 +34271,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34297,7 +34297,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34323,7 +34323,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34349,7 +34349,7 @@
         <v>19.75</v>
       </c>
       <c r="G1201" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34375,7 +34375,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34401,7 +34401,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1203" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34427,7 +34427,7 @@
         <v>19.75</v>
       </c>
       <c r="G1204" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34453,7 +34453,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1205" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34479,7 +34479,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1206" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34505,7 +34505,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1207" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34531,7 +34531,7 @@
         <v>18.5</v>
       </c>
       <c r="G1208" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34557,7 +34557,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1209" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34583,7 +34583,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34609,7 +34609,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1211" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34635,7 +34635,7 @@
         <v>18.5</v>
       </c>
       <c r="G1212" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34661,7 +34661,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34687,7 +34687,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1214" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34713,7 +34713,7 @@
         <v>18.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34739,7 +34739,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34765,7 +34765,7 @@
         <v>17.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34791,7 +34791,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1218" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34817,7 +34817,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34843,7 +34843,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34869,7 +34869,7 @@
         <v>17.5</v>
       </c>
       <c r="G1221" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34895,7 +34895,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34921,7 +34921,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34947,7 +34947,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1224" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34973,7 +34973,7 @@
         <v>17</v>
       </c>
       <c r="G1225" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34999,7 +34999,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35025,7 +35025,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1227" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35051,7 +35051,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1228" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35077,7 +35077,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1229" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35103,7 +35103,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35129,7 +35129,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35155,7 +35155,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35181,7 +35181,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1233" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35207,7 +35207,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35233,7 +35233,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35259,7 +35259,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1236" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35285,7 +35285,7 @@
         <v>17.25</v>
       </c>
       <c r="G1237" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35311,7 +35311,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35337,7 +35337,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1239" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35363,7 +35363,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35389,7 +35389,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1241" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35415,7 +35415,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1242" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35441,7 +35441,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1243" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35467,7 +35467,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35493,7 +35493,7 @@
         <v>17.5</v>
       </c>
       <c r="G1245" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35519,7 +35519,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1246" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35545,7 +35545,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1247" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35571,7 +35571,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1248" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35597,7 +35597,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35623,7 +35623,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35649,7 +35649,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1251" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35675,7 +35675,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35701,7 +35701,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1253" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35727,7 +35727,7 @@
         <v>19</v>
       </c>
       <c r="G1254" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35753,7 +35753,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1255" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35779,7 +35779,7 @@
         <v>18.5</v>
       </c>
       <c r="G1256" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35805,7 +35805,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1257" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35831,7 +35831,7 @@
         <v>18.25</v>
       </c>
       <c r="G1258" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35857,7 +35857,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35883,7 +35883,7 @@
         <v>18.5</v>
       </c>
       <c r="G1260" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35909,7 +35909,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1261" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35935,7 +35935,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35961,7 +35961,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35987,7 +35987,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1264" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36013,7 +36013,7 @@
         <v>18.75</v>
       </c>
       <c r="G1265" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36039,7 +36039,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1266" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36065,7 +36065,7 @@
         <v>18.5</v>
       </c>
       <c r="G1267" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36091,7 +36091,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1268" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36117,7 +36117,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36143,7 +36143,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36169,7 +36169,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36195,7 +36195,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1272" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36221,7 +36221,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36247,7 +36247,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1274" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36273,7 +36273,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36299,7 +36299,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1276" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36325,7 +36325,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1277" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36351,7 +36351,7 @@
         <v>19</v>
       </c>
       <c r="G1278" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36377,7 +36377,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36403,7 +36403,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1280" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36429,7 +36429,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1281" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36455,7 +36455,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1282" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36481,7 +36481,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1283" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36507,7 +36507,7 @@
         <v>18.5</v>
       </c>
       <c r="G1284" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36533,7 +36533,7 @@
         <v>18.5</v>
       </c>
       <c r="G1285" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36559,7 +36559,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36585,7 +36585,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1287" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36611,7 +36611,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36637,7 +36637,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1289" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36663,7 +36663,7 @@
         <v>18.25</v>
       </c>
       <c r="G1290" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36689,7 +36689,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1291" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36715,7 +36715,7 @@
         <v>19</v>
       </c>
       <c r="G1292" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36741,7 +36741,7 @@
         <v>23</v>
       </c>
       <c r="G1293" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36767,7 +36767,7 @@
         <v>24</v>
       </c>
       <c r="G1294" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36793,7 +36793,7 @@
         <v>25.5</v>
       </c>
       <c r="G1295" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36871,7 +36871,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1298" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36923,7 +36923,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1300" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37079,7 +37079,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1306" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37105,7 +37105,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1307" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37131,7 +37131,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1308" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37235,7 +37235,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1312" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37261,7 +37261,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1313" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37365,7 +37365,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1317" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37391,7 +37391,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1318" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37417,7 +37417,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1319" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37443,7 +37443,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1320" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37469,7 +37469,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1321" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37495,7 +37495,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1322" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37521,7 +37521,7 @@
         <v>26</v>
       </c>
       <c r="G1323" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37547,7 +37547,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1324" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37573,7 +37573,7 @@
         <v>25.5</v>
       </c>
       <c r="G1325" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37599,7 +37599,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37625,7 +37625,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1327" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37651,7 +37651,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1328" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37677,7 +37677,7 @@
         <v>26</v>
       </c>
       <c r="G1329" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37729,7 +37729,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1331" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37755,7 +37755,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37781,7 +37781,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1333" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37807,7 +37807,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37833,7 +37833,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1335" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37859,7 +37859,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37911,7 +37911,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1338" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -60045,7 +60045,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.637349537</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>851</v>
@@ -60066,6 +60066,32 @@
         <v>903</v>
       </c>
       <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.6494097222</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>925</v>
+      </c>
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30048537254333</t>
+    <t xml:space="preserve">1.30048549175262</t>
   </si>
   <si>
     <t xml:space="preserve">AUTME.MI</t>
@@ -50,37 +50,37 @@
     <t xml:space="preserve">1.29750096797943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27586352825165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26840221881866</t>
+    <t xml:space="preserve">1.27586376667023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26840245723724</t>
   </si>
   <si>
     <t xml:space="preserve">1.27511751651764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26765632629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29004001617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26616406440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944876670837</t>
+    <t xml:space="preserve">1.26765620708466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29003989696503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26616394519806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25944900512695</t>
   </si>
   <si>
     <t xml:space="preserve">1.25347995758057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25273406505585</t>
+    <t xml:space="preserve">1.25273394584656</t>
   </si>
   <si>
     <t xml:space="preserve">1.21766626834869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24676477909088</t>
+    <t xml:space="preserve">1.24676489830017</t>
   </si>
   <si>
     <t xml:space="preserve">1.31167721748352</t>
@@ -89,43 +89,43 @@
     <t xml:space="preserve">1.30496215820312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30123162269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30570816993713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31988477706909</t>
+    <t xml:space="preserve">1.30123174190521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30570840835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3198846578598</t>
   </si>
   <si>
     <t xml:space="preserve">1.28929376602173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27884805202484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317965984344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27437114715576</t>
+    <t xml:space="preserve">1.27884793281555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26317954063416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27437126636505</t>
   </si>
   <si>
     <t xml:space="preserve">1.24601888656616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28034019470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25721085071564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31316947937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32063066959381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31391572952271</t>
+    <t xml:space="preserve">1.28034031391144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25721061229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31316959857941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32063090801239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31391561031342</t>
   </si>
   <si>
     <t xml:space="preserve">1.3243613243103</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">1.26989459991455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28183245658875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3295841217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32212269306183</t>
+    <t xml:space="preserve">1.28183257579803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32958424091339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32212293148041</t>
   </si>
   <si>
     <t xml:space="preserve">1.3280918598175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3273458480835</t>
+    <t xml:space="preserve">1.32734596729279</t>
   </si>
   <si>
     <t xml:space="preserve">1.33480703830719</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">1.32286906242371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31018495559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31764626502991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30272388458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30347013473511</t>
+    <t xml:space="preserve">1.31018507480621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31764614582062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30272376537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30347001552582</t>
   </si>
   <si>
     <t xml:space="preserve">1.29675471782684</t>
@@ -173,37 +173,37 @@
     <t xml:space="preserve">1.29078590869904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28854775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28780138492584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30684328079224</t>
+    <t xml:space="preserve">1.28854751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28780150413513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30684316158295</t>
   </si>
   <si>
     <t xml:space="preserve">1.3167724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32364666461945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33433961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33204817771912</t>
+    <t xml:space="preserve">1.32364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33433949947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33204829692841</t>
   </si>
   <si>
     <t xml:space="preserve">1.32975685596466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33052051067352</t>
+    <t xml:space="preserve">1.3305207490921</t>
   </si>
   <si>
     <t xml:space="preserve">1.3183000087738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32670164108276</t>
+    <t xml:space="preserve">1.32670176029205</t>
   </si>
   <si>
     <t xml:space="preserve">1.32211899757385</t>
@@ -212,16 +212,16 @@
     <t xml:space="preserve">1.34044981002808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33663094043732</t>
+    <t xml:space="preserve">1.33663105964661</t>
   </si>
   <si>
     <t xml:space="preserve">1.33510327339172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899308204651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32822930812836</t>
+    <t xml:space="preserve">1.32899296283722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32822918891907</t>
   </si>
   <si>
     <t xml:space="preserve">1.32135510444641</t>
@@ -233,43 +233,43 @@
     <t xml:space="preserve">1.34426891803741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34350526332855</t>
+    <t xml:space="preserve">1.34350514411926</t>
   </si>
   <si>
     <t xml:space="preserve">1.33892238140106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31906390190125</t>
+    <t xml:space="preserve">1.31906378269196</t>
   </si>
   <si>
     <t xml:space="preserve">1.2953861951828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29767787456512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28316569328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28851222991943</t>
+    <t xml:space="preserve">1.29767763614655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28316557407379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28851234912872</t>
   </si>
   <si>
     <t xml:space="preserve">1.28011047840118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2594883441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26025211811066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23733830451965</t>
+    <t xml:space="preserve">1.25948822498322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26025199890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23733854293823</t>
   </si>
   <si>
     <t xml:space="preserve">1.22970044612885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2396297454834</t>
+    <t xml:space="preserve">1.23962962627411</t>
   </si>
   <si>
     <t xml:space="preserve">1.22053503990173</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">1.22206258773804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2212986946106</t>
+    <t xml:space="preserve">1.22129881381989</t>
   </si>
   <si>
     <t xml:space="preserve">1.2411572933197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27552783489227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27476418018341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29385876655579</t>
+    <t xml:space="preserve">1.27552795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27476406097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29385888576508</t>
   </si>
   <si>
     <t xml:space="preserve">1.29309499263763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29233109951019</t>
+    <t xml:space="preserve">1.29233121871948</t>
   </si>
   <si>
     <t xml:space="preserve">1.2892758846283</t>
@@ -305,16 +305,16 @@
     <t xml:space="preserve">1.25872445106506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2846931219101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24955916404724</t>
+    <t xml:space="preserve">1.28469336032867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24955904483795</t>
   </si>
   <si>
     <t xml:space="preserve">1.27018129825592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27629137039185</t>
+    <t xml:space="preserve">1.27629160881042</t>
   </si>
   <si>
     <t xml:space="preserve">1.28698468208313</t>
@@ -323,34 +323,34 @@
     <t xml:space="preserve">1.28622078895569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28240215778351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34121358394623</t>
+    <t xml:space="preserve">1.28240203857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34121370315552</t>
   </si>
   <si>
     <t xml:space="preserve">1.31371736526489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36412739753723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35572564601898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38093066215515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3740565776825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38551330566406</t>
+    <t xml:space="preserve">1.36412751674652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35572576522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38093078136444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37405669689178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38551354408264</t>
   </si>
   <si>
     <t xml:space="preserve">1.36030840873718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37329268455505</t>
+    <t xml:space="preserve">1.37329280376434</t>
   </si>
   <si>
     <t xml:space="preserve">1.37558424472809</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">1.35419821739197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35954451560974</t>
+    <t xml:space="preserve">1.35954463481903</t>
   </si>
   <si>
     <t xml:space="preserve">1.35648965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34503281116486</t>
+    <t xml:space="preserve">1.34503269195557</t>
   </si>
   <si>
     <t xml:space="preserve">1.35190677642822</t>
@@ -374,100 +374,100 @@
     <t xml:space="preserve">1.35725343227386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35496175289154</t>
+    <t xml:space="preserve">1.35496199131012</t>
   </si>
   <si>
     <t xml:space="preserve">1.34961545467377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34885168075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35801708698273</t>
+    <t xml:space="preserve">1.34885156154633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35801720619202</t>
   </si>
   <si>
     <t xml:space="preserve">1.36259973049164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32441020011902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32288253307343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30226051807404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30989849567413</t>
+    <t xml:space="preserve">1.3244104385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.322882771492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30226039886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30989825725555</t>
   </si>
   <si>
     <t xml:space="preserve">1.32059144973755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33586716651917</t>
+    <t xml:space="preserve">1.33586704730988</t>
   </si>
   <si>
     <t xml:space="preserve">1.31295347213745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3045517206192</t>
+    <t xml:space="preserve">1.30455195903778</t>
   </si>
   <si>
     <t xml:space="preserve">1.29462254047394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30073297023773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29844152927399</t>
+    <t xml:space="preserve">1.30073285102844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29844164848328</t>
   </si>
   <si>
     <t xml:space="preserve">1.29003977775574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2908034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29615020751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28545701503754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2625435590744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26407098770142</t>
+    <t xml:space="preserve">1.29080355167389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29614996910095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28545713424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26254343986511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26407086849213</t>
   </si>
   <si>
     <t xml:space="preserve">1.27170884609222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26788997650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24192106723785</t>
+    <t xml:space="preserve">1.26789009571075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24192118644714</t>
   </si>
   <si>
     <t xml:space="preserve">1.2335193157196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26712620258331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24497616291046</t>
+    <t xml:space="preserve">1.26712608337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24497640132904</t>
   </si>
   <si>
     <t xml:space="preserve">1.2487952709198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27323639392853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26941752433777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31448113918304</t>
+    <t xml:space="preserve">1.27323651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26941764354706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
     <t xml:space="preserve">1.33357572555542</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">1.34197747707367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35114312171936</t>
+    <t xml:space="preserve">1.35114300251007</t>
   </si>
   <si>
     <t xml:space="preserve">1.35343432426453</t>
@@ -485,49 +485,49 @@
     <t xml:space="preserve">1.36718249320984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3832221031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39926183223724</t>
+    <t xml:space="preserve">1.38322222232819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39926159381866</t>
   </si>
   <si>
     <t xml:space="preserve">1.39162373542786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3923876285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39009630680084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39697051048279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39773392677307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40537178516388</t>
+    <t xml:space="preserve">1.39238750934601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39009642601013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3969703912735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39773404598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40537202358246</t>
   </si>
   <si>
     <t xml:space="preserve">1.40078926086426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3984979391098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3847496509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37863922119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40460813045502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42064762115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41988384723663</t>
+    <t xml:space="preserve">1.39849781990051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38474977016449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37863945960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40460824966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42064785957336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4198842048645</t>
   </si>
   <si>
     <t xml:space="preserve">1.39085984230042</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">1.40842723846436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39620661735535</t>
+    <t xml:space="preserve">1.39620673656464</t>
   </si>
   <si>
     <t xml:space="preserve">1.40231692790985</t>
@@ -545,64 +545,64 @@
     <t xml:space="preserve">1.40384447574615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38704085350037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42293918132782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42752194404602</t>
+    <t xml:space="preserve">1.38704121112823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42293894290924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42752182483673</t>
   </si>
   <si>
     <t xml:space="preserve">1.43668746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44279778003693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45883738994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47411298751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46800255775452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4695303440094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47029423713684</t>
+    <t xml:space="preserve">1.44279754161835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4588371515274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47411286830902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4680027961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47029399871826</t>
   </si>
   <si>
     <t xml:space="preserve">1.46418392658234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45349085330963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42904937267303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43897867202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44967174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265625953674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55812966823578</t>
+    <t xml:space="preserve">1.45349073410034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42904925346375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43897879123688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44967186450958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46265614032745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55812978744507</t>
   </si>
   <si>
     <t xml:space="preserve">1.540562748909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54667294025421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55660223960876</t>
+    <t xml:space="preserve">1.54667282104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55660235881805</t>
   </si>
   <si>
     <t xml:space="preserve">1.56882274150848</t>
@@ -620,40 +620,40 @@
     <t xml:space="preserve">1.5604213476181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5558385848999</t>
+    <t xml:space="preserve">1.55583846569061</t>
   </si>
   <si>
     <t xml:space="preserve">1.55278325080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59402811527252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57569694519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59937453269958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5963191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59861063957214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59479176998138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58104372024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5650041103363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56347632408142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049180984497</t>
+    <t xml:space="preserve">1.59402787685394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57569718360901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59937465190887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59631931781769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59861075878143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59479165077209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58104348182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56500387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56347620487213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049192905426</t>
   </si>
   <si>
     <t xml:space="preserve">1.53521621227264</t>
@@ -662,28 +662,28 @@
     <t xml:space="preserve">1.54896438121796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52757811546326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51841270923615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5497282743454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58715403079987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60472095012665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65131223201752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7023754119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70551776885986</t>
+    <t xml:space="preserve">1.52757835388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51841247081757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54972791671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58715391159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60472118854523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65131235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70237565040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70551764965057</t>
   </si>
   <si>
     <t xml:space="preserve">1.72044408321381</t>
@@ -704,28 +704,28 @@
     <t xml:space="preserve">1.84613859653473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88698935508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92469787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00011444091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08181619644165</t>
+    <t xml:space="preserve">1.88698947429657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92469775676727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00011420249939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08181595802307</t>
   </si>
   <si>
     <t xml:space="preserve">2.10145568847656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03860831260681</t>
+    <t xml:space="preserve">2.03860855102539</t>
   </si>
   <si>
     <t xml:space="preserve">2.06846117973328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01425504684448</t>
+    <t xml:space="preserve">2.01425528526306</t>
   </si>
   <si>
     <t xml:space="preserve">1.91369950771332</t>
@@ -734,25 +734,25 @@
     <t xml:space="preserve">1.98597419261932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98754501342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99540114402771</t>
+    <t xml:space="preserve">1.98754477500916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99540090560913</t>
   </si>
   <si>
     <t xml:space="preserve">2.01975440979004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00639939308167</t>
+    <t xml:space="preserve">2.00639915466309</t>
   </si>
   <si>
     <t xml:space="preserve">1.99932897090912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96319174766541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01268434524536</t>
+    <t xml:space="preserve">1.96319150924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0126838684082</t>
   </si>
   <si>
     <t xml:space="preserve">2.00561380386353</t>
@@ -761,22 +761,22 @@
     <t xml:space="preserve">2.00954151153564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02525353431702</t>
+    <t xml:space="preserve">2.02525329589844</t>
   </si>
   <si>
     <t xml:space="preserve">2.01032733917236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98675942420959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00325679779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00247144699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01661205291748</t>
+    <t xml:space="preserve">1.98675954341888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00325703620911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00247120857239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0166118144989</t>
   </si>
   <si>
     <t xml:space="preserve">2.028395652771</t>
@@ -788,52 +788,52 @@
     <t xml:space="preserve">1.97261893749237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99068748950958</t>
+    <t xml:space="preserve">1.99068737030029</t>
   </si>
   <si>
     <t xml:space="preserve">1.97968935966492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97733235359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.959263920784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94119513034821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8477098941803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87599110603333</t>
+    <t xml:space="preserve">1.97733223438263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95926380157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94119536876678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84770977497101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87599122524261</t>
   </si>
   <si>
     <t xml:space="preserve">1.84535312652588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87284886837006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88620388507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91055715084076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92941117286682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90505814552307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8893461227417</t>
+    <t xml:space="preserve">1.87284898757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88620376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91055703163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9294114112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90505790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88934600353241</t>
   </si>
   <si>
     <t xml:space="preserve">1.90584361553192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91605615615845</t>
+    <t xml:space="preserve">1.91605639457703</t>
   </si>
   <si>
     <t xml:space="preserve">1.9191986322403</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">1.9333393573761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90113008022308</t>
+    <t xml:space="preserve">1.90113019943237</t>
   </si>
   <si>
     <t xml:space="preserve">1.92862570285797</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">1.92705452442169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9176276922226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98047459125519</t>
+    <t xml:space="preserve">1.91762745380402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98047471046448</t>
   </si>
   <si>
     <t xml:space="preserve">1.99618637561798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05981945991516</t>
+    <t xml:space="preserve">2.05981922149658</t>
   </si>
   <si>
     <t xml:space="preserve">2.05746269226074</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">2.00482821464539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97026216983795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96947634220123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97811782360077</t>
+    <t xml:space="preserve">1.97026228904724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96947658061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97811794281006</t>
   </si>
   <si>
     <t xml:space="preserve">1.97576105594635</t>
@@ -890,19 +890,19 @@
     <t xml:space="preserve">1.95062220096588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93962395191193</t>
+    <t xml:space="preserve">1.93962419033051</t>
   </si>
   <si>
     <t xml:space="preserve">1.93726718425751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93805289268494</t>
+    <t xml:space="preserve">1.93805277347565</t>
   </si>
   <si>
     <t xml:space="preserve">1.93255376815796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94826543331146</t>
+    <t xml:space="preserve">1.94826555252075</t>
   </si>
   <si>
     <t xml:space="preserve">1.96711981296539</t>
@@ -917,22 +917,22 @@
     <t xml:space="preserve">1.9427661895752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96397733688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94905114173889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95533573627472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94669437408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92548334598541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234110832214</t>
+    <t xml:space="preserve">1.96397745609283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9490510225296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95533585548401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94669425487518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9254834651947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234098911285</t>
   </si>
   <si>
     <t xml:space="preserve">1.92784011363983</t>
@@ -941,55 +941,55 @@
     <t xml:space="preserve">1.92312669754028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89720189571381</t>
+    <t xml:space="preserve">1.8972020149231</t>
   </si>
   <si>
     <t xml:space="preserve">1.9034868478775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90820038318634</t>
+    <t xml:space="preserve">1.90820050239563</t>
   </si>
   <si>
     <t xml:space="preserve">1.89484536647797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8995589017868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89013183116913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89563083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89327430725098</t>
+    <t xml:space="preserve">1.89955878257751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89013171195984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89563071727753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8932740688324</t>
   </si>
   <si>
     <t xml:space="preserve">1.91527044773102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91212832927704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90191566944122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93098247051239</t>
+    <t xml:space="preserve">1.91212821006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90191555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9309823513031</t>
   </si>
   <si>
     <t xml:space="preserve">1.98126018047333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02132558822632</t>
+    <t xml:space="preserve">2.02132534980774</t>
   </si>
   <si>
     <t xml:space="preserve">2.00090003013611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06610441207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05039238929749</t>
+    <t xml:space="preserve">2.06610417366028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05039215087891</t>
   </si>
   <si>
     <t xml:space="preserve">2.03153824806213</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">2.19494104385376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13287949562073</t>
+    <t xml:space="preserve">2.13287925720215</t>
   </si>
   <si>
     <t xml:space="preserve">2.11245393753052</t>
@@ -1025,19 +1025,19 @@
     <t xml:space="preserve">2.07710242271423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05196356773376</t>
+    <t xml:space="preserve">2.05196380615234</t>
   </si>
   <si>
     <t xml:space="preserve">2.08574390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05117797851562</t>
+    <t xml:space="preserve">2.0511782169342</t>
   </si>
   <si>
     <t xml:space="preserve">2.06217622756958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06924653053284</t>
+    <t xml:space="preserve">2.06924629211426</t>
   </si>
   <si>
     <t xml:space="preserve">2.11323952674866</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">2.16587400436401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17215895652771</t>
+    <t xml:space="preserve">2.17215871810913</t>
   </si>
   <si>
     <t xml:space="preserve">2.17294454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17687249183655</t>
+    <t xml:space="preserve">2.17687225341797</t>
   </si>
   <si>
     <t xml:space="preserve">2.16823101043701</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">2.18158602714539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20358228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1917986869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17765831947327</t>
+    <t xml:space="preserve">2.2035825252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19179892539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17765808105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.16037511825562</t>
@@ -1082,49 +1082,49 @@
     <t xml:space="preserve">2.1501624584198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14937663078308</t>
+    <t xml:space="preserve">2.14937686920166</t>
   </si>
   <si>
     <t xml:space="preserve">2.1485915184021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16665983200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17451572418213</t>
+    <t xml:space="preserve">2.16665959358215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17451596260071</t>
   </si>
   <si>
     <t xml:space="preserve">2.19572687149048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17608690261841</t>
+    <t xml:space="preserve">2.17608666419983</t>
   </si>
   <si>
     <t xml:space="preserve">2.22479367256165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28606939315796</t>
+    <t xml:space="preserve">2.28606963157654</t>
   </si>
   <si>
     <t xml:space="preserve">2.30963730812073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27035784721375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26250195503235</t>
+    <t xml:space="preserve">2.27035760879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26250171661377</t>
   </si>
   <si>
     <t xml:space="preserve">2.30178117752075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31749320030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41176438331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46675539016724</t>
+    <t xml:space="preserve">2.3174934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41176414489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46675562858582</t>
   </si>
   <si>
     <t xml:space="preserve">2.41962027549744</t>
@@ -1136,46 +1136,46 @@
     <t xml:space="preserve">2.47461152076721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42747616767883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38819646835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36462879180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38034057617188</t>
+    <t xml:space="preserve">2.42747569084167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38819670677185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3646285533905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3803403377533</t>
   </si>
   <si>
     <t xml:space="preserve">2.40390825271606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39605259895325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35677266120911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29392552375793</t>
+    <t xml:space="preserve">2.39605236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35677289962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29392576217651</t>
   </si>
   <si>
     <t xml:space="preserve">2.27821350097656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54531478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49032306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66315340995789</t>
+    <t xml:space="preserve">2.54531502723694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49032330513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66315317153931</t>
   </si>
   <si>
     <t xml:space="preserve">2.65529727935791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73385620117188</t>
+    <t xml:space="preserve">2.73385643959045</t>
   </si>
   <si>
     <t xml:space="preserve">2.56888246536255</t>
@@ -1190,28 +1190,28 @@
     <t xml:space="preserve">2.50603485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5374584197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58459448814392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55317044258118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51389098167419</t>
+    <t xml:space="preserve">2.53745865821838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58459424972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5531702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51389122009277</t>
   </si>
   <si>
     <t xml:space="preserve">2.59245014190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56102633476257</t>
+    <t xml:space="preserve">2.56102657318115</t>
   </si>
   <si>
     <t xml:space="preserve">2.52174663543701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61601781845093</t>
+    <t xml:space="preserve">2.61601758003235</t>
   </si>
   <si>
     <t xml:space="preserve">2.63958549499512</t>
@@ -1220,31 +1220,34 @@
     <t xml:space="preserve">2.68816685676575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70436096191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69626379013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197322845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61529469490051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62339162826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63148832321167</t>
+    <t xml:space="preserve">2.70436072349548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69626355171204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197299003601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61529493331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62339186668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63148856163025</t>
   </si>
   <si>
     <t xml:space="preserve">2.65577936172485</t>
   </si>
   <si>
+    <t xml:space="preserve">2.6395857334137</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.59100413322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60719776153564</t>
+    <t xml:space="preserve">2.60719799995422</t>
   </si>
   <si>
     <t xml:space="preserve">2.53432583808899</t>
@@ -1256,16 +1259,16 @@
     <t xml:space="preserve">2.40477585792542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38048529624939</t>
+    <t xml:space="preserve">2.38048505783081</t>
   </si>
   <si>
     <t xml:space="preserve">2.4128725528717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32380676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29951620101929</t>
+    <t xml:space="preserve">2.32380700111389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29951643943787</t>
   </si>
   <si>
     <t xml:space="preserve">2.29141926765442</t>
@@ -1274,22 +1277,22 @@
     <t xml:space="preserve">2.31571006774902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33190393447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35619425773621</t>
+    <t xml:space="preserve">2.33190369606018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35619449615479</t>
   </si>
   <si>
     <t xml:space="preserve">2.26712870597839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2104504108429</t>
+    <t xml:space="preserve">2.21045064926147</t>
   </si>
   <si>
     <t xml:space="preserve">2.28332257270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34809756278992</t>
+    <t xml:space="preserve">2.34809732437134</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854734420776</t>
@@ -1298,7 +1301,7 @@
     <t xml:space="preserve">2.19425702095032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22664427757263</t>
+    <t xml:space="preserve">2.22664403915405</t>
   </si>
   <si>
     <t xml:space="preserve">2.18615984916687</t>
@@ -1307,10 +1310,10 @@
     <t xml:space="preserve">2.178062915802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16996598243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16186952590942</t>
+    <t xml:space="preserve">2.16996622085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16186904907227</t>
   </si>
   <si>
     <t xml:space="preserve">2.12948155403137</t>
@@ -1319,10 +1322,10 @@
     <t xml:space="preserve">2.2347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25903177261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24283814430237</t>
+    <t xml:space="preserve">2.2590320110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24283790588379</t>
   </si>
   <si>
     <t xml:space="preserve">2.27522563934326</t>
@@ -1331,13 +1334,13 @@
     <t xml:space="preserve">2.39667892456055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12138485908508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10519123077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11328792572021</t>
+    <t xml:space="preserve">2.1213846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10519099235535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11328768730164</t>
   </si>
   <si>
     <t xml:space="preserve">2.09709405899048</t>
@@ -1346,13 +1349,13 @@
     <t xml:space="preserve">2.05660963058472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04851269721985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02422189712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96754384040833</t>
+    <t xml:space="preserve">2.04851245880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02422213554382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96754395961761</t>
   </si>
   <si>
     <t xml:space="preserve">1.95944702625275</t>
@@ -1361,10 +1364,10 @@
     <t xml:space="preserve">1.93515622615814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95135021209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87038111686707</t>
+    <t xml:space="preserve">1.95134997367859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87038123607635</t>
   </si>
   <si>
     <t xml:space="preserve">1.9189624786377</t>
@@ -1373,52 +1376,52 @@
     <t xml:space="preserve">1.91086566448212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94325304031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25093507766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15377235412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13757872581482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08899736404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06470632553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08090019226074</t>
+    <t xml:space="preserve">1.94325315952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25093483924866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1537721157074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13757824897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08899712562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06470656394958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08090043067932</t>
   </si>
   <si>
     <t xml:space="preserve">2.00802803039551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92705929279327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88657474517822</t>
+    <t xml:space="preserve">1.92705941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88657486438751</t>
   </si>
   <si>
     <t xml:space="preserve">1.82989680767059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85418736934662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82179987430573</t>
+    <t xml:space="preserve">1.85418725013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82179975509644</t>
   </si>
   <si>
     <t xml:space="preserve">1.90276873111725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97564053535461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9999315738678</t>
+    <t xml:space="preserve">1.97564077377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99993145465851</t>
   </si>
   <si>
     <t xml:space="preserve">2.30761313438416</t>
@@ -1436,10 +1439,10 @@
     <t xml:space="preserve">2.34000062942505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45335721969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42096972465515</t>
+    <t xml:space="preserve">2.45335698127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42096948623657</t>
   </si>
   <si>
     <t xml:space="preserve">2.43716335296631</t>
@@ -1451,25 +1454,25 @@
     <t xml:space="preserve">2.51003527641296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48574471473694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49384140968323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50193858146667</t>
+    <t xml:space="preserve">2.48574495315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49384164810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5019383430481</t>
   </si>
   <si>
     <t xml:space="preserve">2.51813220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52622890472412</t>
+    <t xml:space="preserve">2.5262291431427</t>
   </si>
   <si>
     <t xml:space="preserve">2.4695508480072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44526028633118</t>
+    <t xml:space="preserve">2.4452600479126</t>
   </si>
   <si>
     <t xml:space="preserve">2.47764778137207</t>
@@ -1490,7 +1493,7 @@
     <t xml:space="preserve">2.62994146347046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60449051856995</t>
+    <t xml:space="preserve">2.60449075698853</t>
   </si>
   <si>
     <t xml:space="preserve">2.54510474205017</t>
@@ -1502,16 +1505,16 @@
     <t xml:space="preserve">2.5875232219696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5960066318512</t>
+    <t xml:space="preserve">2.59600687026978</t>
   </si>
   <si>
     <t xml:space="preserve">2.61297416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51116991043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53662109375</t>
+    <t xml:space="preserve">2.51117014884949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53662085533142</t>
   </si>
   <si>
     <t xml:space="preserve">2.52813720703125</t>
@@ -1520,13 +1523,13 @@
     <t xml:space="preserve">2.46875166893005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49420285224915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38391470909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37543129920959</t>
+    <t xml:space="preserve">2.49420261383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38391494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37543106079102</t>
   </si>
   <si>
     <t xml:space="preserve">2.32452893257141</t>
@@ -1535,22 +1538,22 @@
     <t xml:space="preserve">2.33301258087158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34998035430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36694741249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46026802062988</t>
+    <t xml:space="preserve">2.34997987747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36694765090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4602677822113</t>
   </si>
   <si>
     <t xml:space="preserve">2.42633318901062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44330072402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47723531723022</t>
+    <t xml:space="preserve">2.44330024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4772355556488</t>
   </si>
   <si>
     <t xml:space="preserve">2.57055568695068</t>
@@ -1559,28 +1562,28 @@
     <t xml:space="preserve">2.62145781517029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842535018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6469087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69781088829041</t>
+    <t xml:space="preserve">2.63842511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64690899848938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69781112670898</t>
   </si>
   <si>
     <t xml:space="preserve">2.70629453659058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67235994338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71477818489075</t>
+    <t xml:space="preserve">2.67236018180847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71477842330933</t>
   </si>
   <si>
     <t xml:space="preserve">2.72326183319092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68084359169006</t>
+    <t xml:space="preserve">2.68084383010864</t>
   </si>
   <si>
     <t xml:space="preserve">2.68932747840881</t>
@@ -1592,16 +1595,16 @@
     <t xml:space="preserve">2.51965379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43481683731079</t>
+    <t xml:space="preserve">2.43481707572937</t>
   </si>
   <si>
     <t xml:space="preserve">2.45178413391113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50268626213074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57903933525085</t>
+    <t xml:space="preserve">2.50268650054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57903957366943</t>
   </si>
   <si>
     <t xml:space="preserve">2.55358839035034</t>
@@ -1640,139 +1643,139 @@
     <t xml:space="preserve">2.13788795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97669768333435</t>
+    <t xml:space="preserve">1.97669792175293</t>
   </si>
   <si>
     <t xml:space="preserve">1.73067116737366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73915493488312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69673657417297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53554666042328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56948125362396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57796490192413</t>
+    <t xml:space="preserve">1.73915505409241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69673633575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53554654121399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56948137283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57796478271484</t>
   </si>
   <si>
     <t xml:space="preserve">1.68401098251343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62462508678436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61614143848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59917414188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56099760532379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65431809425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67128539085388</t>
+    <t xml:space="preserve">1.62462520599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6161413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59917426109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5609974861145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65431785583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67128562927246</t>
   </si>
   <si>
     <t xml:space="preserve">1.64159250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62886703014374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65007627010345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63735067844391</t>
+    <t xml:space="preserve">1.62886691093445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65007615089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63735055923462</t>
   </si>
   <si>
     <t xml:space="preserve">1.70522022247314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76460587978363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67552721500397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69249486923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65855991840363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68825280666351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74763870239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78157317638397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84095919132233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80702435970306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79005706310272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77308940887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7221873998642</t>
+    <t xml:space="preserve">1.76460576057434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67552733421326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69249475002289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65856003761292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6882529258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.747638463974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78157341480255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84095907211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80702424049377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79005694389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77308964729309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72218728065491</t>
   </si>
   <si>
     <t xml:space="preserve">1.8239917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83247530460358</t>
+    <t xml:space="preserve">1.83247542381287</t>
   </si>
   <si>
     <t xml:space="preserve">1.84944272041321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86641001701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90034472942352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973074436188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90882861614227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88337743282318</t>
+    <t xml:space="preserve">1.86641025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90034484863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90882849693298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88337755203247</t>
   </si>
   <si>
     <t xml:space="preserve">1.89186120033264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8748939037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85792648792267</t>
+    <t xml:space="preserve">1.87489402294159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85792636871338</t>
   </si>
   <si>
     <t xml:space="preserve">1.79854083061218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81550800800323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75612223148346</t>
+    <t xml:space="preserve">1.81550788879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75612235069275</t>
   </si>
   <si>
     <t xml:space="preserve">1.67976903915405</t>
@@ -1790,16 +1793,16 @@
     <t xml:space="preserve">1.60341596603394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56523942947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55251371860504</t>
+    <t xml:space="preserve">1.56523954868317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55251383781433</t>
   </si>
   <si>
     <t xml:space="preserve">1.54827213287354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49312818050385</t>
+    <t xml:space="preserve">1.49312829971313</t>
   </si>
   <si>
     <t xml:space="preserve">1.48464453220367</t>
@@ -1823,7 +1826,7 @@
     <t xml:space="preserve">1.39132392406464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44222605228424</t>
+    <t xml:space="preserve">1.44222617149353</t>
   </si>
   <si>
     <t xml:space="preserve">1.41677510738373</t>
@@ -1832,7 +1835,7 @@
     <t xml:space="preserve">1.36163091659546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3489054441452</t>
+    <t xml:space="preserve">1.34890556335449</t>
   </si>
   <si>
     <t xml:space="preserve">1.36587285995483</t>
@@ -1841,13 +1844,13 @@
     <t xml:space="preserve">1.39556586742401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38284003734589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40829122066498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43374240398407</t>
+    <t xml:space="preserve">1.38284027576447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40829133987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43374228477478</t>
   </si>
   <si>
     <t xml:space="preserve">1.41253304481506</t>
@@ -1865,16 +1868,16 @@
     <t xml:space="preserve">1.4507098197937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43798434734344</t>
+    <t xml:space="preserve">1.43798422813416</t>
   </si>
   <si>
     <t xml:space="preserve">1.53130459785461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5864485502243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62038338184357</t>
+    <t xml:space="preserve">1.58644866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62038350105286</t>
   </si>
   <si>
     <t xml:space="preserve">1.61189961433411</t>
@@ -1883,13 +1886,13 @@
     <t xml:space="preserve">1.55675578117371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59069049358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57372295856476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58220672607422</t>
+    <t xml:space="preserve">1.59069037437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57372283935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5822069644928</t>
   </si>
   <si>
     <t xml:space="preserve">1.60765790939331</t>
@@ -1898,13 +1901,13 @@
     <t xml:space="preserve">1.54403030872345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95124697685242</t>
+    <t xml:space="preserve">1.95124673843384</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608369827271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16333889961243</t>
+    <t xml:space="preserve">2.16333913803101</t>
   </si>
   <si>
     <t xml:space="preserve">2.35846376419067</t>
@@ -1913,13 +1916,13 @@
     <t xml:space="preserve">2.34149646759033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27362680435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23969221115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14637160301208</t>
+    <t xml:space="preserve">2.27362704277039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23969197273254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14637136459351</t>
   </si>
   <si>
     <t xml:space="preserve">2.23120856285095</t>
@@ -1928,10 +1931,7 @@
     <t xml:space="preserve">2.30756163597107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30756187438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31620407104492</t>
+    <t xml:space="preserve">2.3162043094635</t>
   </si>
   <si>
     <t xml:space="preserve">2.33348941802979</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">2.35077452659607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29891920089722</t>
+    <t xml:space="preserve">2.29891896247864</t>
   </si>
   <si>
     <t xml:space="preserve">2.32484674453735</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">2.47177028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48905539512634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50634050369263</t>
+    <t xml:space="preserve">2.48905515670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50634026527405</t>
   </si>
   <si>
     <t xml:space="preserve">2.5581955909729</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">2.43720006942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42855739593506</t>
+    <t xml:space="preserve">2.42855763435364</t>
   </si>
   <si>
     <t xml:space="preserve">2.40262985229492</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">2.41991496086121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41127228736877</t>
+    <t xml:space="preserve">2.41127252578735</t>
   </si>
   <si>
     <t xml:space="preserve">2.45448517799377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39398741722107</t>
+    <t xml:space="preserve">2.39398717880249</t>
   </si>
   <si>
     <t xml:space="preserve">2.38534474372864</t>
@@ -2030,22 +2030,22 @@
     <t xml:space="preserve">2.24706387519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22113609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22977876663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28163409233093</t>
+    <t xml:space="preserve">2.22113633155823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2297785282135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28163385391235</t>
   </si>
   <si>
     <t xml:space="preserve">2.17792344093323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19520854949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16063809394836</t>
+    <t xml:space="preserve">2.19520831108093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16063833236694</t>
   </si>
   <si>
     <t xml:space="preserve">2.26434898376465</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">2.83475732803345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81747198104858</t>
+    <t xml:space="preserve">2.81747221946716</t>
   </si>
   <si>
     <t xml:space="preserve">2.93846821784973</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">3.16317415237427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38788080215454</t>
+    <t xml:space="preserve">3.38788104057312</t>
   </si>
   <si>
     <t xml:space="preserve">3.37923812866211</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37059569358826</t>
+    <t xml:space="preserve">3.37059545516968</t>
   </si>
   <si>
     <t xml:space="preserve">3.4483790397644</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">3.27552771568298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22367215156555</t>
+    <t xml:space="preserve">3.22367238998413</t>
   </si>
   <si>
     <t xml:space="preserve">3.20638680458069</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">3.19774460792542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39652323722839</t>
+    <t xml:space="preserve">3.39652347564697</t>
   </si>
   <si>
     <t xml:space="preserve">3.23231482505798</t>
@@ -2210,16 +2210,16 @@
     <t xml:space="preserve">4.40608930587769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46071004867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54264116287231</t>
+    <t xml:space="preserve">4.4607105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54264163970947</t>
   </si>
   <si>
     <t xml:space="preserve">4.82485008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84760856628418</t>
+    <t xml:space="preserve">4.84760808944702</t>
   </si>
   <si>
     <t xml:space="preserve">4.96140193939209</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">5.16623067855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23450708389282</t>
+    <t xml:space="preserve">5.23450660705566</t>
   </si>
   <si>
     <t xml:space="preserve">5.82623386383057</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">5.37105941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30278253555298</t>
+    <t xml:space="preserve">5.30278301239014</t>
   </si>
   <si>
     <t xml:space="preserve">5.41657638549805</t>
@@ -2261,19 +2261,19 @@
     <t xml:space="preserve">5.5076117515564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07658004760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87175130844116</t>
+    <t xml:space="preserve">6.07657957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.871750831604</t>
   </si>
   <si>
     <t xml:space="preserve">5.7124400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78071641921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68968105316162</t>
+    <t xml:space="preserve">5.78071594238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68968152999878</t>
   </si>
   <si>
     <t xml:space="preserve">5.6669225692749</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">5.62140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55312871932983</t>
+    <t xml:space="preserve">5.55312919616699</t>
   </si>
   <si>
     <t xml:space="preserve">5.73519897460938</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">6.25864934921265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12348031997681</t>
+    <t xml:space="preserve">7.12348079681396</t>
   </si>
   <si>
     <t xml:space="preserve">7.64693117141724</t>
@@ -2306,10 +2306,10 @@
     <t xml:space="preserve">7.23727464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07796382904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03244638442993</t>
+    <t xml:space="preserve">7.07796335220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03244590759277</t>
   </si>
   <si>
     <t xml:space="preserve">6.96416997909546</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">6.73658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53175401687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60003042221069</t>
+    <t xml:space="preserve">6.53175449371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60002994537354</t>
   </si>
   <si>
     <t xml:space="preserve">6.5089955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80485916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5545129776001</t>
+    <t xml:space="preserve">6.80485868453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55451250076294</t>
   </si>
   <si>
     <t xml:space="preserve">6.69106531143188</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">7.32830953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37382698059082</t>
+    <t xml:space="preserve">7.37382745742798</t>
   </si>
   <si>
     <t xml:space="preserve">7.35106801986694</t>
@@ -2363,10 +2363,10 @@
     <t xml:space="preserve">7.85176038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48900413513184</t>
+    <t xml:space="preserve">8.12486553192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48900508880615</t>
   </si>
   <si>
     <t xml:space="preserve">8.55728054046631</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">10.6966009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6510829925537</t>
+    <t xml:space="preserve">10.651083946228</t>
   </si>
   <si>
     <t xml:space="preserve">9.66090679168701</t>
@@ -18752,7 +18752,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18778,7 +18778,7 @@
         <v>32</v>
       </c>
       <c r="G602" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18804,7 +18804,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18830,7 +18830,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G604" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18882,7 +18882,7 @@
         <v>32</v>
       </c>
       <c r="G606" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18908,7 +18908,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G607" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18934,7 +18934,7 @@
         <v>30</v>
       </c>
       <c r="G608" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18960,7 +18960,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G609" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18986,7 +18986,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19012,7 +19012,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G611" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19038,7 +19038,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G612" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19064,7 +19064,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19090,7 +19090,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19116,7 +19116,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19142,7 +19142,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G616" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19168,7 +19168,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19194,7 +19194,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19220,7 +19220,7 @@
         <v>28</v>
       </c>
       <c r="G619" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19246,7 +19246,7 @@
         <v>28</v>
       </c>
       <c r="G620" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19272,7 +19272,7 @@
         <v>28</v>
       </c>
       <c r="G621" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19298,7 +19298,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G622" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19324,7 +19324,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19350,7 +19350,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19376,7 +19376,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19402,7 +19402,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19428,7 +19428,7 @@
         <v>29</v>
       </c>
       <c r="G627" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19454,7 +19454,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G628" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19480,7 +19480,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G629" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19506,7 +19506,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G630" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19532,7 +19532,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19558,7 +19558,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G632" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19584,7 +19584,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G633" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19610,7 +19610,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19636,7 +19636,7 @@
         <v>27.5</v>
       </c>
       <c r="G635" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19662,7 +19662,7 @@
         <v>27</v>
       </c>
       <c r="G636" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19688,7 +19688,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19714,7 +19714,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19740,7 +19740,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19766,7 +19766,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19792,7 +19792,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19818,7 +19818,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G642" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19844,7 +19844,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19870,7 +19870,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19896,7 +19896,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19922,7 +19922,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G646" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19948,7 +19948,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G647" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19974,7 +19974,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G648" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20000,7 +20000,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20026,7 +20026,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20052,7 +20052,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20078,7 +20078,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G652" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20104,7 +20104,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G653" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20130,7 +20130,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20156,7 +20156,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G655" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20182,7 +20182,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20208,7 +20208,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20234,7 +20234,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20260,7 +20260,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G659" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20286,7 +20286,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20312,7 +20312,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G661" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20338,7 +20338,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20364,7 +20364,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20390,7 +20390,7 @@
         <v>27.5</v>
       </c>
       <c r="G664" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20416,7 +20416,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20442,7 +20442,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20468,7 +20468,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G667" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20494,7 +20494,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G668" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20520,7 +20520,7 @@
         <v>27</v>
       </c>
       <c r="G669" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20546,7 +20546,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20572,7 +20572,7 @@
         <v>27</v>
       </c>
       <c r="G671" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20598,7 +20598,7 @@
         <v>26</v>
       </c>
       <c r="G672" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20624,7 +20624,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20650,7 +20650,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G674" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20676,7 +20676,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G675" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20702,7 +20702,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20728,7 +20728,7 @@
         <v>25</v>
       </c>
       <c r="G677" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20754,7 +20754,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20780,7 +20780,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G679" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20806,7 +20806,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20832,7 +20832,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20858,7 +20858,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20884,7 +20884,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G683" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20910,7 +20910,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G684" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20936,7 +20936,7 @@
         <v>24</v>
       </c>
       <c r="G685" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20962,7 +20962,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20988,7 +20988,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G687" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21014,7 +21014,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21040,7 +21040,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G689" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21066,7 +21066,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G690" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21092,7 +21092,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G691" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21118,7 +21118,7 @@
         <v>27</v>
       </c>
       <c r="G692" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21144,7 +21144,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G693" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21170,7 +21170,7 @@
         <v>26</v>
       </c>
       <c r="G694" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21196,7 +21196,7 @@
         <v>26</v>
       </c>
       <c r="G695" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21222,7 +21222,7 @@
         <v>26</v>
       </c>
       <c r="G696" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21248,7 +21248,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G697" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21274,7 +21274,7 @@
         <v>26</v>
       </c>
       <c r="G698" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21300,7 +21300,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21326,7 +21326,7 @@
         <v>26</v>
       </c>
       <c r="G700" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21352,7 +21352,7 @@
         <v>25.5</v>
       </c>
       <c r="G701" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21378,7 +21378,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21404,7 +21404,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21430,7 +21430,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G704" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21456,7 +21456,7 @@
         <v>26</v>
       </c>
       <c r="G705" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21482,7 +21482,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G706" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21508,7 +21508,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G707" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21534,7 +21534,7 @@
         <v>25.5</v>
       </c>
       <c r="G708" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21560,7 +21560,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21586,7 +21586,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21612,7 +21612,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21638,7 +21638,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21664,7 +21664,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G713" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21690,7 +21690,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21716,7 +21716,7 @@
         <v>24</v>
       </c>
       <c r="G715" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21742,7 +21742,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G716" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21768,7 +21768,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21794,7 +21794,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G718" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21820,7 +21820,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G719" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21846,7 +21846,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21872,7 +21872,7 @@
         <v>22.5</v>
       </c>
       <c r="G721" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21898,7 +21898,7 @@
         <v>23.5</v>
       </c>
       <c r="G722" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21924,7 +21924,7 @@
         <v>23.5</v>
       </c>
       <c r="G723" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21950,7 +21950,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21976,7 +21976,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22002,7 +22002,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22028,7 +22028,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22054,7 +22054,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22080,7 +22080,7 @@
         <v>25</v>
       </c>
       <c r="G729" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22106,7 +22106,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G730" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22132,7 +22132,7 @@
         <v>28</v>
       </c>
       <c r="G731" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22158,7 +22158,7 @@
         <v>28.5</v>
       </c>
       <c r="G732" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22184,7 +22184,7 @@
         <v>27.5</v>
       </c>
       <c r="G733" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22210,7 +22210,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G734" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22236,7 +22236,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22262,7 +22262,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G736" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22288,7 +22288,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G737" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22314,7 +22314,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22340,7 +22340,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22366,7 +22366,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G740" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22392,7 +22392,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G741" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22418,7 +22418,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22444,7 +22444,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22470,7 +22470,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22496,7 +22496,7 @@
         <v>27.5</v>
       </c>
       <c r="G745" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22522,7 +22522,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G746" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22548,7 +22548,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22574,7 +22574,7 @@
         <v>27.5</v>
       </c>
       <c r="G748" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22600,7 +22600,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G749" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22626,7 +22626,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G750" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22652,7 +22652,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22678,7 +22678,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22704,7 +22704,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G753" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22730,7 +22730,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G754" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22756,7 +22756,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G755" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22782,7 +22782,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G756" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22808,7 +22808,7 @@
         <v>26.5</v>
       </c>
       <c r="G757" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22834,7 +22834,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22886,7 +22886,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G760" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22912,7 +22912,7 @@
         <v>27</v>
       </c>
       <c r="G761" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22938,7 +22938,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22964,7 +22964,7 @@
         <v>27</v>
       </c>
       <c r="G763" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22990,7 +22990,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23016,7 +23016,7 @@
         <v>26.5</v>
       </c>
       <c r="G765" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23042,7 +23042,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23068,7 +23068,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G767" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23094,7 +23094,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G768" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23120,7 +23120,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G769" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23146,7 +23146,7 @@
         <v>28.5</v>
       </c>
       <c r="G770" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23172,7 +23172,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23198,7 +23198,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G772" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23224,7 +23224,7 @@
         <v>28</v>
       </c>
       <c r="G773" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23250,7 +23250,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23276,7 +23276,7 @@
         <v>28</v>
       </c>
       <c r="G775" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23302,7 +23302,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G776" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23328,7 +23328,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23354,7 +23354,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G778" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23380,7 +23380,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23406,7 +23406,7 @@
         <v>28.5</v>
       </c>
       <c r="G780" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23432,7 +23432,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G781" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23458,7 +23458,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G782" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23484,7 +23484,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23510,7 +23510,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23536,7 +23536,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G785" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23562,7 +23562,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23588,7 +23588,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G787" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23614,7 +23614,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23640,7 +23640,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G789" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23666,7 +23666,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23692,7 +23692,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23718,7 +23718,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23744,7 +23744,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G793" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23770,7 +23770,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G794" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23796,7 +23796,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G795" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23822,7 +23822,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23848,7 +23848,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G797" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23874,7 +23874,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23900,7 +23900,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G799" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23926,7 +23926,7 @@
         <v>30</v>
       </c>
       <c r="G800" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23952,7 +23952,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G801" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23978,7 +23978,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G802" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24004,7 +24004,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G803" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24030,7 +24030,7 @@
         <v>31</v>
       </c>
       <c r="G804" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24056,7 +24056,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24082,7 +24082,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G806" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24108,7 +24108,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24134,7 +24134,7 @@
         <v>31</v>
       </c>
       <c r="G808" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24160,7 +24160,7 @@
         <v>31</v>
       </c>
       <c r="G809" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24186,7 +24186,7 @@
         <v>31</v>
       </c>
       <c r="G810" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24212,7 +24212,7 @@
         <v>31</v>
       </c>
       <c r="G811" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24238,7 +24238,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24264,7 +24264,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24290,7 +24290,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24316,7 +24316,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G815" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24342,7 +24342,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24368,7 +24368,7 @@
         <v>31</v>
       </c>
       <c r="G817" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24394,7 +24394,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24420,7 +24420,7 @@
         <v>31</v>
       </c>
       <c r="G819" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24446,7 +24446,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G820" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24472,7 +24472,7 @@
         <v>30.5</v>
       </c>
       <c r="G821" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24498,7 +24498,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G822" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24524,7 +24524,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24550,7 +24550,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24576,7 +24576,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24602,7 +24602,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24628,7 +24628,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24654,7 +24654,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24680,7 +24680,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G829" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24706,7 +24706,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24732,7 +24732,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24758,7 +24758,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24784,7 +24784,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G833" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24810,7 +24810,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G834" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24836,7 +24836,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24862,7 +24862,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G836" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24888,7 +24888,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G837" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24914,7 +24914,7 @@
         <v>31</v>
       </c>
       <c r="G838" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24940,7 +24940,7 @@
         <v>31</v>
       </c>
       <c r="G839" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24966,7 +24966,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24992,7 +24992,7 @@
         <v>30</v>
       </c>
       <c r="G841" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25018,7 +25018,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25044,7 +25044,7 @@
         <v>30.5</v>
       </c>
       <c r="G843" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25070,7 +25070,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G844" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25096,7 +25096,7 @@
         <v>30.5</v>
       </c>
       <c r="G845" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25122,7 +25122,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G846" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25148,7 +25148,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G847" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25174,7 +25174,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25200,7 +25200,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G849" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25226,7 +25226,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25252,7 +25252,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G851" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25278,7 +25278,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25304,7 +25304,7 @@
         <v>28</v>
       </c>
       <c r="G853" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25330,7 +25330,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25356,7 +25356,7 @@
         <v>28</v>
       </c>
       <c r="G855" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25382,7 +25382,7 @@
         <v>27.5</v>
       </c>
       <c r="G856" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25408,7 +25408,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G857" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25434,7 +25434,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G858" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25460,7 +25460,7 @@
         <v>27.5</v>
       </c>
       <c r="G859" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25486,7 +25486,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G860" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25512,7 +25512,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G861" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25538,7 +25538,7 @@
         <v>28</v>
       </c>
       <c r="G862" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25564,7 +25564,7 @@
         <v>29</v>
       </c>
       <c r="G863" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25590,7 +25590,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25616,7 +25616,7 @@
         <v>29</v>
       </c>
       <c r="G865" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25642,7 +25642,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G866" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25668,7 +25668,7 @@
         <v>29</v>
       </c>
       <c r="G867" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25694,7 +25694,7 @@
         <v>29</v>
       </c>
       <c r="G868" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25720,7 +25720,7 @@
         <v>29</v>
       </c>
       <c r="G869" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25746,7 +25746,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25772,7 +25772,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G871" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25798,7 +25798,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G872" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25824,7 +25824,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25850,7 +25850,7 @@
         <v>30.5</v>
       </c>
       <c r="G874" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25876,7 +25876,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G875" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25902,7 +25902,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G876" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25928,7 +25928,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25954,7 +25954,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G878" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25980,7 +25980,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G879" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26006,7 +26006,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26032,7 +26032,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26058,7 +26058,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26084,7 +26084,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26110,7 +26110,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G884" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26136,7 +26136,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G885" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26162,7 +26162,7 @@
         <v>31.5</v>
       </c>
       <c r="G886" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26188,7 +26188,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26214,7 +26214,7 @@
         <v>32</v>
       </c>
       <c r="G888" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26240,7 +26240,7 @@
         <v>31.5</v>
       </c>
       <c r="G889" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26266,7 +26266,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G890" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26292,7 +26292,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G891" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26318,7 +26318,7 @@
         <v>32</v>
       </c>
       <c r="G892" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26344,7 +26344,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26370,7 +26370,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G894" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26396,7 +26396,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26422,7 +26422,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G896" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26448,7 +26448,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G897" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26474,7 +26474,7 @@
         <v>31</v>
       </c>
       <c r="G898" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26500,7 +26500,7 @@
         <v>31</v>
       </c>
       <c r="G899" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26526,7 +26526,7 @@
         <v>31</v>
       </c>
       <c r="G900" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26552,7 +26552,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G901" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26578,7 +26578,7 @@
         <v>31</v>
       </c>
       <c r="G902" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26604,7 +26604,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G903" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26630,7 +26630,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26656,7 +26656,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26682,7 +26682,7 @@
         <v>31</v>
       </c>
       <c r="G906" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26708,7 +26708,7 @@
         <v>31</v>
       </c>
       <c r="G907" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26734,7 +26734,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26760,7 +26760,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26786,7 +26786,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26812,7 +26812,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G911" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26838,7 +26838,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G912" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26864,7 +26864,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26890,7 +26890,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26916,7 +26916,7 @@
         <v>30</v>
       </c>
       <c r="G915" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26942,7 +26942,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G916" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26968,7 +26968,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G917" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26994,7 +26994,7 @@
         <v>29</v>
       </c>
       <c r="G918" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27020,7 +27020,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G919" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27046,7 +27046,7 @@
         <v>29</v>
       </c>
       <c r="G920" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27072,7 +27072,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27098,7 +27098,7 @@
         <v>29.5</v>
       </c>
       <c r="G922" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27124,7 +27124,7 @@
         <v>29</v>
       </c>
       <c r="G923" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27150,7 +27150,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G924" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27176,7 +27176,7 @@
         <v>29</v>
       </c>
       <c r="G925" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27202,7 +27202,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G926" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27228,7 +27228,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G927" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27254,7 +27254,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G928" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27280,7 +27280,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G929" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27306,7 +27306,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27332,7 +27332,7 @@
         <v>30.5</v>
       </c>
       <c r="G931" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27358,7 +27358,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27384,7 +27384,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G933" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27410,7 +27410,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G934" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27436,7 +27436,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27462,7 +27462,7 @@
         <v>30</v>
       </c>
       <c r="G936" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27488,7 +27488,7 @@
         <v>29.5</v>
       </c>
       <c r="G937" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27514,7 +27514,7 @@
         <v>29.5</v>
       </c>
       <c r="G938" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27540,7 +27540,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27566,7 +27566,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27592,7 +27592,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G941" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27618,7 +27618,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G942" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27644,7 +27644,7 @@
         <v>30</v>
       </c>
       <c r="G943" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27670,7 +27670,7 @@
         <v>30</v>
       </c>
       <c r="G944" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27696,7 +27696,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G945" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27722,7 +27722,7 @@
         <v>30</v>
       </c>
       <c r="G946" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27748,7 +27748,7 @@
         <v>30.5</v>
       </c>
       <c r="G947" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27774,7 +27774,7 @@
         <v>30.5</v>
       </c>
       <c r="G948" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27800,7 +27800,7 @@
         <v>30</v>
       </c>
       <c r="G949" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27826,7 +27826,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G950" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27852,7 +27852,7 @@
         <v>30</v>
       </c>
       <c r="G951" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27878,7 +27878,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G952" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27904,7 +27904,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G953" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27930,7 +27930,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27956,7 +27956,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G955" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27982,7 +27982,7 @@
         <v>30</v>
       </c>
       <c r="G956" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -28008,7 +28008,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28034,7 +28034,7 @@
         <v>30</v>
       </c>
       <c r="G958" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28060,7 +28060,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28086,7 +28086,7 @@
         <v>30</v>
       </c>
       <c r="G960" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28112,7 +28112,7 @@
         <v>30</v>
       </c>
       <c r="G961" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28138,7 +28138,7 @@
         <v>30</v>
       </c>
       <c r="G962" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28164,7 +28164,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28190,7 +28190,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G964" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28216,7 +28216,7 @@
         <v>30</v>
       </c>
       <c r="G965" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28242,7 +28242,7 @@
         <v>30</v>
       </c>
       <c r="G966" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28268,7 +28268,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G967" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28294,7 +28294,7 @@
         <v>30</v>
       </c>
       <c r="G968" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28320,7 +28320,7 @@
         <v>30</v>
       </c>
       <c r="G969" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28346,7 +28346,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G970" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28372,7 +28372,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G971" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28398,7 +28398,7 @@
         <v>30</v>
       </c>
       <c r="G972" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28424,7 +28424,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28450,7 +28450,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28476,7 +28476,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28502,7 +28502,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28528,7 +28528,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G977" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28554,7 +28554,7 @@
         <v>31</v>
       </c>
       <c r="G978" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28580,7 +28580,7 @@
         <v>31</v>
       </c>
       <c r="G979" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28606,7 +28606,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28632,7 +28632,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G981" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28658,7 +28658,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28684,7 +28684,7 @@
         <v>31</v>
       </c>
       <c r="G983" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28710,7 +28710,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G984" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28736,7 +28736,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G985" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28762,7 +28762,7 @@
         <v>31</v>
       </c>
       <c r="G986" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28788,7 +28788,7 @@
         <v>31.5</v>
       </c>
       <c r="G987" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28814,7 +28814,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28840,7 +28840,7 @@
         <v>31.5</v>
       </c>
       <c r="G989" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28866,7 +28866,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G990" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28892,7 +28892,7 @@
         <v>31.5</v>
       </c>
       <c r="G991" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28918,7 +28918,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28944,7 +28944,7 @@
         <v>31.5</v>
       </c>
       <c r="G993" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28970,7 +28970,7 @@
         <v>31.5</v>
       </c>
       <c r="G994" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28996,7 +28996,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G995" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29022,7 +29022,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G996" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29048,7 +29048,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29074,7 +29074,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G998" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29100,7 +29100,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29126,7 +29126,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29152,7 +29152,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1001" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29178,7 +29178,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29204,7 +29204,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29230,7 +29230,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1004" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29256,7 +29256,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1005" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29282,7 +29282,7 @@
         <v>31</v>
       </c>
       <c r="G1006" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29308,7 +29308,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1007" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29334,7 +29334,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29360,7 +29360,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29386,7 +29386,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29412,7 +29412,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29438,7 +29438,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29464,7 +29464,7 @@
         <v>30.5</v>
       </c>
       <c r="G1013" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29490,7 +29490,7 @@
         <v>30.5</v>
       </c>
       <c r="G1014" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29516,7 +29516,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1015" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29542,7 +29542,7 @@
         <v>30.5</v>
       </c>
       <c r="G1016" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29568,7 +29568,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29594,7 +29594,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1018" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29620,7 +29620,7 @@
         <v>30</v>
       </c>
       <c r="G1019" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29646,7 +29646,7 @@
         <v>30.5</v>
       </c>
       <c r="G1020" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29672,7 +29672,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1021" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29698,7 +29698,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1022" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29724,7 +29724,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1023" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29750,7 +29750,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1024" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29776,7 +29776,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29802,7 +29802,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1026" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29828,7 +29828,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1027" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29854,7 +29854,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29880,7 +29880,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1029" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29906,7 +29906,7 @@
         <v>30</v>
       </c>
       <c r="G1030" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29932,7 +29932,7 @@
         <v>30</v>
       </c>
       <c r="G1031" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29958,7 +29958,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1032" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29984,7 +29984,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30010,7 +30010,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30036,7 +30036,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1035" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30062,7 +30062,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30088,7 +30088,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1037" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30114,7 +30114,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30140,7 +30140,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30166,7 +30166,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30192,7 +30192,7 @@
         <v>28</v>
       </c>
       <c r="G1041" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30218,7 +30218,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1042" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30244,7 +30244,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30270,7 +30270,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30296,7 +30296,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30322,7 +30322,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1046" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30348,7 +30348,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30374,7 +30374,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1048" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30400,7 +30400,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30426,7 +30426,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30452,7 +30452,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1051" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30478,7 +30478,7 @@
         <v>28</v>
       </c>
       <c r="G1052" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30504,7 +30504,7 @@
         <v>26</v>
       </c>
       <c r="G1053" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30530,7 +30530,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1054" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30556,7 +30556,7 @@
         <v>27.5</v>
       </c>
       <c r="G1055" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30582,7 +30582,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1056" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30608,7 +30608,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30634,7 +30634,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30660,7 +30660,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1059" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30686,7 +30686,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1060" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30712,7 +30712,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1061" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30738,7 +30738,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1062" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30764,7 +30764,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30790,7 +30790,7 @@
         <v>20.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30816,7 +30816,7 @@
         <v>20</v>
       </c>
       <c r="G1065" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30842,7 +30842,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1066" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30868,7 +30868,7 @@
         <v>18.5</v>
       </c>
       <c r="G1067" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30894,7 +30894,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1068" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30920,7 +30920,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1069" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30946,7 +30946,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30972,7 +30972,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30998,7 +30998,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1072" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31024,7 +31024,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31050,7 +31050,7 @@
         <v>19.5</v>
       </c>
       <c r="G1074" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31076,7 +31076,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1075" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31102,7 +31102,7 @@
         <v>20.5</v>
       </c>
       <c r="G1076" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31128,7 +31128,7 @@
         <v>19.5</v>
       </c>
       <c r="G1077" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31154,7 +31154,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1078" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31180,7 +31180,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31206,7 +31206,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1080" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31232,7 +31232,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1081" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31258,7 +31258,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1082" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31284,7 +31284,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1083" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31310,7 +31310,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1084" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31336,7 +31336,7 @@
         <v>19.5</v>
       </c>
       <c r="G1085" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31362,7 +31362,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31388,7 +31388,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1087" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31414,7 +31414,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1088" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31440,7 +31440,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31466,7 +31466,7 @@
         <v>19.75</v>
       </c>
       <c r="G1090" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31492,7 +31492,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31518,7 +31518,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1092" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31544,7 +31544,7 @@
         <v>19.5499992370605</v>
       </c>
       <c r="G1093" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31570,7 +31570,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1094" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31596,7 +31596,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31622,7 +31622,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31648,7 +31648,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31674,7 +31674,7 @@
         <v>21</v>
       </c>
       <c r="G1098" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31700,7 +31700,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31726,7 +31726,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1100" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31752,7 +31752,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1101" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31778,7 +31778,7 @@
         <v>21</v>
       </c>
       <c r="G1102" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31804,7 +31804,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31830,7 +31830,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1104" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31856,7 +31856,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31882,7 +31882,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31908,7 +31908,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1107" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31934,7 +31934,7 @@
         <v>20.5</v>
       </c>
       <c r="G1108" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31960,7 +31960,7 @@
         <v>20.5</v>
       </c>
       <c r="G1109" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31986,7 +31986,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1110" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32012,7 +32012,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1111" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32038,7 +32038,7 @@
         <v>20.5</v>
       </c>
       <c r="G1112" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32064,7 +32064,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1113" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32090,7 +32090,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1114" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32116,7 +32116,7 @@
         <v>20.5</v>
       </c>
       <c r="G1115" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32142,7 +32142,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1116" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32168,7 +32168,7 @@
         <v>21</v>
       </c>
       <c r="G1117" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32194,7 +32194,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32220,7 +32220,7 @@
         <v>21</v>
       </c>
       <c r="G1119" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32246,7 +32246,7 @@
         <v>21.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32272,7 +32272,7 @@
         <v>21.5</v>
       </c>
       <c r="G1121" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32298,7 +32298,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32324,7 +32324,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1123" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32350,7 +32350,7 @@
         <v>22</v>
       </c>
       <c r="G1124" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32376,7 +32376,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32402,7 +32402,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1126" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32428,7 +32428,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1127" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32454,7 +32454,7 @@
         <v>21.5</v>
       </c>
       <c r="G1128" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32480,7 +32480,7 @@
         <v>22</v>
       </c>
       <c r="G1129" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32506,7 +32506,7 @@
         <v>22</v>
       </c>
       <c r="G1130" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32532,7 +32532,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32558,7 +32558,7 @@
         <v>22.5</v>
       </c>
       <c r="G1132" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32584,7 +32584,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32610,7 +32610,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32636,7 +32636,7 @@
         <v>22</v>
       </c>
       <c r="G1135" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32662,7 +32662,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1136" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32688,7 +32688,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1137" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32714,7 +32714,7 @@
         <v>22</v>
       </c>
       <c r="G1138" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32740,7 +32740,7 @@
         <v>22</v>
       </c>
       <c r="G1139" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32766,7 +32766,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32792,7 +32792,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1141" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32818,7 +32818,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1142" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32844,7 +32844,7 @@
         <v>22</v>
       </c>
       <c r="G1143" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32870,7 +32870,7 @@
         <v>22</v>
       </c>
       <c r="G1144" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32896,7 +32896,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1145" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32922,7 +32922,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1146" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32948,7 +32948,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1147" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32974,7 +32974,7 @@
         <v>21.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33000,7 +33000,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1149" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33026,7 +33026,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33052,7 +33052,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33078,7 +33078,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33104,7 +33104,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1153" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33130,7 +33130,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1154" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33156,7 +33156,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1155" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33182,7 +33182,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33208,7 +33208,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1157" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33234,7 +33234,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1158" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33260,7 +33260,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1159" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33286,7 +33286,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33312,7 +33312,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33338,7 +33338,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33364,7 +33364,7 @@
         <v>20.5</v>
       </c>
       <c r="G1163" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33390,7 +33390,7 @@
         <v>20.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33416,7 +33416,7 @@
         <v>21</v>
       </c>
       <c r="G1165" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33442,7 +33442,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33468,7 +33468,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1167" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33494,7 +33494,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33520,7 +33520,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1169" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33546,7 +33546,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33572,7 +33572,7 @@
         <v>21.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33598,7 +33598,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33624,7 +33624,7 @@
         <v>21.5</v>
       </c>
       <c r="G1173" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33650,7 +33650,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1174" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33676,7 +33676,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33702,7 +33702,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1176" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33728,7 +33728,7 @@
         <v>21.5</v>
       </c>
       <c r="G1177" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33754,7 +33754,7 @@
         <v>21.5</v>
       </c>
       <c r="G1178" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33780,7 +33780,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1179" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33806,7 +33806,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33832,7 +33832,7 @@
         <v>21.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33858,7 +33858,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1182" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33884,7 +33884,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1183" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33910,7 +33910,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1184" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33936,7 +33936,7 @@
         <v>21</v>
       </c>
       <c r="G1185" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33962,7 +33962,7 @@
         <v>21</v>
       </c>
       <c r="G1186" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33988,7 +33988,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34014,7 +34014,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1188" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34040,7 +34040,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34066,7 +34066,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1190" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34092,7 +34092,7 @@
         <v>20</v>
       </c>
       <c r="G1191" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34118,7 +34118,7 @@
         <v>20</v>
       </c>
       <c r="G1192" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34144,7 +34144,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34170,7 +34170,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1194" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34196,7 +34196,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34222,7 +34222,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1196" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34248,7 +34248,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1197" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34274,7 +34274,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34300,7 +34300,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34326,7 +34326,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34352,7 +34352,7 @@
         <v>19.75</v>
       </c>
       <c r="G1201" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34378,7 +34378,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34404,7 +34404,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1203" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34430,7 +34430,7 @@
         <v>19.75</v>
       </c>
       <c r="G1204" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34456,7 +34456,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1205" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34482,7 +34482,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1206" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34508,7 +34508,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1207" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34534,7 +34534,7 @@
         <v>18.5</v>
       </c>
       <c r="G1208" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34560,7 +34560,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1209" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34586,7 +34586,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34612,7 +34612,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1211" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34638,7 +34638,7 @@
         <v>18.5</v>
       </c>
       <c r="G1212" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34664,7 +34664,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1213" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34690,7 +34690,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1214" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34716,7 +34716,7 @@
         <v>18.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34742,7 +34742,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34768,7 +34768,7 @@
         <v>17.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34794,7 +34794,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1218" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34820,7 +34820,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34846,7 +34846,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34872,7 +34872,7 @@
         <v>17.5</v>
       </c>
       <c r="G1221" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34898,7 +34898,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34924,7 +34924,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34950,7 +34950,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1224" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34976,7 +34976,7 @@
         <v>17</v>
       </c>
       <c r="G1225" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35002,7 +35002,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35028,7 +35028,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1227" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35054,7 +35054,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1228" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35080,7 +35080,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1229" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35106,7 +35106,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35132,7 +35132,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35158,7 +35158,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35184,7 +35184,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1233" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35210,7 +35210,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35236,7 +35236,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35262,7 +35262,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1236" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35288,7 +35288,7 @@
         <v>17.25</v>
       </c>
       <c r="G1237" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35314,7 +35314,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35340,7 +35340,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1239" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35366,7 +35366,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35392,7 +35392,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1241" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35418,7 +35418,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1242" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35444,7 +35444,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1243" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35470,7 +35470,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35496,7 +35496,7 @@
         <v>17.5</v>
       </c>
       <c r="G1245" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35522,7 +35522,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1246" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35548,7 +35548,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1247" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35574,7 +35574,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1248" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35600,7 +35600,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35626,7 +35626,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35652,7 +35652,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1251" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35678,7 +35678,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35704,7 +35704,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1253" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35730,7 +35730,7 @@
         <v>19</v>
       </c>
       <c r="G1254" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35756,7 +35756,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1255" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35782,7 +35782,7 @@
         <v>18.5</v>
       </c>
       <c r="G1256" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35808,7 +35808,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1257" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35834,7 +35834,7 @@
         <v>18.25</v>
       </c>
       <c r="G1258" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35860,7 +35860,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35886,7 +35886,7 @@
         <v>18.5</v>
       </c>
       <c r="G1260" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35912,7 +35912,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1261" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35938,7 +35938,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35964,7 +35964,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35990,7 +35990,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1264" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36016,7 +36016,7 @@
         <v>18.75</v>
       </c>
       <c r="G1265" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36042,7 +36042,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1266" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36068,7 +36068,7 @@
         <v>18.5</v>
       </c>
       <c r="G1267" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36094,7 +36094,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1268" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36120,7 +36120,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36146,7 +36146,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36172,7 +36172,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36198,7 +36198,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1272" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36224,7 +36224,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36250,7 +36250,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1274" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36276,7 +36276,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36302,7 +36302,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1276" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36328,7 +36328,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1277" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36354,7 +36354,7 @@
         <v>19</v>
       </c>
       <c r="G1278" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36380,7 +36380,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36406,7 +36406,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1280" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36432,7 +36432,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1281" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36458,7 +36458,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1282" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36484,7 +36484,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1283" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36510,7 +36510,7 @@
         <v>18.5</v>
       </c>
       <c r="G1284" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36536,7 +36536,7 @@
         <v>18.5</v>
       </c>
       <c r="G1285" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36562,7 +36562,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36588,7 +36588,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1287" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36614,7 +36614,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36640,7 +36640,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1289" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36666,7 +36666,7 @@
         <v>18.25</v>
       </c>
       <c r="G1290" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36692,7 +36692,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1291" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36718,7 +36718,7 @@
         <v>19</v>
       </c>
       <c r="G1292" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36744,7 +36744,7 @@
         <v>23</v>
       </c>
       <c r="G1293" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36770,7 +36770,7 @@
         <v>24</v>
       </c>
       <c r="G1294" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36796,7 +36796,7 @@
         <v>25.5</v>
       </c>
       <c r="G1295" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36822,7 +36822,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1296" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36848,7 +36848,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1297" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36874,7 +36874,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1298" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36900,7 +36900,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1299" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36926,7 +36926,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1300" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36952,7 +36952,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36978,7 +36978,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1302" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37004,7 +37004,7 @@
         <v>29</v>
       </c>
       <c r="G1303" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37030,7 +37030,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1304" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37056,7 +37056,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1305" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37082,7 +37082,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1306" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37108,7 +37108,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1307" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37134,7 +37134,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1308" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37160,7 +37160,7 @@
         <v>28</v>
       </c>
       <c r="G1309" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37186,7 +37186,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37212,7 +37212,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37238,7 +37238,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1312" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37264,7 +37264,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1313" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37290,7 +37290,7 @@
         <v>28</v>
       </c>
       <c r="G1314" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37316,7 +37316,7 @@
         <v>28</v>
       </c>
       <c r="G1315" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37342,7 +37342,7 @@
         <v>28</v>
       </c>
       <c r="G1316" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37368,7 +37368,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1317" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37394,7 +37394,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1318" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37420,7 +37420,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1319" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37446,7 +37446,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1320" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37472,7 +37472,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1321" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37498,7 +37498,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1322" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37524,7 +37524,7 @@
         <v>26</v>
       </c>
       <c r="G1323" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37550,7 +37550,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1324" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37576,7 +37576,7 @@
         <v>25.5</v>
       </c>
       <c r="G1325" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37602,7 +37602,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37628,7 +37628,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1327" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37654,7 +37654,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1328" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37680,7 +37680,7 @@
         <v>26</v>
       </c>
       <c r="G1329" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37706,7 +37706,7 @@
         <v>27.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37732,7 +37732,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1331" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37758,7 +37758,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37784,7 +37784,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1333" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37810,7 +37810,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37836,7 +37836,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1335" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37862,7 +37862,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37888,7 +37888,7 @@
         <v>27.5</v>
       </c>
       <c r="G1337" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37914,7 +37914,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1338" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -60100,13 +60100,13 @@
     </row>
     <row r="2192">
       <c r="A2192" s="1" t="n">
-        <v>45513.6496412037</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B2192" t="n">
         <v>1240</v>
       </c>
       <c r="C2192" t="n">
-        <v>2.66499996185303</v>
+        <v>2.67000007629395</v>
       </c>
       <c r="D2192" t="n">
         <v>2.66499996185303</v>
@@ -60121,6 +60121,32 @@
         <v>923</v>
       </c>
       <c r="H2192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="1" t="n">
+        <v>45516.6493287037</v>
+      </c>
+      <c r="B2193" t="n">
+        <v>554</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>2.66499996185303</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>926</v>
+      </c>
+      <c r="H2193" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AUTME.MI.xlsx
+++ b/data/AUTME.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="930">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30048549175262</t>
+    <t xml:space="preserve">1.30048537254333</t>
   </si>
   <si>
     <t xml:space="preserve">AUTME.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29973936080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29750108718872</t>
+    <t xml:space="preserve">1.29973948001862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29750096797943</t>
   </si>
   <si>
     <t xml:space="preserve">1.27586364746094</t>
@@ -56,70 +56,70 @@
     <t xml:space="preserve">1.26840233802795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27511763572693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26765620708466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29003989696503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26616394519806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25944876670837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25347995758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25273406505585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2176661491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24676465988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31167721748352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30496203899384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30123150348663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30570828914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31988477706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28929376602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27884805202484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317965984344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27437114715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24601888656616</t>
+    <t xml:space="preserve">1.2751